--- a/DOC/基本設計/基本設計_emsm_ 雇用保険率更新 .xlsx
+++ b/DOC/基本設計/基本設計_emsm_ 雇用保険率更新 .xlsx
@@ -10,11 +10,12 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169EDFD9-68B2-4CAA-9890-FB4B98E6FF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="840" windowWidth="26805" windowHeight="14535" tabRatio="833" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="5"/>
+    <workbookView xWindow="195" yWindow="840" windowWidth="26805" windowHeight="14535" tabRatio="833" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="9" r:id="rId1"/>
     <sheet name="履歴一覧" sheetId="8" r:id="rId2"/>
+    <sheet name="画面遷移" sheetId="14" r:id="rId11"/>
     <sheet name="画面レイアウト" sheetId="10" r:id="rId3"/>
     <sheet name="処理概要" sheetId="11" r:id="rId4"/>
     <sheet name="入出力項目定義書" sheetId="12" r:id="rId5"/>
@@ -784,7 +785,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="71" x14ac:knownFonts="1">
+  <fonts count="78" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1226,6 +1227,50 @@
       <charset val="128"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="ＭＳ ゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="ＭＳ ゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="ＭＳ ゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="ＭＳ ゴシック"/>
+      <u val="single"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="ＭＳ ゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="ＭＳ ゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1265,7 +1310,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="238">
+  <borders count="249">
     <border>
       <left/>
       <right/>
@@ -3431,13 +3476,90 @@
       <right style="thin"/>
       <top style="double"/>
     </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="dotted"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="720">
+  <cellXfs count="851">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5813,6 +5935,429 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="62" applyFont="1" fillId="5" applyFill="1" borderId="47" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
       <alignment wrapText="1" vertical="center" horizontal="center"/>
       <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="71" applyFont="1" fillId="0" applyFill="1" borderId="238" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="72" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="72" applyFont="1" fillId="0" applyFill="1" borderId="107" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="72" applyFont="1" fillId="0" applyFill="1" borderId="237" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="72" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="72" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="71" applyFont="1" fillId="3" applyFill="1" borderId="238" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="72" applyFont="1" fillId="3" applyFill="1" borderId="8" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="72" applyFont="1" fillId="3" applyFill="1" borderId="9" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="73" applyFont="1" fillId="3" applyFill="1" borderId="9" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="72" applyFont="1" fillId="3" applyFill="1" borderId="10" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="74" applyFont="1" fillId="3" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="74" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="72" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="72" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="72" applyFont="1" fillId="3" applyFill="1" borderId="11" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="72" applyFont="1" fillId="3" applyFill="1" borderId="11" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="72" applyFont="1" fillId="3" applyFill="1" borderId="8" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment shrinkToFit="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="72" applyFont="1" fillId="3" applyFill="1" borderId="9" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment shrinkToFit="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="72" applyFont="1" fillId="3" applyFill="1" borderId="16" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment shrinkToFit="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="72" applyFont="1" fillId="3" applyFill="1" borderId="17" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment shrinkToFit="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="72" applyFont="1" fillId="3" applyFill="1" borderId="9" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment shrinkToFit="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="72" applyFont="1" fillId="3" applyFill="1" borderId="10" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment shrinkToFit="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="72" applyFont="1" fillId="3" applyFill="1" borderId="8" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="72" applyFont="1" fillId="3" applyFill="1" borderId="9" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="72" applyFont="1" fillId="3" applyFill="1" borderId="16" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="72" applyFont="1" fillId="3" applyFill="1" borderId="18" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="13" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="14" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="72" applyFont="1" fillId="3" applyFill="1" borderId="12" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="72" applyFont="1" fillId="3" applyFill="1" borderId="13" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="72" applyFont="1" fillId="3" applyFill="1" borderId="19" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" applyNumberFormat="1" fontId="72" applyFont="1" fillId="3" applyFill="1" borderId="13" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="13" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="14" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="72" applyFont="1" fillId="3" applyFill="1" borderId="20" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="72" applyFont="1" fillId="3" applyFill="1" borderId="21" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="72" applyFont="1" fillId="3" applyFill="1" borderId="22" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="72" applyFont="1" fillId="3" applyFill="1" borderId="21" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="72" applyFont="1" fillId="3" applyFill="1" borderId="23" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="72" applyFont="1" fillId="3" applyFill="1" borderId="24" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="21" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="23" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="72" applyFont="1" fillId="3" applyFill="1" borderId="20" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="72" applyFont="1" fillId="3" applyFill="1" borderId="21" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="72" applyFont="1" fillId="3" applyFill="1" borderId="22" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="72" applyFont="1" fillId="3" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="72" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="72" applyFont="1" fillId="3" applyFill="1" borderId="107" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="72" applyFont="1" fillId="3" applyFill="1" borderId="237" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="72" applyFont="1" fillId="3" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="72" applyFont="1" fillId="3" applyFill="1" borderId="3" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="72" applyFont="1" fillId="3" applyFill="1" borderId="15" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="72" applyFont="1" fillId="3" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="72" applyFont="1" fillId="3" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="72" applyFont="1" fillId="3" applyFill="1" borderId="3" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="72" applyFont="1" fillId="3" applyFill="1" borderId="3" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="72" applyFont="1" fillId="3" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="72" applyFont="1" fillId="3" applyFill="1" borderId="15" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="72" applyFont="1" fillId="3" applyFill="1" borderId="15" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="71" applyFont="1" fillId="3" applyFill="1" borderId="239" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="71" applyFont="1" fillId="3" applyFill="1" borderId="240" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="71" applyFont="1" fillId="3" applyFill="1" borderId="241" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="75" applyFont="1" fillId="3" applyFill="1" borderId="240" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="72" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="72" applyFont="1" fillId="3" applyFill="1" borderId="107" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="72" applyFont="1" fillId="3" applyFill="1" borderId="237" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="72" applyFont="1" fillId="3" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="72" applyFont="1" fillId="3" applyFill="1" borderId="3" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="72" applyFont="1" fillId="3" applyFill="1" borderId="15" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="72" applyFont="1" fillId="3" applyFill="1" borderId="8" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="72" applyFont="1" fillId="3" applyFill="1" borderId="9" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="72" applyFont="1" fillId="3" applyFill="1" borderId="10" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="76" applyFont="1" fillId="3" applyFill="1" borderId="154" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="76" applyFont="1" fillId="3" applyFill="1" borderId="144" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="76" applyFont="1" fillId="3" applyFill="1" borderId="146" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="76" applyFont="1" fillId="3" applyFill="1" borderId="154" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="76" applyFont="1" fillId="3" applyFill="1" borderId="154" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="76" applyFont="1" fillId="3" applyFill="1" borderId="144" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="76" applyFont="1" fillId="3" applyFill="1" borderId="10" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="76" applyFont="1" fillId="3" applyFill="1" borderId="111" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="76" applyFont="1" fillId="3" applyFill="1" borderId="154" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="76" applyFont="1" fillId="3" applyFill="1" borderId="144" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="76" applyFont="1" fillId="3" applyFill="1" borderId="159" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="76" applyFont="1" fillId="3" applyFill="1" borderId="146" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="76" applyFont="1" fillId="3" applyFill="1" borderId="164" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="76" applyFont="1" fillId="3" applyFill="1" borderId="145" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="76" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="76" applyFont="1" fillId="3" applyFill="1" borderId="7" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="76" applyFont="1" fillId="3" applyFill="1" borderId="10" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="76" applyFont="1" fillId="3" applyFill="1" borderId="111" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="76" applyFont="1" fillId="3" applyFill="1" borderId="154" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="76" applyFont="1" fillId="3" applyFill="1" borderId="144" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="76" applyFont="1" fillId="3" applyFill="1" borderId="159" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="76" applyFont="1" fillId="3" applyFill="1" borderId="146" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="76" applyFont="1" fillId="3" applyFill="1" borderId="164" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="76" applyFont="1" fillId="3" applyFill="1" borderId="145" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="76" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="76" applyFont="1" fillId="3" applyFill="1" borderId="7" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="76" applyFont="1" fillId="3" applyFill="1" borderId="159" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="77" applyFont="1" fillId="3" applyFill="1" borderId="242" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="77" applyFont="1" fillId="3" applyFill="1" borderId="243" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="77" applyFont="1" fillId="3" applyFill="1" borderId="244" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="77" applyFont="1" fillId="3" applyFill="1" borderId="245" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="77" applyFont="1" fillId="3" applyFill="1" borderId="246" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="77" applyFont="1" fillId="3" applyFill="1" borderId="247" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="76" applyFont="1" fillId="3" applyFill="1" borderId="162" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="77" applyFont="1" fillId="3" applyFill="1" borderId="244" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="77" applyFont="1" fillId="3" applyFill="1" borderId="245" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="76" applyFont="1" fillId="3" applyFill="1" borderId="162" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="77" applyFont="1" fillId="3" applyFill="1" borderId="246" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="77" applyFont="1" fillId="3" applyFill="1" borderId="247" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="76" applyFont="1" fillId="3" applyFill="1" borderId="134" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="76" applyFont="1" fillId="3" applyFill="1" borderId="135" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="77" applyFont="1" fillId="3" applyFill="1" borderId="243" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="77" applyFont="1" fillId="3" applyFill="1" borderId="248" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="76" applyFont="1" fillId="3" applyFill="1" borderId="13" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="76" applyFont="1" fillId="3" applyFill="1" borderId="134" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="76" applyFont="1" fillId="3" applyFill="1" borderId="134" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="76" applyFont="1" fillId="3" applyFill="1" borderId="135" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="77" applyFont="1" fillId="3" applyFill="1" borderId="243" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="77" applyFont="1" fillId="3" applyFill="1" borderId="243" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="77" applyFont="1" fillId="3" applyFill="1" borderId="248" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="76" applyFont="1" fillId="3" applyFill="1" borderId="13" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="76" applyFont="1" fillId="3" applyFill="1" borderId="13" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="76" applyFont="1" fillId="3" applyFill="1" borderId="8" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="76" applyFont="1" fillId="3" applyFill="1" borderId="9" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="76" applyFont="1" fillId="3" applyFill="1" borderId="10" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="76" applyFont="1" fillId="3" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="76" applyFont="1" fillId="3" applyFill="1" borderId="3" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="76" applyFont="1" fillId="3" applyFill="1" borderId="15" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5872,6 +6417,455 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="0" name="正方形/長方形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="1371600"/>
+          <a:ext cx="1514475" cy="971550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>凡例：</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　　　　　：画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　　　　　：画面遷移</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1" name="正方形/長方形 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="838200" y="1685925"/>
+          <a:ext cx="457200" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="直線矢印コネクタ 14"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="819150" y="2085975"/>
+          <a:ext cx="495300" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048000" y="3352800"/>
+          <a:ext cx="1162050" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メニュー画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5886450" y="3352800"/>
+          <a:ext cx="1171575" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メニュー画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直線矢印コネクタ 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4191000" y="3514725"/>
+          <a:ext cx="1676400" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4419600" y="3000375"/>
+          <a:ext cx="1162050" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>雇用保険率テーブルボタン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7138,7 +8132,7 @@
   <dimension ref="A1:BN33"/>
   <sheetViews>
     <sheetView showGridLines="false" topLeftCell="A1" workbookViewId="0" zoomScale="110" zoomScaleNormal="110">
-      <selection activeCell="AO29" sqref="AO29" activeCellId="0"/>
+      <selection activeCell="AJ22" sqref="AJ22" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="11.25" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15150,8 +16144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F81D7B7-FE65-404E-8F94-1E0DE511BF03}">
   <dimension ref="A1:BM33"/>
   <sheetViews>
-    <sheetView showGridLines="false" topLeftCell="A1" workbookViewId="0" zoomScale="120" zoomScaleNormal="120">
-      <selection activeCell="O25" sqref="O25" activeCellId="0"/>
+    <sheetView showGridLines="false" topLeftCell="A1" workbookViewId="0" zoomScale="120" zoomScaleNormal="120" tabSelected="1">
+      <selection activeCell="BR12" sqref="BR12" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="11.25" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17353,7 +18347,7 @@
   <dimension ref="A1:BN36"/>
   <sheetViews>
     <sheetView showGridLines="false" workbookViewId="0" topLeftCell="A1" zoomScale="120" zoomScaleNormal="120">
-      <selection activeCell="AP23" sqref="AP23" activeCellId="0"/>
+      <selection activeCell="M9" sqref="M9:P9" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="11.25" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17374,7 +18368,8 @@
     <col min="13" max="13" width="2.125" style="24"/>
     <col min="14" max="14" width="2.125" style="24"/>
     <col min="15" max="15" width="2.125" style="24"/>
-    <col min="16" max="16" width="5.25" style="24" customWidth="1"/>
+    <col min="15" max="15" width="3.296875" style="24" customWidth="1"/>
+    <col min="16" max="16" width="8.59765625" style="24" customWidth="1"/>
     <col min="17" max="17" width="2.125" style="24"/>
     <col min="18" max="18" width="2.125" style="24"/>
     <col min="19" max="19" width="2.125" style="24"/>
@@ -17401,7 +18396,7 @@
     <col min="38" max="38" width="2.125" style="24"/>
     <col min="39" max="39" width="2.125" style="24"/>
     <col min="39" max="39" width="2.125" style="24"/>
-    <col min="40" max="40" width="9" style="24" customWidth="1"/>
+    <col min="40" max="40" width="11.3984375" style="24" customWidth="1"/>
     <col min="41" max="41" width="2.125" style="24"/>
     <col min="41" max="41" width="2.125" style="24"/>
     <col min="42" max="42" width="2.125" style="24"/>
@@ -18566,10 +19561,10 @@
       <c r="N13" s="692"/>
       <c r="O13" s="692"/>
       <c r="P13" s="693"/>
-      <c r="Q13" s="694"/>
-      <c r="R13" s="705" t="s">
+      <c r="Q13" s="694" t="s">
         <v>147</v>
       </c>
+      <c r="R13" s="695"/>
       <c r="S13" s="691" t="s">
         <v>58</v>
       </c>
@@ -18656,10 +19651,10 @@
       <c r="N14" s="692"/>
       <c r="O14" s="692"/>
       <c r="P14" s="693"/>
-      <c r="Q14" s="694"/>
-      <c r="R14" s="705" t="s">
+      <c r="Q14" s="694" t="s">
         <v>147</v>
       </c>
+      <c r="R14" s="695"/>
       <c r="S14" s="691" t="s">
         <v>58</v>
       </c>
@@ -18746,10 +19741,10 @@
       <c r="N15" s="692"/>
       <c r="O15" s="692"/>
       <c r="P15" s="693"/>
-      <c r="Q15" s="694"/>
-      <c r="R15" s="705" t="s">
+      <c r="Q15" s="694" t="s">
         <v>147</v>
       </c>
+      <c r="R15" s="695"/>
       <c r="S15" s="691" t="s">
         <v>58</v>
       </c>
@@ -18836,10 +19831,10 @@
       <c r="N16" s="692"/>
       <c r="O16" s="692"/>
       <c r="P16" s="693"/>
-      <c r="Q16" s="694"/>
-      <c r="R16" s="705" t="s">
+      <c r="Q16" s="694" t="s">
         <v>147</v>
       </c>
+      <c r="R16" s="695"/>
       <c r="S16" s="691" t="s">
         <v>58</v>
       </c>
@@ -19016,10 +20011,10 @@
       <c r="N18" s="692"/>
       <c r="O18" s="692"/>
       <c r="P18" s="693"/>
-      <c r="Q18" s="694"/>
-      <c r="R18" s="695">
+      <c r="Q18" s="694">
         <v>8</v>
       </c>
+      <c r="R18" s="695"/>
       <c r="S18" s="691" t="s">
         <v>58</v>
       </c>
@@ -19106,10 +20101,10 @@
       <c r="N19" s="692"/>
       <c r="O19" s="692"/>
       <c r="P19" s="693"/>
-      <c r="Q19" s="694"/>
-      <c r="R19" s="695">
+      <c r="Q19" s="694">
         <v>8</v>
       </c>
+      <c r="R19" s="695"/>
       <c r="S19" s="691" t="s">
         <v>58</v>
       </c>
@@ -19536,7 +20531,7 @@
       <c r="B38" s="302"/>
     </row>
   </sheetData>
-  <mergeCells count="144">
+  <mergeCells count="150">
     <mergeCell ref="A2:AA3"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="G4:O4"/>
@@ -19609,6 +20604,7 @@
     <mergeCell ref="AO12:BL12"/>
     <mergeCell ref="B13:L13"/>
     <mergeCell ref="M13:P13"/>
+    <mergeCell ref="Q13:R13"/>
     <mergeCell ref="S13:T13"/>
     <mergeCell ref="U13:V13"/>
     <mergeCell ref="W13:X13"/>
@@ -19618,6 +20614,7 @@
     <mergeCell ref="AO13:BL13"/>
     <mergeCell ref="B14:L14"/>
     <mergeCell ref="M14:P14"/>
+    <mergeCell ref="Q14:R14"/>
     <mergeCell ref="S14:T14"/>
     <mergeCell ref="U14:V14"/>
     <mergeCell ref="W14:X14"/>
@@ -19626,6 +20623,7 @@
     <mergeCell ref="AH14:AN14"/>
     <mergeCell ref="AO14:BL14"/>
     <mergeCell ref="M15:P15"/>
+    <mergeCell ref="Q15:R15"/>
     <mergeCell ref="S15:T15"/>
     <mergeCell ref="U15:V15"/>
     <mergeCell ref="W15:X15"/>
@@ -19633,6 +20631,7 @@
     <mergeCell ref="AC15:AG15"/>
     <mergeCell ref="AH15:AN15"/>
     <mergeCell ref="M16:P16"/>
+    <mergeCell ref="Q16:R16"/>
     <mergeCell ref="S16:T16"/>
     <mergeCell ref="U16:V16"/>
     <mergeCell ref="W16:X16"/>
@@ -19649,6 +20648,7 @@
     <mergeCell ref="AH17:AN17"/>
     <mergeCell ref="B18:L18"/>
     <mergeCell ref="M18:P18"/>
+    <mergeCell ref="Q18:R18"/>
     <mergeCell ref="S18:T18"/>
     <mergeCell ref="U18:V18"/>
     <mergeCell ref="W18:X18"/>
@@ -19657,6 +20657,7 @@
     <mergeCell ref="AH18:AN18"/>
     <mergeCell ref="AO18:BL18"/>
     <mergeCell ref="M19:P19"/>
+    <mergeCell ref="Q19:R19"/>
     <mergeCell ref="S19:T19"/>
     <mergeCell ref="U19:V19"/>
     <mergeCell ref="W19:X19"/>
@@ -19692,8 +20693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F483F54A-5AD5-4BFC-9283-BB80624954B3}">
   <dimension ref="A1:BN14"/>
   <sheetViews>
-    <sheetView showGridLines="false" zoomScale="110" zoomScaleNormal="110" workbookViewId="0" topLeftCell="A1" tabSelected="1">
-      <selection activeCell="Q13" sqref="Q13" activeCellId="0"/>
+    <sheetView showGridLines="false" zoomScale="110" zoomScaleNormal="110" workbookViewId="0" topLeftCell="A1">
+      <selection activeCell="AV24" sqref="AV24" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20387,61 +21388,61 @@
       <c r="M8" s="310"/>
       <c r="N8" s="310"/>
       <c r="O8" s="311"/>
-      <c r="P8" s="481" t="s">
+      <c r="P8" s="799" t="s">
         <v>187</v>
       </c>
-      <c r="Q8" s="482"/>
-      <c r="R8" s="482"/>
-      <c r="S8" s="482"/>
-      <c r="T8" s="482"/>
-      <c r="U8" s="482"/>
-      <c r="V8" s="482"/>
-      <c r="W8" s="482"/>
-      <c r="X8" s="482"/>
-      <c r="Y8" s="482"/>
-      <c r="Z8" s="482"/>
-      <c r="AA8" s="482"/>
-      <c r="AB8" s="482"/>
-      <c r="AC8" s="482"/>
-      <c r="AD8" s="482"/>
-      <c r="AE8" s="482"/>
-      <c r="AF8" s="482"/>
-      <c r="AG8" s="482"/>
-      <c r="AH8" s="482"/>
-      <c r="AI8" s="482"/>
-      <c r="AJ8" s="482"/>
-      <c r="AK8" s="482"/>
-      <c r="AL8" s="482"/>
-      <c r="AM8" s="482"/>
-      <c r="AN8" s="482"/>
-      <c r="AO8" s="482"/>
-      <c r="AP8" s="482"/>
-      <c r="AQ8" s="482"/>
-      <c r="AR8" s="482"/>
-      <c r="AS8" s="314" t="s">
+      <c r="Q8" s="800"/>
+      <c r="R8" s="800"/>
+      <c r="S8" s="800"/>
+      <c r="T8" s="800"/>
+      <c r="U8" s="800"/>
+      <c r="V8" s="800"/>
+      <c r="W8" s="800"/>
+      <c r="X8" s="800"/>
+      <c r="Y8" s="800"/>
+      <c r="Z8" s="800"/>
+      <c r="AA8" s="800"/>
+      <c r="AB8" s="800"/>
+      <c r="AC8" s="800"/>
+      <c r="AD8" s="800"/>
+      <c r="AE8" s="800"/>
+      <c r="AF8" s="800"/>
+      <c r="AG8" s="800"/>
+      <c r="AH8" s="800"/>
+      <c r="AI8" s="800"/>
+      <c r="AJ8" s="800"/>
+      <c r="AK8" s="800"/>
+      <c r="AL8" s="800"/>
+      <c r="AM8" s="800"/>
+      <c r="AN8" s="800"/>
+      <c r="AO8" s="800"/>
+      <c r="AP8" s="800"/>
+      <c r="AQ8" s="800"/>
+      <c r="AR8" s="800"/>
+      <c r="AS8" s="334" t="s">
         <v>177</v>
       </c>
-      <c r="AT8" s="315"/>
-      <c r="AU8" s="315"/>
-      <c r="AV8" s="315"/>
-      <c r="AW8" s="315"/>
-      <c r="AX8" s="315"/>
-      <c r="AY8" s="315"/>
-      <c r="AZ8" s="315"/>
-      <c r="BA8" s="315"/>
-      <c r="BB8" s="315"/>
-      <c r="BC8" s="315"/>
-      <c r="BD8" s="315"/>
-      <c r="BE8" s="315"/>
-      <c r="BF8" s="315"/>
-      <c r="BG8" s="315"/>
-      <c r="BH8" s="315"/>
-      <c r="BI8" s="315"/>
-      <c r="BJ8" s="315"/>
-      <c r="BK8" s="315"/>
-      <c r="BL8" s="315"/>
-      <c r="BM8" s="315"/>
-      <c r="BN8" s="316"/>
+      <c r="AT8" s="335"/>
+      <c r="AU8" s="335"/>
+      <c r="AV8" s="335"/>
+      <c r="AW8" s="335"/>
+      <c r="AX8" s="335"/>
+      <c r="AY8" s="335"/>
+      <c r="AZ8" s="335"/>
+      <c r="BA8" s="335"/>
+      <c r="BB8" s="335"/>
+      <c r="BC8" s="335"/>
+      <c r="BD8" s="335"/>
+      <c r="BE8" s="335"/>
+      <c r="BF8" s="335"/>
+      <c r="BG8" s="335"/>
+      <c r="BH8" s="335"/>
+      <c r="BI8" s="335"/>
+      <c r="BJ8" s="335"/>
+      <c r="BK8" s="335"/>
+      <c r="BL8" s="335"/>
+      <c r="BM8" s="335"/>
+      <c r="BN8" s="312"/>
     </row>
     <row r="9" customFormat="1" s="38">
       <c r="A9" s="97">
@@ -20463,61 +21464,61 @@
       <c r="M9" s="309"/>
       <c r="N9" s="309"/>
       <c r="O9" s="311"/>
-      <c r="P9" s="476" t="s">
+      <c r="P9" s="801" t="s">
         <v>220</v>
       </c>
-      <c r="Q9" s="456"/>
-      <c r="R9" s="456"/>
-      <c r="S9" s="456"/>
-      <c r="T9" s="456"/>
-      <c r="U9" s="456"/>
-      <c r="V9" s="456"/>
-      <c r="W9" s="456"/>
-      <c r="X9" s="456"/>
-      <c r="Y9" s="456"/>
-      <c r="Z9" s="456"/>
-      <c r="AA9" s="456"/>
-      <c r="AB9" s="456"/>
-      <c r="AC9" s="456"/>
-      <c r="AD9" s="456"/>
-      <c r="AE9" s="456"/>
-      <c r="AF9" s="456"/>
-      <c r="AG9" s="456"/>
-      <c r="AH9" s="456"/>
-      <c r="AI9" s="456"/>
-      <c r="AJ9" s="456"/>
-      <c r="AK9" s="456"/>
-      <c r="AL9" s="456"/>
-      <c r="AM9" s="456"/>
-      <c r="AN9" s="456"/>
-      <c r="AO9" s="456"/>
-      <c r="AP9" s="456"/>
-      <c r="AQ9" s="456"/>
-      <c r="AR9" s="457"/>
-      <c r="AS9" s="475" t="s">
+      <c r="Q9" s="801"/>
+      <c r="R9" s="801"/>
+      <c r="S9" s="801"/>
+      <c r="T9" s="801"/>
+      <c r="U9" s="801"/>
+      <c r="V9" s="801"/>
+      <c r="W9" s="801"/>
+      <c r="X9" s="801"/>
+      <c r="Y9" s="801"/>
+      <c r="Z9" s="801"/>
+      <c r="AA9" s="801"/>
+      <c r="AB9" s="801"/>
+      <c r="AC9" s="801"/>
+      <c r="AD9" s="801"/>
+      <c r="AE9" s="801"/>
+      <c r="AF9" s="801"/>
+      <c r="AG9" s="801"/>
+      <c r="AH9" s="801"/>
+      <c r="AI9" s="801"/>
+      <c r="AJ9" s="801"/>
+      <c r="AK9" s="801"/>
+      <c r="AL9" s="801"/>
+      <c r="AM9" s="801"/>
+      <c r="AN9" s="801"/>
+      <c r="AO9" s="801"/>
+      <c r="AP9" s="801"/>
+      <c r="AQ9" s="801"/>
+      <c r="AR9" s="802"/>
+      <c r="AS9" s="837" t="s">
         <v>178</v>
       </c>
-      <c r="AT9" s="315"/>
-      <c r="AU9" s="315"/>
-      <c r="AV9" s="315"/>
-      <c r="AW9" s="315"/>
-      <c r="AX9" s="315"/>
-      <c r="AY9" s="315"/>
-      <c r="AZ9" s="315"/>
-      <c r="BA9" s="315"/>
-      <c r="BB9" s="315"/>
-      <c r="BC9" s="315"/>
-      <c r="BD9" s="315"/>
-      <c r="BE9" s="315"/>
-      <c r="BF9" s="315"/>
-      <c r="BG9" s="315"/>
-      <c r="BH9" s="315"/>
-      <c r="BI9" s="315"/>
-      <c r="BJ9" s="315"/>
-      <c r="BK9" s="315"/>
-      <c r="BL9" s="315"/>
-      <c r="BM9" s="315"/>
-      <c r="BN9" s="316"/>
+      <c r="AT9" s="838"/>
+      <c r="AU9" s="838"/>
+      <c r="AV9" s="838"/>
+      <c r="AW9" s="838"/>
+      <c r="AX9" s="838"/>
+      <c r="AY9" s="838"/>
+      <c r="AZ9" s="838"/>
+      <c r="BA9" s="838"/>
+      <c r="BB9" s="838"/>
+      <c r="BC9" s="838"/>
+      <c r="BD9" s="838"/>
+      <c r="BE9" s="838"/>
+      <c r="BF9" s="838"/>
+      <c r="BG9" s="838"/>
+      <c r="BH9" s="838"/>
+      <c r="BI9" s="838"/>
+      <c r="BJ9" s="838"/>
+      <c r="BK9" s="838"/>
+      <c r="BL9" s="838"/>
+      <c r="BM9" s="838"/>
+      <c r="BN9" s="839"/>
     </row>
     <row r="10" customFormat="1" s="38">
       <c r="A10" s="97">
@@ -20539,61 +21540,61 @@
       <c r="M10" s="309"/>
       <c r="N10" s="309"/>
       <c r="O10" s="311"/>
-      <c r="P10" s="476" t="s">
+      <c r="P10" s="801" t="s">
         <v>193</v>
       </c>
-      <c r="Q10" s="456"/>
-      <c r="R10" s="456"/>
-      <c r="S10" s="456"/>
-      <c r="T10" s="456"/>
-      <c r="U10" s="456"/>
-      <c r="V10" s="456"/>
-      <c r="W10" s="456"/>
-      <c r="X10" s="456"/>
-      <c r="Y10" s="456"/>
-      <c r="Z10" s="456"/>
-      <c r="AA10" s="456"/>
-      <c r="AB10" s="456"/>
-      <c r="AC10" s="456"/>
-      <c r="AD10" s="456"/>
-      <c r="AE10" s="456"/>
-      <c r="AF10" s="456"/>
-      <c r="AG10" s="456"/>
-      <c r="AH10" s="456"/>
-      <c r="AI10" s="456"/>
-      <c r="AJ10" s="456"/>
-      <c r="AK10" s="456"/>
-      <c r="AL10" s="456"/>
-      <c r="AM10" s="456"/>
-      <c r="AN10" s="456"/>
-      <c r="AO10" s="456"/>
-      <c r="AP10" s="456"/>
-      <c r="AQ10" s="456"/>
-      <c r="AR10" s="457"/>
-      <c r="AS10" s="475" t="s">
+      <c r="Q10" s="801"/>
+      <c r="R10" s="801"/>
+      <c r="S10" s="801"/>
+      <c r="T10" s="801"/>
+      <c r="U10" s="801"/>
+      <c r="V10" s="801"/>
+      <c r="W10" s="801"/>
+      <c r="X10" s="801"/>
+      <c r="Y10" s="801"/>
+      <c r="Z10" s="801"/>
+      <c r="AA10" s="801"/>
+      <c r="AB10" s="801"/>
+      <c r="AC10" s="801"/>
+      <c r="AD10" s="801"/>
+      <c r="AE10" s="801"/>
+      <c r="AF10" s="801"/>
+      <c r="AG10" s="801"/>
+      <c r="AH10" s="801"/>
+      <c r="AI10" s="801"/>
+      <c r="AJ10" s="801"/>
+      <c r="AK10" s="801"/>
+      <c r="AL10" s="801"/>
+      <c r="AM10" s="801"/>
+      <c r="AN10" s="801"/>
+      <c r="AO10" s="801"/>
+      <c r="AP10" s="801"/>
+      <c r="AQ10" s="801"/>
+      <c r="AR10" s="802"/>
+      <c r="AS10" s="837" t="s">
         <v>202</v>
       </c>
-      <c r="AT10" s="315"/>
-      <c r="AU10" s="315"/>
-      <c r="AV10" s="315"/>
-      <c r="AW10" s="315"/>
-      <c r="AX10" s="315"/>
-      <c r="AY10" s="315"/>
-      <c r="AZ10" s="315"/>
-      <c r="BA10" s="315"/>
-      <c r="BB10" s="315"/>
-      <c r="BC10" s="315"/>
-      <c r="BD10" s="315"/>
-      <c r="BE10" s="315"/>
-      <c r="BF10" s="315"/>
-      <c r="BG10" s="315"/>
-      <c r="BH10" s="315"/>
-      <c r="BI10" s="315"/>
-      <c r="BJ10" s="315"/>
-      <c r="BK10" s="315"/>
-      <c r="BL10" s="315"/>
-      <c r="BM10" s="315"/>
-      <c r="BN10" s="316"/>
+      <c r="AT10" s="838"/>
+      <c r="AU10" s="838"/>
+      <c r="AV10" s="838"/>
+      <c r="AW10" s="838"/>
+      <c r="AX10" s="838"/>
+      <c r="AY10" s="838"/>
+      <c r="AZ10" s="838"/>
+      <c r="BA10" s="838"/>
+      <c r="BB10" s="838"/>
+      <c r="BC10" s="838"/>
+      <c r="BD10" s="838"/>
+      <c r="BE10" s="838"/>
+      <c r="BF10" s="838"/>
+      <c r="BG10" s="838"/>
+      <c r="BH10" s="838"/>
+      <c r="BI10" s="838"/>
+      <c r="BJ10" s="838"/>
+      <c r="BK10" s="838"/>
+      <c r="BL10" s="838"/>
+      <c r="BM10" s="838"/>
+      <c r="BN10" s="839"/>
     </row>
     <row r="11" customFormat="1" s="38">
       <c r="A11" s="97">
@@ -20615,61 +21616,61 @@
       <c r="M11" s="309"/>
       <c r="N11" s="309"/>
       <c r="O11" s="311"/>
-      <c r="P11" s="476" t="s">
+      <c r="P11" s="801" t="s">
         <v>191</v>
       </c>
-      <c r="Q11" s="456"/>
-      <c r="R11" s="456"/>
-      <c r="S11" s="456"/>
-      <c r="T11" s="456"/>
-      <c r="U11" s="456"/>
-      <c r="V11" s="456"/>
-      <c r="W11" s="456"/>
-      <c r="X11" s="456"/>
-      <c r="Y11" s="456"/>
-      <c r="Z11" s="456"/>
-      <c r="AA11" s="456"/>
-      <c r="AB11" s="456"/>
-      <c r="AC11" s="456"/>
-      <c r="AD11" s="456"/>
-      <c r="AE11" s="456"/>
-      <c r="AF11" s="456"/>
-      <c r="AG11" s="456"/>
-      <c r="AH11" s="456"/>
-      <c r="AI11" s="456"/>
-      <c r="AJ11" s="456"/>
-      <c r="AK11" s="456"/>
-      <c r="AL11" s="456"/>
-      <c r="AM11" s="456"/>
-      <c r="AN11" s="456"/>
-      <c r="AO11" s="456"/>
-      <c r="AP11" s="456"/>
-      <c r="AQ11" s="456"/>
-      <c r="AR11" s="457"/>
-      <c r="AS11" s="475" t="s">
+      <c r="Q11" s="801"/>
+      <c r="R11" s="801"/>
+      <c r="S11" s="801"/>
+      <c r="T11" s="801"/>
+      <c r="U11" s="801"/>
+      <c r="V11" s="801"/>
+      <c r="W11" s="801"/>
+      <c r="X11" s="801"/>
+      <c r="Y11" s="801"/>
+      <c r="Z11" s="801"/>
+      <c r="AA11" s="801"/>
+      <c r="AB11" s="801"/>
+      <c r="AC11" s="801"/>
+      <c r="AD11" s="801"/>
+      <c r="AE11" s="801"/>
+      <c r="AF11" s="801"/>
+      <c r="AG11" s="801"/>
+      <c r="AH11" s="801"/>
+      <c r="AI11" s="801"/>
+      <c r="AJ11" s="801"/>
+      <c r="AK11" s="801"/>
+      <c r="AL11" s="801"/>
+      <c r="AM11" s="801"/>
+      <c r="AN11" s="801"/>
+      <c r="AO11" s="801"/>
+      <c r="AP11" s="801"/>
+      <c r="AQ11" s="801"/>
+      <c r="AR11" s="802"/>
+      <c r="AS11" s="837" t="s">
         <v>180</v>
       </c>
-      <c r="AT11" s="315"/>
-      <c r="AU11" s="315"/>
-      <c r="AV11" s="315"/>
-      <c r="AW11" s="315"/>
-      <c r="AX11" s="315"/>
-      <c r="AY11" s="315"/>
-      <c r="AZ11" s="315"/>
-      <c r="BA11" s="315"/>
-      <c r="BB11" s="315"/>
-      <c r="BC11" s="315"/>
-      <c r="BD11" s="315"/>
-      <c r="BE11" s="315"/>
-      <c r="BF11" s="315"/>
-      <c r="BG11" s="315"/>
-      <c r="BH11" s="315"/>
-      <c r="BI11" s="315"/>
-      <c r="BJ11" s="315"/>
-      <c r="BK11" s="315"/>
-      <c r="BL11" s="315"/>
-      <c r="BM11" s="315"/>
-      <c r="BN11" s="316"/>
+      <c r="AT11" s="838"/>
+      <c r="AU11" s="838"/>
+      <c r="AV11" s="838"/>
+      <c r="AW11" s="838"/>
+      <c r="AX11" s="838"/>
+      <c r="AY11" s="838"/>
+      <c r="AZ11" s="838"/>
+      <c r="BA11" s="838"/>
+      <c r="BB11" s="838"/>
+      <c r="BC11" s="838"/>
+      <c r="BD11" s="838"/>
+      <c r="BE11" s="838"/>
+      <c r="BF11" s="838"/>
+      <c r="BG11" s="838"/>
+      <c r="BH11" s="838"/>
+      <c r="BI11" s="838"/>
+      <c r="BJ11" s="838"/>
+      <c r="BK11" s="838"/>
+      <c r="BL11" s="838"/>
+      <c r="BM11" s="838"/>
+      <c r="BN11" s="839"/>
     </row>
     <row r="12" customFormat="1" s="38">
       <c r="A12" s="97">
@@ -20691,61 +21692,61 @@
       <c r="M12" s="309"/>
       <c r="N12" s="309"/>
       <c r="O12" s="311"/>
-      <c r="P12" s="476" t="s">
+      <c r="P12" s="827" t="s">
         <v>194</v>
       </c>
-      <c r="Q12" s="456"/>
-      <c r="R12" s="456"/>
-      <c r="S12" s="456"/>
-      <c r="T12" s="456"/>
-      <c r="U12" s="456"/>
-      <c r="V12" s="456"/>
-      <c r="W12" s="456"/>
-      <c r="X12" s="456"/>
-      <c r="Y12" s="456"/>
-      <c r="Z12" s="456"/>
-      <c r="AA12" s="456"/>
-      <c r="AB12" s="456"/>
-      <c r="AC12" s="456"/>
-      <c r="AD12" s="456"/>
-      <c r="AE12" s="456"/>
-      <c r="AF12" s="456"/>
-      <c r="AG12" s="456"/>
-      <c r="AH12" s="456"/>
-      <c r="AI12" s="456"/>
-      <c r="AJ12" s="456"/>
-      <c r="AK12" s="456"/>
-      <c r="AL12" s="456"/>
-      <c r="AM12" s="456"/>
-      <c r="AN12" s="456"/>
-      <c r="AO12" s="456"/>
-      <c r="AP12" s="456"/>
-      <c r="AQ12" s="456"/>
-      <c r="AR12" s="457"/>
-      <c r="AS12" s="475" t="s">
+      <c r="Q12" s="827"/>
+      <c r="R12" s="827"/>
+      <c r="S12" s="827"/>
+      <c r="T12" s="827"/>
+      <c r="U12" s="827"/>
+      <c r="V12" s="827"/>
+      <c r="W12" s="827"/>
+      <c r="X12" s="827"/>
+      <c r="Y12" s="827"/>
+      <c r="Z12" s="827"/>
+      <c r="AA12" s="827"/>
+      <c r="AB12" s="827"/>
+      <c r="AC12" s="827"/>
+      <c r="AD12" s="827"/>
+      <c r="AE12" s="827"/>
+      <c r="AF12" s="827"/>
+      <c r="AG12" s="827"/>
+      <c r="AH12" s="827"/>
+      <c r="AI12" s="827"/>
+      <c r="AJ12" s="827"/>
+      <c r="AK12" s="827"/>
+      <c r="AL12" s="827"/>
+      <c r="AM12" s="827"/>
+      <c r="AN12" s="827"/>
+      <c r="AO12" s="827"/>
+      <c r="AP12" s="827"/>
+      <c r="AQ12" s="827"/>
+      <c r="AR12" s="828"/>
+      <c r="AS12" s="837" t="s">
         <v>203</v>
       </c>
-      <c r="AT12" s="315"/>
-      <c r="AU12" s="315"/>
-      <c r="AV12" s="315"/>
-      <c r="AW12" s="315"/>
-      <c r="AX12" s="315"/>
-      <c r="AY12" s="315"/>
-      <c r="AZ12" s="315"/>
-      <c r="BA12" s="315"/>
-      <c r="BB12" s="315"/>
-      <c r="BC12" s="315"/>
-      <c r="BD12" s="315"/>
-      <c r="BE12" s="315"/>
-      <c r="BF12" s="315"/>
-      <c r="BG12" s="315"/>
-      <c r="BH12" s="315"/>
-      <c r="BI12" s="315"/>
-      <c r="BJ12" s="315"/>
-      <c r="BK12" s="315"/>
-      <c r="BL12" s="315"/>
-      <c r="BM12" s="315"/>
-      <c r="BN12" s="316"/>
+      <c r="AT12" s="838"/>
+      <c r="AU12" s="838"/>
+      <c r="AV12" s="838"/>
+      <c r="AW12" s="838"/>
+      <c r="AX12" s="838"/>
+      <c r="AY12" s="838"/>
+      <c r="AZ12" s="838"/>
+      <c r="BA12" s="838"/>
+      <c r="BB12" s="838"/>
+      <c r="BC12" s="838"/>
+      <c r="BD12" s="838"/>
+      <c r="BE12" s="838"/>
+      <c r="BF12" s="838"/>
+      <c r="BG12" s="838"/>
+      <c r="BH12" s="838"/>
+      <c r="BI12" s="838"/>
+      <c r="BJ12" s="838"/>
+      <c r="BK12" s="838"/>
+      <c r="BL12" s="838"/>
+      <c r="BM12" s="838"/>
+      <c r="BN12" s="839"/>
     </row>
     <row r="13" customFormat="1" s="38">
       <c r="A13" s="97">
@@ -20766,62 +21767,62 @@
       <c r="L13" s="309"/>
       <c r="M13" s="309"/>
       <c r="N13" s="309"/>
-      <c r="O13" s="311"/>
-      <c r="P13" s="483" t="s">
+      <c r="O13" s="820"/>
+      <c r="P13" s="803" t="s">
         <v>198</v>
       </c>
-      <c r="Q13" s="461"/>
-      <c r="R13" s="461"/>
-      <c r="S13" s="461"/>
-      <c r="T13" s="461"/>
-      <c r="U13" s="461"/>
-      <c r="V13" s="461"/>
-      <c r="W13" s="461"/>
-      <c r="X13" s="461"/>
-      <c r="Y13" s="461"/>
-      <c r="Z13" s="461"/>
-      <c r="AA13" s="461"/>
-      <c r="AB13" s="461"/>
-      <c r="AC13" s="461"/>
-      <c r="AD13" s="461"/>
-      <c r="AE13" s="461"/>
-      <c r="AF13" s="461"/>
-      <c r="AG13" s="461"/>
-      <c r="AH13" s="461"/>
-      <c r="AI13" s="461"/>
-      <c r="AJ13" s="461"/>
-      <c r="AK13" s="461"/>
-      <c r="AL13" s="461"/>
-      <c r="AM13" s="461"/>
-      <c r="AN13" s="461"/>
-      <c r="AO13" s="461"/>
-      <c r="AP13" s="461"/>
-      <c r="AQ13" s="461"/>
-      <c r="AR13" s="462"/>
-      <c r="AS13" s="475" t="s">
+      <c r="Q13" s="803"/>
+      <c r="R13" s="803"/>
+      <c r="S13" s="803"/>
+      <c r="T13" s="803"/>
+      <c r="U13" s="803"/>
+      <c r="V13" s="803"/>
+      <c r="W13" s="803"/>
+      <c r="X13" s="803"/>
+      <c r="Y13" s="803"/>
+      <c r="Z13" s="803"/>
+      <c r="AA13" s="803"/>
+      <c r="AB13" s="803"/>
+      <c r="AC13" s="803"/>
+      <c r="AD13" s="803"/>
+      <c r="AE13" s="803"/>
+      <c r="AF13" s="803"/>
+      <c r="AG13" s="803"/>
+      <c r="AH13" s="803"/>
+      <c r="AI13" s="803"/>
+      <c r="AJ13" s="803"/>
+      <c r="AK13" s="803"/>
+      <c r="AL13" s="803"/>
+      <c r="AM13" s="803"/>
+      <c r="AN13" s="803"/>
+      <c r="AO13" s="803"/>
+      <c r="AP13" s="803"/>
+      <c r="AQ13" s="803"/>
+      <c r="AR13" s="829"/>
+      <c r="AS13" s="840" t="s">
         <v>182</v>
       </c>
-      <c r="AT13" s="315"/>
-      <c r="AU13" s="315"/>
-      <c r="AV13" s="315"/>
-      <c r="AW13" s="315"/>
-      <c r="AX13" s="315"/>
-      <c r="AY13" s="315"/>
-      <c r="AZ13" s="315"/>
-      <c r="BA13" s="315"/>
-      <c r="BB13" s="315"/>
-      <c r="BC13" s="315"/>
-      <c r="BD13" s="315"/>
-      <c r="BE13" s="315"/>
-      <c r="BF13" s="315"/>
-      <c r="BG13" s="315"/>
-      <c r="BH13" s="315"/>
-      <c r="BI13" s="315"/>
-      <c r="BJ13" s="315"/>
-      <c r="BK13" s="315"/>
-      <c r="BL13" s="315"/>
-      <c r="BM13" s="315"/>
-      <c r="BN13" s="316"/>
+      <c r="AT13" s="841"/>
+      <c r="AU13" s="841"/>
+      <c r="AV13" s="841"/>
+      <c r="AW13" s="841"/>
+      <c r="AX13" s="841"/>
+      <c r="AY13" s="841"/>
+      <c r="AZ13" s="841"/>
+      <c r="BA13" s="841"/>
+      <c r="BB13" s="841"/>
+      <c r="BC13" s="841"/>
+      <c r="BD13" s="841"/>
+      <c r="BE13" s="841"/>
+      <c r="BF13" s="841"/>
+      <c r="BG13" s="841"/>
+      <c r="BH13" s="841"/>
+      <c r="BI13" s="841"/>
+      <c r="BJ13" s="841"/>
+      <c r="BK13" s="841"/>
+      <c r="BL13" s="841"/>
+      <c r="BM13" s="841"/>
+      <c r="BN13" s="842"/>
     </row>
     <row r="14" customFormat="1" s="38">
       <c r="A14" s="90">
@@ -20843,61 +21844,61 @@
       <c r="M14" s="473"/>
       <c r="N14" s="473"/>
       <c r="O14" s="474"/>
-      <c r="P14" s="468" t="s">
+      <c r="P14" s="830" t="s">
         <v>195</v>
       </c>
-      <c r="Q14" s="442"/>
-      <c r="R14" s="442"/>
-      <c r="S14" s="442"/>
-      <c r="T14" s="442"/>
-      <c r="U14" s="442"/>
-      <c r="V14" s="442"/>
-      <c r="W14" s="442"/>
-      <c r="X14" s="442"/>
-      <c r="Y14" s="442"/>
-      <c r="Z14" s="442"/>
-      <c r="AA14" s="442"/>
-      <c r="AB14" s="442"/>
-      <c r="AC14" s="442"/>
-      <c r="AD14" s="442"/>
-      <c r="AE14" s="442"/>
-      <c r="AF14" s="442"/>
-      <c r="AG14" s="442"/>
-      <c r="AH14" s="442"/>
-      <c r="AI14" s="442"/>
-      <c r="AJ14" s="442"/>
-      <c r="AK14" s="442"/>
-      <c r="AL14" s="442"/>
-      <c r="AM14" s="442"/>
-      <c r="AN14" s="442"/>
-      <c r="AO14" s="442"/>
-      <c r="AP14" s="442"/>
-      <c r="AQ14" s="442"/>
-      <c r="AR14" s="442"/>
-      <c r="AS14" s="322" t="s">
+      <c r="Q14" s="831"/>
+      <c r="R14" s="831"/>
+      <c r="S14" s="831"/>
+      <c r="T14" s="831"/>
+      <c r="U14" s="831"/>
+      <c r="V14" s="831"/>
+      <c r="W14" s="831"/>
+      <c r="X14" s="831"/>
+      <c r="Y14" s="831"/>
+      <c r="Z14" s="831"/>
+      <c r="AA14" s="831"/>
+      <c r="AB14" s="831"/>
+      <c r="AC14" s="831"/>
+      <c r="AD14" s="831"/>
+      <c r="AE14" s="831"/>
+      <c r="AF14" s="831"/>
+      <c r="AG14" s="831"/>
+      <c r="AH14" s="831"/>
+      <c r="AI14" s="831"/>
+      <c r="AJ14" s="831"/>
+      <c r="AK14" s="831"/>
+      <c r="AL14" s="831"/>
+      <c r="AM14" s="831"/>
+      <c r="AN14" s="831"/>
+      <c r="AO14" s="831"/>
+      <c r="AP14" s="831"/>
+      <c r="AQ14" s="831"/>
+      <c r="AR14" s="831"/>
+      <c r="AS14" s="843" t="s">
         <v>183</v>
       </c>
-      <c r="AT14" s="323"/>
-      <c r="AU14" s="323"/>
-      <c r="AV14" s="323"/>
-      <c r="AW14" s="323"/>
-      <c r="AX14" s="323"/>
-      <c r="AY14" s="323"/>
-      <c r="AZ14" s="323"/>
-      <c r="BA14" s="323"/>
-      <c r="BB14" s="323"/>
-      <c r="BC14" s="323"/>
-      <c r="BD14" s="323"/>
-      <c r="BE14" s="323"/>
-      <c r="BF14" s="323"/>
-      <c r="BG14" s="323"/>
-      <c r="BH14" s="323"/>
-      <c r="BI14" s="323"/>
-      <c r="BJ14" s="323"/>
-      <c r="BK14" s="323"/>
-      <c r="BL14" s="323"/>
-      <c r="BM14" s="323"/>
-      <c r="BN14" s="324"/>
+      <c r="AT14" s="844"/>
+      <c r="AU14" s="844"/>
+      <c r="AV14" s="844"/>
+      <c r="AW14" s="844"/>
+      <c r="AX14" s="844"/>
+      <c r="AY14" s="844"/>
+      <c r="AZ14" s="844"/>
+      <c r="BA14" s="844"/>
+      <c r="BB14" s="844"/>
+      <c r="BC14" s="844"/>
+      <c r="BD14" s="844"/>
+      <c r="BE14" s="844"/>
+      <c r="BF14" s="844"/>
+      <c r="BG14" s="844"/>
+      <c r="BH14" s="844"/>
+      <c r="BI14" s="844"/>
+      <c r="BJ14" s="844"/>
+      <c r="BK14" s="844"/>
+      <c r="BL14" s="844"/>
+      <c r="BM14" s="844"/>
+      <c r="BN14" s="844"/>
     </row>
     <row r="15" customHeight="1" ht="21">
       <c r="A15" s="89">
@@ -20919,61 +21920,61 @@
       <c r="M15" s="309"/>
       <c r="N15" s="309"/>
       <c r="O15" s="311"/>
-      <c r="P15" s="320" t="s">
+      <c r="P15" s="807" t="s">
         <v>200</v>
       </c>
-      <c r="Q15" s="320"/>
-      <c r="R15" s="320"/>
-      <c r="S15" s="320"/>
-      <c r="T15" s="320"/>
-      <c r="U15" s="320"/>
-      <c r="V15" s="320"/>
-      <c r="W15" s="320"/>
-      <c r="X15" s="320"/>
-      <c r="Y15" s="320"/>
-      <c r="Z15" s="320"/>
-      <c r="AA15" s="320"/>
-      <c r="AB15" s="320"/>
-      <c r="AC15" s="320"/>
-      <c r="AD15" s="320"/>
-      <c r="AE15" s="320"/>
-      <c r="AF15" s="320"/>
-      <c r="AG15" s="320"/>
-      <c r="AH15" s="320"/>
-      <c r="AI15" s="320"/>
-      <c r="AJ15" s="320"/>
-      <c r="AK15" s="320"/>
-      <c r="AL15" s="320"/>
-      <c r="AM15" s="320"/>
-      <c r="AN15" s="320"/>
-      <c r="AO15" s="320"/>
-      <c r="AP15" s="320"/>
-      <c r="AQ15" s="320"/>
-      <c r="AR15" s="320"/>
-      <c r="AS15" s="326" t="s">
+      <c r="Q15" s="807"/>
+      <c r="R15" s="807"/>
+      <c r="S15" s="807"/>
+      <c r="T15" s="807"/>
+      <c r="U15" s="807"/>
+      <c r="V15" s="807"/>
+      <c r="W15" s="807"/>
+      <c r="X15" s="807"/>
+      <c r="Y15" s="807"/>
+      <c r="Z15" s="807"/>
+      <c r="AA15" s="807"/>
+      <c r="AB15" s="807"/>
+      <c r="AC15" s="807"/>
+      <c r="AD15" s="807"/>
+      <c r="AE15" s="807"/>
+      <c r="AF15" s="807"/>
+      <c r="AG15" s="807"/>
+      <c r="AH15" s="807"/>
+      <c r="AI15" s="807"/>
+      <c r="AJ15" s="807"/>
+      <c r="AK15" s="807"/>
+      <c r="AL15" s="807"/>
+      <c r="AM15" s="807"/>
+      <c r="AN15" s="807"/>
+      <c r="AO15" s="807"/>
+      <c r="AP15" s="807"/>
+      <c r="AQ15" s="807"/>
+      <c r="AR15" s="807"/>
+      <c r="AS15" s="845" t="s">
         <v>184</v>
       </c>
-      <c r="AT15" s="327"/>
-      <c r="AU15" s="327"/>
-      <c r="AV15" s="327"/>
-      <c r="AW15" s="327"/>
-      <c r="AX15" s="327"/>
-      <c r="AY15" s="327"/>
-      <c r="AZ15" s="327"/>
-      <c r="BA15" s="327"/>
-      <c r="BB15" s="327"/>
-      <c r="BC15" s="327"/>
-      <c r="BD15" s="327"/>
-      <c r="BE15" s="327"/>
-      <c r="BF15" s="327"/>
-      <c r="BG15" s="327"/>
-      <c r="BH15" s="327"/>
-      <c r="BI15" s="327"/>
-      <c r="BJ15" s="327"/>
-      <c r="BK15" s="327"/>
-      <c r="BL15" s="327"/>
-      <c r="BM15" s="327"/>
-      <c r="BN15" s="328"/>
+      <c r="AT15" s="846"/>
+      <c r="AU15" s="846"/>
+      <c r="AV15" s="846"/>
+      <c r="AW15" s="846"/>
+      <c r="AX15" s="846"/>
+      <c r="AY15" s="846"/>
+      <c r="AZ15" s="846"/>
+      <c r="BA15" s="846"/>
+      <c r="BB15" s="846"/>
+      <c r="BC15" s="846"/>
+      <c r="BD15" s="846"/>
+      <c r="BE15" s="846"/>
+      <c r="BF15" s="846"/>
+      <c r="BG15" s="846"/>
+      <c r="BH15" s="846"/>
+      <c r="BI15" s="846"/>
+      <c r="BJ15" s="846"/>
+      <c r="BK15" s="846"/>
+      <c r="BL15" s="846"/>
+      <c r="BM15" s="846"/>
+      <c r="BN15" s="847"/>
     </row>
     <row r="16">
       <c r="A16" s="89">
@@ -20995,37 +21996,37 @@
       <c r="M16" s="309"/>
       <c r="N16" s="309"/>
       <c r="O16" s="311"/>
-      <c r="P16" s="320" t="s">
+      <c r="P16" s="807" t="s">
         <v>196</v>
       </c>
-      <c r="Q16" s="320"/>
-      <c r="R16" s="320"/>
-      <c r="S16" s="320"/>
-      <c r="T16" s="320"/>
-      <c r="U16" s="320"/>
-      <c r="V16" s="320"/>
-      <c r="W16" s="320"/>
-      <c r="X16" s="320"/>
-      <c r="Y16" s="320"/>
-      <c r="Z16" s="320"/>
-      <c r="AA16" s="320"/>
-      <c r="AB16" s="320"/>
-      <c r="AC16" s="320"/>
-      <c r="AD16" s="320"/>
-      <c r="AE16" s="320"/>
-      <c r="AF16" s="320"/>
-      <c r="AG16" s="320"/>
-      <c r="AH16" s="320"/>
-      <c r="AI16" s="320"/>
-      <c r="AJ16" s="320"/>
-      <c r="AK16" s="320"/>
-      <c r="AL16" s="320"/>
-      <c r="AM16" s="320"/>
-      <c r="AN16" s="320"/>
-      <c r="AO16" s="320"/>
-      <c r="AP16" s="320"/>
-      <c r="AQ16" s="320"/>
-      <c r="AR16" s="320"/>
+      <c r="Q16" s="807"/>
+      <c r="R16" s="807"/>
+      <c r="S16" s="807"/>
+      <c r="T16" s="807"/>
+      <c r="U16" s="807"/>
+      <c r="V16" s="807"/>
+      <c r="W16" s="807"/>
+      <c r="X16" s="807"/>
+      <c r="Y16" s="807"/>
+      <c r="Z16" s="807"/>
+      <c r="AA16" s="807"/>
+      <c r="AB16" s="807"/>
+      <c r="AC16" s="807"/>
+      <c r="AD16" s="807"/>
+      <c r="AE16" s="807"/>
+      <c r="AF16" s="807"/>
+      <c r="AG16" s="807"/>
+      <c r="AH16" s="807"/>
+      <c r="AI16" s="807"/>
+      <c r="AJ16" s="807"/>
+      <c r="AK16" s="807"/>
+      <c r="AL16" s="807"/>
+      <c r="AM16" s="807"/>
+      <c r="AN16" s="807"/>
+      <c r="AO16" s="807"/>
+      <c r="AP16" s="807"/>
+      <c r="AQ16" s="807"/>
+      <c r="AR16" s="807"/>
       <c r="AS16" s="329" t="s">
         <v>204</v>
       </c>
@@ -21071,64 +22072,64 @@
       <c r="M17" s="309"/>
       <c r="N17" s="309"/>
       <c r="O17" s="311"/>
-      <c r="P17" s="330" t="s">
+      <c r="P17" s="808" t="s">
         <v>201</v>
       </c>
-      <c r="Q17" s="330"/>
-      <c r="R17" s="330"/>
-      <c r="S17" s="330"/>
-      <c r="T17" s="330"/>
-      <c r="U17" s="330"/>
-      <c r="V17" s="330"/>
-      <c r="W17" s="330"/>
-      <c r="X17" s="330"/>
-      <c r="Y17" s="330"/>
-      <c r="Z17" s="330"/>
-      <c r="AA17" s="330"/>
-      <c r="AB17" s="330"/>
-      <c r="AC17" s="330"/>
-      <c r="AD17" s="330"/>
-      <c r="AE17" s="330"/>
-      <c r="AF17" s="330"/>
-      <c r="AG17" s="330"/>
-      <c r="AH17" s="330"/>
-      <c r="AI17" s="330"/>
-      <c r="AJ17" s="330"/>
-      <c r="AK17" s="330"/>
-      <c r="AL17" s="330"/>
-      <c r="AM17" s="330"/>
-      <c r="AN17" s="330"/>
-      <c r="AO17" s="330"/>
-      <c r="AP17" s="330"/>
-      <c r="AQ17" s="330"/>
-      <c r="AR17" s="330"/>
-      <c r="AS17" s="331" t="s">
+      <c r="Q17" s="808"/>
+      <c r="R17" s="808"/>
+      <c r="S17" s="808"/>
+      <c r="T17" s="808"/>
+      <c r="U17" s="808"/>
+      <c r="V17" s="808"/>
+      <c r="W17" s="808"/>
+      <c r="X17" s="808"/>
+      <c r="Y17" s="808"/>
+      <c r="Z17" s="808"/>
+      <c r="AA17" s="808"/>
+      <c r="AB17" s="808"/>
+      <c r="AC17" s="808"/>
+      <c r="AD17" s="808"/>
+      <c r="AE17" s="808"/>
+      <c r="AF17" s="808"/>
+      <c r="AG17" s="808"/>
+      <c r="AH17" s="808"/>
+      <c r="AI17" s="808"/>
+      <c r="AJ17" s="808"/>
+      <c r="AK17" s="808"/>
+      <c r="AL17" s="808"/>
+      <c r="AM17" s="808"/>
+      <c r="AN17" s="808"/>
+      <c r="AO17" s="808"/>
+      <c r="AP17" s="808"/>
+      <c r="AQ17" s="808"/>
+      <c r="AR17" s="808"/>
+      <c r="AS17" s="848" t="s">
         <v>186</v>
       </c>
-      <c r="AT17" s="332"/>
-      <c r="AU17" s="332"/>
-      <c r="AV17" s="332"/>
-      <c r="AW17" s="332"/>
-      <c r="AX17" s="332"/>
-      <c r="AY17" s="332"/>
-      <c r="AZ17" s="332"/>
-      <c r="BA17" s="332"/>
-      <c r="BB17" s="332"/>
-      <c r="BC17" s="332"/>
-      <c r="BD17" s="332"/>
-      <c r="BE17" s="332"/>
-      <c r="BF17" s="332"/>
-      <c r="BG17" s="332"/>
-      <c r="BH17" s="332"/>
-      <c r="BI17" s="332"/>
-      <c r="BJ17" s="332"/>
-      <c r="BK17" s="332"/>
-      <c r="BL17" s="332"/>
-      <c r="BM17" s="332"/>
-      <c r="BN17" s="333"/>
+      <c r="AT17" s="849"/>
+      <c r="AU17" s="849"/>
+      <c r="AV17" s="849"/>
+      <c r="AW17" s="849"/>
+      <c r="AX17" s="849"/>
+      <c r="AY17" s="849"/>
+      <c r="AZ17" s="849"/>
+      <c r="BA17" s="849"/>
+      <c r="BB17" s="849"/>
+      <c r="BC17" s="849"/>
+      <c r="BD17" s="849"/>
+      <c r="BE17" s="849"/>
+      <c r="BF17" s="849"/>
+      <c r="BG17" s="849"/>
+      <c r="BH17" s="849"/>
+      <c r="BI17" s="849"/>
+      <c r="BJ17" s="849"/>
+      <c r="BK17" s="849"/>
+      <c r="BL17" s="849"/>
+      <c r="BM17" s="849"/>
+      <c r="BN17" s="850"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="49">
     <mergeCell ref="A2:AA3"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="G4:O4"/>
@@ -21153,13 +22154,22 @@
     <mergeCell ref="P8:AR8"/>
     <mergeCell ref="AS8:BN8"/>
     <mergeCell ref="B9:O9"/>
+    <mergeCell ref="P9:AR9"/>
+    <mergeCell ref="AS9:BN9"/>
     <mergeCell ref="B10:O10"/>
+    <mergeCell ref="P10:AR10"/>
+    <mergeCell ref="AS10:BN10"/>
     <mergeCell ref="B11:O11"/>
+    <mergeCell ref="P11:AR11"/>
+    <mergeCell ref="AS11:BN11"/>
     <mergeCell ref="B12:O12"/>
+    <mergeCell ref="P12:AR12"/>
+    <mergeCell ref="AS12:BN12"/>
     <mergeCell ref="B13:O13"/>
+    <mergeCell ref="P13:AR13"/>
+    <mergeCell ref="AS13:BN13"/>
     <mergeCell ref="B14:O14"/>
     <mergeCell ref="P14:AR14"/>
-    <mergeCell ref="AS14:BN14"/>
     <mergeCell ref="B15:O15"/>
     <mergeCell ref="P15:AR15"/>
     <mergeCell ref="AS15:BN15"/>
@@ -21173,4 +22183,3276 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection activeCell="BI18" activeCellId="0" sqref="BI18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" outlineLevelRow="0" outlineLevelCol="0" customHeight="true" defaultColWidth="2.125"/>
+  <cols>
+    <col min="1" max="64" width="2.125" style="0"/>
+    <col min="65" max="65" width="3.625" style="726" customWidth="1"/>
+    <col min="66" max="66" width="0.125" style="726" customWidth="1"/>
+    <col min="67" max="320" width="2.125" style="0"/>
+    <col min="321" max="321" width="3.625" style="726" customWidth="1"/>
+    <col min="322" max="322" width="0.125" style="726" customWidth="1"/>
+    <col min="323" max="576" width="2.125" style="0"/>
+    <col min="577" max="577" width="3.625" style="726" customWidth="1"/>
+    <col min="578" max="578" width="0.125" style="726" customWidth="1"/>
+    <col min="579" max="832" width="2.125" style="0"/>
+    <col min="833" max="833" width="3.625" style="726" customWidth="1"/>
+    <col min="834" max="834" width="0.125" style="726" customWidth="1"/>
+    <col min="835" max="1088" width="2.125" style="0"/>
+    <col min="1089" max="1089" width="3.625" style="726" customWidth="1"/>
+    <col min="1090" max="1090" width="0.125" style="726" customWidth="1"/>
+    <col min="1091" max="1344" width="2.125" style="0"/>
+    <col min="1345" max="1345" width="3.625" style="726" customWidth="1"/>
+    <col min="1346" max="1346" width="0.125" style="726" customWidth="1"/>
+    <col min="1347" max="1600" width="2.125" style="0"/>
+    <col min="1601" max="1601" width="3.625" style="726" customWidth="1"/>
+    <col min="1602" max="1602" width="0.125" style="726" customWidth="1"/>
+    <col min="1603" max="1856" width="2.125" style="0"/>
+    <col min="1857" max="1857" width="3.625" style="726" customWidth="1"/>
+    <col min="1858" max="1858" width="0.125" style="726" customWidth="1"/>
+    <col min="1859" max="2112" width="2.125" style="0"/>
+    <col min="2113" max="2113" width="3.625" style="726" customWidth="1"/>
+    <col min="2114" max="2114" width="0.125" style="726" customWidth="1"/>
+    <col min="2115" max="2368" width="2.125" style="0"/>
+    <col min="2369" max="2369" width="3.625" style="726" customWidth="1"/>
+    <col min="2370" max="2370" width="0.125" style="726" customWidth="1"/>
+    <col min="2371" max="2624" width="2.125" style="0"/>
+    <col min="2625" max="2625" width="3.625" style="726" customWidth="1"/>
+    <col min="2626" max="2626" width="0.125" style="726" customWidth="1"/>
+    <col min="2627" max="2880" width="2.125" style="0"/>
+    <col min="2881" max="2881" width="3.625" style="726" customWidth="1"/>
+    <col min="2882" max="2882" width="0.125" style="726" customWidth="1"/>
+    <col min="2883" max="3136" width="2.125" style="0"/>
+    <col min="3137" max="3137" width="3.625" style="726" customWidth="1"/>
+    <col min="3138" max="3138" width="0.125" style="726" customWidth="1"/>
+    <col min="3139" max="3392" width="2.125" style="0"/>
+    <col min="3393" max="3393" width="3.625" style="726" customWidth="1"/>
+    <col min="3394" max="3394" width="0.125" style="726" customWidth="1"/>
+    <col min="3395" max="3648" width="2.125" style="0"/>
+    <col min="3649" max="3649" width="3.625" style="726" customWidth="1"/>
+    <col min="3650" max="3650" width="0.125" style="726" customWidth="1"/>
+    <col min="3651" max="3904" width="2.125" style="0"/>
+    <col min="3905" max="3905" width="3.625" style="726" customWidth="1"/>
+    <col min="3906" max="3906" width="0.125" style="726" customWidth="1"/>
+    <col min="3907" max="4160" width="2.125" style="0"/>
+    <col min="4161" max="4161" width="3.625" style="726" customWidth="1"/>
+    <col min="4162" max="4162" width="0.125" style="726" customWidth="1"/>
+    <col min="4163" max="4416" width="2.125" style="0"/>
+    <col min="4417" max="4417" width="3.625" style="726" customWidth="1"/>
+    <col min="4418" max="4418" width="0.125" style="726" customWidth="1"/>
+    <col min="4419" max="4672" width="2.125" style="0"/>
+    <col min="4673" max="4673" width="3.625" style="726" customWidth="1"/>
+    <col min="4674" max="4674" width="0.125" style="726" customWidth="1"/>
+    <col min="4675" max="4928" width="2.125" style="0"/>
+    <col min="4929" max="4929" width="3.625" style="726" customWidth="1"/>
+    <col min="4930" max="4930" width="0.125" style="726" customWidth="1"/>
+    <col min="4931" max="5184" width="2.125" style="0"/>
+    <col min="5185" max="5185" width="3.625" style="726" customWidth="1"/>
+    <col min="5186" max="5186" width="0.125" style="726" customWidth="1"/>
+    <col min="5187" max="5440" width="2.125" style="0"/>
+    <col min="5441" max="5441" width="3.625" style="726" customWidth="1"/>
+    <col min="5442" max="5442" width="0.125" style="726" customWidth="1"/>
+    <col min="5443" max="5696" width="2.125" style="0"/>
+    <col min="5697" max="5697" width="3.625" style="726" customWidth="1"/>
+    <col min="5698" max="5698" width="0.125" style="726" customWidth="1"/>
+    <col min="5699" max="5952" width="2.125" style="0"/>
+    <col min="5953" max="5953" width="3.625" style="726" customWidth="1"/>
+    <col min="5954" max="5954" width="0.125" style="726" customWidth="1"/>
+    <col min="5955" max="6208" width="2.125" style="0"/>
+    <col min="6209" max="6209" width="3.625" style="726" customWidth="1"/>
+    <col min="6210" max="6210" width="0.125" style="726" customWidth="1"/>
+    <col min="6211" max="6464" width="2.125" style="0"/>
+    <col min="6465" max="6465" width="3.625" style="726" customWidth="1"/>
+    <col min="6466" max="6466" width="0.125" style="726" customWidth="1"/>
+    <col min="6467" max="6720" width="2.125" style="0"/>
+    <col min="6721" max="6721" width="3.625" style="726" customWidth="1"/>
+    <col min="6722" max="6722" width="0.125" style="726" customWidth="1"/>
+    <col min="6723" max="6976" width="2.125" style="0"/>
+    <col min="6977" max="6977" width="3.625" style="726" customWidth="1"/>
+    <col min="6978" max="6978" width="0.125" style="726" customWidth="1"/>
+    <col min="6979" max="7232" width="2.125" style="0"/>
+    <col min="7233" max="7233" width="3.625" style="726" customWidth="1"/>
+    <col min="7234" max="7234" width="0.125" style="726" customWidth="1"/>
+    <col min="7235" max="7488" width="2.125" style="0"/>
+    <col min="7489" max="7489" width="3.625" style="726" customWidth="1"/>
+    <col min="7490" max="7490" width="0.125" style="726" customWidth="1"/>
+    <col min="7491" max="7744" width="2.125" style="0"/>
+    <col min="7745" max="7745" width="3.625" style="726" customWidth="1"/>
+    <col min="7746" max="7746" width="0.125" style="726" customWidth="1"/>
+    <col min="7747" max="8000" width="2.125" style="0"/>
+    <col min="8001" max="8001" width="3.625" style="726" customWidth="1"/>
+    <col min="8002" max="8002" width="0.125" style="726" customWidth="1"/>
+    <col min="8003" max="8256" width="2.125" style="0"/>
+    <col min="8257" max="8257" width="3.625" style="726" customWidth="1"/>
+    <col min="8258" max="8258" width="0.125" style="726" customWidth="1"/>
+    <col min="8259" max="8512" width="2.125" style="0"/>
+    <col min="8513" max="8513" width="3.625" style="726" customWidth="1"/>
+    <col min="8514" max="8514" width="0.125" style="726" customWidth="1"/>
+    <col min="8515" max="8768" width="2.125" style="0"/>
+    <col min="8769" max="8769" width="3.625" style="726" customWidth="1"/>
+    <col min="8770" max="8770" width="0.125" style="726" customWidth="1"/>
+    <col min="8771" max="9024" width="2.125" style="0"/>
+    <col min="9025" max="9025" width="3.625" style="726" customWidth="1"/>
+    <col min="9026" max="9026" width="0.125" style="726" customWidth="1"/>
+    <col min="9027" max="9280" width="2.125" style="0"/>
+    <col min="9281" max="9281" width="3.625" style="726" customWidth="1"/>
+    <col min="9282" max="9282" width="0.125" style="726" customWidth="1"/>
+    <col min="9283" max="9536" width="2.125" style="0"/>
+    <col min="9537" max="9537" width="3.625" style="726" customWidth="1"/>
+    <col min="9538" max="9538" width="0.125" style="726" customWidth="1"/>
+    <col min="9539" max="9792" width="2.125" style="0"/>
+    <col min="9793" max="9793" width="3.625" style="726" customWidth="1"/>
+    <col min="9794" max="9794" width="0.125" style="726" customWidth="1"/>
+    <col min="9795" max="10048" width="2.125" style="0"/>
+    <col min="10049" max="10049" width="3.625" style="726" customWidth="1"/>
+    <col min="10050" max="10050" width="0.125" style="726" customWidth="1"/>
+    <col min="10051" max="10304" width="2.125" style="0"/>
+    <col min="10305" max="10305" width="3.625" style="726" customWidth="1"/>
+    <col min="10306" max="10306" width="0.125" style="726" customWidth="1"/>
+    <col min="10307" max="10560" width="2.125" style="0"/>
+    <col min="10561" max="10561" width="3.625" style="726" customWidth="1"/>
+    <col min="10562" max="10562" width="0.125" style="726" customWidth="1"/>
+    <col min="10563" max="10816" width="2.125" style="0"/>
+    <col min="10817" max="10817" width="3.625" style="726" customWidth="1"/>
+    <col min="10818" max="10818" width="0.125" style="726" customWidth="1"/>
+    <col min="10819" max="11072" width="2.125" style="0"/>
+    <col min="11073" max="11073" width="3.625" style="726" customWidth="1"/>
+    <col min="11074" max="11074" width="0.125" style="726" customWidth="1"/>
+    <col min="11075" max="11328" width="2.125" style="0"/>
+    <col min="11329" max="11329" width="3.625" style="726" customWidth="1"/>
+    <col min="11330" max="11330" width="0.125" style="726" customWidth="1"/>
+    <col min="11331" max="11584" width="2.125" style="0"/>
+    <col min="11585" max="11585" width="3.625" style="726" customWidth="1"/>
+    <col min="11586" max="11586" width="0.125" style="726" customWidth="1"/>
+    <col min="11587" max="11840" width="2.125" style="0"/>
+    <col min="11841" max="11841" width="3.625" style="726" customWidth="1"/>
+    <col min="11842" max="11842" width="0.125" style="726" customWidth="1"/>
+    <col min="11843" max="12096" width="2.125" style="0"/>
+    <col min="12097" max="12097" width="3.625" style="726" customWidth="1"/>
+    <col min="12098" max="12098" width="0.125" style="726" customWidth="1"/>
+    <col min="12099" max="12352" width="2.125" style="0"/>
+    <col min="12353" max="12353" width="3.625" style="726" customWidth="1"/>
+    <col min="12354" max="12354" width="0.125" style="726" customWidth="1"/>
+    <col min="12355" max="12608" width="2.125" style="0"/>
+    <col min="12609" max="12609" width="3.625" style="726" customWidth="1"/>
+    <col min="12610" max="12610" width="0.125" style="726" customWidth="1"/>
+    <col min="12611" max="12864" width="2.125" style="0"/>
+    <col min="12865" max="12865" width="3.625" style="726" customWidth="1"/>
+    <col min="12866" max="12866" width="0.125" style="726" customWidth="1"/>
+    <col min="12867" max="13120" width="2.125" style="0"/>
+    <col min="13121" max="13121" width="3.625" style="726" customWidth="1"/>
+    <col min="13122" max="13122" width="0.125" style="726" customWidth="1"/>
+    <col min="13123" max="13376" width="2.125" style="0"/>
+    <col min="13377" max="13377" width="3.625" style="726" customWidth="1"/>
+    <col min="13378" max="13378" width="0.125" style="726" customWidth="1"/>
+    <col min="13379" max="13632" width="2.125" style="0"/>
+    <col min="13633" max="13633" width="3.625" style="726" customWidth="1"/>
+    <col min="13634" max="13634" width="0.125" style="726" customWidth="1"/>
+    <col min="13635" max="13888" width="2.125" style="0"/>
+    <col min="13889" max="13889" width="3.625" style="726" customWidth="1"/>
+    <col min="13890" max="13890" width="0.125" style="726" customWidth="1"/>
+    <col min="13891" max="14144" width="2.125" style="0"/>
+    <col min="14145" max="14145" width="3.625" style="726" customWidth="1"/>
+    <col min="14146" max="14146" width="0.125" style="726" customWidth="1"/>
+    <col min="14147" max="14400" width="2.125" style="0"/>
+    <col min="14401" max="14401" width="3.625" style="726" customWidth="1"/>
+    <col min="14402" max="14402" width="0.125" style="726" customWidth="1"/>
+    <col min="14403" max="14656" width="2.125" style="0"/>
+    <col min="14657" max="14657" width="3.625" style="726" customWidth="1"/>
+    <col min="14658" max="14658" width="0.125" style="726" customWidth="1"/>
+    <col min="14659" max="14912" width="2.125" style="0"/>
+    <col min="14913" max="14913" width="3.625" style="726" customWidth="1"/>
+    <col min="14914" max="14914" width="0.125" style="726" customWidth="1"/>
+    <col min="14915" max="15168" width="2.125" style="0"/>
+    <col min="15169" max="15169" width="3.625" style="726" customWidth="1"/>
+    <col min="15170" max="15170" width="0.125" style="726" customWidth="1"/>
+    <col min="15171" max="15424" width="2.125" style="0"/>
+    <col min="15425" max="15425" width="3.625" style="726" customWidth="1"/>
+    <col min="15426" max="15426" width="0.125" style="726" customWidth="1"/>
+    <col min="15427" max="15680" width="2.125" style="0"/>
+    <col min="15681" max="15681" width="3.625" style="726" customWidth="1"/>
+    <col min="15682" max="15682" width="0.125" style="726" customWidth="1"/>
+    <col min="15683" max="15936" width="2.125" style="0"/>
+    <col min="15937" max="15937" width="3.625" style="726" customWidth="1"/>
+    <col min="15938" max="15938" width="0.125" style="726" customWidth="1"/>
+    <col min="15939" max="16192" width="2.125" style="0"/>
+    <col min="16193" max="16193" width="3.625" style="726" customWidth="1"/>
+    <col min="16194" max="16194" width="0.125" style="726" customWidth="1"/>
+    <col min="16195" max="16384" width="2.125" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" ht="12" customFormat="1" s="726">
+      <c r="A1" s="727"/>
+      <c r="B1" s="728"/>
+      <c r="C1" s="728"/>
+      <c r="D1" s="728"/>
+      <c r="E1" s="728"/>
+      <c r="F1" s="728"/>
+      <c r="G1" s="728"/>
+      <c r="H1" s="728"/>
+      <c r="I1" s="728"/>
+      <c r="J1" s="728"/>
+      <c r="K1" s="728"/>
+      <c r="L1" s="728"/>
+      <c r="M1" s="728"/>
+      <c r="N1" s="728"/>
+      <c r="O1" s="728"/>
+      <c r="P1" s="728"/>
+      <c r="Q1" s="728"/>
+      <c r="R1" s="728"/>
+      <c r="S1" s="728"/>
+      <c r="T1" s="728"/>
+      <c r="U1" s="728"/>
+      <c r="V1" s="728"/>
+      <c r="W1" s="728"/>
+      <c r="X1" s="728"/>
+      <c r="Y1" s="728"/>
+      <c r="Z1" s="729"/>
+      <c r="AA1" s="728"/>
+      <c r="AB1" s="728"/>
+      <c r="AC1" s="728"/>
+      <c r="AD1" s="728"/>
+      <c r="AE1" s="728"/>
+      <c r="AF1" s="728"/>
+      <c r="AG1" s="728"/>
+      <c r="AH1" s="728"/>
+      <c r="AI1" s="728"/>
+      <c r="AJ1" s="728"/>
+      <c r="AK1" s="728"/>
+      <c r="AL1" s="728"/>
+      <c r="AM1" s="728"/>
+      <c r="AN1" s="728"/>
+      <c r="AO1" s="728"/>
+      <c r="AP1" s="728"/>
+      <c r="AQ1" s="728"/>
+      <c r="AR1" s="728"/>
+      <c r="AS1" s="728"/>
+      <c r="AT1" s="728"/>
+      <c r="AU1" s="728"/>
+      <c r="AV1" s="728"/>
+      <c r="AW1" s="728"/>
+      <c r="AX1" s="728"/>
+      <c r="AY1" s="728"/>
+      <c r="AZ1" s="728"/>
+      <c r="BA1" s="728"/>
+      <c r="BB1" s="728"/>
+      <c r="BC1" s="728"/>
+      <c r="BD1" s="728"/>
+      <c r="BE1" s="728"/>
+      <c r="BF1" s="728"/>
+      <c r="BG1" s="728"/>
+      <c r="BH1" s="728"/>
+      <c r="BI1" s="728"/>
+      <c r="BJ1" s="728"/>
+      <c r="BK1" s="728"/>
+      <c r="BL1" s="728"/>
+      <c r="BM1" s="728"/>
+      <c r="BN1" s="730"/>
+    </row>
+    <row r="2" customHeight="1" ht="12" customFormat="1" s="726">
+      <c r="A2" s="731" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="732"/>
+      <c r="C2" s="732"/>
+      <c r="D2" s="732"/>
+      <c r="E2" s="732"/>
+      <c r="F2" s="732"/>
+      <c r="G2" s="732"/>
+      <c r="H2" s="732"/>
+      <c r="I2" s="732"/>
+      <c r="J2" s="732"/>
+      <c r="K2" s="732"/>
+      <c r="L2" s="732"/>
+      <c r="M2" s="732"/>
+      <c r="N2" s="732"/>
+      <c r="O2" s="732"/>
+      <c r="P2" s="732"/>
+      <c r="Q2" s="732"/>
+      <c r="R2" s="732"/>
+      <c r="S2" s="732"/>
+      <c r="T2" s="732"/>
+      <c r="U2" s="732"/>
+      <c r="V2" s="732"/>
+      <c r="W2" s="732"/>
+      <c r="X2" s="732"/>
+      <c r="Y2" s="732"/>
+      <c r="Z2" s="732"/>
+      <c r="AA2" s="551"/>
+      <c r="AB2" s="551"/>
+      <c r="AC2" s="551"/>
+      <c r="AD2" s="551"/>
+      <c r="AE2" s="551"/>
+      <c r="AF2" s="551"/>
+      <c r="AG2" s="551"/>
+      <c r="AH2" s="551"/>
+      <c r="AI2" s="551"/>
+      <c r="AJ2" s="551"/>
+      <c r="AK2" s="551"/>
+      <c r="AL2" s="551"/>
+      <c r="AM2" s="551"/>
+      <c r="AN2" s="551"/>
+      <c r="AO2" s="551"/>
+      <c r="AP2" s="551"/>
+      <c r="AQ2" s="733"/>
+      <c r="AR2" s="733"/>
+      <c r="AS2" s="733"/>
+      <c r="AT2" s="733"/>
+      <c r="AU2" s="733"/>
+      <c r="AV2" s="733"/>
+      <c r="AW2" s="734"/>
+      <c r="AX2" s="734"/>
+      <c r="AY2" s="734"/>
+      <c r="AZ2" s="734"/>
+      <c r="BA2" s="734"/>
+      <c r="BB2" s="734"/>
+      <c r="BC2" s="734"/>
+      <c r="BD2" s="734"/>
+      <c r="BE2" s="734"/>
+      <c r="BF2" s="734"/>
+      <c r="BG2" s="734"/>
+      <c r="BH2" s="734"/>
+      <c r="BI2" s="734"/>
+      <c r="BJ2" s="734"/>
+      <c r="BK2" s="734"/>
+      <c r="BL2" s="734"/>
+      <c r="BM2" s="734"/>
+      <c r="BN2" s="735"/>
+    </row>
+    <row r="3" customHeight="1" ht="12" customFormat="1" s="726">
+      <c r="A3" s="731"/>
+      <c r="B3" s="732"/>
+      <c r="C3" s="732"/>
+      <c r="D3" s="732"/>
+      <c r="E3" s="732"/>
+      <c r="F3" s="732"/>
+      <c r="G3" s="732"/>
+      <c r="H3" s="732"/>
+      <c r="I3" s="732"/>
+      <c r="J3" s="732"/>
+      <c r="K3" s="732"/>
+      <c r="L3" s="732"/>
+      <c r="M3" s="732"/>
+      <c r="N3" s="732"/>
+      <c r="O3" s="732"/>
+      <c r="P3" s="732"/>
+      <c r="Q3" s="732"/>
+      <c r="R3" s="732"/>
+      <c r="S3" s="732"/>
+      <c r="T3" s="732"/>
+      <c r="U3" s="732"/>
+      <c r="V3" s="732"/>
+      <c r="W3" s="732"/>
+      <c r="X3" s="732"/>
+      <c r="Y3" s="732"/>
+      <c r="Z3" s="732"/>
+      <c r="AA3" s="551"/>
+      <c r="AB3" s="551"/>
+      <c r="AC3" s="551"/>
+      <c r="AD3" s="551"/>
+      <c r="AE3" s="551"/>
+      <c r="AF3" s="551"/>
+      <c r="AG3" s="551"/>
+      <c r="AH3" s="551"/>
+      <c r="AI3" s="551"/>
+      <c r="AJ3" s="551"/>
+      <c r="AK3" s="551"/>
+      <c r="AL3" s="551"/>
+      <c r="AM3" s="551"/>
+      <c r="AN3" s="551"/>
+      <c r="AO3" s="551"/>
+      <c r="AP3" s="551"/>
+      <c r="AQ3" s="733"/>
+      <c r="AR3" s="733"/>
+      <c r="AS3" s="733"/>
+      <c r="AT3" s="733"/>
+      <c r="AU3" s="733"/>
+      <c r="AV3" s="733"/>
+      <c r="AW3" s="733"/>
+      <c r="AX3" s="733"/>
+      <c r="AY3" s="733"/>
+      <c r="AZ3" s="733"/>
+      <c r="BA3" s="733"/>
+      <c r="BB3" s="733"/>
+      <c r="BC3" s="733"/>
+      <c r="BD3" s="733"/>
+      <c r="BE3" s="733"/>
+      <c r="BF3" s="733"/>
+      <c r="BG3" s="733"/>
+      <c r="BH3" s="733"/>
+      <c r="BI3" s="733"/>
+      <c r="BJ3" s="733"/>
+      <c r="BK3" s="733"/>
+      <c r="BL3" s="733"/>
+      <c r="BM3" s="733"/>
+      <c r="BN3" s="736"/>
+    </row>
+    <row r="4" customHeight="1" ht="12" customFormat="1" s="726">
+      <c r="A4" s="737" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="738"/>
+      <c r="C4" s="738"/>
+      <c r="D4" s="738"/>
+      <c r="E4" s="738"/>
+      <c r="F4" s="739"/>
+      <c r="G4" s="740" t="s">
+        <v>168</v>
+      </c>
+      <c r="H4" s="741"/>
+      <c r="I4" s="741"/>
+      <c r="J4" s="741"/>
+      <c r="K4" s="741"/>
+      <c r="L4" s="741"/>
+      <c r="M4" s="741"/>
+      <c r="N4" s="742"/>
+      <c r="O4" s="743" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="744"/>
+      <c r="Q4" s="744"/>
+      <c r="R4" s="744"/>
+      <c r="S4" s="744"/>
+      <c r="T4" s="745"/>
+      <c r="U4" s="746" t="s">
+        <v>205</v>
+      </c>
+      <c r="V4" s="747"/>
+      <c r="W4" s="747"/>
+      <c r="X4" s="747"/>
+      <c r="Y4" s="747"/>
+      <c r="Z4" s="747"/>
+      <c r="AA4" s="747"/>
+      <c r="AB4" s="747"/>
+      <c r="AC4" s="747"/>
+      <c r="AD4" s="747"/>
+      <c r="AE4" s="747"/>
+      <c r="AF4" s="747"/>
+      <c r="AG4" s="747"/>
+      <c r="AH4" s="747"/>
+      <c r="AI4" s="747"/>
+      <c r="AJ4" s="747"/>
+      <c r="AK4" s="747"/>
+      <c r="AL4" s="747"/>
+      <c r="AM4" s="747"/>
+      <c r="AN4" s="747"/>
+      <c r="AO4" s="747"/>
+      <c r="AP4" s="747"/>
+      <c r="AQ4" s="747"/>
+      <c r="AR4" s="747"/>
+      <c r="AS4" s="747"/>
+      <c r="AT4" s="747"/>
+      <c r="AU4" s="747"/>
+      <c r="AV4" s="748"/>
+      <c r="AW4" s="749" t="s">
+        <v>13</v>
+      </c>
+      <c r="AX4" s="750"/>
+      <c r="AY4" s="751"/>
+      <c r="AZ4" s="752">
+        <v>45072</v>
+      </c>
+      <c r="BA4" s="753"/>
+      <c r="BB4" s="753"/>
+      <c r="BC4" s="753"/>
+      <c r="BD4" s="753"/>
+      <c r="BE4" s="753"/>
+      <c r="BF4" s="749" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG4" s="750"/>
+      <c r="BH4" s="751"/>
+      <c r="BI4" s="752" t="s">
+        <v>144</v>
+      </c>
+      <c r="BJ4" s="753"/>
+      <c r="BK4" s="753"/>
+      <c r="BL4" s="753"/>
+      <c r="BM4" s="753"/>
+      <c r="BN4" s="754"/>
+    </row>
+    <row r="5" customHeight="1" ht="12" customFormat="1" s="726">
+      <c r="A5" s="755" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="756"/>
+      <c r="C5" s="756"/>
+      <c r="D5" s="756"/>
+      <c r="E5" s="756"/>
+      <c r="F5" s="757"/>
+      <c r="G5" s="758" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="758"/>
+      <c r="I5" s="758"/>
+      <c r="J5" s="758"/>
+      <c r="K5" s="758"/>
+      <c r="L5" s="758"/>
+      <c r="M5" s="758"/>
+      <c r="N5" s="759"/>
+      <c r="O5" s="755" t="s">
+        <v>18</v>
+      </c>
+      <c r="P5" s="756"/>
+      <c r="Q5" s="756"/>
+      <c r="R5" s="756"/>
+      <c r="S5" s="756"/>
+      <c r="T5" s="757"/>
+      <c r="U5" s="760"/>
+      <c r="V5" s="761"/>
+      <c r="W5" s="761"/>
+      <c r="X5" s="761"/>
+      <c r="Y5" s="761"/>
+      <c r="Z5" s="761"/>
+      <c r="AA5" s="761"/>
+      <c r="AB5" s="761"/>
+      <c r="AC5" s="761"/>
+      <c r="AD5" s="761"/>
+      <c r="AE5" s="761"/>
+      <c r="AF5" s="761"/>
+      <c r="AG5" s="761"/>
+      <c r="AH5" s="761"/>
+      <c r="AI5" s="761"/>
+      <c r="AJ5" s="761"/>
+      <c r="AK5" s="761"/>
+      <c r="AL5" s="761"/>
+      <c r="AM5" s="761"/>
+      <c r="AN5" s="761"/>
+      <c r="AO5" s="761"/>
+      <c r="AP5" s="761"/>
+      <c r="AQ5" s="761"/>
+      <c r="AR5" s="761"/>
+      <c r="AS5" s="761"/>
+      <c r="AT5" s="761"/>
+      <c r="AU5" s="761"/>
+      <c r="AV5" s="762"/>
+      <c r="AW5" s="780" t="s">
+        <v>19</v>
+      </c>
+      <c r="AX5" s="781"/>
+      <c r="AY5" s="782"/>
+      <c r="AZ5" s="781"/>
+      <c r="BA5" s="781"/>
+      <c r="BB5" s="781"/>
+      <c r="BC5" s="781"/>
+      <c r="BD5" s="781"/>
+      <c r="BE5" s="781"/>
+      <c r="BF5" s="780" t="s">
+        <v>20</v>
+      </c>
+      <c r="BG5" s="781"/>
+      <c r="BH5" s="782"/>
+      <c r="BI5" s="781"/>
+      <c r="BJ5" s="783"/>
+      <c r="BK5" s="783"/>
+      <c r="BL5" s="783"/>
+      <c r="BM5" s="783"/>
+      <c r="BN5" s="762"/>
+    </row>
+    <row r="6" customHeight="1" ht="12" customFormat="1" s="726">
+      <c r="A6" s="766"/>
+      <c r="B6" s="177"/>
+      <c r="C6" s="177"/>
+      <c r="D6" s="177"/>
+      <c r="E6" s="177"/>
+      <c r="F6" s="177"/>
+      <c r="G6" s="177"/>
+      <c r="H6" s="177"/>
+      <c r="I6" s="177"/>
+      <c r="J6" s="177"/>
+      <c r="K6" s="177"/>
+      <c r="L6" s="177"/>
+      <c r="M6" s="177"/>
+      <c r="N6" s="177"/>
+      <c r="O6" s="177"/>
+      <c r="P6" s="177"/>
+      <c r="Q6" s="177"/>
+      <c r="R6" s="177"/>
+      <c r="S6" s="177"/>
+      <c r="T6" s="177"/>
+      <c r="U6" s="177"/>
+      <c r="V6" s="177"/>
+      <c r="W6" s="177"/>
+      <c r="X6" s="177"/>
+      <c r="Y6" s="177"/>
+      <c r="Z6" s="177"/>
+      <c r="AA6" s="177"/>
+      <c r="AB6" s="177"/>
+      <c r="AC6" s="177"/>
+      <c r="AD6" s="177"/>
+      <c r="AE6" s="177"/>
+      <c r="AF6" s="177"/>
+      <c r="AG6" s="177"/>
+      <c r="AH6" s="177"/>
+      <c r="AI6" s="177"/>
+      <c r="AJ6" s="177"/>
+      <c r="AK6" s="177"/>
+      <c r="AL6" s="177"/>
+      <c r="AM6" s="177"/>
+      <c r="AN6" s="177"/>
+      <c r="AO6" s="177"/>
+      <c r="AP6" s="551"/>
+      <c r="AQ6" s="551"/>
+      <c r="AR6" s="551"/>
+      <c r="AS6" s="551"/>
+      <c r="AT6" s="551"/>
+      <c r="AU6" s="551"/>
+      <c r="AV6" s="551"/>
+      <c r="AW6" s="790" t="s">
+        <v>18</v>
+      </c>
+      <c r="AX6" s="791"/>
+      <c r="AY6" s="791"/>
+      <c r="AZ6" s="791"/>
+      <c r="BA6" s="791"/>
+      <c r="BB6" s="791"/>
+      <c r="BC6" s="791"/>
+      <c r="BD6" s="791"/>
+      <c r="BE6" s="791"/>
+      <c r="BF6" s="791"/>
+      <c r="BG6" s="791"/>
+      <c r="BH6" s="791"/>
+      <c r="BI6" s="791"/>
+      <c r="BJ6" s="791"/>
+      <c r="BK6" s="791"/>
+      <c r="BL6" s="791"/>
+      <c r="BM6" s="792"/>
+      <c r="BN6" s="556"/>
+    </row>
+    <row r="7" customHeight="1" ht="12" customFormat="1" s="726">
+      <c r="A7" s="766"/>
+      <c r="B7" s="177"/>
+      <c r="C7" s="177"/>
+      <c r="D7" s="177"/>
+      <c r="E7" s="177"/>
+      <c r="F7" s="177"/>
+      <c r="G7" s="177"/>
+      <c r="H7" s="177"/>
+      <c r="I7" s="177"/>
+      <c r="J7" s="177"/>
+      <c r="K7" s="177"/>
+      <c r="L7" s="177"/>
+      <c r="M7" s="177"/>
+      <c r="N7" s="177"/>
+      <c r="O7" s="177"/>
+      <c r="P7" s="177"/>
+      <c r="Q7" s="177"/>
+      <c r="R7" s="177"/>
+      <c r="S7" s="177"/>
+      <c r="T7" s="177"/>
+      <c r="U7" s="177"/>
+      <c r="V7" s="177"/>
+      <c r="W7" s="177"/>
+      <c r="X7" s="177"/>
+      <c r="Y7" s="177"/>
+      <c r="Z7" s="177"/>
+      <c r="AA7" s="177"/>
+      <c r="AB7" s="177"/>
+      <c r="AC7" s="177"/>
+      <c r="AD7" s="177"/>
+      <c r="AE7" s="177"/>
+      <c r="AF7" s="177"/>
+      <c r="AG7" s="177"/>
+      <c r="AH7" s="177"/>
+      <c r="AI7" s="177"/>
+      <c r="AJ7" s="177"/>
+      <c r="AK7" s="177"/>
+      <c r="AL7" s="177"/>
+      <c r="AM7" s="177"/>
+      <c r="AN7" s="177"/>
+      <c r="AO7" s="177"/>
+      <c r="AP7" s="551"/>
+      <c r="AQ7" s="551"/>
+      <c r="AR7" s="551"/>
+      <c r="AS7" s="551"/>
+      <c r="AT7" s="551"/>
+      <c r="AU7" s="551"/>
+      <c r="AV7" s="551"/>
+      <c r="AW7" s="787"/>
+      <c r="AX7" s="788"/>
+      <c r="AY7" s="788"/>
+      <c r="AZ7" s="788"/>
+      <c r="BA7" s="788"/>
+      <c r="BB7" s="788"/>
+      <c r="BC7" s="788"/>
+      <c r="BD7" s="788"/>
+      <c r="BE7" s="788"/>
+      <c r="BF7" s="788"/>
+      <c r="BG7" s="788"/>
+      <c r="BH7" s="788"/>
+      <c r="BI7" s="788"/>
+      <c r="BJ7" s="788"/>
+      <c r="BK7" s="788"/>
+      <c r="BL7" s="788"/>
+      <c r="BM7" s="789"/>
+      <c r="BN7" s="556"/>
+    </row>
+    <row r="8" customHeight="1" ht="12" customFormat="1" s="726">
+      <c r="A8" s="766"/>
+      <c r="B8" s="177"/>
+      <c r="C8" s="177"/>
+      <c r="D8" s="177"/>
+      <c r="E8" s="177"/>
+      <c r="F8" s="177"/>
+      <c r="G8" s="177"/>
+      <c r="H8" s="177"/>
+      <c r="I8" s="177"/>
+      <c r="J8" s="177"/>
+      <c r="K8" s="177"/>
+      <c r="L8" s="177"/>
+      <c r="M8" s="177"/>
+      <c r="N8" s="177"/>
+      <c r="O8" s="177"/>
+      <c r="P8" s="177"/>
+      <c r="Q8" s="177"/>
+      <c r="R8" s="177"/>
+      <c r="S8" s="177"/>
+      <c r="T8" s="177"/>
+      <c r="U8" s="177"/>
+      <c r="V8" s="177"/>
+      <c r="W8" s="177"/>
+      <c r="X8" s="177"/>
+      <c r="Y8" s="177"/>
+      <c r="Z8" s="177"/>
+      <c r="AA8" s="177"/>
+      <c r="AB8" s="177"/>
+      <c r="AC8" s="177"/>
+      <c r="AD8" s="177"/>
+      <c r="AE8" s="177"/>
+      <c r="AF8" s="177"/>
+      <c r="AG8" s="177"/>
+      <c r="AH8" s="177"/>
+      <c r="AI8" s="177"/>
+      <c r="AJ8" s="177"/>
+      <c r="AK8" s="177"/>
+      <c r="AL8" s="177"/>
+      <c r="AM8" s="177"/>
+      <c r="AN8" s="177"/>
+      <c r="AO8" s="177"/>
+      <c r="AP8" s="551"/>
+      <c r="AQ8" s="551"/>
+      <c r="AR8" s="551"/>
+      <c r="AS8" s="551"/>
+      <c r="AT8" s="551"/>
+      <c r="AU8" s="551"/>
+      <c r="AV8" s="551"/>
+      <c r="AW8" s="773"/>
+      <c r="AX8" s="551"/>
+      <c r="AY8" s="551"/>
+      <c r="AZ8" s="551"/>
+      <c r="BA8" s="551"/>
+      <c r="BB8" s="551"/>
+      <c r="BC8" s="551"/>
+      <c r="BD8" s="551"/>
+      <c r="BE8" s="551"/>
+      <c r="BF8" s="177"/>
+      <c r="BG8" s="177"/>
+      <c r="BH8" s="177"/>
+      <c r="BI8" s="177"/>
+      <c r="BJ8" s="177"/>
+      <c r="BK8" s="177"/>
+      <c r="BL8" s="177"/>
+      <c r="BM8" s="179"/>
+      <c r="BN8" s="556"/>
+    </row>
+    <row r="9" customHeight="1" ht="12" customFormat="1" s="726">
+      <c r="A9" s="766"/>
+      <c r="B9" s="177"/>
+      <c r="C9" s="177"/>
+      <c r="D9" s="177"/>
+      <c r="E9" s="177"/>
+      <c r="F9" s="177"/>
+      <c r="G9" s="177"/>
+      <c r="H9" s="177"/>
+      <c r="I9" s="177"/>
+      <c r="J9" s="177"/>
+      <c r="K9" s="177"/>
+      <c r="L9" s="177"/>
+      <c r="M9" s="177"/>
+      <c r="N9" s="177"/>
+      <c r="O9" s="177"/>
+      <c r="P9" s="177"/>
+      <c r="Q9" s="177"/>
+      <c r="R9" s="177"/>
+      <c r="S9" s="177"/>
+      <c r="T9" s="177"/>
+      <c r="U9" s="177"/>
+      <c r="V9" s="177"/>
+      <c r="W9" s="177"/>
+      <c r="X9" s="177"/>
+      <c r="Y9" s="177"/>
+      <c r="Z9" s="177"/>
+      <c r="AA9" s="177"/>
+      <c r="AB9" s="177"/>
+      <c r="AC9" s="177"/>
+      <c r="AD9" s="177"/>
+      <c r="AE9" s="177"/>
+      <c r="AF9" s="177"/>
+      <c r="AG9" s="177"/>
+      <c r="AH9" s="177"/>
+      <c r="AI9" s="177"/>
+      <c r="AJ9" s="177"/>
+      <c r="AK9" s="177"/>
+      <c r="AL9" s="177"/>
+      <c r="AM9" s="177"/>
+      <c r="AN9" s="177"/>
+      <c r="AO9" s="177"/>
+      <c r="AP9" s="551"/>
+      <c r="AQ9" s="551"/>
+      <c r="AR9" s="551"/>
+      <c r="AS9" s="551"/>
+      <c r="AT9" s="551"/>
+      <c r="AU9" s="551"/>
+      <c r="AV9" s="551"/>
+      <c r="AW9" s="773"/>
+      <c r="AX9" s="551"/>
+      <c r="AY9" s="551"/>
+      <c r="AZ9" s="551"/>
+      <c r="BA9" s="551"/>
+      <c r="BB9" s="551"/>
+      <c r="BC9" s="551"/>
+      <c r="BD9" s="551"/>
+      <c r="BE9" s="551"/>
+      <c r="BF9" s="177"/>
+      <c r="BG9" s="177"/>
+      <c r="BH9" s="177"/>
+      <c r="BI9" s="177"/>
+      <c r="BJ9" s="177"/>
+      <c r="BK9" s="177"/>
+      <c r="BL9" s="177"/>
+      <c r="BM9" s="179"/>
+      <c r="BN9" s="556"/>
+    </row>
+    <row r="10" customHeight="1" ht="12" customFormat="1" s="726">
+      <c r="A10" s="766"/>
+      <c r="B10" s="177"/>
+      <c r="C10" s="177"/>
+      <c r="D10" s="177"/>
+      <c r="E10" s="177"/>
+      <c r="F10" s="177"/>
+      <c r="G10" s="177"/>
+      <c r="H10" s="177"/>
+      <c r="I10" s="177"/>
+      <c r="J10" s="177"/>
+      <c r="K10" s="177"/>
+      <c r="L10" s="177"/>
+      <c r="M10" s="177"/>
+      <c r="N10" s="177"/>
+      <c r="O10" s="177"/>
+      <c r="P10" s="177"/>
+      <c r="Q10" s="177"/>
+      <c r="R10" s="177"/>
+      <c r="S10" s="177"/>
+      <c r="T10" s="177"/>
+      <c r="U10" s="177"/>
+      <c r="V10" s="177"/>
+      <c r="W10" s="177"/>
+      <c r="X10" s="177"/>
+      <c r="Y10" s="177"/>
+      <c r="Z10" s="177"/>
+      <c r="AA10" s="177"/>
+      <c r="AB10" s="177"/>
+      <c r="AC10" s="177"/>
+      <c r="AD10" s="177"/>
+      <c r="AE10" s="177"/>
+      <c r="AF10" s="177"/>
+      <c r="AG10" s="177"/>
+      <c r="AH10" s="177"/>
+      <c r="AI10" s="177"/>
+      <c r="AJ10" s="177"/>
+      <c r="AK10" s="177"/>
+      <c r="AL10" s="177"/>
+      <c r="AM10" s="177"/>
+      <c r="AN10" s="177"/>
+      <c r="AO10" s="177"/>
+      <c r="AP10" s="551"/>
+      <c r="AQ10" s="551"/>
+      <c r="AR10" s="551"/>
+      <c r="AS10" s="551"/>
+      <c r="AT10" s="551"/>
+      <c r="AU10" s="551"/>
+      <c r="AV10" s="551"/>
+      <c r="AW10" s="773"/>
+      <c r="AX10" s="551"/>
+      <c r="AY10" s="551"/>
+      <c r="AZ10" s="551"/>
+      <c r="BA10" s="551"/>
+      <c r="BB10" s="551"/>
+      <c r="BC10" s="551"/>
+      <c r="BD10" s="551"/>
+      <c r="BE10" s="551"/>
+      <c r="BF10" s="177"/>
+      <c r="BG10" s="177"/>
+      <c r="BH10" s="177"/>
+      <c r="BI10" s="177"/>
+      <c r="BJ10" s="177"/>
+      <c r="BK10" s="177"/>
+      <c r="BL10" s="177"/>
+      <c r="BM10" s="179"/>
+      <c r="BN10" s="556"/>
+    </row>
+    <row r="11" customHeight="1" ht="12" customFormat="1" s="726">
+      <c r="A11" s="766"/>
+      <c r="B11" s="177"/>
+      <c r="C11" s="177"/>
+      <c r="D11" s="177"/>
+      <c r="E11" s="177"/>
+      <c r="F11" s="177"/>
+      <c r="G11" s="177"/>
+      <c r="H11" s="177"/>
+      <c r="I11" s="177"/>
+      <c r="J11" s="177"/>
+      <c r="K11" s="177"/>
+      <c r="L11" s="177"/>
+      <c r="M11" s="177"/>
+      <c r="N11" s="177"/>
+      <c r="O11" s="177"/>
+      <c r="P11" s="177"/>
+      <c r="Q11" s="177"/>
+      <c r="R11" s="177"/>
+      <c r="S11" s="177"/>
+      <c r="T11" s="177"/>
+      <c r="U11" s="177"/>
+      <c r="V11" s="177"/>
+      <c r="W11" s="177"/>
+      <c r="X11" s="177"/>
+      <c r="Y11" s="177"/>
+      <c r="Z11" s="177"/>
+      <c r="AA11" s="177"/>
+      <c r="AB11" s="177"/>
+      <c r="AC11" s="177"/>
+      <c r="AD11" s="177"/>
+      <c r="AE11" s="177"/>
+      <c r="AF11" s="177"/>
+      <c r="AG11" s="177"/>
+      <c r="AH11" s="177"/>
+      <c r="AI11" s="177"/>
+      <c r="AJ11" s="177"/>
+      <c r="AK11" s="177"/>
+      <c r="AL11" s="177"/>
+      <c r="AM11" s="177"/>
+      <c r="AN11" s="177"/>
+      <c r="AO11" s="177"/>
+      <c r="AP11" s="551"/>
+      <c r="AQ11" s="551"/>
+      <c r="AR11" s="551"/>
+      <c r="AS11" s="551"/>
+      <c r="AT11" s="551"/>
+      <c r="AU11" s="551"/>
+      <c r="AV11" s="551"/>
+      <c r="AW11" s="773"/>
+      <c r="AX11" s="551"/>
+      <c r="AY11" s="551"/>
+      <c r="AZ11" s="551"/>
+      <c r="BA11" s="551"/>
+      <c r="BB11" s="551"/>
+      <c r="BC11" s="551"/>
+      <c r="BD11" s="551"/>
+      <c r="BE11" s="551"/>
+      <c r="BF11" s="177"/>
+      <c r="BG11" s="177"/>
+      <c r="BH11" s="177"/>
+      <c r="BI11" s="177"/>
+      <c r="BJ11" s="177"/>
+      <c r="BK11" s="177"/>
+      <c r="BL11" s="177"/>
+      <c r="BM11" s="179"/>
+      <c r="BN11" s="556"/>
+    </row>
+    <row r="12" customHeight="1" ht="12" customFormat="1" s="726">
+      <c r="A12" s="766"/>
+      <c r="B12" s="177"/>
+      <c r="C12" s="177"/>
+      <c r="D12" s="177"/>
+      <c r="E12" s="177"/>
+      <c r="F12" s="177"/>
+      <c r="G12" s="177"/>
+      <c r="H12" s="177"/>
+      <c r="I12" s="177"/>
+      <c r="J12" s="177"/>
+      <c r="K12" s="177"/>
+      <c r="L12" s="177"/>
+      <c r="M12" s="177"/>
+      <c r="N12" s="177"/>
+      <c r="O12" s="177"/>
+      <c r="P12" s="177"/>
+      <c r="Q12" s="177"/>
+      <c r="R12" s="177"/>
+      <c r="S12" s="177"/>
+      <c r="T12" s="177"/>
+      <c r="U12" s="177"/>
+      <c r="V12" s="177"/>
+      <c r="W12" s="177"/>
+      <c r="X12" s="177"/>
+      <c r="Y12" s="177"/>
+      <c r="Z12" s="177"/>
+      <c r="AA12" s="177"/>
+      <c r="AB12" s="177"/>
+      <c r="AC12" s="177"/>
+      <c r="AD12" s="177"/>
+      <c r="AE12" s="177"/>
+      <c r="AF12" s="177"/>
+      <c r="AG12" s="177"/>
+      <c r="AH12" s="177"/>
+      <c r="AI12" s="177"/>
+      <c r="AJ12" s="177"/>
+      <c r="AK12" s="177"/>
+      <c r="AL12" s="177"/>
+      <c r="AM12" s="177"/>
+      <c r="AN12" s="177"/>
+      <c r="AO12" s="177"/>
+      <c r="AP12" s="551"/>
+      <c r="AQ12" s="551"/>
+      <c r="AR12" s="551"/>
+      <c r="AS12" s="551"/>
+      <c r="AT12" s="551"/>
+      <c r="AU12" s="551"/>
+      <c r="AV12" s="551"/>
+      <c r="AW12" s="773"/>
+      <c r="AX12" s="551"/>
+      <c r="AY12" s="551"/>
+      <c r="AZ12" s="551"/>
+      <c r="BA12" s="551"/>
+      <c r="BB12" s="551"/>
+      <c r="BC12" s="551"/>
+      <c r="BD12" s="551"/>
+      <c r="BE12" s="551"/>
+      <c r="BF12" s="177"/>
+      <c r="BG12" s="177"/>
+      <c r="BH12" s="177"/>
+      <c r="BI12" s="177"/>
+      <c r="BJ12" s="177"/>
+      <c r="BK12" s="177"/>
+      <c r="BL12" s="177"/>
+      <c r="BM12" s="179"/>
+      <c r="BN12" s="556"/>
+    </row>
+    <row r="13" customHeight="1" ht="12" customFormat="1" s="726">
+      <c r="A13" s="766"/>
+      <c r="B13" s="177"/>
+      <c r="C13" s="177"/>
+      <c r="D13" s="177"/>
+      <c r="E13" s="177"/>
+      <c r="F13" s="177"/>
+      <c r="G13" s="177"/>
+      <c r="H13" s="177"/>
+      <c r="I13" s="177"/>
+      <c r="J13" s="177"/>
+      <c r="K13" s="177"/>
+      <c r="L13" s="177"/>
+      <c r="M13" s="177"/>
+      <c r="N13" s="177"/>
+      <c r="O13" s="177"/>
+      <c r="P13" s="177"/>
+      <c r="Q13" s="177"/>
+      <c r="R13" s="177"/>
+      <c r="S13" s="177"/>
+      <c r="T13" s="177"/>
+      <c r="U13" s="177"/>
+      <c r="V13" s="177"/>
+      <c r="W13" s="177"/>
+      <c r="X13" s="177"/>
+      <c r="Y13" s="177"/>
+      <c r="Z13" s="177"/>
+      <c r="AA13" s="177"/>
+      <c r="AB13" s="177"/>
+      <c r="AC13" s="177"/>
+      <c r="AD13" s="177"/>
+      <c r="AE13" s="177"/>
+      <c r="AF13" s="177"/>
+      <c r="AG13" s="177"/>
+      <c r="AH13" s="177"/>
+      <c r="AI13" s="177"/>
+      <c r="AJ13" s="177"/>
+      <c r="AK13" s="177"/>
+      <c r="AL13" s="177"/>
+      <c r="AM13" s="177"/>
+      <c r="AN13" s="177"/>
+      <c r="AO13" s="177"/>
+      <c r="AP13" s="551"/>
+      <c r="AQ13" s="551"/>
+      <c r="AR13" s="551"/>
+      <c r="AS13" s="551"/>
+      <c r="AT13" s="551"/>
+      <c r="AU13" s="551"/>
+      <c r="AV13" s="551"/>
+      <c r="AW13" s="773"/>
+      <c r="AX13" s="551"/>
+      <c r="AY13" s="551"/>
+      <c r="AZ13" s="551"/>
+      <c r="BA13" s="551"/>
+      <c r="BB13" s="551"/>
+      <c r="BC13" s="551"/>
+      <c r="BD13" s="551"/>
+      <c r="BE13" s="551"/>
+      <c r="BF13" s="177"/>
+      <c r="BG13" s="177"/>
+      <c r="BH13" s="177"/>
+      <c r="BI13" s="177"/>
+      <c r="BJ13" s="177"/>
+      <c r="BK13" s="177"/>
+      <c r="BL13" s="177"/>
+      <c r="BM13" s="179"/>
+      <c r="BN13" s="556"/>
+    </row>
+    <row r="14" customHeight="1" ht="12" customFormat="1" s="726">
+      <c r="A14" s="766"/>
+      <c r="B14" s="177"/>
+      <c r="C14" s="177"/>
+      <c r="D14" s="177"/>
+      <c r="E14" s="177"/>
+      <c r="F14" s="177"/>
+      <c r="G14" s="177"/>
+      <c r="H14" s="177"/>
+      <c r="I14" s="177"/>
+      <c r="J14" s="177"/>
+      <c r="K14" s="177"/>
+      <c r="L14" s="177"/>
+      <c r="M14" s="177"/>
+      <c r="N14" s="177"/>
+      <c r="O14" s="177"/>
+      <c r="P14" s="177"/>
+      <c r="Q14" s="177"/>
+      <c r="R14" s="177"/>
+      <c r="S14" s="177"/>
+      <c r="T14" s="177"/>
+      <c r="U14" s="177"/>
+      <c r="V14" s="177"/>
+      <c r="W14" s="177"/>
+      <c r="X14" s="177"/>
+      <c r="Y14" s="177"/>
+      <c r="Z14" s="177"/>
+      <c r="AA14" s="177"/>
+      <c r="AB14" s="177"/>
+      <c r="AC14" s="177"/>
+      <c r="AD14" s="177"/>
+      <c r="AE14" s="177"/>
+      <c r="AF14" s="177"/>
+      <c r="AG14" s="177"/>
+      <c r="AH14" s="177"/>
+      <c r="AI14" s="177"/>
+      <c r="AJ14" s="177"/>
+      <c r="AK14" s="177"/>
+      <c r="AL14" s="177"/>
+      <c r="AM14" s="177"/>
+      <c r="AN14" s="177"/>
+      <c r="AO14" s="177"/>
+      <c r="AP14" s="551"/>
+      <c r="AQ14" s="551"/>
+      <c r="AR14" s="551"/>
+      <c r="AS14" s="551"/>
+      <c r="AT14" s="551"/>
+      <c r="AU14" s="551"/>
+      <c r="AV14" s="551"/>
+      <c r="AW14" s="773"/>
+      <c r="AX14" s="551"/>
+      <c r="AY14" s="551"/>
+      <c r="AZ14" s="551"/>
+      <c r="BA14" s="551"/>
+      <c r="BB14" s="551"/>
+      <c r="BC14" s="551"/>
+      <c r="BD14" s="551"/>
+      <c r="BE14" s="551"/>
+      <c r="BF14" s="177"/>
+      <c r="BG14" s="177"/>
+      <c r="BH14" s="177"/>
+      <c r="BI14" s="177"/>
+      <c r="BJ14" s="177"/>
+      <c r="BK14" s="177"/>
+      <c r="BL14" s="177"/>
+      <c r="BM14" s="179"/>
+      <c r="BN14" s="556"/>
+    </row>
+    <row r="15" customHeight="1" ht="12" customFormat="1" s="726">
+      <c r="A15" s="766"/>
+      <c r="B15" s="177"/>
+      <c r="C15" s="177"/>
+      <c r="D15" s="177"/>
+      <c r="E15" s="177"/>
+      <c r="F15" s="177"/>
+      <c r="G15" s="177"/>
+      <c r="H15" s="177"/>
+      <c r="I15" s="177"/>
+      <c r="J15" s="177"/>
+      <c r="K15" s="177"/>
+      <c r="L15" s="177"/>
+      <c r="M15" s="177"/>
+      <c r="N15" s="177"/>
+      <c r="O15" s="177"/>
+      <c r="P15" s="177"/>
+      <c r="Q15" s="177"/>
+      <c r="R15" s="177"/>
+      <c r="S15" s="177"/>
+      <c r="T15" s="177"/>
+      <c r="U15" s="177"/>
+      <c r="V15" s="177"/>
+      <c r="W15" s="177"/>
+      <c r="X15" s="177"/>
+      <c r="Y15" s="177"/>
+      <c r="Z15" s="177"/>
+      <c r="AA15" s="177"/>
+      <c r="AB15" s="177"/>
+      <c r="AC15" s="177"/>
+      <c r="AD15" s="177"/>
+      <c r="AE15" s="177"/>
+      <c r="AF15" s="177"/>
+      <c r="AG15" s="177"/>
+      <c r="AH15" s="177"/>
+      <c r="AI15" s="177"/>
+      <c r="AJ15" s="177"/>
+      <c r="AK15" s="177"/>
+      <c r="AL15" s="177"/>
+      <c r="AM15" s="177"/>
+      <c r="AN15" s="177"/>
+      <c r="AO15" s="177"/>
+      <c r="AP15" s="551"/>
+      <c r="AQ15" s="551"/>
+      <c r="AR15" s="551"/>
+      <c r="AS15" s="551"/>
+      <c r="AT15" s="551"/>
+      <c r="AU15" s="551"/>
+      <c r="AV15" s="551"/>
+      <c r="AW15" s="773"/>
+      <c r="AX15" s="551"/>
+      <c r="AY15" s="551"/>
+      <c r="AZ15" s="551"/>
+      <c r="BA15" s="551"/>
+      <c r="BB15" s="551"/>
+      <c r="BC15" s="551"/>
+      <c r="BD15" s="551"/>
+      <c r="BE15" s="551"/>
+      <c r="BF15" s="177"/>
+      <c r="BG15" s="177"/>
+      <c r="BH15" s="177"/>
+      <c r="BI15" s="177"/>
+      <c r="BJ15" s="177"/>
+      <c r="BK15" s="177"/>
+      <c r="BL15" s="177"/>
+      <c r="BM15" s="179"/>
+      <c r="BN15" s="556"/>
+    </row>
+    <row r="16" customHeight="1" ht="12" customFormat="1" s="726">
+      <c r="A16" s="766"/>
+      <c r="B16" s="177"/>
+      <c r="C16" s="177"/>
+      <c r="D16" s="177"/>
+      <c r="E16" s="177"/>
+      <c r="F16" s="177"/>
+      <c r="G16" s="177"/>
+      <c r="H16" s="177"/>
+      <c r="I16" s="177"/>
+      <c r="J16" s="177"/>
+      <c r="K16" s="177"/>
+      <c r="L16" s="177"/>
+      <c r="M16" s="177"/>
+      <c r="N16" s="177"/>
+      <c r="O16" s="177"/>
+      <c r="P16" s="177"/>
+      <c r="Q16" s="177"/>
+      <c r="R16" s="177"/>
+      <c r="S16" s="177"/>
+      <c r="T16" s="177"/>
+      <c r="U16" s="177"/>
+      <c r="V16" s="177"/>
+      <c r="W16" s="177"/>
+      <c r="X16" s="177"/>
+      <c r="Y16" s="177"/>
+      <c r="Z16" s="177"/>
+      <c r="AA16" s="177"/>
+      <c r="AB16" s="177"/>
+      <c r="AC16" s="177"/>
+      <c r="AD16" s="177"/>
+      <c r="AE16" s="177"/>
+      <c r="AF16" s="177"/>
+      <c r="AG16" s="177"/>
+      <c r="AH16" s="177"/>
+      <c r="AI16" s="177"/>
+      <c r="AJ16" s="177"/>
+      <c r="AK16" s="177"/>
+      <c r="AL16" s="177"/>
+      <c r="AM16" s="177"/>
+      <c r="AN16" s="177"/>
+      <c r="AO16" s="177"/>
+      <c r="AP16" s="551"/>
+      <c r="AQ16" s="551"/>
+      <c r="AR16" s="551"/>
+      <c r="AS16" s="551"/>
+      <c r="AT16" s="551"/>
+      <c r="AU16" s="551"/>
+      <c r="AV16" s="551"/>
+      <c r="AW16" s="773"/>
+      <c r="AX16" s="551"/>
+      <c r="AY16" s="551"/>
+      <c r="AZ16" s="551"/>
+      <c r="BA16" s="551"/>
+      <c r="BB16" s="551"/>
+      <c r="BC16" s="551"/>
+      <c r="BD16" s="551"/>
+      <c r="BE16" s="551"/>
+      <c r="BF16" s="177"/>
+      <c r="BG16" s="177"/>
+      <c r="BH16" s="177"/>
+      <c r="BI16" s="177"/>
+      <c r="BJ16" s="177"/>
+      <c r="BK16" s="177"/>
+      <c r="BL16" s="177"/>
+      <c r="BM16" s="179"/>
+      <c r="BN16" s="556"/>
+    </row>
+    <row r="17" customHeight="1" ht="12" customFormat="1" s="726">
+      <c r="A17" s="766"/>
+      <c r="B17" s="177"/>
+      <c r="C17" s="177"/>
+      <c r="D17" s="177"/>
+      <c r="E17" s="177"/>
+      <c r="F17" s="177"/>
+      <c r="G17" s="177"/>
+      <c r="H17" s="177"/>
+      <c r="I17" s="177"/>
+      <c r="J17" s="177"/>
+      <c r="K17" s="177"/>
+      <c r="L17" s="177"/>
+      <c r="M17" s="177"/>
+      <c r="N17" s="177"/>
+      <c r="O17" s="177"/>
+      <c r="P17" s="177"/>
+      <c r="Q17" s="177"/>
+      <c r="R17" s="177"/>
+      <c r="S17" s="177"/>
+      <c r="T17" s="177"/>
+      <c r="U17" s="177"/>
+      <c r="V17" s="177"/>
+      <c r="W17" s="177"/>
+      <c r="X17" s="177"/>
+      <c r="Y17" s="177"/>
+      <c r="Z17" s="177"/>
+      <c r="AA17" s="177"/>
+      <c r="AB17" s="177"/>
+      <c r="AC17" s="177"/>
+      <c r="AD17" s="177"/>
+      <c r="AE17" s="177"/>
+      <c r="AF17" s="177"/>
+      <c r="AG17" s="177"/>
+      <c r="AH17" s="177"/>
+      <c r="AI17" s="177"/>
+      <c r="AJ17" s="177"/>
+      <c r="AK17" s="177"/>
+      <c r="AL17" s="177"/>
+      <c r="AM17" s="177"/>
+      <c r="AN17" s="177"/>
+      <c r="AO17" s="177"/>
+      <c r="AP17" s="551"/>
+      <c r="AQ17" s="551"/>
+      <c r="AR17" s="551"/>
+      <c r="AS17" s="551"/>
+      <c r="AT17" s="551"/>
+      <c r="AU17" s="551"/>
+      <c r="AV17" s="551"/>
+      <c r="AW17" s="773"/>
+      <c r="AX17" s="551"/>
+      <c r="AY17" s="551"/>
+      <c r="AZ17" s="551"/>
+      <c r="BA17" s="551"/>
+      <c r="BB17" s="551"/>
+      <c r="BC17" s="551"/>
+      <c r="BD17" s="551"/>
+      <c r="BE17" s="551"/>
+      <c r="BF17" s="177"/>
+      <c r="BG17" s="177"/>
+      <c r="BH17" s="177"/>
+      <c r="BI17" s="177"/>
+      <c r="BJ17" s="177"/>
+      <c r="BK17" s="177"/>
+      <c r="BL17" s="177"/>
+      <c r="BM17" s="179"/>
+      <c r="BN17" s="556"/>
+    </row>
+    <row r="18" customHeight="1" ht="12" customFormat="1" s="726">
+      <c r="A18" s="766"/>
+      <c r="B18" s="177"/>
+      <c r="C18" s="177"/>
+      <c r="D18" s="177"/>
+      <c r="E18" s="177"/>
+      <c r="F18" s="177"/>
+      <c r="G18" s="177"/>
+      <c r="H18" s="177"/>
+      <c r="I18" s="177"/>
+      <c r="J18" s="177"/>
+      <c r="K18" s="177"/>
+      <c r="L18" s="177"/>
+      <c r="M18" s="177"/>
+      <c r="N18" s="177"/>
+      <c r="O18" s="177"/>
+      <c r="P18" s="177"/>
+      <c r="Q18" s="177"/>
+      <c r="R18" s="177"/>
+      <c r="S18" s="177"/>
+      <c r="T18" s="177"/>
+      <c r="U18" s="177"/>
+      <c r="V18" s="177"/>
+      <c r="W18" s="177"/>
+      <c r="X18" s="177"/>
+      <c r="Y18" s="177"/>
+      <c r="Z18" s="177"/>
+      <c r="AA18" s="177"/>
+      <c r="AB18" s="177"/>
+      <c r="AC18" s="177"/>
+      <c r="AD18" s="177"/>
+      <c r="AE18" s="177"/>
+      <c r="AF18" s="177"/>
+      <c r="AG18" s="177"/>
+      <c r="AH18" s="177"/>
+      <c r="AI18" s="177"/>
+      <c r="AJ18" s="177"/>
+      <c r="AK18" s="177"/>
+      <c r="AL18" s="177"/>
+      <c r="AM18" s="177"/>
+      <c r="AN18" s="177"/>
+      <c r="AO18" s="177"/>
+      <c r="AP18" s="551"/>
+      <c r="AQ18" s="551"/>
+      <c r="AR18" s="551"/>
+      <c r="AS18" s="551"/>
+      <c r="AT18" s="551"/>
+      <c r="AU18" s="551"/>
+      <c r="AV18" s="551"/>
+      <c r="AW18" s="773"/>
+      <c r="AX18" s="551"/>
+      <c r="AY18" s="551"/>
+      <c r="AZ18" s="551"/>
+      <c r="BA18" s="551"/>
+      <c r="BB18" s="551"/>
+      <c r="BC18" s="551"/>
+      <c r="BD18" s="551"/>
+      <c r="BE18" s="551"/>
+      <c r="BF18" s="177"/>
+      <c r="BG18" s="177"/>
+      <c r="BH18" s="177"/>
+      <c r="BI18" s="177"/>
+      <c r="BJ18" s="177"/>
+      <c r="BK18" s="177"/>
+      <c r="BL18" s="177"/>
+      <c r="BM18" s="179"/>
+      <c r="BN18" s="556"/>
+    </row>
+    <row r="19" customHeight="1" ht="12" customFormat="1" s="726">
+      <c r="A19" s="766"/>
+      <c r="B19" s="177"/>
+      <c r="C19" s="177"/>
+      <c r="D19" s="177"/>
+      <c r="E19" s="177"/>
+      <c r="F19" s="177"/>
+      <c r="G19" s="177"/>
+      <c r="H19" s="177"/>
+      <c r="I19" s="177"/>
+      <c r="J19" s="177"/>
+      <c r="K19" s="177"/>
+      <c r="L19" s="177"/>
+      <c r="M19" s="177"/>
+      <c r="N19" s="177"/>
+      <c r="O19" s="177"/>
+      <c r="P19" s="177"/>
+      <c r="Q19" s="177"/>
+      <c r="R19" s="177"/>
+      <c r="S19" s="177"/>
+      <c r="T19" s="177"/>
+      <c r="U19" s="177"/>
+      <c r="V19" s="177"/>
+      <c r="W19" s="177"/>
+      <c r="X19" s="177"/>
+      <c r="Y19" s="177"/>
+      <c r="Z19" s="177"/>
+      <c r="AA19" s="177"/>
+      <c r="AB19" s="177"/>
+      <c r="AC19" s="177"/>
+      <c r="AD19" s="177"/>
+      <c r="AE19" s="177"/>
+      <c r="AF19" s="177"/>
+      <c r="AG19" s="177"/>
+      <c r="AH19" s="177"/>
+      <c r="AI19" s="177"/>
+      <c r="AJ19" s="177"/>
+      <c r="AK19" s="177"/>
+      <c r="AL19" s="177"/>
+      <c r="AM19" s="177"/>
+      <c r="AN19" s="177"/>
+      <c r="AO19" s="177"/>
+      <c r="AP19" s="551"/>
+      <c r="AQ19" s="551"/>
+      <c r="AR19" s="551"/>
+      <c r="AS19" s="551"/>
+      <c r="AT19" s="551"/>
+      <c r="AU19" s="551"/>
+      <c r="AV19" s="551"/>
+      <c r="AW19" s="773"/>
+      <c r="AX19" s="551"/>
+      <c r="AY19" s="551"/>
+      <c r="AZ19" s="551"/>
+      <c r="BA19" s="551"/>
+      <c r="BB19" s="551"/>
+      <c r="BC19" s="551"/>
+      <c r="BD19" s="551"/>
+      <c r="BE19" s="551"/>
+      <c r="BF19" s="177"/>
+      <c r="BG19" s="177"/>
+      <c r="BH19" s="177"/>
+      <c r="BI19" s="177"/>
+      <c r="BJ19" s="177"/>
+      <c r="BK19" s="177"/>
+      <c r="BL19" s="177"/>
+      <c r="BM19" s="179"/>
+      <c r="BN19" s="556"/>
+    </row>
+    <row r="20" customHeight="1" ht="12" customFormat="1" s="726">
+      <c r="A20" s="766"/>
+      <c r="B20" s="177"/>
+      <c r="C20" s="177"/>
+      <c r="D20" s="177"/>
+      <c r="E20" s="177"/>
+      <c r="F20" s="177"/>
+      <c r="G20" s="177"/>
+      <c r="H20" s="177"/>
+      <c r="I20" s="177"/>
+      <c r="J20" s="177"/>
+      <c r="K20" s="177"/>
+      <c r="L20" s="177"/>
+      <c r="M20" s="177"/>
+      <c r="N20" s="177"/>
+      <c r="O20" s="177"/>
+      <c r="P20" s="177"/>
+      <c r="Q20" s="177"/>
+      <c r="R20" s="177"/>
+      <c r="S20" s="177"/>
+      <c r="T20" s="177"/>
+      <c r="U20" s="177"/>
+      <c r="V20" s="177"/>
+      <c r="W20" s="177"/>
+      <c r="X20" s="177"/>
+      <c r="Y20" s="177"/>
+      <c r="Z20" s="177"/>
+      <c r="AA20" s="177"/>
+      <c r="AB20" s="177"/>
+      <c r="AC20" s="177"/>
+      <c r="AD20" s="177"/>
+      <c r="AE20" s="177"/>
+      <c r="AF20" s="177"/>
+      <c r="AG20" s="177"/>
+      <c r="AH20" s="177"/>
+      <c r="AI20" s="177"/>
+      <c r="AJ20" s="177"/>
+      <c r="AK20" s="177"/>
+      <c r="AL20" s="177"/>
+      <c r="AM20" s="177"/>
+      <c r="AN20" s="177"/>
+      <c r="AO20" s="177"/>
+      <c r="AP20" s="551"/>
+      <c r="AQ20" s="551"/>
+      <c r="AR20" s="551"/>
+      <c r="AS20" s="551"/>
+      <c r="AT20" s="551"/>
+      <c r="AU20" s="551"/>
+      <c r="AV20" s="551"/>
+      <c r="AW20" s="773"/>
+      <c r="AX20" s="551"/>
+      <c r="AY20" s="551"/>
+      <c r="AZ20" s="551"/>
+      <c r="BA20" s="551"/>
+      <c r="BB20" s="551"/>
+      <c r="BC20" s="551"/>
+      <c r="BD20" s="551"/>
+      <c r="BE20" s="551"/>
+      <c r="BF20" s="177"/>
+      <c r="BG20" s="177"/>
+      <c r="BH20" s="177"/>
+      <c r="BI20" s="177"/>
+      <c r="BJ20" s="177"/>
+      <c r="BK20" s="177"/>
+      <c r="BL20" s="177"/>
+      <c r="BM20" s="179"/>
+      <c r="BN20" s="556"/>
+    </row>
+    <row r="21" customHeight="1" ht="12" customFormat="1" s="726">
+      <c r="A21" s="766"/>
+      <c r="B21" s="177"/>
+      <c r="C21" s="177"/>
+      <c r="D21" s="177"/>
+      <c r="E21" s="177"/>
+      <c r="F21" s="177"/>
+      <c r="G21" s="177"/>
+      <c r="H21" s="177"/>
+      <c r="I21" s="177"/>
+      <c r="J21" s="177"/>
+      <c r="K21" s="177"/>
+      <c r="L21" s="177"/>
+      <c r="M21" s="177"/>
+      <c r="N21" s="177"/>
+      <c r="O21" s="177"/>
+      <c r="P21" s="177"/>
+      <c r="Q21" s="177"/>
+      <c r="R21" s="177"/>
+      <c r="S21" s="177"/>
+      <c r="T21" s="177"/>
+      <c r="U21" s="177"/>
+      <c r="V21" s="177"/>
+      <c r="W21" s="177"/>
+      <c r="X21" s="177"/>
+      <c r="Y21" s="177"/>
+      <c r="Z21" s="177"/>
+      <c r="AA21" s="177"/>
+      <c r="AB21" s="177"/>
+      <c r="AC21" s="177"/>
+      <c r="AD21" s="177"/>
+      <c r="AE21" s="177"/>
+      <c r="AF21" s="177"/>
+      <c r="AG21" s="177"/>
+      <c r="AH21" s="177"/>
+      <c r="AI21" s="177"/>
+      <c r="AJ21" s="177"/>
+      <c r="AK21" s="177"/>
+      <c r="AL21" s="177"/>
+      <c r="AM21" s="177"/>
+      <c r="AN21" s="177"/>
+      <c r="AO21" s="177"/>
+      <c r="AP21" s="551"/>
+      <c r="AQ21" s="551"/>
+      <c r="AR21" s="551"/>
+      <c r="AS21" s="551"/>
+      <c r="AT21" s="551"/>
+      <c r="AU21" s="551"/>
+      <c r="AV21" s="551"/>
+      <c r="AW21" s="773"/>
+      <c r="AX21" s="551"/>
+      <c r="AY21" s="551"/>
+      <c r="AZ21" s="551"/>
+      <c r="BA21" s="551"/>
+      <c r="BB21" s="551"/>
+      <c r="BC21" s="551"/>
+      <c r="BD21" s="551"/>
+      <c r="BE21" s="551"/>
+      <c r="BF21" s="177"/>
+      <c r="BG21" s="177"/>
+      <c r="BH21" s="177"/>
+      <c r="BI21" s="177"/>
+      <c r="BJ21" s="177"/>
+      <c r="BK21" s="177"/>
+      <c r="BL21" s="177"/>
+      <c r="BM21" s="179"/>
+      <c r="BN21" s="556"/>
+    </row>
+    <row r="22" customHeight="1" ht="12" customFormat="1" s="726">
+      <c r="A22" s="766"/>
+      <c r="B22" s="177"/>
+      <c r="C22" s="177"/>
+      <c r="D22" s="177"/>
+      <c r="E22" s="177"/>
+      <c r="F22" s="177"/>
+      <c r="G22" s="177"/>
+      <c r="H22" s="177"/>
+      <c r="I22" s="177"/>
+      <c r="J22" s="177"/>
+      <c r="K22" s="177"/>
+      <c r="L22" s="177"/>
+      <c r="M22" s="177"/>
+      <c r="N22" s="177"/>
+      <c r="O22" s="177"/>
+      <c r="P22" s="177"/>
+      <c r="Q22" s="177"/>
+      <c r="R22" s="177"/>
+      <c r="S22" s="177"/>
+      <c r="T22" s="177"/>
+      <c r="U22" s="177"/>
+      <c r="V22" s="177"/>
+      <c r="W22" s="177"/>
+      <c r="X22" s="177"/>
+      <c r="Y22" s="177"/>
+      <c r="Z22" s="177"/>
+      <c r="AA22" s="177"/>
+      <c r="AB22" s="177"/>
+      <c r="AC22" s="177"/>
+      <c r="AD22" s="177"/>
+      <c r="AE22" s="177"/>
+      <c r="AF22" s="177"/>
+      <c r="AG22" s="177"/>
+      <c r="AH22" s="177"/>
+      <c r="AI22" s="177"/>
+      <c r="AJ22" s="177"/>
+      <c r="AK22" s="177"/>
+      <c r="AL22" s="177"/>
+      <c r="AM22" s="177"/>
+      <c r="AN22" s="177"/>
+      <c r="AO22" s="177"/>
+      <c r="AP22" s="551"/>
+      <c r="AQ22" s="551"/>
+      <c r="AR22" s="551"/>
+      <c r="AS22" s="551"/>
+      <c r="AT22" s="551"/>
+      <c r="AU22" s="551"/>
+      <c r="AV22" s="551"/>
+      <c r="AW22" s="773"/>
+      <c r="AX22" s="551"/>
+      <c r="AY22" s="551"/>
+      <c r="AZ22" s="551"/>
+      <c r="BA22" s="551"/>
+      <c r="BB22" s="551"/>
+      <c r="BC22" s="551"/>
+      <c r="BD22" s="551"/>
+      <c r="BE22" s="551"/>
+      <c r="BF22" s="177"/>
+      <c r="BG22" s="177"/>
+      <c r="BH22" s="177"/>
+      <c r="BI22" s="177"/>
+      <c r="BJ22" s="177"/>
+      <c r="BK22" s="177"/>
+      <c r="BL22" s="177"/>
+      <c r="BM22" s="179"/>
+      <c r="BN22" s="556"/>
+    </row>
+    <row r="23" customHeight="1" ht="12" customFormat="1" s="726">
+      <c r="A23" s="766"/>
+      <c r="B23" s="177"/>
+      <c r="C23" s="177"/>
+      <c r="D23" s="177"/>
+      <c r="E23" s="177"/>
+      <c r="F23" s="177"/>
+      <c r="G23" s="177"/>
+      <c r="H23" s="177"/>
+      <c r="I23" s="177"/>
+      <c r="J23" s="177"/>
+      <c r="K23" s="177"/>
+      <c r="L23" s="177"/>
+      <c r="M23" s="177"/>
+      <c r="N23" s="177"/>
+      <c r="O23" s="177"/>
+      <c r="P23" s="177"/>
+      <c r="Q23" s="177"/>
+      <c r="R23" s="177"/>
+      <c r="S23" s="177"/>
+      <c r="T23" s="177"/>
+      <c r="U23" s="177"/>
+      <c r="V23" s="177"/>
+      <c r="W23" s="177"/>
+      <c r="X23" s="177"/>
+      <c r="Y23" s="177"/>
+      <c r="Z23" s="177"/>
+      <c r="AA23" s="177"/>
+      <c r="AB23" s="177"/>
+      <c r="AC23" s="177"/>
+      <c r="AD23" s="177"/>
+      <c r="AE23" s="177"/>
+      <c r="AF23" s="177"/>
+      <c r="AG23" s="177"/>
+      <c r="AH23" s="177"/>
+      <c r="AI23" s="177"/>
+      <c r="AJ23" s="177"/>
+      <c r="AK23" s="177"/>
+      <c r="AL23" s="177"/>
+      <c r="AM23" s="177"/>
+      <c r="AN23" s="177"/>
+      <c r="AO23" s="177"/>
+      <c r="AP23" s="551"/>
+      <c r="AQ23" s="551"/>
+      <c r="AR23" s="551"/>
+      <c r="AS23" s="551"/>
+      <c r="AT23" s="551"/>
+      <c r="AU23" s="551"/>
+      <c r="AV23" s="551"/>
+      <c r="AW23" s="773"/>
+      <c r="AX23" s="551"/>
+      <c r="AY23" s="551"/>
+      <c r="AZ23" s="551"/>
+      <c r="BA23" s="551"/>
+      <c r="BB23" s="551"/>
+      <c r="BC23" s="551"/>
+      <c r="BD23" s="551"/>
+      <c r="BE23" s="551"/>
+      <c r="BF23" s="177"/>
+      <c r="BG23" s="177"/>
+      <c r="BH23" s="177"/>
+      <c r="BI23" s="177"/>
+      <c r="BJ23" s="177"/>
+      <c r="BK23" s="177"/>
+      <c r="BL23" s="177"/>
+      <c r="BM23" s="179"/>
+      <c r="BN23" s="556"/>
+    </row>
+    <row r="24" customHeight="1" ht="12" customFormat="1" s="726">
+      <c r="A24" s="766"/>
+      <c r="B24" s="177"/>
+      <c r="C24" s="177"/>
+      <c r="D24" s="177"/>
+      <c r="E24" s="177"/>
+      <c r="F24" s="177"/>
+      <c r="G24" s="177"/>
+      <c r="H24" s="177"/>
+      <c r="I24" s="177"/>
+      <c r="J24" s="177"/>
+      <c r="K24" s="177"/>
+      <c r="L24" s="177"/>
+      <c r="M24" s="177"/>
+      <c r="N24" s="177"/>
+      <c r="O24" s="177"/>
+      <c r="P24" s="177"/>
+      <c r="Q24" s="177"/>
+      <c r="R24" s="177"/>
+      <c r="S24" s="177"/>
+      <c r="T24" s="177"/>
+      <c r="U24" s="177"/>
+      <c r="V24" s="177"/>
+      <c r="W24" s="177"/>
+      <c r="X24" s="177"/>
+      <c r="Y24" s="177"/>
+      <c r="Z24" s="177"/>
+      <c r="AA24" s="177"/>
+      <c r="AB24" s="177"/>
+      <c r="AC24" s="177"/>
+      <c r="AD24" s="177"/>
+      <c r="AE24" s="177"/>
+      <c r="AF24" s="177"/>
+      <c r="AG24" s="177"/>
+      <c r="AH24" s="177"/>
+      <c r="AI24" s="177"/>
+      <c r="AJ24" s="177"/>
+      <c r="AK24" s="177"/>
+      <c r="AL24" s="177"/>
+      <c r="AM24" s="177"/>
+      <c r="AN24" s="177"/>
+      <c r="AO24" s="177"/>
+      <c r="AP24" s="551"/>
+      <c r="AQ24" s="551"/>
+      <c r="AR24" s="551"/>
+      <c r="AS24" s="551"/>
+      <c r="AT24" s="551"/>
+      <c r="AU24" s="551"/>
+      <c r="AV24" s="551"/>
+      <c r="AW24" s="773"/>
+      <c r="AX24" s="551"/>
+      <c r="AY24" s="551"/>
+      <c r="AZ24" s="551"/>
+      <c r="BA24" s="551"/>
+      <c r="BB24" s="551"/>
+      <c r="BC24" s="551"/>
+      <c r="BD24" s="551"/>
+      <c r="BE24" s="551"/>
+      <c r="BF24" s="177"/>
+      <c r="BG24" s="177"/>
+      <c r="BH24" s="177"/>
+      <c r="BI24" s="177"/>
+      <c r="BJ24" s="177"/>
+      <c r="BK24" s="177"/>
+      <c r="BL24" s="177"/>
+      <c r="BM24" s="179"/>
+      <c r="BN24" s="556"/>
+    </row>
+    <row r="25" customHeight="1" ht="12" customFormat="1" s="726">
+      <c r="A25" s="766"/>
+      <c r="B25" s="177"/>
+      <c r="C25" s="177"/>
+      <c r="D25" s="177"/>
+      <c r="E25" s="177"/>
+      <c r="F25" s="177"/>
+      <c r="G25" s="177"/>
+      <c r="H25" s="177"/>
+      <c r="I25" s="177"/>
+      <c r="J25" s="177"/>
+      <c r="K25" s="177"/>
+      <c r="L25" s="177"/>
+      <c r="M25" s="177"/>
+      <c r="N25" s="177"/>
+      <c r="O25" s="177"/>
+      <c r="P25" s="177"/>
+      <c r="Q25" s="177"/>
+      <c r="R25" s="177"/>
+      <c r="S25" s="177"/>
+      <c r="T25" s="177"/>
+      <c r="U25" s="177"/>
+      <c r="V25" s="177"/>
+      <c r="W25" s="177"/>
+      <c r="X25" s="177"/>
+      <c r="Y25" s="177"/>
+      <c r="Z25" s="177"/>
+      <c r="AA25" s="177"/>
+      <c r="AB25" s="177"/>
+      <c r="AC25" s="177"/>
+      <c r="AD25" s="177"/>
+      <c r="AE25" s="177"/>
+      <c r="AF25" s="177"/>
+      <c r="AG25" s="177"/>
+      <c r="AH25" s="177"/>
+      <c r="AI25" s="177"/>
+      <c r="AJ25" s="177"/>
+      <c r="AK25" s="177"/>
+      <c r="AL25" s="177"/>
+      <c r="AM25" s="177"/>
+      <c r="AN25" s="177"/>
+      <c r="AO25" s="177"/>
+      <c r="AP25" s="551"/>
+      <c r="AQ25" s="551"/>
+      <c r="AR25" s="551"/>
+      <c r="AS25" s="551"/>
+      <c r="AT25" s="551"/>
+      <c r="AU25" s="551"/>
+      <c r="AV25" s="551"/>
+      <c r="AW25" s="773"/>
+      <c r="AX25" s="551"/>
+      <c r="AY25" s="551"/>
+      <c r="AZ25" s="551"/>
+      <c r="BA25" s="551"/>
+      <c r="BB25" s="551"/>
+      <c r="BC25" s="551"/>
+      <c r="BD25" s="551"/>
+      <c r="BE25" s="551"/>
+      <c r="BF25" s="177"/>
+      <c r="BG25" s="177"/>
+      <c r="BH25" s="177"/>
+      <c r="BI25" s="177"/>
+      <c r="BJ25" s="177"/>
+      <c r="BK25" s="177"/>
+      <c r="BL25" s="177"/>
+      <c r="BM25" s="179"/>
+      <c r="BN25" s="556"/>
+    </row>
+    <row r="26" customHeight="1" ht="12" customFormat="1" s="726">
+      <c r="A26" s="766"/>
+      <c r="B26" s="177"/>
+      <c r="C26" s="177"/>
+      <c r="D26" s="177"/>
+      <c r="E26" s="177"/>
+      <c r="F26" s="177"/>
+      <c r="G26" s="177"/>
+      <c r="H26" s="177"/>
+      <c r="I26" s="177"/>
+      <c r="J26" s="177"/>
+      <c r="K26" s="177"/>
+      <c r="L26" s="177"/>
+      <c r="M26" s="177"/>
+      <c r="N26" s="177"/>
+      <c r="O26" s="177"/>
+      <c r="P26" s="177"/>
+      <c r="Q26" s="177"/>
+      <c r="R26" s="177"/>
+      <c r="S26" s="177"/>
+      <c r="T26" s="177"/>
+      <c r="U26" s="177"/>
+      <c r="V26" s="177"/>
+      <c r="W26" s="177"/>
+      <c r="X26" s="177"/>
+      <c r="Y26" s="177"/>
+      <c r="Z26" s="177"/>
+      <c r="AA26" s="177"/>
+      <c r="AB26" s="177"/>
+      <c r="AC26" s="177"/>
+      <c r="AD26" s="177"/>
+      <c r="AE26" s="177"/>
+      <c r="AF26" s="177"/>
+      <c r="AG26" s="177"/>
+      <c r="AH26" s="177"/>
+      <c r="AI26" s="177"/>
+      <c r="AJ26" s="177"/>
+      <c r="AK26" s="177"/>
+      <c r="AL26" s="177"/>
+      <c r="AM26" s="177"/>
+      <c r="AN26" s="177"/>
+      <c r="AO26" s="177"/>
+      <c r="AP26" s="551"/>
+      <c r="AQ26" s="551"/>
+      <c r="AR26" s="551"/>
+      <c r="AS26" s="551"/>
+      <c r="AT26" s="551"/>
+      <c r="AU26" s="551"/>
+      <c r="AV26" s="551"/>
+      <c r="AW26" s="773"/>
+      <c r="AX26" s="551"/>
+      <c r="AY26" s="551"/>
+      <c r="AZ26" s="551"/>
+      <c r="BA26" s="551"/>
+      <c r="BB26" s="551"/>
+      <c r="BC26" s="551"/>
+      <c r="BD26" s="551"/>
+      <c r="BE26" s="551"/>
+      <c r="BF26" s="177"/>
+      <c r="BG26" s="177"/>
+      <c r="BH26" s="177"/>
+      <c r="BI26" s="177"/>
+      <c r="BJ26" s="177"/>
+      <c r="BK26" s="177"/>
+      <c r="BL26" s="177"/>
+      <c r="BM26" s="179"/>
+      <c r="BN26" s="556"/>
+    </row>
+    <row r="27" customHeight="1" ht="12" customFormat="1" s="726">
+      <c r="A27" s="766"/>
+      <c r="B27" s="177"/>
+      <c r="C27" s="177"/>
+      <c r="D27" s="177"/>
+      <c r="E27" s="177"/>
+      <c r="F27" s="177"/>
+      <c r="G27" s="177"/>
+      <c r="H27" s="177"/>
+      <c r="I27" s="177"/>
+      <c r="J27" s="177"/>
+      <c r="K27" s="177"/>
+      <c r="L27" s="177"/>
+      <c r="M27" s="177"/>
+      <c r="N27" s="177"/>
+      <c r="O27" s="177"/>
+      <c r="P27" s="177"/>
+      <c r="Q27" s="177"/>
+      <c r="R27" s="177"/>
+      <c r="S27" s="177"/>
+      <c r="T27" s="177"/>
+      <c r="U27" s="177"/>
+      <c r="V27" s="177"/>
+      <c r="W27" s="177"/>
+      <c r="X27" s="177"/>
+      <c r="Y27" s="177"/>
+      <c r="Z27" s="177"/>
+      <c r="AA27" s="177"/>
+      <c r="AB27" s="177"/>
+      <c r="AC27" s="177"/>
+      <c r="AD27" s="177"/>
+      <c r="AE27" s="177"/>
+      <c r="AF27" s="177"/>
+      <c r="AG27" s="177"/>
+      <c r="AH27" s="177"/>
+      <c r="AI27" s="177"/>
+      <c r="AJ27" s="177"/>
+      <c r="AK27" s="177"/>
+      <c r="AL27" s="177"/>
+      <c r="AM27" s="177"/>
+      <c r="AN27" s="177"/>
+      <c r="AO27" s="177"/>
+      <c r="AP27" s="551"/>
+      <c r="AQ27" s="551"/>
+      <c r="AR27" s="551"/>
+      <c r="AS27" s="551"/>
+      <c r="AT27" s="551"/>
+      <c r="AU27" s="551"/>
+      <c r="AV27" s="551"/>
+      <c r="AW27" s="773"/>
+      <c r="AX27" s="551"/>
+      <c r="AY27" s="551"/>
+      <c r="AZ27" s="551"/>
+      <c r="BA27" s="551"/>
+      <c r="BB27" s="551"/>
+      <c r="BC27" s="551"/>
+      <c r="BD27" s="551"/>
+      <c r="BE27" s="551"/>
+      <c r="BF27" s="177"/>
+      <c r="BG27" s="177"/>
+      <c r="BH27" s="177"/>
+      <c r="BI27" s="177"/>
+      <c r="BJ27" s="177"/>
+      <c r="BK27" s="177"/>
+      <c r="BL27" s="177"/>
+      <c r="BM27" s="179"/>
+      <c r="BN27" s="556"/>
+    </row>
+    <row r="28" customHeight="1" ht="12" customFormat="1" s="726">
+      <c r="A28" s="766"/>
+      <c r="B28" s="177"/>
+      <c r="C28" s="177"/>
+      <c r="D28" s="177"/>
+      <c r="E28" s="177"/>
+      <c r="F28" s="177"/>
+      <c r="G28" s="177"/>
+      <c r="H28" s="177"/>
+      <c r="I28" s="177"/>
+      <c r="J28" s="177"/>
+      <c r="K28" s="177"/>
+      <c r="L28" s="177"/>
+      <c r="M28" s="177"/>
+      <c r="N28" s="177"/>
+      <c r="O28" s="177"/>
+      <c r="P28" s="177"/>
+      <c r="Q28" s="177"/>
+      <c r="R28" s="177"/>
+      <c r="S28" s="177"/>
+      <c r="T28" s="177"/>
+      <c r="U28" s="177"/>
+      <c r="V28" s="177"/>
+      <c r="W28" s="177"/>
+      <c r="X28" s="177"/>
+      <c r="Y28" s="177"/>
+      <c r="Z28" s="177"/>
+      <c r="AA28" s="177"/>
+      <c r="AB28" s="177"/>
+      <c r="AC28" s="177"/>
+      <c r="AD28" s="177"/>
+      <c r="AE28" s="177"/>
+      <c r="AF28" s="177"/>
+      <c r="AG28" s="177"/>
+      <c r="AH28" s="177"/>
+      <c r="AI28" s="177"/>
+      <c r="AJ28" s="177"/>
+      <c r="AK28" s="177"/>
+      <c r="AL28" s="177"/>
+      <c r="AM28" s="177"/>
+      <c r="AN28" s="177"/>
+      <c r="AO28" s="177"/>
+      <c r="AP28" s="551"/>
+      <c r="AQ28" s="551"/>
+      <c r="AR28" s="551"/>
+      <c r="AS28" s="551"/>
+      <c r="AT28" s="551"/>
+      <c r="AU28" s="551"/>
+      <c r="AV28" s="551"/>
+      <c r="AW28" s="773"/>
+      <c r="AX28" s="551"/>
+      <c r="AY28" s="551"/>
+      <c r="AZ28" s="551"/>
+      <c r="BA28" s="551"/>
+      <c r="BB28" s="551"/>
+      <c r="BC28" s="551"/>
+      <c r="BD28" s="551"/>
+      <c r="BE28" s="551"/>
+      <c r="BF28" s="177"/>
+      <c r="BG28" s="177"/>
+      <c r="BH28" s="177"/>
+      <c r="BI28" s="177"/>
+      <c r="BJ28" s="177"/>
+      <c r="BK28" s="177"/>
+      <c r="BL28" s="177"/>
+      <c r="BM28" s="179"/>
+      <c r="BN28" s="556"/>
+    </row>
+    <row r="29" customHeight="1" ht="12" customFormat="1" s="726">
+      <c r="A29" s="766"/>
+      <c r="B29" s="177"/>
+      <c r="C29" s="177"/>
+      <c r="D29" s="177"/>
+      <c r="E29" s="177"/>
+      <c r="F29" s="177"/>
+      <c r="G29" s="177"/>
+      <c r="H29" s="177"/>
+      <c r="I29" s="177"/>
+      <c r="J29" s="177"/>
+      <c r="K29" s="177"/>
+      <c r="L29" s="177"/>
+      <c r="M29" s="177"/>
+      <c r="N29" s="177"/>
+      <c r="O29" s="177"/>
+      <c r="P29" s="177"/>
+      <c r="Q29" s="177"/>
+      <c r="R29" s="177"/>
+      <c r="S29" s="177"/>
+      <c r="T29" s="177"/>
+      <c r="U29" s="177"/>
+      <c r="V29" s="177"/>
+      <c r="W29" s="177"/>
+      <c r="X29" s="177"/>
+      <c r="Y29" s="177"/>
+      <c r="Z29" s="177"/>
+      <c r="AA29" s="177"/>
+      <c r="AB29" s="177"/>
+      <c r="AC29" s="177"/>
+      <c r="AD29" s="177"/>
+      <c r="AE29" s="177"/>
+      <c r="AF29" s="177"/>
+      <c r="AG29" s="177"/>
+      <c r="AH29" s="177"/>
+      <c r="AI29" s="177"/>
+      <c r="AJ29" s="177"/>
+      <c r="AK29" s="177"/>
+      <c r="AL29" s="177"/>
+      <c r="AM29" s="177"/>
+      <c r="AN29" s="177"/>
+      <c r="AO29" s="177"/>
+      <c r="AP29" s="551"/>
+      <c r="AQ29" s="551"/>
+      <c r="AR29" s="551"/>
+      <c r="AS29" s="551"/>
+      <c r="AT29" s="551"/>
+      <c r="AU29" s="551"/>
+      <c r="AV29" s="551"/>
+      <c r="AW29" s="773"/>
+      <c r="AX29" s="551"/>
+      <c r="AY29" s="551"/>
+      <c r="AZ29" s="551"/>
+      <c r="BA29" s="551"/>
+      <c r="BB29" s="551"/>
+      <c r="BC29" s="551"/>
+      <c r="BD29" s="551"/>
+      <c r="BE29" s="551"/>
+      <c r="BF29" s="177"/>
+      <c r="BG29" s="177"/>
+      <c r="BH29" s="177"/>
+      <c r="BI29" s="177"/>
+      <c r="BJ29" s="177"/>
+      <c r="BK29" s="177"/>
+      <c r="BL29" s="177"/>
+      <c r="BM29" s="179"/>
+      <c r="BN29" s="556"/>
+    </row>
+    <row r="30" customHeight="1" ht="12" customFormat="1" s="726">
+      <c r="A30" s="766"/>
+      <c r="B30" s="177"/>
+      <c r="C30" s="177"/>
+      <c r="D30" s="177"/>
+      <c r="E30" s="177"/>
+      <c r="F30" s="177"/>
+      <c r="G30" s="177"/>
+      <c r="H30" s="177"/>
+      <c r="I30" s="177"/>
+      <c r="J30" s="177"/>
+      <c r="K30" s="177"/>
+      <c r="L30" s="177"/>
+      <c r="M30" s="177"/>
+      <c r="N30" s="177"/>
+      <c r="O30" s="177"/>
+      <c r="P30" s="177"/>
+      <c r="Q30" s="177"/>
+      <c r="R30" s="177"/>
+      <c r="S30" s="177"/>
+      <c r="T30" s="177"/>
+      <c r="U30" s="177"/>
+      <c r="V30" s="177"/>
+      <c r="W30" s="177"/>
+      <c r="X30" s="177"/>
+      <c r="Y30" s="177"/>
+      <c r="Z30" s="177"/>
+      <c r="AA30" s="177"/>
+      <c r="AB30" s="177"/>
+      <c r="AC30" s="177"/>
+      <c r="AD30" s="177"/>
+      <c r="AE30" s="177"/>
+      <c r="AF30" s="177"/>
+      <c r="AG30" s="177"/>
+      <c r="AH30" s="177"/>
+      <c r="AI30" s="177"/>
+      <c r="AJ30" s="177"/>
+      <c r="AK30" s="177"/>
+      <c r="AL30" s="177"/>
+      <c r="AM30" s="177"/>
+      <c r="AN30" s="177"/>
+      <c r="AO30" s="177"/>
+      <c r="AP30" s="551"/>
+      <c r="AQ30" s="551"/>
+      <c r="AR30" s="551"/>
+      <c r="AS30" s="551"/>
+      <c r="AT30" s="551"/>
+      <c r="AU30" s="551"/>
+      <c r="AV30" s="551"/>
+      <c r="AW30" s="773"/>
+      <c r="AX30" s="551"/>
+      <c r="AY30" s="551"/>
+      <c r="AZ30" s="551"/>
+      <c r="BA30" s="551"/>
+      <c r="BB30" s="551"/>
+      <c r="BC30" s="551"/>
+      <c r="BD30" s="551"/>
+      <c r="BE30" s="177"/>
+      <c r="BF30" s="177"/>
+      <c r="BG30" s="177"/>
+      <c r="BH30" s="177"/>
+      <c r="BI30" s="177"/>
+      <c r="BJ30" s="177"/>
+      <c r="BK30" s="177"/>
+      <c r="BL30" s="177"/>
+      <c r="BM30" s="179"/>
+      <c r="BN30" s="556"/>
+    </row>
+    <row r="31" customHeight="1" ht="12" customFormat="1" s="726">
+      <c r="A31" s="766"/>
+      <c r="B31" s="177"/>
+      <c r="C31" s="177"/>
+      <c r="D31" s="177"/>
+      <c r="E31" s="177"/>
+      <c r="F31" s="177"/>
+      <c r="G31" s="177"/>
+      <c r="H31" s="177"/>
+      <c r="I31" s="177"/>
+      <c r="J31" s="177"/>
+      <c r="K31" s="177"/>
+      <c r="L31" s="177"/>
+      <c r="M31" s="177"/>
+      <c r="N31" s="177"/>
+      <c r="O31" s="177"/>
+      <c r="P31" s="177"/>
+      <c r="Q31" s="177"/>
+      <c r="R31" s="177"/>
+      <c r="S31" s="177"/>
+      <c r="T31" s="177"/>
+      <c r="U31" s="177"/>
+      <c r="V31" s="177"/>
+      <c r="W31" s="177"/>
+      <c r="X31" s="177"/>
+      <c r="Y31" s="177"/>
+      <c r="Z31" s="177"/>
+      <c r="AA31" s="177"/>
+      <c r="AB31" s="177"/>
+      <c r="AC31" s="177"/>
+      <c r="AD31" s="177"/>
+      <c r="AE31" s="177"/>
+      <c r="AF31" s="177"/>
+      <c r="AG31" s="177"/>
+      <c r="AH31" s="177"/>
+      <c r="AI31" s="177"/>
+      <c r="AJ31" s="177"/>
+      <c r="AK31" s="177"/>
+      <c r="AL31" s="177"/>
+      <c r="AM31" s="177"/>
+      <c r="AN31" s="177"/>
+      <c r="AO31" s="177"/>
+      <c r="AP31" s="551"/>
+      <c r="AQ31" s="551"/>
+      <c r="AR31" s="551"/>
+      <c r="AS31" s="551"/>
+      <c r="AT31" s="551"/>
+      <c r="AU31" s="551"/>
+      <c r="AV31" s="551"/>
+      <c r="AW31" s="773"/>
+      <c r="AX31" s="551"/>
+      <c r="AY31" s="551"/>
+      <c r="AZ31" s="551"/>
+      <c r="BA31" s="551"/>
+      <c r="BB31" s="551"/>
+      <c r="BC31" s="551"/>
+      <c r="BD31" s="551"/>
+      <c r="BE31" s="177"/>
+      <c r="BF31" s="177"/>
+      <c r="BG31" s="177"/>
+      <c r="BH31" s="177"/>
+      <c r="BI31" s="177"/>
+      <c r="BJ31" s="177"/>
+      <c r="BK31" s="177"/>
+      <c r="BL31" s="177"/>
+      <c r="BM31" s="179"/>
+      <c r="BN31" s="556"/>
+    </row>
+    <row r="32" customHeight="1" ht="12" customFormat="1" s="726">
+      <c r="A32" s="766"/>
+      <c r="B32" s="177"/>
+      <c r="C32" s="177"/>
+      <c r="D32" s="177"/>
+      <c r="E32" s="177"/>
+      <c r="F32" s="177"/>
+      <c r="G32" s="177"/>
+      <c r="H32" s="177"/>
+      <c r="I32" s="177"/>
+      <c r="J32" s="177"/>
+      <c r="K32" s="177"/>
+      <c r="L32" s="177"/>
+      <c r="M32" s="177"/>
+      <c r="N32" s="177"/>
+      <c r="O32" s="177"/>
+      <c r="P32" s="177"/>
+      <c r="Q32" s="177"/>
+      <c r="R32" s="177"/>
+      <c r="S32" s="177"/>
+      <c r="T32" s="177"/>
+      <c r="U32" s="177"/>
+      <c r="V32" s="177"/>
+      <c r="W32" s="177"/>
+      <c r="X32" s="177"/>
+      <c r="Y32" s="177"/>
+      <c r="Z32" s="177"/>
+      <c r="AA32" s="177"/>
+      <c r="AB32" s="177"/>
+      <c r="AC32" s="177"/>
+      <c r="AD32" s="177"/>
+      <c r="AE32" s="177"/>
+      <c r="AF32" s="177"/>
+      <c r="AG32" s="177"/>
+      <c r="AH32" s="177"/>
+      <c r="AI32" s="177"/>
+      <c r="AJ32" s="177"/>
+      <c r="AK32" s="177"/>
+      <c r="AL32" s="177"/>
+      <c r="AM32" s="177"/>
+      <c r="AN32" s="177"/>
+      <c r="AO32" s="177"/>
+      <c r="AP32" s="551"/>
+      <c r="AQ32" s="551"/>
+      <c r="AR32" s="551"/>
+      <c r="AS32" s="551"/>
+      <c r="AT32" s="551"/>
+      <c r="AU32" s="551"/>
+      <c r="AV32" s="551"/>
+      <c r="AW32" s="773"/>
+      <c r="AX32" s="551"/>
+      <c r="AY32" s="551"/>
+      <c r="AZ32" s="551"/>
+      <c r="BA32" s="551"/>
+      <c r="BB32" s="551"/>
+      <c r="BC32" s="551"/>
+      <c r="BD32" s="551"/>
+      <c r="BE32" s="177"/>
+      <c r="BF32" s="177"/>
+      <c r="BG32" s="177"/>
+      <c r="BH32" s="177"/>
+      <c r="BI32" s="177"/>
+      <c r="BJ32" s="177"/>
+      <c r="BK32" s="177"/>
+      <c r="BL32" s="177"/>
+      <c r="BM32" s="179"/>
+      <c r="BN32" s="556"/>
+    </row>
+    <row r="33" customHeight="1" ht="12" customFormat="1" s="726">
+      <c r="A33" s="766"/>
+      <c r="B33" s="177"/>
+      <c r="C33" s="177"/>
+      <c r="D33" s="177"/>
+      <c r="E33" s="177"/>
+      <c r="F33" s="177"/>
+      <c r="G33" s="177"/>
+      <c r="H33" s="177"/>
+      <c r="I33" s="177"/>
+      <c r="J33" s="177"/>
+      <c r="K33" s="177"/>
+      <c r="L33" s="177"/>
+      <c r="M33" s="177"/>
+      <c r="N33" s="177"/>
+      <c r="O33" s="177"/>
+      <c r="P33" s="177"/>
+      <c r="Q33" s="177"/>
+      <c r="R33" s="177"/>
+      <c r="S33" s="177"/>
+      <c r="T33" s="177"/>
+      <c r="U33" s="177"/>
+      <c r="V33" s="177"/>
+      <c r="W33" s="177"/>
+      <c r="X33" s="177"/>
+      <c r="Y33" s="177"/>
+      <c r="Z33" s="177"/>
+      <c r="AA33" s="177"/>
+      <c r="AB33" s="177"/>
+      <c r="AC33" s="177"/>
+      <c r="AD33" s="177"/>
+      <c r="AE33" s="177"/>
+      <c r="AF33" s="177"/>
+      <c r="AG33" s="177"/>
+      <c r="AH33" s="177"/>
+      <c r="AI33" s="177"/>
+      <c r="AJ33" s="177"/>
+      <c r="AK33" s="177"/>
+      <c r="AL33" s="177"/>
+      <c r="AM33" s="177"/>
+      <c r="AN33" s="177"/>
+      <c r="AO33" s="177"/>
+      <c r="AP33" s="551"/>
+      <c r="AQ33" s="551"/>
+      <c r="AR33" s="551"/>
+      <c r="AS33" s="551"/>
+      <c r="AT33" s="551"/>
+      <c r="AU33" s="551"/>
+      <c r="AV33" s="551"/>
+      <c r="AW33" s="773"/>
+      <c r="AX33" s="551"/>
+      <c r="AY33" s="551"/>
+      <c r="AZ33" s="551"/>
+      <c r="BA33" s="551"/>
+      <c r="BB33" s="551"/>
+      <c r="BC33" s="551"/>
+      <c r="BD33" s="551"/>
+      <c r="BE33" s="551"/>
+      <c r="BF33" s="177"/>
+      <c r="BG33" s="177"/>
+      <c r="BH33" s="177"/>
+      <c r="BI33" s="177"/>
+      <c r="BJ33" s="177"/>
+      <c r="BK33" s="177"/>
+      <c r="BL33" s="177"/>
+      <c r="BM33" s="179"/>
+      <c r="BN33" s="556"/>
+    </row>
+    <row r="34" customHeight="1" ht="12" customFormat="1" s="726">
+      <c r="A34" s="766"/>
+      <c r="B34" s="177"/>
+      <c r="C34" s="177"/>
+      <c r="D34" s="177"/>
+      <c r="E34" s="177"/>
+      <c r="F34" s="177"/>
+      <c r="G34" s="177"/>
+      <c r="H34" s="177"/>
+      <c r="I34" s="177"/>
+      <c r="J34" s="177"/>
+      <c r="K34" s="177"/>
+      <c r="L34" s="177"/>
+      <c r="M34" s="177"/>
+      <c r="N34" s="177"/>
+      <c r="O34" s="177"/>
+      <c r="P34" s="177"/>
+      <c r="Q34" s="177"/>
+      <c r="R34" s="177"/>
+      <c r="S34" s="177"/>
+      <c r="T34" s="177"/>
+      <c r="U34" s="177"/>
+      <c r="V34" s="177"/>
+      <c r="W34" s="177"/>
+      <c r="X34" s="177"/>
+      <c r="Y34" s="177"/>
+      <c r="Z34" s="177"/>
+      <c r="AA34" s="177"/>
+      <c r="AB34" s="177"/>
+      <c r="AC34" s="177"/>
+      <c r="AD34" s="177"/>
+      <c r="AE34" s="177"/>
+      <c r="AF34" s="177"/>
+      <c r="AG34" s="177"/>
+      <c r="AH34" s="177"/>
+      <c r="AI34" s="177"/>
+      <c r="AJ34" s="177"/>
+      <c r="AK34" s="177"/>
+      <c r="AL34" s="177"/>
+      <c r="AM34" s="177"/>
+      <c r="AN34" s="177"/>
+      <c r="AO34" s="177"/>
+      <c r="AP34" s="551"/>
+      <c r="AQ34" s="551"/>
+      <c r="AR34" s="551"/>
+      <c r="AS34" s="551"/>
+      <c r="AT34" s="551"/>
+      <c r="AU34" s="551"/>
+      <c r="AV34" s="551"/>
+      <c r="AW34" s="773"/>
+      <c r="AX34" s="551"/>
+      <c r="AY34" s="551"/>
+      <c r="AZ34" s="551"/>
+      <c r="BA34" s="551"/>
+      <c r="BB34" s="551"/>
+      <c r="BC34" s="551"/>
+      <c r="BD34" s="551"/>
+      <c r="BE34" s="177"/>
+      <c r="BF34" s="177"/>
+      <c r="BG34" s="177"/>
+      <c r="BH34" s="177"/>
+      <c r="BI34" s="177"/>
+      <c r="BJ34" s="177"/>
+      <c r="BK34" s="177"/>
+      <c r="BL34" s="177"/>
+      <c r="BM34" s="179"/>
+      <c r="BN34" s="556"/>
+    </row>
+    <row r="35" customHeight="1" ht="12" customFormat="1" s="726">
+      <c r="A35" s="766"/>
+      <c r="B35" s="177"/>
+      <c r="C35" s="177"/>
+      <c r="D35" s="177"/>
+      <c r="E35" s="177"/>
+      <c r="F35" s="177"/>
+      <c r="G35" s="177"/>
+      <c r="H35" s="177"/>
+      <c r="I35" s="177"/>
+      <c r="J35" s="177"/>
+      <c r="K35" s="177"/>
+      <c r="L35" s="177"/>
+      <c r="M35" s="177"/>
+      <c r="N35" s="177"/>
+      <c r="O35" s="177"/>
+      <c r="P35" s="177"/>
+      <c r="Q35" s="177"/>
+      <c r="R35" s="177"/>
+      <c r="S35" s="177"/>
+      <c r="T35" s="177"/>
+      <c r="U35" s="177"/>
+      <c r="V35" s="177"/>
+      <c r="W35" s="177"/>
+      <c r="X35" s="177"/>
+      <c r="Y35" s="177"/>
+      <c r="Z35" s="177"/>
+      <c r="AA35" s="177"/>
+      <c r="AB35" s="177"/>
+      <c r="AC35" s="177"/>
+      <c r="AD35" s="177"/>
+      <c r="AE35" s="177"/>
+      <c r="AF35" s="177"/>
+      <c r="AG35" s="177"/>
+      <c r="AH35" s="177"/>
+      <c r="AI35" s="177"/>
+      <c r="AJ35" s="177"/>
+      <c r="AK35" s="177"/>
+      <c r="AL35" s="177"/>
+      <c r="AM35" s="177"/>
+      <c r="AN35" s="177"/>
+      <c r="AO35" s="177"/>
+      <c r="AP35" s="551"/>
+      <c r="AQ35" s="551"/>
+      <c r="AR35" s="551"/>
+      <c r="AS35" s="551"/>
+      <c r="AT35" s="551"/>
+      <c r="AU35" s="551"/>
+      <c r="AV35" s="551"/>
+      <c r="AW35" s="773"/>
+      <c r="AX35" s="551"/>
+      <c r="AY35" s="551"/>
+      <c r="AZ35" s="551"/>
+      <c r="BA35" s="551"/>
+      <c r="BB35" s="551"/>
+      <c r="BC35" s="551"/>
+      <c r="BD35" s="551"/>
+      <c r="BE35" s="177"/>
+      <c r="BF35" s="177"/>
+      <c r="BG35" s="177"/>
+      <c r="BH35" s="177"/>
+      <c r="BI35" s="177"/>
+      <c r="BJ35" s="177"/>
+      <c r="BK35" s="177"/>
+      <c r="BL35" s="177"/>
+      <c r="BM35" s="179"/>
+      <c r="BN35" s="556"/>
+    </row>
+    <row r="36" customHeight="1" ht="12" customFormat="1" s="726">
+      <c r="A36" s="766"/>
+      <c r="B36" s="177"/>
+      <c r="C36" s="177"/>
+      <c r="D36" s="177"/>
+      <c r="E36" s="177"/>
+      <c r="F36" s="177"/>
+      <c r="G36" s="177"/>
+      <c r="H36" s="177"/>
+      <c r="I36" s="177"/>
+      <c r="J36" s="177"/>
+      <c r="K36" s="177"/>
+      <c r="L36" s="177"/>
+      <c r="M36" s="177"/>
+      <c r="N36" s="177"/>
+      <c r="O36" s="177"/>
+      <c r="P36" s="177"/>
+      <c r="Q36" s="177"/>
+      <c r="R36" s="177"/>
+      <c r="S36" s="177"/>
+      <c r="T36" s="177"/>
+      <c r="U36" s="177"/>
+      <c r="V36" s="177"/>
+      <c r="W36" s="177"/>
+      <c r="X36" s="177"/>
+      <c r="Y36" s="177"/>
+      <c r="Z36" s="177"/>
+      <c r="AA36" s="177"/>
+      <c r="AB36" s="177"/>
+      <c r="AC36" s="177"/>
+      <c r="AD36" s="177"/>
+      <c r="AE36" s="177"/>
+      <c r="AF36" s="177"/>
+      <c r="AG36" s="177"/>
+      <c r="AH36" s="177"/>
+      <c r="AI36" s="177"/>
+      <c r="AJ36" s="177"/>
+      <c r="AK36" s="177"/>
+      <c r="AL36" s="177"/>
+      <c r="AM36" s="177"/>
+      <c r="AN36" s="177"/>
+      <c r="AO36" s="177"/>
+      <c r="AP36" s="551"/>
+      <c r="AQ36" s="551"/>
+      <c r="AR36" s="551"/>
+      <c r="AS36" s="551"/>
+      <c r="AT36" s="551"/>
+      <c r="AU36" s="551"/>
+      <c r="AV36" s="551"/>
+      <c r="AW36" s="773"/>
+      <c r="AX36" s="551"/>
+      <c r="AY36" s="551"/>
+      <c r="AZ36" s="551"/>
+      <c r="BA36" s="551"/>
+      <c r="BB36" s="551"/>
+      <c r="BC36" s="551"/>
+      <c r="BD36" s="551"/>
+      <c r="BE36" s="177"/>
+      <c r="BF36" s="177"/>
+      <c r="BG36" s="177"/>
+      <c r="BH36" s="177"/>
+      <c r="BI36" s="177"/>
+      <c r="BJ36" s="177"/>
+      <c r="BK36" s="177"/>
+      <c r="BL36" s="177"/>
+      <c r="BM36" s="179"/>
+      <c r="BN36" s="556"/>
+    </row>
+    <row r="37" customHeight="1" ht="12" customFormat="1" s="726">
+      <c r="A37" s="766"/>
+      <c r="B37" s="177"/>
+      <c r="C37" s="177"/>
+      <c r="D37" s="177"/>
+      <c r="E37" s="177"/>
+      <c r="F37" s="177"/>
+      <c r="G37" s="177"/>
+      <c r="H37" s="177"/>
+      <c r="I37" s="177"/>
+      <c r="J37" s="177"/>
+      <c r="K37" s="177"/>
+      <c r="L37" s="177"/>
+      <c r="M37" s="177"/>
+      <c r="N37" s="177"/>
+      <c r="O37" s="177"/>
+      <c r="P37" s="177"/>
+      <c r="Q37" s="177"/>
+      <c r="R37" s="177"/>
+      <c r="S37" s="177"/>
+      <c r="T37" s="177"/>
+      <c r="U37" s="177"/>
+      <c r="V37" s="177"/>
+      <c r="W37" s="177"/>
+      <c r="X37" s="177"/>
+      <c r="Y37" s="177"/>
+      <c r="Z37" s="177"/>
+      <c r="AA37" s="177"/>
+      <c r="AB37" s="177"/>
+      <c r="AC37" s="177"/>
+      <c r="AD37" s="177"/>
+      <c r="AE37" s="177"/>
+      <c r="AF37" s="177"/>
+      <c r="AG37" s="177"/>
+      <c r="AH37" s="177"/>
+      <c r="AI37" s="177"/>
+      <c r="AJ37" s="177"/>
+      <c r="AK37" s="177"/>
+      <c r="AL37" s="177"/>
+      <c r="AM37" s="177"/>
+      <c r="AN37" s="177"/>
+      <c r="AO37" s="177"/>
+      <c r="AP37" s="551"/>
+      <c r="AQ37" s="551"/>
+      <c r="AR37" s="551"/>
+      <c r="AS37" s="551"/>
+      <c r="AT37" s="551"/>
+      <c r="AU37" s="551"/>
+      <c r="AV37" s="551"/>
+      <c r="AW37" s="773"/>
+      <c r="AX37" s="551"/>
+      <c r="AY37" s="551"/>
+      <c r="AZ37" s="551"/>
+      <c r="BA37" s="551"/>
+      <c r="BB37" s="551"/>
+      <c r="BC37" s="551"/>
+      <c r="BD37" s="551"/>
+      <c r="BE37" s="177"/>
+      <c r="BF37" s="177"/>
+      <c r="BG37" s="177"/>
+      <c r="BH37" s="177"/>
+      <c r="BI37" s="177"/>
+      <c r="BJ37" s="177"/>
+      <c r="BK37" s="177"/>
+      <c r="BL37" s="177"/>
+      <c r="BM37" s="179"/>
+      <c r="BN37" s="556"/>
+    </row>
+    <row r="38" customHeight="1" ht="12" customFormat="1" s="726">
+      <c r="A38" s="766"/>
+      <c r="B38" s="177"/>
+      <c r="C38" s="177"/>
+      <c r="D38" s="177"/>
+      <c r="E38" s="177"/>
+      <c r="F38" s="177"/>
+      <c r="G38" s="177"/>
+      <c r="H38" s="177"/>
+      <c r="I38" s="177"/>
+      <c r="J38" s="177"/>
+      <c r="K38" s="177"/>
+      <c r="L38" s="177"/>
+      <c r="M38" s="177"/>
+      <c r="N38" s="177"/>
+      <c r="O38" s="177"/>
+      <c r="P38" s="177"/>
+      <c r="Q38" s="177"/>
+      <c r="R38" s="177"/>
+      <c r="S38" s="177"/>
+      <c r="T38" s="177"/>
+      <c r="U38" s="177"/>
+      <c r="V38" s="177"/>
+      <c r="W38" s="177"/>
+      <c r="X38" s="177"/>
+      <c r="Y38" s="177"/>
+      <c r="Z38" s="177"/>
+      <c r="AA38" s="177"/>
+      <c r="AB38" s="177"/>
+      <c r="AC38" s="177"/>
+      <c r="AD38" s="177"/>
+      <c r="AE38" s="177"/>
+      <c r="AF38" s="177"/>
+      <c r="AG38" s="177"/>
+      <c r="AH38" s="177"/>
+      <c r="AI38" s="177"/>
+      <c r="AJ38" s="177"/>
+      <c r="AK38" s="177"/>
+      <c r="AL38" s="177"/>
+      <c r="AM38" s="177"/>
+      <c r="AN38" s="177"/>
+      <c r="AO38" s="177"/>
+      <c r="AP38" s="551"/>
+      <c r="AQ38" s="551"/>
+      <c r="AR38" s="551"/>
+      <c r="AS38" s="551"/>
+      <c r="AT38" s="551"/>
+      <c r="AU38" s="551"/>
+      <c r="AV38" s="551"/>
+      <c r="AW38" s="773"/>
+      <c r="AX38" s="551"/>
+      <c r="AY38" s="551"/>
+      <c r="AZ38" s="551"/>
+      <c r="BA38" s="551"/>
+      <c r="BB38" s="551"/>
+      <c r="BC38" s="551"/>
+      <c r="BD38" s="551"/>
+      <c r="BE38" s="177"/>
+      <c r="BF38" s="177"/>
+      <c r="BG38" s="177"/>
+      <c r="BH38" s="177"/>
+      <c r="BI38" s="177"/>
+      <c r="BJ38" s="177"/>
+      <c r="BK38" s="177"/>
+      <c r="BL38" s="177"/>
+      <c r="BM38" s="179"/>
+      <c r="BN38" s="556"/>
+    </row>
+    <row r="39" customHeight="1" ht="12" customFormat="1" s="726">
+      <c r="A39" s="766"/>
+      <c r="B39" s="177"/>
+      <c r="C39" s="177"/>
+      <c r="D39" s="177"/>
+      <c r="E39" s="177"/>
+      <c r="F39" s="177"/>
+      <c r="G39" s="177"/>
+      <c r="H39" s="177"/>
+      <c r="I39" s="177"/>
+      <c r="J39" s="177"/>
+      <c r="K39" s="177"/>
+      <c r="L39" s="177"/>
+      <c r="M39" s="177"/>
+      <c r="N39" s="177"/>
+      <c r="O39" s="177"/>
+      <c r="P39" s="177"/>
+      <c r="Q39" s="177"/>
+      <c r="R39" s="177"/>
+      <c r="S39" s="177"/>
+      <c r="T39" s="177"/>
+      <c r="U39" s="177"/>
+      <c r="V39" s="177"/>
+      <c r="W39" s="177"/>
+      <c r="X39" s="177"/>
+      <c r="Y39" s="177"/>
+      <c r="Z39" s="177"/>
+      <c r="AA39" s="177"/>
+      <c r="AB39" s="177"/>
+      <c r="AC39" s="177"/>
+      <c r="AD39" s="177"/>
+      <c r="AE39" s="177"/>
+      <c r="AF39" s="177"/>
+      <c r="AG39" s="177"/>
+      <c r="AH39" s="177"/>
+      <c r="AI39" s="177"/>
+      <c r="AJ39" s="177"/>
+      <c r="AK39" s="177"/>
+      <c r="AL39" s="177"/>
+      <c r="AM39" s="177"/>
+      <c r="AN39" s="177"/>
+      <c r="AO39" s="177"/>
+      <c r="AP39" s="551"/>
+      <c r="AQ39" s="551"/>
+      <c r="AR39" s="551"/>
+      <c r="AS39" s="551"/>
+      <c r="AT39" s="551"/>
+      <c r="AU39" s="551"/>
+      <c r="AV39" s="551"/>
+      <c r="AW39" s="773"/>
+      <c r="AX39" s="551"/>
+      <c r="AY39" s="551"/>
+      <c r="AZ39" s="551"/>
+      <c r="BA39" s="551"/>
+      <c r="BB39" s="551"/>
+      <c r="BC39" s="551"/>
+      <c r="BD39" s="551"/>
+      <c r="BE39" s="177"/>
+      <c r="BF39" s="177"/>
+      <c r="BG39" s="177"/>
+      <c r="BH39" s="177"/>
+      <c r="BI39" s="177"/>
+      <c r="BJ39" s="177"/>
+      <c r="BK39" s="177"/>
+      <c r="BL39" s="177"/>
+      <c r="BM39" s="179"/>
+      <c r="BN39" s="556"/>
+    </row>
+    <row r="40" customHeight="1" ht="12" customFormat="1" s="726">
+      <c r="A40" s="766"/>
+      <c r="B40" s="177"/>
+      <c r="C40" s="177"/>
+      <c r="D40" s="177"/>
+      <c r="E40" s="177"/>
+      <c r="F40" s="177"/>
+      <c r="G40" s="177"/>
+      <c r="H40" s="177"/>
+      <c r="I40" s="177"/>
+      <c r="J40" s="177"/>
+      <c r="K40" s="177"/>
+      <c r="L40" s="177"/>
+      <c r="M40" s="177"/>
+      <c r="N40" s="177"/>
+      <c r="O40" s="177"/>
+      <c r="P40" s="177"/>
+      <c r="Q40" s="177"/>
+      <c r="R40" s="177"/>
+      <c r="S40" s="177"/>
+      <c r="T40" s="177"/>
+      <c r="U40" s="177"/>
+      <c r="V40" s="177"/>
+      <c r="W40" s="177"/>
+      <c r="X40" s="177"/>
+      <c r="Y40" s="177"/>
+      <c r="Z40" s="177"/>
+      <c r="AA40" s="177"/>
+      <c r="AB40" s="177"/>
+      <c r="AC40" s="177"/>
+      <c r="AD40" s="177"/>
+      <c r="AE40" s="177"/>
+      <c r="AF40" s="177"/>
+      <c r="AG40" s="177"/>
+      <c r="AH40" s="177"/>
+      <c r="AI40" s="177"/>
+      <c r="AJ40" s="177"/>
+      <c r="AK40" s="177"/>
+      <c r="AL40" s="177"/>
+      <c r="AM40" s="177"/>
+      <c r="AN40" s="177"/>
+      <c r="AO40" s="177"/>
+      <c r="AP40" s="551"/>
+      <c r="AQ40" s="551"/>
+      <c r="AR40" s="551"/>
+      <c r="AS40" s="551"/>
+      <c r="AT40" s="551"/>
+      <c r="AU40" s="551"/>
+      <c r="AV40" s="551"/>
+      <c r="AW40" s="773"/>
+      <c r="AX40" s="551"/>
+      <c r="AY40" s="551"/>
+      <c r="AZ40" s="551"/>
+      <c r="BA40" s="551"/>
+      <c r="BB40" s="551"/>
+      <c r="BC40" s="551"/>
+      <c r="BD40" s="551"/>
+      <c r="BE40" s="177"/>
+      <c r="BF40" s="177"/>
+      <c r="BG40" s="177"/>
+      <c r="BH40" s="177"/>
+      <c r="BI40" s="177"/>
+      <c r="BJ40" s="177"/>
+      <c r="BK40" s="177"/>
+      <c r="BL40" s="177"/>
+      <c r="BM40" s="179"/>
+      <c r="BN40" s="556"/>
+    </row>
+    <row r="41" customHeight="1" ht="12" customFormat="1" s="726">
+      <c r="A41" s="766"/>
+      <c r="B41" s="177"/>
+      <c r="C41" s="177"/>
+      <c r="D41" s="177"/>
+      <c r="E41" s="177"/>
+      <c r="F41" s="177"/>
+      <c r="G41" s="177"/>
+      <c r="H41" s="177"/>
+      <c r="I41" s="177"/>
+      <c r="J41" s="177"/>
+      <c r="K41" s="177"/>
+      <c r="L41" s="177"/>
+      <c r="M41" s="177"/>
+      <c r="N41" s="177"/>
+      <c r="O41" s="177"/>
+      <c r="P41" s="177"/>
+      <c r="Q41" s="177"/>
+      <c r="R41" s="177"/>
+      <c r="S41" s="177"/>
+      <c r="T41" s="177"/>
+      <c r="U41" s="177"/>
+      <c r="V41" s="177"/>
+      <c r="W41" s="177"/>
+      <c r="X41" s="177"/>
+      <c r="Y41" s="177"/>
+      <c r="Z41" s="177"/>
+      <c r="AA41" s="177"/>
+      <c r="AB41" s="177"/>
+      <c r="AC41" s="177"/>
+      <c r="AD41" s="177"/>
+      <c r="AE41" s="177"/>
+      <c r="AF41" s="177"/>
+      <c r="AG41" s="177"/>
+      <c r="AH41" s="177"/>
+      <c r="AI41" s="177"/>
+      <c r="AJ41" s="177"/>
+      <c r="AK41" s="177"/>
+      <c r="AL41" s="177"/>
+      <c r="AM41" s="177"/>
+      <c r="AN41" s="177"/>
+      <c r="AO41" s="177"/>
+      <c r="AP41" s="551"/>
+      <c r="AQ41" s="551"/>
+      <c r="AR41" s="551"/>
+      <c r="AS41" s="551"/>
+      <c r="AT41" s="551"/>
+      <c r="AU41" s="551"/>
+      <c r="AV41" s="551"/>
+      <c r="AW41" s="773"/>
+      <c r="AX41" s="551"/>
+      <c r="AY41" s="551"/>
+      <c r="AZ41" s="551"/>
+      <c r="BA41" s="551"/>
+      <c r="BB41" s="551"/>
+      <c r="BC41" s="551"/>
+      <c r="BD41" s="551"/>
+      <c r="BE41" s="177"/>
+      <c r="BF41" s="177"/>
+      <c r="BG41" s="177"/>
+      <c r="BH41" s="177"/>
+      <c r="BI41" s="177"/>
+      <c r="BJ41" s="177"/>
+      <c r="BK41" s="177"/>
+      <c r="BL41" s="177"/>
+      <c r="BM41" s="179"/>
+      <c r="BN41" s="556"/>
+    </row>
+    <row r="42" customHeight="1" ht="12" customFormat="1" s="726">
+      <c r="A42" s="766"/>
+      <c r="B42" s="177"/>
+      <c r="C42" s="177"/>
+      <c r="D42" s="177"/>
+      <c r="E42" s="177"/>
+      <c r="F42" s="177"/>
+      <c r="G42" s="177"/>
+      <c r="H42" s="177"/>
+      <c r="I42" s="177"/>
+      <c r="J42" s="177"/>
+      <c r="K42" s="177"/>
+      <c r="L42" s="177"/>
+      <c r="M42" s="177"/>
+      <c r="N42" s="177"/>
+      <c r="O42" s="177"/>
+      <c r="P42" s="177"/>
+      <c r="Q42" s="177"/>
+      <c r="R42" s="177"/>
+      <c r="S42" s="177"/>
+      <c r="T42" s="177"/>
+      <c r="U42" s="177"/>
+      <c r="V42" s="177"/>
+      <c r="W42" s="177"/>
+      <c r="X42" s="177"/>
+      <c r="Y42" s="177"/>
+      <c r="Z42" s="177"/>
+      <c r="AA42" s="177"/>
+      <c r="AB42" s="177"/>
+      <c r="AC42" s="177"/>
+      <c r="AD42" s="177"/>
+      <c r="AE42" s="177"/>
+      <c r="AF42" s="177"/>
+      <c r="AG42" s="177"/>
+      <c r="AH42" s="177"/>
+      <c r="AI42" s="177"/>
+      <c r="AJ42" s="177"/>
+      <c r="AK42" s="177"/>
+      <c r="AL42" s="177"/>
+      <c r="AM42" s="177"/>
+      <c r="AN42" s="177"/>
+      <c r="AO42" s="177"/>
+      <c r="AP42" s="551"/>
+      <c r="AQ42" s="551"/>
+      <c r="AR42" s="551"/>
+      <c r="AS42" s="551"/>
+      <c r="AT42" s="551"/>
+      <c r="AU42" s="551"/>
+      <c r="AV42" s="551"/>
+      <c r="AW42" s="773"/>
+      <c r="AX42" s="551"/>
+      <c r="AY42" s="551"/>
+      <c r="AZ42" s="551"/>
+      <c r="BA42" s="551"/>
+      <c r="BB42" s="551"/>
+      <c r="BC42" s="551"/>
+      <c r="BD42" s="551"/>
+      <c r="BE42" s="177"/>
+      <c r="BF42" s="177"/>
+      <c r="BG42" s="177"/>
+      <c r="BH42" s="177"/>
+      <c r="BI42" s="177"/>
+      <c r="BJ42" s="177"/>
+      <c r="BK42" s="177"/>
+      <c r="BL42" s="177"/>
+      <c r="BM42" s="179"/>
+      <c r="BN42" s="556"/>
+    </row>
+    <row r="43" customHeight="1" ht="12" customFormat="1" s="726">
+      <c r="A43" s="774"/>
+      <c r="B43" s="775"/>
+      <c r="C43" s="775"/>
+      <c r="D43" s="775"/>
+      <c r="E43" s="775"/>
+      <c r="F43" s="775"/>
+      <c r="G43" s="775"/>
+      <c r="H43" s="775"/>
+      <c r="I43" s="775"/>
+      <c r="J43" s="775"/>
+      <c r="K43" s="775"/>
+      <c r="L43" s="775"/>
+      <c r="M43" s="775"/>
+      <c r="N43" s="775"/>
+      <c r="O43" s="775"/>
+      <c r="P43" s="775"/>
+      <c r="Q43" s="775"/>
+      <c r="R43" s="775"/>
+      <c r="S43" s="775"/>
+      <c r="T43" s="775"/>
+      <c r="U43" s="775"/>
+      <c r="V43" s="775"/>
+      <c r="W43" s="775"/>
+      <c r="X43" s="775"/>
+      <c r="Y43" s="775"/>
+      <c r="Z43" s="775"/>
+      <c r="AA43" s="775"/>
+      <c r="AB43" s="775"/>
+      <c r="AC43" s="775"/>
+      <c r="AD43" s="775"/>
+      <c r="AE43" s="775"/>
+      <c r="AF43" s="775"/>
+      <c r="AG43" s="775"/>
+      <c r="AH43" s="775"/>
+      <c r="AI43" s="775"/>
+      <c r="AJ43" s="775"/>
+      <c r="AK43" s="775"/>
+      <c r="AL43" s="775"/>
+      <c r="AM43" s="775"/>
+      <c r="AN43" s="775"/>
+      <c r="AO43" s="775"/>
+      <c r="AP43" s="776"/>
+      <c r="AQ43" s="776"/>
+      <c r="AR43" s="776"/>
+      <c r="AS43" s="776"/>
+      <c r="AT43" s="776"/>
+      <c r="AU43" s="776"/>
+      <c r="AV43" s="776"/>
+      <c r="AW43" s="777"/>
+      <c r="AX43" s="776"/>
+      <c r="AY43" s="776"/>
+      <c r="AZ43" s="776"/>
+      <c r="BA43" s="776"/>
+      <c r="BB43" s="776"/>
+      <c r="BC43" s="776"/>
+      <c r="BD43" s="776"/>
+      <c r="BE43" s="775"/>
+      <c r="BF43" s="775"/>
+      <c r="BG43" s="775"/>
+      <c r="BH43" s="775"/>
+      <c r="BI43" s="775"/>
+      <c r="BJ43" s="775"/>
+      <c r="BK43" s="775"/>
+      <c r="BL43" s="775"/>
+      <c r="BM43" s="778"/>
+      <c r="BN43" s="779"/>
+    </row>
+    <row r="44" customHeight="1" ht="12" customFormat="1" s="726">
+      <c r="A44" s="766"/>
+      <c r="B44" s="177"/>
+      <c r="C44" s="177"/>
+      <c r="D44" s="177"/>
+      <c r="E44" s="177"/>
+      <c r="F44" s="177"/>
+      <c r="G44" s="177"/>
+      <c r="H44" s="177"/>
+      <c r="I44" s="177"/>
+      <c r="J44" s="177"/>
+      <c r="K44" s="177"/>
+      <c r="L44" s="177"/>
+      <c r="M44" s="177"/>
+      <c r="N44" s="177"/>
+      <c r="O44" s="177"/>
+      <c r="P44" s="177"/>
+      <c r="Q44" s="177"/>
+      <c r="R44" s="177"/>
+      <c r="S44" s="177"/>
+      <c r="T44" s="177"/>
+      <c r="U44" s="177"/>
+      <c r="V44" s="177"/>
+      <c r="W44" s="177"/>
+      <c r="X44" s="177"/>
+      <c r="Y44" s="177"/>
+      <c r="Z44" s="177"/>
+      <c r="AA44" s="177"/>
+      <c r="AB44" s="177"/>
+      <c r="AC44" s="177"/>
+      <c r="AD44" s="177"/>
+      <c r="AE44" s="177"/>
+      <c r="AF44" s="177"/>
+      <c r="AG44" s="177"/>
+      <c r="AH44" s="177"/>
+      <c r="AI44" s="177"/>
+      <c r="AJ44" s="177"/>
+      <c r="AK44" s="177"/>
+      <c r="AL44" s="177"/>
+      <c r="AM44" s="177"/>
+      <c r="AN44" s="177"/>
+      <c r="AO44" s="177"/>
+      <c r="AP44" s="551"/>
+      <c r="AQ44" s="551"/>
+      <c r="AR44" s="551"/>
+      <c r="AS44" s="551"/>
+      <c r="AT44" s="551"/>
+      <c r="AU44" s="551"/>
+      <c r="AV44" s="551"/>
+      <c r="AW44" s="551"/>
+      <c r="AX44" s="551"/>
+      <c r="AY44" s="551"/>
+      <c r="AZ44" s="551"/>
+      <c r="BA44" s="551"/>
+      <c r="BB44" s="551"/>
+      <c r="BC44" s="551"/>
+      <c r="BD44" s="551"/>
+      <c r="BE44" s="551"/>
+      <c r="BF44" s="551"/>
+      <c r="BG44" s="551"/>
+      <c r="BH44" s="551"/>
+      <c r="BI44" s="551"/>
+      <c r="BJ44" s="551"/>
+      <c r="BK44" s="551"/>
+      <c r="BL44" s="551"/>
+      <c r="BM44" s="551"/>
+      <c r="BN44" s="551"/>
+    </row>
+  </sheetData>
+  <mergeCells count="38">
+    <mergeCell ref="A2:Z3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:N4"/>
+    <mergeCell ref="O4:T4"/>
+    <mergeCell ref="U4:AV4"/>
+    <mergeCell ref="AW4:AY4"/>
+    <mergeCell ref="AZ4:BE4"/>
+    <mergeCell ref="BF4:BH4"/>
+    <mergeCell ref="BI4:BN4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:N5"/>
+    <mergeCell ref="O5:T5"/>
+    <mergeCell ref="U5:AV5"/>
+    <mergeCell ref="AW5:AY5"/>
+    <mergeCell ref="AZ5:BE5"/>
+    <mergeCell ref="BF5:BH5"/>
+    <mergeCell ref="BI5:BN5"/>
+    <mergeCell ref="AW6:BM7"/>
+    <mergeCell ref="BE8:BM8"/>
+    <mergeCell ref="BE9:BM9"/>
+    <mergeCell ref="BE26:BM26"/>
+    <mergeCell ref="BE27:BM27"/>
+    <mergeCell ref="BE28:BM28"/>
+    <mergeCell ref="BE29:BM29"/>
+    <mergeCell ref="BE30:BM30"/>
+    <mergeCell ref="BE31:BM31"/>
+    <mergeCell ref="BE32:BM32"/>
+    <mergeCell ref="BE33:BM33"/>
+    <mergeCell ref="BE34:BM34"/>
+    <mergeCell ref="BE35:BM35"/>
+    <mergeCell ref="BE36:BM36"/>
+    <mergeCell ref="BE37:BM37"/>
+    <mergeCell ref="BE38:BM38"/>
+    <mergeCell ref="BE39:BM39"/>
+    <mergeCell ref="BE40:BM40"/>
+    <mergeCell ref="BE41:BM41"/>
+    <mergeCell ref="BE42:BM42"/>
+    <mergeCell ref="BE43:BM43"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/DOC/基本設計/基本設計_emsm_ 雇用保険率更新 .xlsx
+++ b/DOC/基本設計/基本設計_emsm_ 雇用保険率更新 .xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169EDFD9-68B2-4CAA-9890-FB4B98E6FF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="840" windowWidth="26805" windowHeight="14535" tabRatio="833" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="4"/>
+    <workbookView xWindow="195" yWindow="840" windowWidth="26805" windowHeight="14535" tabRatio="833" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="9" r:id="rId1"/>
@@ -780,12 +780,22 @@
   <si>
     <t>－</t>
   </si>
+  <si>
+    <t xml:space="preserve">雇用保険率テーブルボタン+</t>
+  </si>
+  <si>
+    <t>　１）画面に入力されたデータを更新画面に取得します。</t>
+  </si>
+  <si>
+    <t>　</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="78" x14ac:knownFonts="1">
+  <fonts count="83" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1271,6 +1281,35 @@
       <charset val="128"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="ＭＳ ゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="ＭＳ ゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="ＭＳ ゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="ＭＳ ゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1310,7 +1349,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="249">
+  <borders count="263">
     <border>
       <left/>
       <right/>
@@ -3553,13 +3592,109 @@
       <bottom style="none"/>
       <diagonal style="none"/>
     </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="dotted"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="double"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="851">
+  <cellXfs count="895">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6358,6 +6493,168 @@
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="76" applyFont="1" fillId="3" applyFill="1" borderId="15" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment wrapText="1" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="78" applyFont="1" fillId="3" applyFill="1" borderId="249" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="78" applyFont="1" fillId="3" applyFill="1" borderId="250" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="78" applyFont="1" fillId="3" applyFill="1" borderId="251" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="78" applyFont="1" fillId="3" applyFill="1" borderId="252" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="78" applyFont="1" fillId="3" applyFill="1" borderId="253" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="78" applyFont="1" fillId="3" applyFill="1" borderId="254" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="79" applyFont="1" fillId="3" applyFill="1" borderId="13" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="top" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="79" applyFont="1" fillId="3" applyFill="1" borderId="13" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="79" applyFont="1" fillId="3" applyFill="1" borderId="14" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="79" applyFont="1" fillId="3" applyFill="1" borderId="12" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="top" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="80" applyFont="1" fillId="3" applyFill="1" borderId="255" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="80" applyFont="1" fillId="3" applyFill="1" borderId="256" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="80" applyFont="1" fillId="3" applyFill="1" borderId="257" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="81" applyFont="1" fillId="3" applyFill="1" borderId="256" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="81" applyFont="1" fillId="3" applyFill="1" borderId="258" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="81" applyFont="1" fillId="3" applyFill="1" borderId="259" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="82" applyFont="1" fillId="3" applyFill="1" borderId="12" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="82" applyFont="1" fillId="3" applyFill="1" borderId="13" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="82" applyFont="1" fillId="3" applyFill="1" borderId="19" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="14" applyNumberFormat="1" fontId="82" applyFont="1" fillId="3" applyFill="1" borderId="13" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="13" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="14" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="80" applyFont="1" fillId="3" applyFill="1" borderId="255" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="80" applyFont="1" fillId="3" applyFill="1" borderId="256" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="80" applyFont="1" fillId="3" applyFill="1" borderId="257" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="81" applyFont="1" fillId="3" applyFill="1" borderId="256" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="23" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="82" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="82" applyFont="1" fillId="0" applyFill="1" borderId="107" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="82" applyFont="1" fillId="0" applyFill="1" borderId="237" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="82" applyFont="1" fillId="3" applyFill="1" borderId="11" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="82" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="82" applyFont="1" fillId="3" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="82" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="82" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="82" applyFont="1" fillId="3" applyFill="1" borderId="11" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="82" applyFont="1" fillId="3" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="82" applyFont="1" fillId="3" applyFill="1" borderId="3" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="82" applyFont="1" fillId="3" applyFill="1" borderId="3" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="82" applyFont="1" fillId="3" applyFill="1" borderId="15" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="82" applyFont="1" fillId="3" applyFill="1" borderId="15" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="80" applyFont="1" fillId="0" applyFill="1" borderId="260" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="82" applyFont="1" fillId="3" applyFill="1" borderId="261" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="82" applyFont="1" fillId="3" applyFill="1" borderId="262" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6424,25 +6721,25 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="0" name="正方形/長方形 9"/>
+        <xdr:cNvPr id="7" name="正方形/長方形 9"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="762000" y="1371600"/>
+          <a:off x="152400" y="914400"/>
           <a:ext cx="1514475" cy="971550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6526,25 +6823,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1" name="正方形/長方形 13"/>
+        <xdr:cNvPr id="8" name="正方形/長方形 13"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="838200" y="1685925"/>
+          <a:off x="228600" y="1228725"/>
           <a:ext cx="457200" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6585,25 +6882,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2" name="直線矢印コネクタ 14"/>
+        <xdr:cNvPr id="0" name="直線矢印コネクタ 14"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="819150" y="2085975"/>
+          <a:off x="209550" y="1581150"/>
           <a:ext cx="495300" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -6632,25 +6929,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvPr id="9" name="正方形/長方形 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3048000" y="3352800"/>
+          <a:off x="1219200" y="2895600"/>
           <a:ext cx="1162050" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6694,25 +6991,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>38</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>46</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvPr id="10" name="正方形/長方形 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5886450" y="3352800"/>
+          <a:off x="4057650" y="2895600"/>
           <a:ext cx="1171575" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6747,7 +7044,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>メニュー画面</a:t>
+            <a:t>更新画面</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6756,25 +7053,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="直線矢印コネクタ 11"/>
+        <xdr:cNvPr id="11" name="直線矢印コネクタ 11"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4191000" y="3514725"/>
+          <a:off x="2362200" y="3057525"/>
           <a:ext cx="1676400" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -6803,25 +7100,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 7"/>
+        <xdr:cNvPr id="12" name="正方形/長方形 7"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4419600" y="3000375"/>
+          <a:off x="2743200" y="2590800"/>
           <a:ext cx="1162050" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16144,8 +16441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F81D7B7-FE65-404E-8F94-1E0DE511BF03}">
   <dimension ref="A1:BM33"/>
   <sheetViews>
-    <sheetView showGridLines="false" topLeftCell="A1" workbookViewId="0" zoomScale="120" zoomScaleNormal="120" tabSelected="1">
-      <selection activeCell="BR12" sqref="BR12" activeCellId="0"/>
+    <sheetView showGridLines="false" topLeftCell="A1" workbookViewId="0" zoomScale="120" zoomScaleNormal="120">
+      <selection activeCell="AG17" sqref="AG17" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="11.25" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16992,7 +17289,7 @@
     <row r="9" customHeight="1" ht="12">
       <c r="A9" s="37"/>
       <c r="B9" s="44" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C9" s="45"/>
       <c r="D9" s="45"/>
@@ -17058,9 +17355,7 @@
     </row>
     <row r="10" customHeight="1" ht="12">
       <c r="A10" s="37"/>
-      <c r="B10" s="44" t="s">
-        <v>233</v>
-      </c>
+      <c r="B10" s="44"/>
       <c r="C10" s="45"/>
       <c r="D10" s="45"/>
       <c r="E10" s="45"/>
@@ -17125,336 +17420,340 @@
     </row>
     <row r="11" customHeight="1" ht="12">
       <c r="A11" s="37"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="45"/>
-      <c r="R11" s="45"/>
-      <c r="S11" s="45"/>
-      <c r="T11" s="45"/>
-      <c r="U11" s="45"/>
-      <c r="V11" s="45"/>
-      <c r="W11" s="45"/>
-      <c r="X11" s="45"/>
-      <c r="Y11" s="45"/>
-      <c r="Z11" s="45"/>
-      <c r="AA11" s="45"/>
-      <c r="AB11" s="45"/>
-      <c r="AC11" s="45"/>
-      <c r="AD11" s="45"/>
-      <c r="AE11" s="45"/>
-      <c r="AF11" s="45"/>
-      <c r="AG11" s="45"/>
-      <c r="AH11" s="45"/>
-      <c r="AI11" s="45"/>
-      <c r="AJ11" s="45"/>
-      <c r="AK11" s="45"/>
-      <c r="AL11" s="45"/>
-      <c r="AM11" s="45"/>
-      <c r="AN11" s="45"/>
-      <c r="AO11" s="45"/>
-      <c r="AP11" s="45"/>
-      <c r="AQ11" s="45"/>
-      <c r="AR11" s="45"/>
-      <c r="AS11" s="45"/>
-      <c r="AT11" s="45"/>
-      <c r="AU11" s="45"/>
-      <c r="AV11" s="45"/>
-      <c r="AW11" s="45"/>
-      <c r="AX11" s="45"/>
-      <c r="AY11" s="45"/>
-      <c r="AZ11" s="45"/>
-      <c r="BA11" s="45"/>
-      <c r="BB11" s="45"/>
-      <c r="BC11" s="45"/>
-      <c r="BD11" s="45"/>
-      <c r="BE11" s="45"/>
-      <c r="BF11" s="45"/>
-      <c r="BG11" s="45"/>
-      <c r="BH11" s="45"/>
-      <c r="BI11" s="45"/>
-      <c r="BJ11" s="46"/>
+      <c r="B11" s="557" t="s">
+        <v>229</v>
+      </c>
+      <c r="C11" s="558"/>
+      <c r="D11" s="558"/>
+      <c r="E11" s="558"/>
+      <c r="F11" s="558"/>
+      <c r="G11" s="558"/>
+      <c r="H11" s="558"/>
+      <c r="I11" s="558"/>
+      <c r="J11" s="558"/>
+      <c r="K11" s="558"/>
+      <c r="L11" s="558"/>
+      <c r="M11" s="558"/>
+      <c r="N11" s="558"/>
+      <c r="O11" s="558"/>
+      <c r="P11" s="558"/>
+      <c r="Q11" s="558"/>
+      <c r="R11" s="558"/>
+      <c r="S11" s="558"/>
+      <c r="T11" s="558"/>
+      <c r="U11" s="558"/>
+      <c r="V11" s="558"/>
+      <c r="W11" s="558"/>
+      <c r="X11" s="558"/>
+      <c r="Y11" s="558"/>
+      <c r="Z11" s="558"/>
+      <c r="AA11" s="558"/>
+      <c r="AB11" s="558"/>
+      <c r="AC11" s="558"/>
+      <c r="AD11" s="558"/>
+      <c r="AE11" s="558"/>
+      <c r="AF11" s="558"/>
+      <c r="AG11" s="558"/>
+      <c r="AH11" s="558"/>
+      <c r="AI11" s="558"/>
+      <c r="AJ11" s="558"/>
+      <c r="AK11" s="558"/>
+      <c r="AL11" s="558"/>
+      <c r="AM11" s="558"/>
+      <c r="AN11" s="558"/>
+      <c r="AO11" s="558"/>
+      <c r="AP11" s="558"/>
+      <c r="AQ11" s="558"/>
+      <c r="AR11" s="558"/>
+      <c r="AS11" s="558"/>
+      <c r="AT11" s="558"/>
+      <c r="AU11" s="558"/>
+      <c r="AV11" s="558"/>
+      <c r="AW11" s="558"/>
+      <c r="AX11" s="558"/>
+      <c r="AY11" s="558"/>
+      <c r="AZ11" s="558"/>
+      <c r="BA11" s="558"/>
+      <c r="BB11" s="558"/>
+      <c r="BC11" s="558"/>
+      <c r="BD11" s="558"/>
+      <c r="BE11" s="558"/>
+      <c r="BF11" s="558"/>
+      <c r="BG11" s="558"/>
+      <c r="BH11" s="558"/>
+      <c r="BI11" s="558"/>
+      <c r="BJ11" s="559"/>
       <c r="BK11" s="31"/>
     </row>
-    <row r="12" customHeight="1" ht="12">
-      <c r="A12" s="37"/>
-      <c r="B12" s="557" t="s">
-        <v>229</v>
-      </c>
-      <c r="C12" s="558"/>
-      <c r="D12" s="558"/>
-      <c r="E12" s="558"/>
-      <c r="F12" s="558"/>
-      <c r="G12" s="558"/>
-      <c r="H12" s="558"/>
-      <c r="I12" s="558"/>
-      <c r="J12" s="558"/>
-      <c r="K12" s="558"/>
-      <c r="L12" s="558"/>
-      <c r="M12" s="558"/>
-      <c r="N12" s="558"/>
-      <c r="O12" s="558"/>
-      <c r="P12" s="558"/>
-      <c r="Q12" s="558"/>
-      <c r="R12" s="558"/>
-      <c r="S12" s="558"/>
-      <c r="T12" s="558"/>
-      <c r="U12" s="558"/>
-      <c r="V12" s="558"/>
-      <c r="W12" s="558"/>
-      <c r="X12" s="558"/>
-      <c r="Y12" s="558"/>
-      <c r="Z12" s="558"/>
-      <c r="AA12" s="558"/>
-      <c r="AB12" s="558"/>
-      <c r="AC12" s="558"/>
-      <c r="AD12" s="558"/>
-      <c r="AE12" s="558"/>
-      <c r="AF12" s="558"/>
-      <c r="AG12" s="558"/>
-      <c r="AH12" s="558"/>
-      <c r="AI12" s="558"/>
-      <c r="AJ12" s="558"/>
-      <c r="AK12" s="558"/>
-      <c r="AL12" s="558"/>
-      <c r="AM12" s="558"/>
-      <c r="AN12" s="558"/>
-      <c r="AO12" s="558"/>
-      <c r="AP12" s="558"/>
-      <c r="AQ12" s="558"/>
-      <c r="AR12" s="558"/>
-      <c r="AS12" s="558"/>
-      <c r="AT12" s="558"/>
-      <c r="AU12" s="558"/>
-      <c r="AV12" s="558"/>
-      <c r="AW12" s="558"/>
-      <c r="AX12" s="558"/>
-      <c r="AY12" s="558"/>
-      <c r="AZ12" s="558"/>
-      <c r="BA12" s="558"/>
-      <c r="BB12" s="558"/>
-      <c r="BC12" s="558"/>
-      <c r="BD12" s="558"/>
-      <c r="BE12" s="558"/>
-      <c r="BF12" s="558"/>
-      <c r="BG12" s="558"/>
-      <c r="BH12" s="558"/>
-      <c r="BI12" s="558"/>
-      <c r="BJ12" s="559"/>
-      <c r="BK12" s="31"/>
+    <row r="12" ht="12" customFormat="1" s="551">
+      <c r="A12" s="552"/>
+      <c r="B12" s="604"/>
+      <c r="C12" s="602"/>
+      <c r="D12" s="602"/>
+      <c r="E12" s="602"/>
+      <c r="F12" s="602"/>
+      <c r="G12" s="602"/>
+      <c r="H12" s="602"/>
+      <c r="I12" s="602"/>
+      <c r="J12" s="602"/>
+      <c r="K12" s="602"/>
+      <c r="L12" s="602"/>
+      <c r="M12" s="602"/>
+      <c r="N12" s="602"/>
+      <c r="O12" s="602"/>
+      <c r="P12" s="602"/>
+      <c r="Q12" s="602"/>
+      <c r="R12" s="602"/>
+      <c r="S12" s="602"/>
+      <c r="T12" s="602"/>
+      <c r="U12" s="602"/>
+      <c r="V12" s="602"/>
+      <c r="W12" s="602"/>
+      <c r="X12" s="602"/>
+      <c r="Y12" s="602"/>
+      <c r="Z12" s="602"/>
+      <c r="AA12" s="602"/>
+      <c r="AB12" s="602"/>
+      <c r="AC12" s="602"/>
+      <c r="AD12" s="602"/>
+      <c r="AE12" s="602"/>
+      <c r="AF12" s="602"/>
+      <c r="AG12" s="602"/>
+      <c r="AH12" s="602"/>
+      <c r="AI12" s="602"/>
+      <c r="AJ12" s="602"/>
+      <c r="AK12" s="602"/>
+      <c r="AL12" s="602"/>
+      <c r="AM12" s="602"/>
+      <c r="AN12" s="602"/>
+      <c r="AO12" s="602"/>
+      <c r="AP12" s="602"/>
+      <c r="AQ12" s="602"/>
+      <c r="AR12" s="602"/>
+      <c r="AS12" s="602"/>
+      <c r="AT12" s="602"/>
+      <c r="AU12" s="602"/>
+      <c r="AV12" s="602"/>
+      <c r="AW12" s="602"/>
+      <c r="AX12" s="602"/>
+      <c r="AY12" s="602"/>
+      <c r="AZ12" s="602"/>
+      <c r="BA12" s="602"/>
+      <c r="BB12" s="602"/>
+      <c r="BC12" s="602"/>
+      <c r="BD12" s="602"/>
+      <c r="BE12" s="602"/>
+      <c r="BF12" s="602"/>
+      <c r="BG12" s="602"/>
+      <c r="BH12" s="602"/>
+      <c r="BI12" s="602"/>
+      <c r="BJ12" s="605"/>
+      <c r="BK12" s="556"/>
+      <c r="IU12" s="551"/>
+      <c r="KB12" s="551"/>
+      <c r="SQ12" s="551"/>
+      <c r="TX12" s="551"/>
+      <c r="ACM12" s="551"/>
+      <c r="ADT12" s="551"/>
+      <c r="AMI12" s="551"/>
+      <c r="ANP12" s="551"/>
+      <c r="AWE12" s="551"/>
+      <c r="AXL12" s="551"/>
+      <c r="BGA12" s="551"/>
+      <c r="BHH12" s="551"/>
+      <c r="BPW12" s="551"/>
+      <c r="BRD12" s="551"/>
+      <c r="BZS12" s="551"/>
+      <c r="CAZ12" s="551"/>
+      <c r="CJO12" s="551"/>
+      <c r="CKV12" s="551"/>
+      <c r="CTK12" s="551"/>
+      <c r="CUR12" s="551"/>
+      <c r="DDG12" s="551"/>
+      <c r="DEN12" s="551"/>
+      <c r="DNC12" s="551"/>
+      <c r="DOJ12" s="551"/>
+      <c r="DWY12" s="551"/>
+      <c r="DYF12" s="551"/>
+      <c r="EGU12" s="551"/>
+      <c r="EIB12" s="551"/>
+      <c r="EQQ12" s="551"/>
+      <c r="ERX12" s="551"/>
+      <c r="FAM12" s="551"/>
+      <c r="FBT12" s="551"/>
+      <c r="FKI12" s="551"/>
+      <c r="FLP12" s="551"/>
+      <c r="FUE12" s="551"/>
+      <c r="FVL12" s="551"/>
+      <c r="GEA12" s="551"/>
+      <c r="GFH12" s="551"/>
+      <c r="GNW12" s="551"/>
+      <c r="GPD12" s="551"/>
+      <c r="GXS12" s="551"/>
+      <c r="GYZ12" s="551"/>
+      <c r="HHO12" s="551"/>
+      <c r="HIV12" s="551"/>
+      <c r="HRK12" s="551"/>
+      <c r="HSR12" s="551"/>
+      <c r="IBG12" s="551"/>
+      <c r="ICN12" s="551"/>
+      <c r="ILC12" s="551"/>
+      <c r="IMJ12" s="551"/>
+      <c r="IUY12" s="551"/>
+      <c r="IWF12" s="551"/>
+      <c r="JEU12" s="551"/>
+      <c r="JGB12" s="551"/>
+      <c r="JOQ12" s="551"/>
+      <c r="JPX12" s="551"/>
+      <c r="JYM12" s="551"/>
+      <c r="JZT12" s="551"/>
+      <c r="KII12" s="551"/>
+      <c r="KJP12" s="551"/>
+      <c r="KSE12" s="551"/>
+      <c r="KTL12" s="551"/>
+      <c r="LCA12" s="551"/>
+      <c r="LDH12" s="551"/>
+      <c r="LLW12" s="551"/>
+      <c r="LND12" s="551"/>
+      <c r="LVS12" s="551"/>
+      <c r="LWZ12" s="551"/>
+      <c r="MFO12" s="551"/>
+      <c r="MGV12" s="551"/>
+      <c r="MPK12" s="551"/>
+      <c r="MQR12" s="551"/>
+      <c r="MZG12" s="551"/>
+      <c r="NAN12" s="551"/>
+      <c r="NJC12" s="551"/>
+      <c r="NKJ12" s="551"/>
+      <c r="NSY12" s="551"/>
+      <c r="NUF12" s="551"/>
+      <c r="OCU12" s="551"/>
+      <c r="OEB12" s="551"/>
+      <c r="OMQ12" s="551"/>
+      <c r="ONX12" s="551"/>
+      <c r="OWM12" s="551"/>
+      <c r="OXT12" s="551"/>
+      <c r="PGI12" s="551"/>
+      <c r="PHP12" s="551"/>
+      <c r="PQE12" s="551"/>
+      <c r="PRL12" s="551"/>
+      <c r="QAA12" s="551"/>
+      <c r="QBH12" s="551"/>
+      <c r="QJW12" s="551"/>
+      <c r="QLD12" s="551"/>
+      <c r="QTS12" s="551"/>
+      <c r="QUZ12" s="551"/>
+      <c r="RDO12" s="551"/>
+      <c r="REV12" s="551"/>
+      <c r="RNK12" s="551"/>
+      <c r="ROR12" s="551"/>
+      <c r="RXG12" s="551"/>
+      <c r="RYN12" s="551"/>
+      <c r="SHC12" s="551"/>
+      <c r="SIJ12" s="551"/>
+      <c r="SQY12" s="551"/>
+      <c r="SSF12" s="551"/>
+      <c r="TAU12" s="551"/>
+      <c r="TCB12" s="551"/>
+      <c r="TKQ12" s="551"/>
+      <c r="TLX12" s="551"/>
+      <c r="TUM12" s="551"/>
+      <c r="TVT12" s="551"/>
+      <c r="UEI12" s="551"/>
+      <c r="UFP12" s="551"/>
+      <c r="UOE12" s="551"/>
+      <c r="UPL12" s="551"/>
+      <c r="UYA12" s="551"/>
+      <c r="UZH12" s="551"/>
+      <c r="VHW12" s="551"/>
+      <c r="VJD12" s="551"/>
+      <c r="VRS12" s="551"/>
+      <c r="VSZ12" s="551"/>
+      <c r="WBO12" s="551"/>
+      <c r="WCV12" s="551"/>
+      <c r="WLK12" s="551"/>
+      <c r="WMR12" s="551"/>
+      <c r="WVG12" s="551"/>
+      <c r="WWN12" s="551"/>
     </row>
-    <row r="13" ht="12" customFormat="1" s="551">
-      <c r="A13" s="552"/>
-      <c r="B13" s="604"/>
-      <c r="C13" s="602"/>
-      <c r="D13" s="602"/>
-      <c r="E13" s="602"/>
-      <c r="F13" s="602"/>
-      <c r="G13" s="602"/>
-      <c r="H13" s="602"/>
-      <c r="I13" s="602"/>
-      <c r="J13" s="602"/>
-      <c r="K13" s="602"/>
-      <c r="L13" s="602"/>
-      <c r="M13" s="602"/>
-      <c r="N13" s="602"/>
-      <c r="O13" s="602"/>
-      <c r="P13" s="602"/>
-      <c r="Q13" s="602"/>
-      <c r="R13" s="602"/>
-      <c r="S13" s="602"/>
-      <c r="T13" s="602"/>
-      <c r="U13" s="602"/>
-      <c r="V13" s="602"/>
-      <c r="W13" s="602"/>
-      <c r="X13" s="602"/>
-      <c r="Y13" s="602"/>
-      <c r="Z13" s="602"/>
-      <c r="AA13" s="602"/>
-      <c r="AB13" s="602"/>
-      <c r="AC13" s="602"/>
-      <c r="AD13" s="602"/>
-      <c r="AE13" s="602"/>
-      <c r="AF13" s="602"/>
-      <c r="AG13" s="602"/>
-      <c r="AH13" s="602"/>
-      <c r="AI13" s="602"/>
-      <c r="AJ13" s="602"/>
-      <c r="AK13" s="602"/>
-      <c r="AL13" s="602"/>
-      <c r="AM13" s="602"/>
-      <c r="AN13" s="602"/>
-      <c r="AO13" s="602"/>
-      <c r="AP13" s="602"/>
-      <c r="AQ13" s="602"/>
-      <c r="AR13" s="602"/>
-      <c r="AS13" s="602"/>
-      <c r="AT13" s="602"/>
-      <c r="AU13" s="602"/>
-      <c r="AV13" s="602"/>
-      <c r="AW13" s="602"/>
-      <c r="AX13" s="602"/>
-      <c r="AY13" s="602"/>
-      <c r="AZ13" s="602"/>
-      <c r="BA13" s="602"/>
-      <c r="BB13" s="602"/>
-      <c r="BC13" s="602"/>
-      <c r="BD13" s="602"/>
-      <c r="BE13" s="602"/>
-      <c r="BF13" s="602"/>
-      <c r="BG13" s="602"/>
-      <c r="BH13" s="602"/>
-      <c r="BI13" s="602"/>
-      <c r="BJ13" s="605"/>
-      <c r="BK13" s="556"/>
-      <c r="IU13" s="551"/>
-      <c r="KB13" s="551"/>
-      <c r="SQ13" s="551"/>
-      <c r="TX13" s="551"/>
-      <c r="ACM13" s="551"/>
-      <c r="ADT13" s="551"/>
-      <c r="AMI13" s="551"/>
-      <c r="ANP13" s="551"/>
-      <c r="AWE13" s="551"/>
-      <c r="AXL13" s="551"/>
-      <c r="BGA13" s="551"/>
-      <c r="BHH13" s="551"/>
-      <c r="BPW13" s="551"/>
-      <c r="BRD13" s="551"/>
-      <c r="BZS13" s="551"/>
-      <c r="CAZ13" s="551"/>
-      <c r="CJO13" s="551"/>
-      <c r="CKV13" s="551"/>
-      <c r="CTK13" s="551"/>
-      <c r="CUR13" s="551"/>
-      <c r="DDG13" s="551"/>
-      <c r="DEN13" s="551"/>
-      <c r="DNC13" s="551"/>
-      <c r="DOJ13" s="551"/>
-      <c r="DWY13" s="551"/>
-      <c r="DYF13" s="551"/>
-      <c r="EGU13" s="551"/>
-      <c r="EIB13" s="551"/>
-      <c r="EQQ13" s="551"/>
-      <c r="ERX13" s="551"/>
-      <c r="FAM13" s="551"/>
-      <c r="FBT13" s="551"/>
-      <c r="FKI13" s="551"/>
-      <c r="FLP13" s="551"/>
-      <c r="FUE13" s="551"/>
-      <c r="FVL13" s="551"/>
-      <c r="GEA13" s="551"/>
-      <c r="GFH13" s="551"/>
-      <c r="GNW13" s="551"/>
-      <c r="GPD13" s="551"/>
-      <c r="GXS13" s="551"/>
-      <c r="GYZ13" s="551"/>
-      <c r="HHO13" s="551"/>
-      <c r="HIV13" s="551"/>
-      <c r="HRK13" s="551"/>
-      <c r="HSR13" s="551"/>
-      <c r="IBG13" s="551"/>
-      <c r="ICN13" s="551"/>
-      <c r="ILC13" s="551"/>
-      <c r="IMJ13" s="551"/>
-      <c r="IUY13" s="551"/>
-      <c r="IWF13" s="551"/>
-      <c r="JEU13" s="551"/>
-      <c r="JGB13" s="551"/>
-      <c r="JOQ13" s="551"/>
-      <c r="JPX13" s="551"/>
-      <c r="JYM13" s="551"/>
-      <c r="JZT13" s="551"/>
-      <c r="KII13" s="551"/>
-      <c r="KJP13" s="551"/>
-      <c r="KSE13" s="551"/>
-      <c r="KTL13" s="551"/>
-      <c r="LCA13" s="551"/>
-      <c r="LDH13" s="551"/>
-      <c r="LLW13" s="551"/>
-      <c r="LND13" s="551"/>
-      <c r="LVS13" s="551"/>
-      <c r="LWZ13" s="551"/>
-      <c r="MFO13" s="551"/>
-      <c r="MGV13" s="551"/>
-      <c r="MPK13" s="551"/>
-      <c r="MQR13" s="551"/>
-      <c r="MZG13" s="551"/>
-      <c r="NAN13" s="551"/>
-      <c r="NJC13" s="551"/>
-      <c r="NKJ13" s="551"/>
-      <c r="NSY13" s="551"/>
-      <c r="NUF13" s="551"/>
-      <c r="OCU13" s="551"/>
-      <c r="OEB13" s="551"/>
-      <c r="OMQ13" s="551"/>
-      <c r="ONX13" s="551"/>
-      <c r="OWM13" s="551"/>
-      <c r="OXT13" s="551"/>
-      <c r="PGI13" s="551"/>
-      <c r="PHP13" s="551"/>
-      <c r="PQE13" s="551"/>
-      <c r="PRL13" s="551"/>
-      <c r="QAA13" s="551"/>
-      <c r="QBH13" s="551"/>
-      <c r="QJW13" s="551"/>
-      <c r="QLD13" s="551"/>
-      <c r="QTS13" s="551"/>
-      <c r="QUZ13" s="551"/>
-      <c r="RDO13" s="551"/>
-      <c r="REV13" s="551"/>
-      <c r="RNK13" s="551"/>
-      <c r="ROR13" s="551"/>
-      <c r="RXG13" s="551"/>
-      <c r="RYN13" s="551"/>
-      <c r="SHC13" s="551"/>
-      <c r="SIJ13" s="551"/>
-      <c r="SQY13" s="551"/>
-      <c r="SSF13" s="551"/>
-      <c r="TAU13" s="551"/>
-      <c r="TCB13" s="551"/>
-      <c r="TKQ13" s="551"/>
-      <c r="TLX13" s="551"/>
-      <c r="TUM13" s="551"/>
-      <c r="TVT13" s="551"/>
-      <c r="UEI13" s="551"/>
-      <c r="UFP13" s="551"/>
-      <c r="UOE13" s="551"/>
-      <c r="UPL13" s="551"/>
-      <c r="UYA13" s="551"/>
-      <c r="UZH13" s="551"/>
-      <c r="VHW13" s="551"/>
-      <c r="VJD13" s="551"/>
-      <c r="VRS13" s="551"/>
-      <c r="VSZ13" s="551"/>
-      <c r="WBO13" s="551"/>
-      <c r="WCV13" s="551"/>
-      <c r="WLK13" s="551"/>
-      <c r="WMR13" s="551"/>
-      <c r="WVG13" s="551"/>
-      <c r="WWN13" s="551"/>
+    <row r="13" customHeight="1" ht="12">
+      <c r="A13" s="37"/>
+      <c r="B13" s="608"/>
+      <c r="C13" s="609" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="610"/>
+      <c r="E13" s="609" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="610"/>
+      <c r="G13" s="610"/>
+      <c r="H13" s="610"/>
+      <c r="I13" s="610"/>
+      <c r="J13" s="610"/>
+      <c r="K13" s="610"/>
+      <c r="L13" s="610"/>
+      <c r="M13" s="610"/>
+      <c r="N13" s="610"/>
+      <c r="O13" s="610"/>
+      <c r="P13" s="610"/>
+      <c r="Q13" s="610"/>
+      <c r="R13" s="609"/>
+      <c r="S13" s="609"/>
+      <c r="T13" s="609"/>
+      <c r="U13" s="609"/>
+      <c r="V13" s="609"/>
+      <c r="W13" s="609"/>
+      <c r="X13" s="609"/>
+      <c r="Y13" s="609"/>
+      <c r="Z13" s="609"/>
+      <c r="AA13" s="609"/>
+      <c r="AB13" s="609"/>
+      <c r="AC13" s="609"/>
+      <c r="AD13" s="609"/>
+      <c r="AE13" s="609"/>
+      <c r="AF13" s="609"/>
+      <c r="AG13" s="609"/>
+      <c r="AH13" s="609"/>
+      <c r="AI13" s="609"/>
+      <c r="AJ13" s="609"/>
+      <c r="AK13" s="609"/>
+      <c r="AL13" s="609"/>
+      <c r="AM13" s="609"/>
+      <c r="AN13" s="609"/>
+      <c r="AO13" s="609"/>
+      <c r="AP13" s="609"/>
+      <c r="AQ13" s="609"/>
+      <c r="AR13" s="609"/>
+      <c r="AS13" s="609"/>
+      <c r="AT13" s="609"/>
+      <c r="AU13" s="609"/>
+      <c r="AV13" s="609"/>
+      <c r="AW13" s="609"/>
+      <c r="AX13" s="609"/>
+      <c r="AY13" s="609"/>
+      <c r="AZ13" s="609"/>
+      <c r="BA13" s="609"/>
+      <c r="BB13" s="609"/>
+      <c r="BC13" s="609"/>
+      <c r="BD13" s="609"/>
+      <c r="BE13" s="609"/>
+      <c r="BF13" s="609"/>
+      <c r="BG13" s="609"/>
+      <c r="BH13" s="609"/>
+      <c r="BI13" s="609"/>
+      <c r="BJ13" s="611"/>
+      <c r="BK13" s="31"/>
     </row>
-    <row r="14" customHeight="1" ht="12">
-      <c r="A14" s="37"/>
+    <row r="14" customHeight="1" ht="12" customFormat="1" s="78">
+      <c r="A14" s="80"/>
       <c r="B14" s="608"/>
-      <c r="C14" s="609" t="s">
-        <v>85</v>
-      </c>
-      <c r="D14" s="610"/>
+      <c r="C14" s="610"/>
+      <c r="D14" s="609" t="s">
+        <v>88</v>
+      </c>
       <c r="E14" s="609" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F14" s="610"/>
       <c r="G14" s="610"/>
@@ -17513,17 +17812,15 @@
       <c r="BH14" s="609"/>
       <c r="BI14" s="609"/>
       <c r="BJ14" s="611"/>
-      <c r="BK14" s="31"/>
+      <c r="BK14" s="83"/>
     </row>
     <row r="15" customHeight="1" ht="12" customFormat="1" s="78">
       <c r="A15" s="80"/>
       <c r="B15" s="608"/>
       <c r="C15" s="610"/>
-      <c r="D15" s="609" t="s">
-        <v>88</v>
-      </c>
+      <c r="D15" s="610"/>
       <c r="E15" s="609" t="s">
-        <v>89</v>
+        <v>226</v>
       </c>
       <c r="F15" s="610"/>
       <c r="G15" s="610"/>
@@ -17590,7 +17887,7 @@
       <c r="C16" s="610"/>
       <c r="D16" s="610"/>
       <c r="E16" s="609" t="s">
-        <v>226</v>
+        <v>91</v>
       </c>
       <c r="F16" s="610"/>
       <c r="G16" s="610"/>
@@ -17656,9 +17953,7 @@
       <c r="B17" s="608"/>
       <c r="C17" s="610"/>
       <c r="D17" s="610"/>
-      <c r="E17" s="609" t="s">
-        <v>91</v>
-      </c>
+      <c r="E17" s="610"/>
       <c r="F17" s="610"/>
       <c r="G17" s="610"/>
       <c r="H17" s="610"/>
@@ -17722,8 +18017,12 @@
       <c r="A18" s="80"/>
       <c r="B18" s="608"/>
       <c r="C18" s="610"/>
-      <c r="D18" s="610"/>
-      <c r="E18" s="610"/>
+      <c r="D18" s="609" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="609" t="s">
+        <v>93</v>
+      </c>
       <c r="F18" s="610"/>
       <c r="G18" s="610"/>
       <c r="H18" s="610"/>
@@ -17787,11 +18086,9 @@
       <c r="A19" s="80"/>
       <c r="B19" s="608"/>
       <c r="C19" s="610"/>
-      <c r="D19" s="609" t="s">
-        <v>92</v>
-      </c>
+      <c r="D19" s="610"/>
       <c r="E19" s="609" t="s">
-        <v>93</v>
+        <v>167</v>
       </c>
       <c r="F19" s="610"/>
       <c r="G19" s="610"/>
@@ -17852,136 +18149,134 @@
       <c r="BJ19" s="611"/>
       <c r="BK19" s="83"/>
     </row>
-    <row r="20" customHeight="1" ht="12" customFormat="1" s="78">
-      <c r="A20" s="80"/>
-      <c r="B20" s="608"/>
-      <c r="C20" s="610"/>
-      <c r="D20" s="610"/>
-      <c r="E20" s="609" t="s">
-        <v>167</v>
-      </c>
-      <c r="F20" s="610"/>
-      <c r="G20" s="610"/>
-      <c r="H20" s="610"/>
-      <c r="I20" s="610"/>
-      <c r="J20" s="610"/>
-      <c r="K20" s="610"/>
-      <c r="L20" s="610"/>
-      <c r="M20" s="610"/>
-      <c r="N20" s="610"/>
-      <c r="O20" s="610"/>
-      <c r="P20" s="610"/>
-      <c r="Q20" s="610"/>
-      <c r="R20" s="609"/>
-      <c r="S20" s="609"/>
-      <c r="T20" s="609"/>
-      <c r="U20" s="609"/>
-      <c r="V20" s="609"/>
-      <c r="W20" s="609"/>
-      <c r="X20" s="609"/>
-      <c r="Y20" s="609"/>
-      <c r="Z20" s="609"/>
-      <c r="AA20" s="609"/>
-      <c r="AB20" s="609"/>
-      <c r="AC20" s="609"/>
-      <c r="AD20" s="609"/>
-      <c r="AE20" s="609"/>
-      <c r="AF20" s="609"/>
-      <c r="AG20" s="609"/>
-      <c r="AH20" s="609"/>
-      <c r="AI20" s="609"/>
-      <c r="AJ20" s="609"/>
-      <c r="AK20" s="609"/>
-      <c r="AL20" s="609"/>
-      <c r="AM20" s="609"/>
-      <c r="AN20" s="609"/>
-      <c r="AO20" s="609"/>
-      <c r="AP20" s="609"/>
-      <c r="AQ20" s="609"/>
-      <c r="AR20" s="609"/>
-      <c r="AS20" s="609"/>
-      <c r="AT20" s="609"/>
-      <c r="AU20" s="609"/>
-      <c r="AV20" s="609"/>
-      <c r="AW20" s="609"/>
-      <c r="AX20" s="609"/>
-      <c r="AY20" s="609"/>
-      <c r="AZ20" s="609"/>
-      <c r="BA20" s="609"/>
-      <c r="BB20" s="609"/>
-      <c r="BC20" s="609"/>
-      <c r="BD20" s="609"/>
-      <c r="BE20" s="609"/>
-      <c r="BF20" s="609"/>
-      <c r="BG20" s="609"/>
-      <c r="BH20" s="609"/>
-      <c r="BI20" s="609"/>
-      <c r="BJ20" s="611"/>
-      <c r="BK20" s="83"/>
+    <row r="20" customHeight="1" ht="12">
+      <c r="A20" s="37"/>
+      <c r="B20" s="612"/>
+      <c r="C20" s="613"/>
+      <c r="D20" s="613"/>
+      <c r="E20" s="613"/>
+      <c r="F20" s="613"/>
+      <c r="G20" s="613"/>
+      <c r="H20" s="613"/>
+      <c r="I20" s="613"/>
+      <c r="J20" s="613"/>
+      <c r="K20" s="613"/>
+      <c r="L20" s="613"/>
+      <c r="M20" s="613"/>
+      <c r="N20" s="613"/>
+      <c r="O20" s="613"/>
+      <c r="P20" s="613"/>
+      <c r="Q20" s="613"/>
+      <c r="R20" s="613"/>
+      <c r="S20" s="613"/>
+      <c r="T20" s="613"/>
+      <c r="U20" s="613"/>
+      <c r="V20" s="613"/>
+      <c r="W20" s="613"/>
+      <c r="X20" s="613"/>
+      <c r="Y20" s="613"/>
+      <c r="Z20" s="613"/>
+      <c r="AA20" s="613"/>
+      <c r="AB20" s="613"/>
+      <c r="AC20" s="613"/>
+      <c r="AD20" s="613"/>
+      <c r="AE20" s="613"/>
+      <c r="AF20" s="613"/>
+      <c r="AG20" s="613"/>
+      <c r="AH20" s="613"/>
+      <c r="AI20" s="613"/>
+      <c r="AJ20" s="613"/>
+      <c r="AK20" s="613"/>
+      <c r="AL20" s="613"/>
+      <c r="AM20" s="613"/>
+      <c r="AN20" s="613"/>
+      <c r="AO20" s="613"/>
+      <c r="AP20" s="613"/>
+      <c r="AQ20" s="613"/>
+      <c r="AR20" s="613"/>
+      <c r="AS20" s="613"/>
+      <c r="AT20" s="613"/>
+      <c r="AU20" s="613"/>
+      <c r="AV20" s="613"/>
+      <c r="AW20" s="613"/>
+      <c r="AX20" s="613"/>
+      <c r="AY20" s="613"/>
+      <c r="AZ20" s="613"/>
+      <c r="BA20" s="613"/>
+      <c r="BB20" s="613"/>
+      <c r="BC20" s="613"/>
+      <c r="BD20" s="613"/>
+      <c r="BE20" s="613"/>
+      <c r="BF20" s="613"/>
+      <c r="BG20" s="613"/>
+      <c r="BH20" s="613"/>
+      <c r="BI20" s="613"/>
+      <c r="BJ20" s="614"/>
+      <c r="BK20" s="31"/>
     </row>
     <row r="21" customHeight="1" ht="12">
       <c r="A21" s="37"/>
-      <c r="B21" s="612"/>
-      <c r="C21" s="613"/>
-      <c r="D21" s="613"/>
-      <c r="E21" s="613"/>
-      <c r="F21" s="613"/>
-      <c r="G21" s="613"/>
-      <c r="H21" s="613"/>
-      <c r="I21" s="613"/>
-      <c r="J21" s="613"/>
-      <c r="K21" s="613"/>
-      <c r="L21" s="613"/>
-      <c r="M21" s="613"/>
-      <c r="N21" s="613"/>
-      <c r="O21" s="613"/>
-      <c r="P21" s="613"/>
-      <c r="Q21" s="613"/>
-      <c r="R21" s="613"/>
-      <c r="S21" s="613"/>
-      <c r="T21" s="613"/>
-      <c r="U21" s="613"/>
-      <c r="V21" s="613"/>
-      <c r="W21" s="613"/>
-      <c r="X21" s="613"/>
-      <c r="Y21" s="613"/>
-      <c r="Z21" s="613"/>
-      <c r="AA21" s="613"/>
-      <c r="AB21" s="613"/>
-      <c r="AC21" s="613"/>
-      <c r="AD21" s="613"/>
-      <c r="AE21" s="613"/>
-      <c r="AF21" s="613"/>
-      <c r="AG21" s="613"/>
-      <c r="AH21" s="613"/>
-      <c r="AI21" s="613"/>
-      <c r="AJ21" s="613"/>
-      <c r="AK21" s="613"/>
-      <c r="AL21" s="613"/>
-      <c r="AM21" s="613"/>
-      <c r="AN21" s="613"/>
-      <c r="AO21" s="613"/>
-      <c r="AP21" s="613"/>
-      <c r="AQ21" s="613"/>
-      <c r="AR21" s="613"/>
-      <c r="AS21" s="613"/>
-      <c r="AT21" s="613"/>
-      <c r="AU21" s="613"/>
-      <c r="AV21" s="613"/>
-      <c r="AW21" s="613"/>
-      <c r="AX21" s="613"/>
-      <c r="AY21" s="613"/>
-      <c r="AZ21" s="613"/>
-      <c r="BA21" s="613"/>
-      <c r="BB21" s="613"/>
-      <c r="BC21" s="613"/>
-      <c r="BD21" s="613"/>
-      <c r="BE21" s="613"/>
-      <c r="BF21" s="613"/>
-      <c r="BG21" s="613"/>
-      <c r="BH21" s="613"/>
-      <c r="BI21" s="613"/>
-      <c r="BJ21" s="614"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="43"/>
+      <c r="O21" s="43"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="43"/>
+      <c r="R21" s="43"/>
+      <c r="S21" s="43"/>
+      <c r="T21" s="43"/>
+      <c r="U21" s="43"/>
+      <c r="V21" s="43"/>
+      <c r="W21" s="43"/>
+      <c r="X21" s="43"/>
+      <c r="Y21" s="43"/>
+      <c r="Z21" s="43"/>
+      <c r="AA21" s="43"/>
+      <c r="AB21" s="43"/>
+      <c r="AC21" s="43"/>
+      <c r="AD21" s="43"/>
+      <c r="AE21" s="43"/>
+      <c r="AF21" s="43"/>
+      <c r="AG21" s="43"/>
+      <c r="AH21" s="43"/>
+      <c r="AI21" s="43"/>
+      <c r="AJ21" s="43"/>
+      <c r="AK21" s="43"/>
+      <c r="AL21" s="43"/>
+      <c r="AM21" s="43"/>
+      <c r="AN21" s="43"/>
+      <c r="AO21" s="43"/>
+      <c r="AP21" s="43"/>
+      <c r="AQ21" s="43"/>
+      <c r="AR21" s="43"/>
+      <c r="AS21" s="43"/>
+      <c r="AT21" s="43"/>
+      <c r="AU21" s="43"/>
+      <c r="AV21" s="43"/>
+      <c r="AW21" s="43"/>
+      <c r="AX21" s="43"/>
+      <c r="AY21" s="43"/>
+      <c r="AZ21" s="43"/>
+      <c r="BA21" s="43"/>
+      <c r="BB21" s="43"/>
+      <c r="BC21" s="43"/>
+      <c r="BD21" s="43"/>
+      <c r="BE21" s="43"/>
+      <c r="BF21" s="43"/>
+      <c r="BG21" s="43"/>
+      <c r="BH21" s="43"/>
+      <c r="BI21" s="43"/>
+      <c r="BJ21" s="43"/>
       <c r="BK21" s="31"/>
     </row>
     <row r="22" customHeight="1" ht="12">
@@ -18180,137 +18475,72 @@
       <c r="BK24" s="31"/>
     </row>
     <row r="25" customHeight="1" ht="12">
-      <c r="A25" s="37"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="43"/>
-      <c r="M25" s="43"/>
-      <c r="N25" s="43"/>
-      <c r="O25" s="43"/>
-      <c r="P25" s="43"/>
-      <c r="Q25" s="43"/>
-      <c r="R25" s="43"/>
-      <c r="S25" s="43"/>
-      <c r="T25" s="43"/>
-      <c r="U25" s="43"/>
-      <c r="V25" s="43"/>
-      <c r="W25" s="43"/>
-      <c r="X25" s="43"/>
-      <c r="Y25" s="43"/>
-      <c r="Z25" s="43"/>
-      <c r="AA25" s="43"/>
-      <c r="AB25" s="43"/>
-      <c r="AC25" s="43"/>
-      <c r="AD25" s="43"/>
-      <c r="AE25" s="43"/>
-      <c r="AF25" s="43"/>
-      <c r="AG25" s="43"/>
-      <c r="AH25" s="43"/>
-      <c r="AI25" s="43"/>
-      <c r="AJ25" s="43"/>
-      <c r="AK25" s="43"/>
-      <c r="AL25" s="43"/>
-      <c r="AM25" s="43"/>
-      <c r="AN25" s="43"/>
-      <c r="AO25" s="43"/>
-      <c r="AP25" s="43"/>
-      <c r="AQ25" s="43"/>
-      <c r="AR25" s="43"/>
-      <c r="AS25" s="43"/>
-      <c r="AT25" s="43"/>
-      <c r="AU25" s="43"/>
-      <c r="AV25" s="43"/>
-      <c r="AW25" s="43"/>
-      <c r="AX25" s="43"/>
-      <c r="AY25" s="43"/>
-      <c r="AZ25" s="43"/>
-      <c r="BA25" s="43"/>
-      <c r="BB25" s="43"/>
-      <c r="BC25" s="43"/>
-      <c r="BD25" s="43"/>
-      <c r="BE25" s="43"/>
-      <c r="BF25" s="43"/>
-      <c r="BG25" s="43"/>
-      <c r="BH25" s="43"/>
-      <c r="BI25" s="43"/>
-      <c r="BJ25" s="43"/>
-      <c r="BK25" s="31"/>
-    </row>
-    <row r="26" customHeight="1" ht="12">
-      <c r="A26" s="55"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="56"/>
-      <c r="M26" s="56"/>
-      <c r="N26" s="56"/>
-      <c r="O26" s="56"/>
-      <c r="P26" s="56"/>
-      <c r="Q26" s="56"/>
-      <c r="R26" s="56"/>
-      <c r="S26" s="56"/>
-      <c r="T26" s="56"/>
-      <c r="U26" s="56"/>
-      <c r="V26" s="56"/>
-      <c r="W26" s="56"/>
-      <c r="X26" s="56"/>
-      <c r="Y26" s="56"/>
-      <c r="Z26" s="56"/>
-      <c r="AA26" s="56"/>
-      <c r="AB26" s="56"/>
-      <c r="AC26" s="56"/>
-      <c r="AD26" s="56"/>
-      <c r="AE26" s="56"/>
-      <c r="AF26" s="56"/>
-      <c r="AG26" s="56"/>
-      <c r="AH26" s="56"/>
-      <c r="AI26" s="56"/>
-      <c r="AJ26" s="56"/>
-      <c r="AK26" s="56"/>
-      <c r="AL26" s="56"/>
-      <c r="AM26" s="56"/>
-      <c r="AN26" s="56"/>
-      <c r="AO26" s="56"/>
-      <c r="AP26" s="56"/>
-      <c r="AQ26" s="56"/>
-      <c r="AR26" s="56"/>
-      <c r="AS26" s="56"/>
-      <c r="AT26" s="56"/>
-      <c r="AU26" s="56"/>
-      <c r="AV26" s="56"/>
-      <c r="AW26" s="56"/>
-      <c r="AX26" s="56"/>
-      <c r="AY26" s="56"/>
-      <c r="AZ26" s="56"/>
-      <c r="BA26" s="56"/>
-      <c r="BB26" s="56"/>
-      <c r="BC26" s="56"/>
-      <c r="BD26" s="56"/>
-      <c r="BE26" s="56"/>
-      <c r="BF26" s="56"/>
-      <c r="BG26" s="56"/>
-      <c r="BH26" s="56"/>
-      <c r="BI26" s="56"/>
-      <c r="BJ26" s="56"/>
-      <c r="BK26" s="32"/>
+      <c r="A25" s="55"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="56"/>
+      <c r="N25" s="56"/>
+      <c r="O25" s="56"/>
+      <c r="P25" s="56"/>
+      <c r="Q25" s="56"/>
+      <c r="R25" s="56"/>
+      <c r="S25" s="56"/>
+      <c r="T25" s="56"/>
+      <c r="U25" s="56"/>
+      <c r="V25" s="56"/>
+      <c r="W25" s="56"/>
+      <c r="X25" s="56"/>
+      <c r="Y25" s="56"/>
+      <c r="Z25" s="56"/>
+      <c r="AA25" s="56"/>
+      <c r="AB25" s="56"/>
+      <c r="AC25" s="56"/>
+      <c r="AD25" s="56"/>
+      <c r="AE25" s="56"/>
+      <c r="AF25" s="56"/>
+      <c r="AG25" s="56"/>
+      <c r="AH25" s="56"/>
+      <c r="AI25" s="56"/>
+      <c r="AJ25" s="56"/>
+      <c r="AK25" s="56"/>
+      <c r="AL25" s="56"/>
+      <c r="AM25" s="56"/>
+      <c r="AN25" s="56"/>
+      <c r="AO25" s="56"/>
+      <c r="AP25" s="56"/>
+      <c r="AQ25" s="56"/>
+      <c r="AR25" s="56"/>
+      <c r="AS25" s="56"/>
+      <c r="AT25" s="56"/>
+      <c r="AU25" s="56"/>
+      <c r="AV25" s="56"/>
+      <c r="AW25" s="56"/>
+      <c r="AX25" s="56"/>
+      <c r="AY25" s="56"/>
+      <c r="AZ25" s="56"/>
+      <c r="BA25" s="56"/>
+      <c r="BB25" s="56"/>
+      <c r="BC25" s="56"/>
+      <c r="BD25" s="56"/>
+      <c r="BE25" s="56"/>
+      <c r="BF25" s="56"/>
+      <c r="BG25" s="56"/>
+      <c r="BH25" s="56"/>
+      <c r="BI25" s="56"/>
+      <c r="BJ25" s="56"/>
+      <c r="BK25" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="24">
     <mergeCell ref="A2:X3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="E4:L4"/>
@@ -18334,8 +18564,7 @@
     <mergeCell ref="B7:BJ7"/>
     <mergeCell ref="B8:BJ8"/>
     <mergeCell ref="B9:BJ9"/>
-    <mergeCell ref="B10:BJ10"/>
-    <mergeCell ref="B12:BJ12"/>
+    <mergeCell ref="B11:BJ11"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18347,7 +18576,7 @@
   <dimension ref="A1:BN36"/>
   <sheetViews>
     <sheetView showGridLines="false" workbookViewId="0" topLeftCell="A1" zoomScale="120" zoomScaleNormal="120">
-      <selection activeCell="M9" sqref="M9:P9" activeCellId="0"/>
+      <selection activeCell="AN23" sqref="AN23" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="11.25" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20693,8 +20922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F483F54A-5AD5-4BFC-9283-BB80624954B3}">
   <dimension ref="A1:BN14"/>
   <sheetViews>
-    <sheetView showGridLines="false" zoomScale="110" zoomScaleNormal="110" workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="AV24" sqref="AV24" activeCellId="0"/>
+    <sheetView showGridLines="false" zoomScale="110" zoomScaleNormal="110" workbookViewId="0" topLeftCell="A1" tabSelected="1">
+      <selection activeCell="BA21" sqref="BA21" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21799,30 +22028,30 @@
       <c r="AP13" s="803"/>
       <c r="AQ13" s="803"/>
       <c r="AR13" s="829"/>
-      <c r="AS13" s="840" t="s">
+      <c r="AS13" s="852" t="s">
         <v>182</v>
       </c>
-      <c r="AT13" s="841"/>
-      <c r="AU13" s="841"/>
-      <c r="AV13" s="841"/>
-      <c r="AW13" s="841"/>
-      <c r="AX13" s="841"/>
-      <c r="AY13" s="841"/>
-      <c r="AZ13" s="841"/>
-      <c r="BA13" s="841"/>
-      <c r="BB13" s="841"/>
-      <c r="BC13" s="841"/>
-      <c r="BD13" s="841"/>
-      <c r="BE13" s="841"/>
-      <c r="BF13" s="841"/>
-      <c r="BG13" s="841"/>
-      <c r="BH13" s="841"/>
-      <c r="BI13" s="841"/>
-      <c r="BJ13" s="841"/>
-      <c r="BK13" s="841"/>
-      <c r="BL13" s="841"/>
-      <c r="BM13" s="841"/>
-      <c r="BN13" s="842"/>
+      <c r="AT13" s="852"/>
+      <c r="AU13" s="852"/>
+      <c r="AV13" s="852"/>
+      <c r="AW13" s="852"/>
+      <c r="AX13" s="852"/>
+      <c r="AY13" s="852"/>
+      <c r="AZ13" s="852"/>
+      <c r="BA13" s="852"/>
+      <c r="BB13" s="852"/>
+      <c r="BC13" s="852"/>
+      <c r="BD13" s="852"/>
+      <c r="BE13" s="852"/>
+      <c r="BF13" s="852"/>
+      <c r="BG13" s="852"/>
+      <c r="BH13" s="852"/>
+      <c r="BI13" s="852"/>
+      <c r="BJ13" s="852"/>
+      <c r="BK13" s="852"/>
+      <c r="BL13" s="852"/>
+      <c r="BM13" s="852"/>
+      <c r="BN13" s="853"/>
     </row>
     <row r="14" customFormat="1" s="38">
       <c r="A14" s="90">
@@ -21874,31 +22103,31 @@
       <c r="AO14" s="831"/>
       <c r="AP14" s="831"/>
       <c r="AQ14" s="831"/>
-      <c r="AR14" s="831"/>
-      <c r="AS14" s="843" t="s">
+      <c r="AR14" s="851"/>
+      <c r="AS14" s="860" t="s">
         <v>183</v>
       </c>
-      <c r="AT14" s="844"/>
-      <c r="AU14" s="844"/>
-      <c r="AV14" s="844"/>
-      <c r="AW14" s="844"/>
-      <c r="AX14" s="844"/>
-      <c r="AY14" s="844"/>
-      <c r="AZ14" s="844"/>
-      <c r="BA14" s="844"/>
-      <c r="BB14" s="844"/>
-      <c r="BC14" s="844"/>
-      <c r="BD14" s="844"/>
-      <c r="BE14" s="844"/>
-      <c r="BF14" s="844"/>
-      <c r="BG14" s="844"/>
-      <c r="BH14" s="844"/>
-      <c r="BI14" s="844"/>
-      <c r="BJ14" s="844"/>
-      <c r="BK14" s="844"/>
-      <c r="BL14" s="844"/>
-      <c r="BM14" s="844"/>
-      <c r="BN14" s="844"/>
+      <c r="AT14" s="858"/>
+      <c r="AU14" s="858"/>
+      <c r="AV14" s="858"/>
+      <c r="AW14" s="858"/>
+      <c r="AX14" s="858"/>
+      <c r="AY14" s="858"/>
+      <c r="AZ14" s="858"/>
+      <c r="BA14" s="858"/>
+      <c r="BB14" s="858"/>
+      <c r="BC14" s="858"/>
+      <c r="BD14" s="858"/>
+      <c r="BE14" s="858"/>
+      <c r="BF14" s="858"/>
+      <c r="BG14" s="858"/>
+      <c r="BH14" s="858"/>
+      <c r="BI14" s="858"/>
+      <c r="BJ14" s="858"/>
+      <c r="BK14" s="858"/>
+      <c r="BL14" s="858"/>
+      <c r="BM14" s="858"/>
+      <c r="BN14" s="859"/>
     </row>
     <row r="15" customHeight="1" ht="21">
       <c r="A15" s="89">
@@ -21951,30 +22180,30 @@
       <c r="AP15" s="807"/>
       <c r="AQ15" s="807"/>
       <c r="AR15" s="807"/>
-      <c r="AS15" s="845" t="s">
+      <c r="AS15" s="854" t="s">
         <v>184</v>
       </c>
-      <c r="AT15" s="846"/>
-      <c r="AU15" s="846"/>
-      <c r="AV15" s="846"/>
-      <c r="AW15" s="846"/>
-      <c r="AX15" s="846"/>
-      <c r="AY15" s="846"/>
-      <c r="AZ15" s="846"/>
-      <c r="BA15" s="846"/>
-      <c r="BB15" s="846"/>
-      <c r="BC15" s="846"/>
-      <c r="BD15" s="846"/>
-      <c r="BE15" s="846"/>
-      <c r="BF15" s="846"/>
-      <c r="BG15" s="846"/>
-      <c r="BH15" s="846"/>
-      <c r="BI15" s="846"/>
-      <c r="BJ15" s="846"/>
-      <c r="BK15" s="846"/>
-      <c r="BL15" s="846"/>
-      <c r="BM15" s="846"/>
-      <c r="BN15" s="847"/>
+      <c r="AT15" s="855"/>
+      <c r="AU15" s="855"/>
+      <c r="AV15" s="855"/>
+      <c r="AW15" s="855"/>
+      <c r="AX15" s="855"/>
+      <c r="AY15" s="855"/>
+      <c r="AZ15" s="855"/>
+      <c r="BA15" s="855"/>
+      <c r="BB15" s="855"/>
+      <c r="BC15" s="855"/>
+      <c r="BD15" s="855"/>
+      <c r="BE15" s="855"/>
+      <c r="BF15" s="855"/>
+      <c r="BG15" s="855"/>
+      <c r="BH15" s="855"/>
+      <c r="BI15" s="855"/>
+      <c r="BJ15" s="855"/>
+      <c r="BK15" s="855"/>
+      <c r="BL15" s="855"/>
+      <c r="BM15" s="855"/>
+      <c r="BN15" s="856"/>
     </row>
     <row r="16">
       <c r="A16" s="89">
@@ -22189,7 +22418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="BI18" activeCellId="0" sqref="BI18"/>
+      <selection activeCell="AE30" activeCellId="0" sqref="AE30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelRow="0" outlineLevelCol="0" customHeight="true" defaultColWidth="2.125"/>
@@ -22651,33 +22880,33 @@
       <c r="AS4" s="747"/>
       <c r="AT4" s="747"/>
       <c r="AU4" s="747"/>
-      <c r="AV4" s="748"/>
-      <c r="AW4" s="749" t="s">
+      <c r="AV4" s="865"/>
+      <c r="AW4" s="867" t="s">
         <v>13</v>
       </c>
-      <c r="AX4" s="750"/>
-      <c r="AY4" s="751"/>
-      <c r="AZ4" s="752">
+      <c r="AX4" s="868"/>
+      <c r="AY4" s="869"/>
+      <c r="AZ4" s="870">
         <v>45072</v>
       </c>
-      <c r="BA4" s="753"/>
-      <c r="BB4" s="753"/>
-      <c r="BC4" s="753"/>
-      <c r="BD4" s="753"/>
-      <c r="BE4" s="753"/>
-      <c r="BF4" s="749" t="s">
+      <c r="BA4" s="871"/>
+      <c r="BB4" s="871"/>
+      <c r="BC4" s="871"/>
+      <c r="BD4" s="871"/>
+      <c r="BE4" s="871"/>
+      <c r="BF4" s="867" t="s">
         <v>15</v>
       </c>
-      <c r="BG4" s="750"/>
-      <c r="BH4" s="751"/>
-      <c r="BI4" s="752" t="s">
+      <c r="BG4" s="868"/>
+      <c r="BH4" s="869"/>
+      <c r="BI4" s="870" t="s">
         <v>144</v>
       </c>
-      <c r="BJ4" s="753"/>
-      <c r="BK4" s="753"/>
-      <c r="BL4" s="753"/>
-      <c r="BM4" s="753"/>
-      <c r="BN4" s="754"/>
+      <c r="BJ4" s="871"/>
+      <c r="BK4" s="871"/>
+      <c r="BL4" s="871"/>
+      <c r="BM4" s="871"/>
+      <c r="BN4" s="872"/>
     </row>
     <row r="5" customHeight="1" ht="12" customFormat="1" s="726">
       <c r="A5" s="755" t="s">
@@ -22733,29 +22962,29 @@
       <c r="AS5" s="761"/>
       <c r="AT5" s="761"/>
       <c r="AU5" s="761"/>
-      <c r="AV5" s="762"/>
-      <c r="AW5" s="780" t="s">
+      <c r="AV5" s="866"/>
+      <c r="AW5" s="873" t="s">
         <v>19</v>
       </c>
-      <c r="AX5" s="781"/>
-      <c r="AY5" s="782"/>
-      <c r="AZ5" s="781"/>
-      <c r="BA5" s="781"/>
-      <c r="BB5" s="781"/>
-      <c r="BC5" s="781"/>
-      <c r="BD5" s="781"/>
-      <c r="BE5" s="781"/>
-      <c r="BF5" s="780" t="s">
+      <c r="AX5" s="874"/>
+      <c r="AY5" s="875"/>
+      <c r="AZ5" s="874"/>
+      <c r="BA5" s="874"/>
+      <c r="BB5" s="874"/>
+      <c r="BC5" s="874"/>
+      <c r="BD5" s="874"/>
+      <c r="BE5" s="874"/>
+      <c r="BF5" s="873" t="s">
         <v>20</v>
       </c>
-      <c r="BG5" s="781"/>
-      <c r="BH5" s="782"/>
-      <c r="BI5" s="781"/>
-      <c r="BJ5" s="783"/>
-      <c r="BK5" s="783"/>
-      <c r="BL5" s="783"/>
-      <c r="BM5" s="783"/>
-      <c r="BN5" s="762"/>
+      <c r="BG5" s="874"/>
+      <c r="BH5" s="875"/>
+      <c r="BI5" s="874"/>
+      <c r="BJ5" s="876"/>
+      <c r="BK5" s="876"/>
+      <c r="BL5" s="876"/>
+      <c r="BM5" s="876"/>
+      <c r="BN5" s="877"/>
     </row>
     <row r="6" customHeight="1" ht="12" customFormat="1" s="726">
       <c r="A6" s="766"/>
@@ -22806,26 +23035,26 @@
       <c r="AT6" s="551"/>
       <c r="AU6" s="551"/>
       <c r="AV6" s="551"/>
-      <c r="AW6" s="790" t="s">
+      <c r="AW6" s="878" t="s">
         <v>18</v>
       </c>
-      <c r="AX6" s="791"/>
-      <c r="AY6" s="791"/>
-      <c r="AZ6" s="791"/>
-      <c r="BA6" s="791"/>
-      <c r="BB6" s="791"/>
-      <c r="BC6" s="791"/>
-      <c r="BD6" s="791"/>
-      <c r="BE6" s="791"/>
-      <c r="BF6" s="791"/>
-      <c r="BG6" s="791"/>
-      <c r="BH6" s="791"/>
-      <c r="BI6" s="791"/>
-      <c r="BJ6" s="791"/>
-      <c r="BK6" s="791"/>
-      <c r="BL6" s="791"/>
-      <c r="BM6" s="792"/>
-      <c r="BN6" s="556"/>
+      <c r="AX6" s="879"/>
+      <c r="AY6" s="879"/>
+      <c r="AZ6" s="879"/>
+      <c r="BA6" s="879"/>
+      <c r="BB6" s="879"/>
+      <c r="BC6" s="879"/>
+      <c r="BD6" s="879"/>
+      <c r="BE6" s="879"/>
+      <c r="BF6" s="879"/>
+      <c r="BG6" s="879"/>
+      <c r="BH6" s="879"/>
+      <c r="BI6" s="879"/>
+      <c r="BJ6" s="879"/>
+      <c r="BK6" s="879"/>
+      <c r="BL6" s="879"/>
+      <c r="BM6" s="880"/>
+      <c r="BN6" s="881"/>
     </row>
     <row r="7" customHeight="1" ht="12" customFormat="1" s="726">
       <c r="A7" s="766"/>
@@ -22875,25 +23104,25 @@
       <c r="AS7" s="551"/>
       <c r="AT7" s="551"/>
       <c r="AU7" s="551"/>
-      <c r="AV7" s="551"/>
-      <c r="AW7" s="787"/>
-      <c r="AX7" s="788"/>
-      <c r="AY7" s="788"/>
-      <c r="AZ7" s="788"/>
-      <c r="BA7" s="788"/>
-      <c r="BB7" s="788"/>
-      <c r="BC7" s="788"/>
-      <c r="BD7" s="788"/>
-      <c r="BE7" s="788"/>
-      <c r="BF7" s="788"/>
-      <c r="BG7" s="788"/>
-      <c r="BH7" s="788"/>
-      <c r="BI7" s="788"/>
-      <c r="BJ7" s="788"/>
-      <c r="BK7" s="788"/>
-      <c r="BL7" s="788"/>
-      <c r="BM7" s="789"/>
-      <c r="BN7" s="556"/>
+      <c r="AV7" s="894"/>
+      <c r="AW7" s="892"/>
+      <c r="AX7" s="641"/>
+      <c r="AY7" s="641"/>
+      <c r="AZ7" s="641"/>
+      <c r="BA7" s="641"/>
+      <c r="BB7" s="641"/>
+      <c r="BC7" s="641"/>
+      <c r="BD7" s="641"/>
+      <c r="BE7" s="641"/>
+      <c r="BF7" s="641"/>
+      <c r="BG7" s="641"/>
+      <c r="BH7" s="641"/>
+      <c r="BI7" s="641"/>
+      <c r="BJ7" s="641"/>
+      <c r="BK7" s="641"/>
+      <c r="BL7" s="641"/>
+      <c r="BM7" s="642"/>
+      <c r="BN7" s="881"/>
     </row>
     <row r="8" customHeight="1" ht="12" customFormat="1" s="726">
       <c r="A8" s="766"/>
@@ -22944,24 +23173,24 @@
       <c r="AT8" s="551"/>
       <c r="AU8" s="551"/>
       <c r="AV8" s="551"/>
-      <c r="AW8" s="773"/>
-      <c r="AX8" s="551"/>
-      <c r="AY8" s="551"/>
-      <c r="AZ8" s="551"/>
-      <c r="BA8" s="551"/>
-      <c r="BB8" s="551"/>
-      <c r="BC8" s="551"/>
-      <c r="BD8" s="551"/>
-      <c r="BE8" s="551"/>
-      <c r="BF8" s="177"/>
-      <c r="BG8" s="177"/>
-      <c r="BH8" s="177"/>
-      <c r="BI8" s="177"/>
-      <c r="BJ8" s="177"/>
-      <c r="BK8" s="177"/>
-      <c r="BL8" s="177"/>
-      <c r="BM8" s="179"/>
-      <c r="BN8" s="556"/>
+      <c r="AW8" s="883"/>
+      <c r="AX8" s="884"/>
+      <c r="AY8" s="884"/>
+      <c r="AZ8" s="884"/>
+      <c r="BA8" s="884"/>
+      <c r="BB8" s="884"/>
+      <c r="BC8" s="884"/>
+      <c r="BD8" s="884"/>
+      <c r="BE8" s="884"/>
+      <c r="BF8" s="885"/>
+      <c r="BG8" s="885"/>
+      <c r="BH8" s="885"/>
+      <c r="BI8" s="885"/>
+      <c r="BJ8" s="885"/>
+      <c r="BK8" s="885"/>
+      <c r="BL8" s="885"/>
+      <c r="BM8" s="886"/>
+      <c r="BN8" s="881"/>
     </row>
     <row r="9" customHeight="1" ht="12" customFormat="1" s="726">
       <c r="A9" s="766"/>
@@ -23012,24 +23241,24 @@
       <c r="AT9" s="551"/>
       <c r="AU9" s="551"/>
       <c r="AV9" s="551"/>
-      <c r="AW9" s="773"/>
-      <c r="AX9" s="551"/>
-      <c r="AY9" s="551"/>
-      <c r="AZ9" s="551"/>
-      <c r="BA9" s="551"/>
-      <c r="BB9" s="551"/>
-      <c r="BC9" s="551"/>
-      <c r="BD9" s="551"/>
-      <c r="BE9" s="551"/>
-      <c r="BF9" s="177"/>
-      <c r="BG9" s="177"/>
-      <c r="BH9" s="177"/>
-      <c r="BI9" s="177"/>
-      <c r="BJ9" s="177"/>
-      <c r="BK9" s="177"/>
-      <c r="BL9" s="177"/>
-      <c r="BM9" s="179"/>
-      <c r="BN9" s="556"/>
+      <c r="AW9" s="883"/>
+      <c r="AX9" s="884"/>
+      <c r="AY9" s="884"/>
+      <c r="AZ9" s="884"/>
+      <c r="BA9" s="884"/>
+      <c r="BB9" s="884"/>
+      <c r="BC9" s="884"/>
+      <c r="BD9" s="884"/>
+      <c r="BE9" s="884"/>
+      <c r="BF9" s="885"/>
+      <c r="BG9" s="885"/>
+      <c r="BH9" s="885"/>
+      <c r="BI9" s="885"/>
+      <c r="BJ9" s="885"/>
+      <c r="BK9" s="885"/>
+      <c r="BL9" s="885"/>
+      <c r="BM9" s="886"/>
+      <c r="BN9" s="881"/>
     </row>
     <row r="10" customHeight="1" ht="12" customFormat="1" s="726">
       <c r="A10" s="766"/>
@@ -23080,24 +23309,24 @@
       <c r="AT10" s="551"/>
       <c r="AU10" s="551"/>
       <c r="AV10" s="551"/>
-      <c r="AW10" s="773"/>
-      <c r="AX10" s="551"/>
-      <c r="AY10" s="551"/>
-      <c r="AZ10" s="551"/>
-      <c r="BA10" s="551"/>
-      <c r="BB10" s="551"/>
-      <c r="BC10" s="551"/>
-      <c r="BD10" s="551"/>
-      <c r="BE10" s="551"/>
-      <c r="BF10" s="177"/>
-      <c r="BG10" s="177"/>
-      <c r="BH10" s="177"/>
-      <c r="BI10" s="177"/>
-      <c r="BJ10" s="177"/>
-      <c r="BK10" s="177"/>
-      <c r="BL10" s="177"/>
-      <c r="BM10" s="179"/>
-      <c r="BN10" s="556"/>
+      <c r="AW10" s="883"/>
+      <c r="AX10" s="884"/>
+      <c r="AY10" s="884"/>
+      <c r="AZ10" s="884"/>
+      <c r="BA10" s="884"/>
+      <c r="BB10" s="884"/>
+      <c r="BC10" s="884"/>
+      <c r="BD10" s="884"/>
+      <c r="BE10" s="884"/>
+      <c r="BF10" s="885"/>
+      <c r="BG10" s="885"/>
+      <c r="BH10" s="885"/>
+      <c r="BI10" s="885"/>
+      <c r="BJ10" s="885"/>
+      <c r="BK10" s="885"/>
+      <c r="BL10" s="885"/>
+      <c r="BM10" s="886"/>
+      <c r="BN10" s="881"/>
     </row>
     <row r="11" customHeight="1" ht="12" customFormat="1" s="726">
       <c r="A11" s="766"/>
@@ -23148,24 +23377,24 @@
       <c r="AT11" s="551"/>
       <c r="AU11" s="551"/>
       <c r="AV11" s="551"/>
-      <c r="AW11" s="773"/>
-      <c r="AX11" s="551"/>
-      <c r="AY11" s="551"/>
-      <c r="AZ11" s="551"/>
-      <c r="BA11" s="551"/>
-      <c r="BB11" s="551"/>
-      <c r="BC11" s="551"/>
-      <c r="BD11" s="551"/>
-      <c r="BE11" s="551"/>
-      <c r="BF11" s="177"/>
-      <c r="BG11" s="177"/>
-      <c r="BH11" s="177"/>
-      <c r="BI11" s="177"/>
-      <c r="BJ11" s="177"/>
-      <c r="BK11" s="177"/>
-      <c r="BL11" s="177"/>
-      <c r="BM11" s="179"/>
-      <c r="BN11" s="556"/>
+      <c r="AW11" s="883"/>
+      <c r="AX11" s="884"/>
+      <c r="AY11" s="884"/>
+      <c r="AZ11" s="884"/>
+      <c r="BA11" s="884"/>
+      <c r="BB11" s="884"/>
+      <c r="BC11" s="884"/>
+      <c r="BD11" s="884"/>
+      <c r="BE11" s="884"/>
+      <c r="BF11" s="885"/>
+      <c r="BG11" s="885"/>
+      <c r="BH11" s="885"/>
+      <c r="BI11" s="885"/>
+      <c r="BJ11" s="885"/>
+      <c r="BK11" s="885"/>
+      <c r="BL11" s="885"/>
+      <c r="BM11" s="886"/>
+      <c r="BN11" s="881"/>
     </row>
     <row r="12" customHeight="1" ht="12" customFormat="1" s="726">
       <c r="A12" s="766"/>
@@ -23216,24 +23445,24 @@
       <c r="AT12" s="551"/>
       <c r="AU12" s="551"/>
       <c r="AV12" s="551"/>
-      <c r="AW12" s="773"/>
-      <c r="AX12" s="551"/>
-      <c r="AY12" s="551"/>
-      <c r="AZ12" s="551"/>
-      <c r="BA12" s="551"/>
-      <c r="BB12" s="551"/>
-      <c r="BC12" s="551"/>
-      <c r="BD12" s="551"/>
-      <c r="BE12" s="551"/>
-      <c r="BF12" s="177"/>
-      <c r="BG12" s="177"/>
-      <c r="BH12" s="177"/>
-      <c r="BI12" s="177"/>
-      <c r="BJ12" s="177"/>
-      <c r="BK12" s="177"/>
-      <c r="BL12" s="177"/>
-      <c r="BM12" s="179"/>
-      <c r="BN12" s="556"/>
+      <c r="AW12" s="883"/>
+      <c r="AX12" s="884"/>
+      <c r="AY12" s="884"/>
+      <c r="AZ12" s="884"/>
+      <c r="BA12" s="884"/>
+      <c r="BB12" s="884"/>
+      <c r="BC12" s="884"/>
+      <c r="BD12" s="884"/>
+      <c r="BE12" s="884"/>
+      <c r="BF12" s="885"/>
+      <c r="BG12" s="885"/>
+      <c r="BH12" s="885"/>
+      <c r="BI12" s="885"/>
+      <c r="BJ12" s="885"/>
+      <c r="BK12" s="885"/>
+      <c r="BL12" s="885"/>
+      <c r="BM12" s="886"/>
+      <c r="BN12" s="881"/>
     </row>
     <row r="13" customHeight="1" ht="12" customFormat="1" s="726">
       <c r="A13" s="766"/>
@@ -23284,24 +23513,24 @@
       <c r="AT13" s="551"/>
       <c r="AU13" s="551"/>
       <c r="AV13" s="551"/>
-      <c r="AW13" s="773"/>
-      <c r="AX13" s="551"/>
-      <c r="AY13" s="551"/>
-      <c r="AZ13" s="551"/>
-      <c r="BA13" s="551"/>
-      <c r="BB13" s="551"/>
-      <c r="BC13" s="551"/>
-      <c r="BD13" s="551"/>
-      <c r="BE13" s="551"/>
-      <c r="BF13" s="177"/>
-      <c r="BG13" s="177"/>
-      <c r="BH13" s="177"/>
-      <c r="BI13" s="177"/>
-      <c r="BJ13" s="177"/>
-      <c r="BK13" s="177"/>
-      <c r="BL13" s="177"/>
-      <c r="BM13" s="179"/>
-      <c r="BN13" s="556"/>
+      <c r="AW13" s="883"/>
+      <c r="AX13" s="884"/>
+      <c r="AY13" s="884"/>
+      <c r="AZ13" s="884"/>
+      <c r="BA13" s="884"/>
+      <c r="BB13" s="884"/>
+      <c r="BC13" s="884"/>
+      <c r="BD13" s="884"/>
+      <c r="BE13" s="884"/>
+      <c r="BF13" s="885"/>
+      <c r="BG13" s="885"/>
+      <c r="BH13" s="885"/>
+      <c r="BI13" s="885"/>
+      <c r="BJ13" s="885"/>
+      <c r="BK13" s="885"/>
+      <c r="BL13" s="885"/>
+      <c r="BM13" s="886"/>
+      <c r="BN13" s="881"/>
     </row>
     <row r="14" customHeight="1" ht="12" customFormat="1" s="726">
       <c r="A14" s="766"/>
@@ -23352,24 +23581,24 @@
       <c r="AT14" s="551"/>
       <c r="AU14" s="551"/>
       <c r="AV14" s="551"/>
-      <c r="AW14" s="773"/>
-      <c r="AX14" s="551"/>
-      <c r="AY14" s="551"/>
-      <c r="AZ14" s="551"/>
-      <c r="BA14" s="551"/>
-      <c r="BB14" s="551"/>
-      <c r="BC14" s="551"/>
-      <c r="BD14" s="551"/>
-      <c r="BE14" s="551"/>
-      <c r="BF14" s="177"/>
-      <c r="BG14" s="177"/>
-      <c r="BH14" s="177"/>
-      <c r="BI14" s="177"/>
-      <c r="BJ14" s="177"/>
-      <c r="BK14" s="177"/>
-      <c r="BL14" s="177"/>
-      <c r="BM14" s="179"/>
-      <c r="BN14" s="556"/>
+      <c r="AW14" s="883"/>
+      <c r="AX14" s="884"/>
+      <c r="AY14" s="884"/>
+      <c r="AZ14" s="884"/>
+      <c r="BA14" s="884"/>
+      <c r="BB14" s="884"/>
+      <c r="BC14" s="884"/>
+      <c r="BD14" s="884"/>
+      <c r="BE14" s="884"/>
+      <c r="BF14" s="885"/>
+      <c r="BG14" s="885"/>
+      <c r="BH14" s="885"/>
+      <c r="BI14" s="885"/>
+      <c r="BJ14" s="885"/>
+      <c r="BK14" s="885"/>
+      <c r="BL14" s="885"/>
+      <c r="BM14" s="886"/>
+      <c r="BN14" s="881"/>
     </row>
     <row r="15" customHeight="1" ht="12" customFormat="1" s="726">
       <c r="A15" s="766"/>
@@ -23420,24 +23649,24 @@
       <c r="AT15" s="551"/>
       <c r="AU15" s="551"/>
       <c r="AV15" s="551"/>
-      <c r="AW15" s="773"/>
-      <c r="AX15" s="551"/>
-      <c r="AY15" s="551"/>
-      <c r="AZ15" s="551"/>
-      <c r="BA15" s="551"/>
-      <c r="BB15" s="551"/>
-      <c r="BC15" s="551"/>
-      <c r="BD15" s="551"/>
-      <c r="BE15" s="551"/>
-      <c r="BF15" s="177"/>
-      <c r="BG15" s="177"/>
-      <c r="BH15" s="177"/>
-      <c r="BI15" s="177"/>
-      <c r="BJ15" s="177"/>
-      <c r="BK15" s="177"/>
-      <c r="BL15" s="177"/>
-      <c r="BM15" s="179"/>
-      <c r="BN15" s="556"/>
+      <c r="AW15" s="883"/>
+      <c r="AX15" s="884"/>
+      <c r="AY15" s="884"/>
+      <c r="AZ15" s="884"/>
+      <c r="BA15" s="884"/>
+      <c r="BB15" s="884"/>
+      <c r="BC15" s="884"/>
+      <c r="BD15" s="884"/>
+      <c r="BE15" s="884"/>
+      <c r="BF15" s="885"/>
+      <c r="BG15" s="885"/>
+      <c r="BH15" s="885"/>
+      <c r="BI15" s="885"/>
+      <c r="BJ15" s="885"/>
+      <c r="BK15" s="885"/>
+      <c r="BL15" s="885"/>
+      <c r="BM15" s="886"/>
+      <c r="BN15" s="881"/>
     </row>
     <row r="16" customHeight="1" ht="12" customFormat="1" s="726">
       <c r="A16" s="766"/>
@@ -23488,24 +23717,24 @@
       <c r="AT16" s="551"/>
       <c r="AU16" s="551"/>
       <c r="AV16" s="551"/>
-      <c r="AW16" s="773"/>
-      <c r="AX16" s="551"/>
-      <c r="AY16" s="551"/>
-      <c r="AZ16" s="551"/>
-      <c r="BA16" s="551"/>
-      <c r="BB16" s="551"/>
-      <c r="BC16" s="551"/>
-      <c r="BD16" s="551"/>
-      <c r="BE16" s="551"/>
-      <c r="BF16" s="177"/>
-      <c r="BG16" s="177"/>
-      <c r="BH16" s="177"/>
-      <c r="BI16" s="177"/>
-      <c r="BJ16" s="177"/>
-      <c r="BK16" s="177"/>
-      <c r="BL16" s="177"/>
-      <c r="BM16" s="179"/>
-      <c r="BN16" s="556"/>
+      <c r="AW16" s="883"/>
+      <c r="AX16" s="884"/>
+      <c r="AY16" s="884"/>
+      <c r="AZ16" s="884"/>
+      <c r="BA16" s="884"/>
+      <c r="BB16" s="884"/>
+      <c r="BC16" s="884"/>
+      <c r="BD16" s="884"/>
+      <c r="BE16" s="884"/>
+      <c r="BF16" s="885"/>
+      <c r="BG16" s="885"/>
+      <c r="BH16" s="885"/>
+      <c r="BI16" s="885"/>
+      <c r="BJ16" s="885"/>
+      <c r="BK16" s="885"/>
+      <c r="BL16" s="885"/>
+      <c r="BM16" s="886"/>
+      <c r="BN16" s="881"/>
     </row>
     <row r="17" customHeight="1" ht="12" customFormat="1" s="726">
       <c r="A17" s="766"/>
@@ -23556,24 +23785,24 @@
       <c r="AT17" s="551"/>
       <c r="AU17" s="551"/>
       <c r="AV17" s="551"/>
-      <c r="AW17" s="773"/>
-      <c r="AX17" s="551"/>
-      <c r="AY17" s="551"/>
-      <c r="AZ17" s="551"/>
-      <c r="BA17" s="551"/>
-      <c r="BB17" s="551"/>
-      <c r="BC17" s="551"/>
-      <c r="BD17" s="551"/>
-      <c r="BE17" s="551"/>
-      <c r="BF17" s="177"/>
-      <c r="BG17" s="177"/>
-      <c r="BH17" s="177"/>
-      <c r="BI17" s="177"/>
-      <c r="BJ17" s="177"/>
-      <c r="BK17" s="177"/>
-      <c r="BL17" s="177"/>
-      <c r="BM17" s="179"/>
-      <c r="BN17" s="556"/>
+      <c r="AW17" s="883"/>
+      <c r="AX17" s="884"/>
+      <c r="AY17" s="884"/>
+      <c r="AZ17" s="884"/>
+      <c r="BA17" s="884"/>
+      <c r="BB17" s="884"/>
+      <c r="BC17" s="884"/>
+      <c r="BD17" s="884"/>
+      <c r="BE17" s="884"/>
+      <c r="BF17" s="885"/>
+      <c r="BG17" s="885"/>
+      <c r="BH17" s="885"/>
+      <c r="BI17" s="885"/>
+      <c r="BJ17" s="885"/>
+      <c r="BK17" s="885"/>
+      <c r="BL17" s="885"/>
+      <c r="BM17" s="886"/>
+      <c r="BN17" s="881"/>
     </row>
     <row r="18" customHeight="1" ht="12" customFormat="1" s="726">
       <c r="A18" s="766"/>
@@ -23624,24 +23853,24 @@
       <c r="AT18" s="551"/>
       <c r="AU18" s="551"/>
       <c r="AV18" s="551"/>
-      <c r="AW18" s="773"/>
-      <c r="AX18" s="551"/>
-      <c r="AY18" s="551"/>
-      <c r="AZ18" s="551"/>
-      <c r="BA18" s="551"/>
-      <c r="BB18" s="551"/>
-      <c r="BC18" s="551"/>
-      <c r="BD18" s="551"/>
-      <c r="BE18" s="551"/>
-      <c r="BF18" s="177"/>
-      <c r="BG18" s="177"/>
-      <c r="BH18" s="177"/>
-      <c r="BI18" s="177"/>
-      <c r="BJ18" s="177"/>
-      <c r="BK18" s="177"/>
-      <c r="BL18" s="177"/>
-      <c r="BM18" s="179"/>
-      <c r="BN18" s="556"/>
+      <c r="AW18" s="883"/>
+      <c r="AX18" s="884"/>
+      <c r="AY18" s="884"/>
+      <c r="AZ18" s="884"/>
+      <c r="BA18" s="884"/>
+      <c r="BB18" s="884"/>
+      <c r="BC18" s="884"/>
+      <c r="BD18" s="884"/>
+      <c r="BE18" s="884"/>
+      <c r="BF18" s="885"/>
+      <c r="BG18" s="885"/>
+      <c r="BH18" s="885"/>
+      <c r="BI18" s="885"/>
+      <c r="BJ18" s="885"/>
+      <c r="BK18" s="885"/>
+      <c r="BL18" s="885"/>
+      <c r="BM18" s="886"/>
+      <c r="BN18" s="881"/>
     </row>
     <row r="19" customHeight="1" ht="12" customFormat="1" s="726">
       <c r="A19" s="766"/>
@@ -23692,24 +23921,24 @@
       <c r="AT19" s="551"/>
       <c r="AU19" s="551"/>
       <c r="AV19" s="551"/>
-      <c r="AW19" s="773"/>
-      <c r="AX19" s="551"/>
-      <c r="AY19" s="551"/>
-      <c r="AZ19" s="551"/>
-      <c r="BA19" s="551"/>
-      <c r="BB19" s="551"/>
-      <c r="BC19" s="551"/>
-      <c r="BD19" s="551"/>
-      <c r="BE19" s="551"/>
-      <c r="BF19" s="177"/>
-      <c r="BG19" s="177"/>
-      <c r="BH19" s="177"/>
-      <c r="BI19" s="177"/>
-      <c r="BJ19" s="177"/>
-      <c r="BK19" s="177"/>
-      <c r="BL19" s="177"/>
-      <c r="BM19" s="179"/>
-      <c r="BN19" s="556"/>
+      <c r="AW19" s="883"/>
+      <c r="AX19" s="884"/>
+      <c r="AY19" s="884"/>
+      <c r="AZ19" s="884"/>
+      <c r="BA19" s="884"/>
+      <c r="BB19" s="884"/>
+      <c r="BC19" s="884"/>
+      <c r="BD19" s="884"/>
+      <c r="BE19" s="884"/>
+      <c r="BF19" s="885"/>
+      <c r="BG19" s="885"/>
+      <c r="BH19" s="885"/>
+      <c r="BI19" s="885"/>
+      <c r="BJ19" s="885"/>
+      <c r="BK19" s="885"/>
+      <c r="BL19" s="885"/>
+      <c r="BM19" s="886"/>
+      <c r="BN19" s="881"/>
     </row>
     <row r="20" customHeight="1" ht="12" customFormat="1" s="726">
       <c r="A20" s="766"/>
@@ -23760,24 +23989,24 @@
       <c r="AT20" s="551"/>
       <c r="AU20" s="551"/>
       <c r="AV20" s="551"/>
-      <c r="AW20" s="773"/>
-      <c r="AX20" s="551"/>
-      <c r="AY20" s="551"/>
-      <c r="AZ20" s="551"/>
-      <c r="BA20" s="551"/>
-      <c r="BB20" s="551"/>
-      <c r="BC20" s="551"/>
-      <c r="BD20" s="551"/>
-      <c r="BE20" s="551"/>
-      <c r="BF20" s="177"/>
-      <c r="BG20" s="177"/>
-      <c r="BH20" s="177"/>
-      <c r="BI20" s="177"/>
-      <c r="BJ20" s="177"/>
-      <c r="BK20" s="177"/>
-      <c r="BL20" s="177"/>
-      <c r="BM20" s="179"/>
-      <c r="BN20" s="556"/>
+      <c r="AW20" s="883"/>
+      <c r="AX20" s="884"/>
+      <c r="AY20" s="884"/>
+      <c r="AZ20" s="884"/>
+      <c r="BA20" s="884"/>
+      <c r="BB20" s="884"/>
+      <c r="BC20" s="884"/>
+      <c r="BD20" s="884"/>
+      <c r="BE20" s="884"/>
+      <c r="BF20" s="885"/>
+      <c r="BG20" s="885"/>
+      <c r="BH20" s="885"/>
+      <c r="BI20" s="885"/>
+      <c r="BJ20" s="885"/>
+      <c r="BK20" s="885"/>
+      <c r="BL20" s="885"/>
+      <c r="BM20" s="886"/>
+      <c r="BN20" s="881"/>
     </row>
     <row r="21" customHeight="1" ht="12" customFormat="1" s="726">
       <c r="A21" s="766"/>
@@ -23828,24 +24057,24 @@
       <c r="AT21" s="551"/>
       <c r="AU21" s="551"/>
       <c r="AV21" s="551"/>
-      <c r="AW21" s="773"/>
-      <c r="AX21" s="551"/>
-      <c r="AY21" s="551"/>
-      <c r="AZ21" s="551"/>
-      <c r="BA21" s="551"/>
-      <c r="BB21" s="551"/>
-      <c r="BC21" s="551"/>
-      <c r="BD21" s="551"/>
-      <c r="BE21" s="551"/>
-      <c r="BF21" s="177"/>
-      <c r="BG21" s="177"/>
-      <c r="BH21" s="177"/>
-      <c r="BI21" s="177"/>
-      <c r="BJ21" s="177"/>
-      <c r="BK21" s="177"/>
-      <c r="BL21" s="177"/>
-      <c r="BM21" s="179"/>
-      <c r="BN21" s="556"/>
+      <c r="AW21" s="883"/>
+      <c r="AX21" s="884"/>
+      <c r="AY21" s="884"/>
+      <c r="AZ21" s="884"/>
+      <c r="BA21" s="884"/>
+      <c r="BB21" s="884"/>
+      <c r="BC21" s="884"/>
+      <c r="BD21" s="884"/>
+      <c r="BE21" s="884"/>
+      <c r="BF21" s="885"/>
+      <c r="BG21" s="885"/>
+      <c r="BH21" s="885"/>
+      <c r="BI21" s="885"/>
+      <c r="BJ21" s="885"/>
+      <c r="BK21" s="885"/>
+      <c r="BL21" s="885"/>
+      <c r="BM21" s="886"/>
+      <c r="BN21" s="881"/>
     </row>
     <row r="22" customHeight="1" ht="12" customFormat="1" s="726">
       <c r="A22" s="766"/>
@@ -23896,24 +24125,24 @@
       <c r="AT22" s="551"/>
       <c r="AU22" s="551"/>
       <c r="AV22" s="551"/>
-      <c r="AW22" s="773"/>
-      <c r="AX22" s="551"/>
-      <c r="AY22" s="551"/>
-      <c r="AZ22" s="551"/>
-      <c r="BA22" s="551"/>
-      <c r="BB22" s="551"/>
-      <c r="BC22" s="551"/>
-      <c r="BD22" s="551"/>
-      <c r="BE22" s="551"/>
-      <c r="BF22" s="177"/>
-      <c r="BG22" s="177"/>
-      <c r="BH22" s="177"/>
-      <c r="BI22" s="177"/>
-      <c r="BJ22" s="177"/>
-      <c r="BK22" s="177"/>
-      <c r="BL22" s="177"/>
-      <c r="BM22" s="179"/>
-      <c r="BN22" s="556"/>
+      <c r="AW22" s="883"/>
+      <c r="AX22" s="884"/>
+      <c r="AY22" s="884"/>
+      <c r="AZ22" s="884"/>
+      <c r="BA22" s="884"/>
+      <c r="BB22" s="884"/>
+      <c r="BC22" s="884"/>
+      <c r="BD22" s="884"/>
+      <c r="BE22" s="884"/>
+      <c r="BF22" s="885"/>
+      <c r="BG22" s="885"/>
+      <c r="BH22" s="885"/>
+      <c r="BI22" s="885"/>
+      <c r="BJ22" s="885"/>
+      <c r="BK22" s="885"/>
+      <c r="BL22" s="885"/>
+      <c r="BM22" s="886"/>
+      <c r="BN22" s="881"/>
     </row>
     <row r="23" customHeight="1" ht="12" customFormat="1" s="726">
       <c r="A23" s="766"/>
@@ -23964,24 +24193,24 @@
       <c r="AT23" s="551"/>
       <c r="AU23" s="551"/>
       <c r="AV23" s="551"/>
-      <c r="AW23" s="773"/>
-      <c r="AX23" s="551"/>
-      <c r="AY23" s="551"/>
-      <c r="AZ23" s="551"/>
-      <c r="BA23" s="551"/>
-      <c r="BB23" s="551"/>
-      <c r="BC23" s="551"/>
-      <c r="BD23" s="551"/>
-      <c r="BE23" s="551"/>
-      <c r="BF23" s="177"/>
-      <c r="BG23" s="177"/>
-      <c r="BH23" s="177"/>
-      <c r="BI23" s="177"/>
-      <c r="BJ23" s="177"/>
-      <c r="BK23" s="177"/>
-      <c r="BL23" s="177"/>
-      <c r="BM23" s="179"/>
-      <c r="BN23" s="556"/>
+      <c r="AW23" s="883"/>
+      <c r="AX23" s="884"/>
+      <c r="AY23" s="884"/>
+      <c r="AZ23" s="884"/>
+      <c r="BA23" s="884"/>
+      <c r="BB23" s="884"/>
+      <c r="BC23" s="884"/>
+      <c r="BD23" s="884"/>
+      <c r="BE23" s="884"/>
+      <c r="BF23" s="885"/>
+      <c r="BG23" s="885"/>
+      <c r="BH23" s="885"/>
+      <c r="BI23" s="885"/>
+      <c r="BJ23" s="885"/>
+      <c r="BK23" s="885"/>
+      <c r="BL23" s="885"/>
+      <c r="BM23" s="886"/>
+      <c r="BN23" s="881"/>
     </row>
     <row r="24" customHeight="1" ht="12" customFormat="1" s="726">
       <c r="A24" s="766"/>
@@ -24032,24 +24261,24 @@
       <c r="AT24" s="551"/>
       <c r="AU24" s="551"/>
       <c r="AV24" s="551"/>
-      <c r="AW24" s="773"/>
-      <c r="AX24" s="551"/>
-      <c r="AY24" s="551"/>
-      <c r="AZ24" s="551"/>
-      <c r="BA24" s="551"/>
-      <c r="BB24" s="551"/>
-      <c r="BC24" s="551"/>
-      <c r="BD24" s="551"/>
-      <c r="BE24" s="551"/>
-      <c r="BF24" s="177"/>
-      <c r="BG24" s="177"/>
-      <c r="BH24" s="177"/>
-      <c r="BI24" s="177"/>
-      <c r="BJ24" s="177"/>
-      <c r="BK24" s="177"/>
-      <c r="BL24" s="177"/>
-      <c r="BM24" s="179"/>
-      <c r="BN24" s="556"/>
+      <c r="AW24" s="883"/>
+      <c r="AX24" s="884"/>
+      <c r="AY24" s="884"/>
+      <c r="AZ24" s="884"/>
+      <c r="BA24" s="884"/>
+      <c r="BB24" s="884"/>
+      <c r="BC24" s="884"/>
+      <c r="BD24" s="884"/>
+      <c r="BE24" s="884"/>
+      <c r="BF24" s="885"/>
+      <c r="BG24" s="885"/>
+      <c r="BH24" s="885"/>
+      <c r="BI24" s="885"/>
+      <c r="BJ24" s="885"/>
+      <c r="BK24" s="885"/>
+      <c r="BL24" s="885"/>
+      <c r="BM24" s="886"/>
+      <c r="BN24" s="881"/>
     </row>
     <row r="25" customHeight="1" ht="12" customFormat="1" s="726">
       <c r="A25" s="766"/>
@@ -24100,24 +24329,24 @@
       <c r="AT25" s="551"/>
       <c r="AU25" s="551"/>
       <c r="AV25" s="551"/>
-      <c r="AW25" s="773"/>
-      <c r="AX25" s="551"/>
-      <c r="AY25" s="551"/>
-      <c r="AZ25" s="551"/>
-      <c r="BA25" s="551"/>
-      <c r="BB25" s="551"/>
-      <c r="BC25" s="551"/>
-      <c r="BD25" s="551"/>
-      <c r="BE25" s="551"/>
-      <c r="BF25" s="177"/>
-      <c r="BG25" s="177"/>
-      <c r="BH25" s="177"/>
-      <c r="BI25" s="177"/>
-      <c r="BJ25" s="177"/>
-      <c r="BK25" s="177"/>
-      <c r="BL25" s="177"/>
-      <c r="BM25" s="179"/>
-      <c r="BN25" s="556"/>
+      <c r="AW25" s="883"/>
+      <c r="AX25" s="884"/>
+      <c r="AY25" s="884"/>
+      <c r="AZ25" s="884"/>
+      <c r="BA25" s="884"/>
+      <c r="BB25" s="884"/>
+      <c r="BC25" s="884"/>
+      <c r="BD25" s="884"/>
+      <c r="BE25" s="884"/>
+      <c r="BF25" s="885"/>
+      <c r="BG25" s="885"/>
+      <c r="BH25" s="885"/>
+      <c r="BI25" s="885"/>
+      <c r="BJ25" s="885"/>
+      <c r="BK25" s="885"/>
+      <c r="BL25" s="885"/>
+      <c r="BM25" s="886"/>
+      <c r="BN25" s="881"/>
     </row>
     <row r="26" customHeight="1" ht="12" customFormat="1" s="726">
       <c r="A26" s="766"/>
@@ -24168,24 +24397,24 @@
       <c r="AT26" s="551"/>
       <c r="AU26" s="551"/>
       <c r="AV26" s="551"/>
-      <c r="AW26" s="773"/>
-      <c r="AX26" s="551"/>
-      <c r="AY26" s="551"/>
-      <c r="AZ26" s="551"/>
-      <c r="BA26" s="551"/>
-      <c r="BB26" s="551"/>
-      <c r="BC26" s="551"/>
-      <c r="BD26" s="551"/>
-      <c r="BE26" s="551"/>
-      <c r="BF26" s="177"/>
-      <c r="BG26" s="177"/>
-      <c r="BH26" s="177"/>
-      <c r="BI26" s="177"/>
-      <c r="BJ26" s="177"/>
-      <c r="BK26" s="177"/>
-      <c r="BL26" s="177"/>
-      <c r="BM26" s="179"/>
-      <c r="BN26" s="556"/>
+      <c r="AW26" s="883"/>
+      <c r="AX26" s="884"/>
+      <c r="AY26" s="884"/>
+      <c r="AZ26" s="884"/>
+      <c r="BA26" s="884"/>
+      <c r="BB26" s="884"/>
+      <c r="BC26" s="884"/>
+      <c r="BD26" s="884"/>
+      <c r="BE26" s="884"/>
+      <c r="BF26" s="885"/>
+      <c r="BG26" s="885"/>
+      <c r="BH26" s="885"/>
+      <c r="BI26" s="885"/>
+      <c r="BJ26" s="885"/>
+      <c r="BK26" s="885"/>
+      <c r="BL26" s="885"/>
+      <c r="BM26" s="886"/>
+      <c r="BN26" s="881"/>
     </row>
     <row r="27" customHeight="1" ht="12" customFormat="1" s="726">
       <c r="A27" s="766"/>
@@ -24236,24 +24465,24 @@
       <c r="AT27" s="551"/>
       <c r="AU27" s="551"/>
       <c r="AV27" s="551"/>
-      <c r="AW27" s="773"/>
-      <c r="AX27" s="551"/>
-      <c r="AY27" s="551"/>
-      <c r="AZ27" s="551"/>
-      <c r="BA27" s="551"/>
-      <c r="BB27" s="551"/>
-      <c r="BC27" s="551"/>
-      <c r="BD27" s="551"/>
-      <c r="BE27" s="551"/>
-      <c r="BF27" s="177"/>
-      <c r="BG27" s="177"/>
-      <c r="BH27" s="177"/>
-      <c r="BI27" s="177"/>
-      <c r="BJ27" s="177"/>
-      <c r="BK27" s="177"/>
-      <c r="BL27" s="177"/>
-      <c r="BM27" s="179"/>
-      <c r="BN27" s="556"/>
+      <c r="AW27" s="883"/>
+      <c r="AX27" s="884"/>
+      <c r="AY27" s="884"/>
+      <c r="AZ27" s="884"/>
+      <c r="BA27" s="884"/>
+      <c r="BB27" s="884"/>
+      <c r="BC27" s="884"/>
+      <c r="BD27" s="884"/>
+      <c r="BE27" s="884"/>
+      <c r="BF27" s="885"/>
+      <c r="BG27" s="885"/>
+      <c r="BH27" s="885"/>
+      <c r="BI27" s="885"/>
+      <c r="BJ27" s="885"/>
+      <c r="BK27" s="885"/>
+      <c r="BL27" s="885"/>
+      <c r="BM27" s="886"/>
+      <c r="BN27" s="881"/>
     </row>
     <row r="28" customHeight="1" ht="12" customFormat="1" s="726">
       <c r="A28" s="766"/>
@@ -24304,24 +24533,24 @@
       <c r="AT28" s="551"/>
       <c r="AU28" s="551"/>
       <c r="AV28" s="551"/>
-      <c r="AW28" s="773"/>
-      <c r="AX28" s="551"/>
-      <c r="AY28" s="551"/>
-      <c r="AZ28" s="551"/>
-      <c r="BA28" s="551"/>
-      <c r="BB28" s="551"/>
-      <c r="BC28" s="551"/>
-      <c r="BD28" s="551"/>
-      <c r="BE28" s="551"/>
-      <c r="BF28" s="177"/>
-      <c r="BG28" s="177"/>
-      <c r="BH28" s="177"/>
-      <c r="BI28" s="177"/>
-      <c r="BJ28" s="177"/>
-      <c r="BK28" s="177"/>
-      <c r="BL28" s="177"/>
-      <c r="BM28" s="179"/>
-      <c r="BN28" s="556"/>
+      <c r="AW28" s="883"/>
+      <c r="AX28" s="884"/>
+      <c r="AY28" s="884"/>
+      <c r="AZ28" s="884"/>
+      <c r="BA28" s="884"/>
+      <c r="BB28" s="884"/>
+      <c r="BC28" s="884"/>
+      <c r="BD28" s="884"/>
+      <c r="BE28" s="884"/>
+      <c r="BF28" s="885"/>
+      <c r="BG28" s="885"/>
+      <c r="BH28" s="885"/>
+      <c r="BI28" s="885"/>
+      <c r="BJ28" s="885"/>
+      <c r="BK28" s="885"/>
+      <c r="BL28" s="885"/>
+      <c r="BM28" s="886"/>
+      <c r="BN28" s="881"/>
     </row>
     <row r="29" customHeight="1" ht="12" customFormat="1" s="726">
       <c r="A29" s="766"/>
@@ -24372,24 +24601,24 @@
       <c r="AT29" s="551"/>
       <c r="AU29" s="551"/>
       <c r="AV29" s="551"/>
-      <c r="AW29" s="773"/>
-      <c r="AX29" s="551"/>
-      <c r="AY29" s="551"/>
-      <c r="AZ29" s="551"/>
-      <c r="BA29" s="551"/>
-      <c r="BB29" s="551"/>
-      <c r="BC29" s="551"/>
-      <c r="BD29" s="551"/>
-      <c r="BE29" s="551"/>
-      <c r="BF29" s="177"/>
-      <c r="BG29" s="177"/>
-      <c r="BH29" s="177"/>
-      <c r="BI29" s="177"/>
-      <c r="BJ29" s="177"/>
-      <c r="BK29" s="177"/>
-      <c r="BL29" s="177"/>
-      <c r="BM29" s="179"/>
-      <c r="BN29" s="556"/>
+      <c r="AW29" s="883"/>
+      <c r="AX29" s="884"/>
+      <c r="AY29" s="884"/>
+      <c r="AZ29" s="884"/>
+      <c r="BA29" s="884"/>
+      <c r="BB29" s="884"/>
+      <c r="BC29" s="884"/>
+      <c r="BD29" s="884"/>
+      <c r="BE29" s="884"/>
+      <c r="BF29" s="885"/>
+      <c r="BG29" s="885"/>
+      <c r="BH29" s="885"/>
+      <c r="BI29" s="885"/>
+      <c r="BJ29" s="885"/>
+      <c r="BK29" s="885"/>
+      <c r="BL29" s="885"/>
+      <c r="BM29" s="886"/>
+      <c r="BN29" s="881"/>
     </row>
     <row r="30" customHeight="1" ht="12" customFormat="1" s="726">
       <c r="A30" s="766"/>
@@ -24440,24 +24669,24 @@
       <c r="AT30" s="551"/>
       <c r="AU30" s="551"/>
       <c r="AV30" s="551"/>
-      <c r="AW30" s="773"/>
-      <c r="AX30" s="551"/>
-      <c r="AY30" s="551"/>
-      <c r="AZ30" s="551"/>
-      <c r="BA30" s="551"/>
-      <c r="BB30" s="551"/>
-      <c r="BC30" s="551"/>
-      <c r="BD30" s="551"/>
-      <c r="BE30" s="177"/>
-      <c r="BF30" s="177"/>
-      <c r="BG30" s="177"/>
-      <c r="BH30" s="177"/>
-      <c r="BI30" s="177"/>
-      <c r="BJ30" s="177"/>
-      <c r="BK30" s="177"/>
-      <c r="BL30" s="177"/>
-      <c r="BM30" s="179"/>
-      <c r="BN30" s="556"/>
+      <c r="AW30" s="883"/>
+      <c r="AX30" s="884"/>
+      <c r="AY30" s="884"/>
+      <c r="AZ30" s="884"/>
+      <c r="BA30" s="884"/>
+      <c r="BB30" s="884"/>
+      <c r="BC30" s="884"/>
+      <c r="BD30" s="884"/>
+      <c r="BE30" s="885"/>
+      <c r="BF30" s="885"/>
+      <c r="BG30" s="885"/>
+      <c r="BH30" s="885"/>
+      <c r="BI30" s="885"/>
+      <c r="BJ30" s="885"/>
+      <c r="BK30" s="885"/>
+      <c r="BL30" s="885"/>
+      <c r="BM30" s="886"/>
+      <c r="BN30" s="881"/>
     </row>
     <row r="31" customHeight="1" ht="12" customFormat="1" s="726">
       <c r="A31" s="766"/>
@@ -24508,24 +24737,24 @@
       <c r="AT31" s="551"/>
       <c r="AU31" s="551"/>
       <c r="AV31" s="551"/>
-      <c r="AW31" s="773"/>
-      <c r="AX31" s="551"/>
-      <c r="AY31" s="551"/>
-      <c r="AZ31" s="551"/>
-      <c r="BA31" s="551"/>
-      <c r="BB31" s="551"/>
-      <c r="BC31" s="551"/>
-      <c r="BD31" s="551"/>
-      <c r="BE31" s="177"/>
-      <c r="BF31" s="177"/>
-      <c r="BG31" s="177"/>
-      <c r="BH31" s="177"/>
-      <c r="BI31" s="177"/>
-      <c r="BJ31" s="177"/>
-      <c r="BK31" s="177"/>
-      <c r="BL31" s="177"/>
-      <c r="BM31" s="179"/>
-      <c r="BN31" s="556"/>
+      <c r="AW31" s="883"/>
+      <c r="AX31" s="884"/>
+      <c r="AY31" s="884"/>
+      <c r="AZ31" s="884"/>
+      <c r="BA31" s="884"/>
+      <c r="BB31" s="884"/>
+      <c r="BC31" s="884"/>
+      <c r="BD31" s="884"/>
+      <c r="BE31" s="885"/>
+      <c r="BF31" s="885"/>
+      <c r="BG31" s="885"/>
+      <c r="BH31" s="885"/>
+      <c r="BI31" s="885"/>
+      <c r="BJ31" s="885"/>
+      <c r="BK31" s="885"/>
+      <c r="BL31" s="885"/>
+      <c r="BM31" s="886"/>
+      <c r="BN31" s="881"/>
     </row>
     <row r="32" customHeight="1" ht="12" customFormat="1" s="726">
       <c r="A32" s="766"/>
@@ -24576,24 +24805,24 @@
       <c r="AT32" s="551"/>
       <c r="AU32" s="551"/>
       <c r="AV32" s="551"/>
-      <c r="AW32" s="773"/>
-      <c r="AX32" s="551"/>
-      <c r="AY32" s="551"/>
-      <c r="AZ32" s="551"/>
-      <c r="BA32" s="551"/>
-      <c r="BB32" s="551"/>
-      <c r="BC32" s="551"/>
-      <c r="BD32" s="551"/>
-      <c r="BE32" s="177"/>
-      <c r="BF32" s="177"/>
-      <c r="BG32" s="177"/>
-      <c r="BH32" s="177"/>
-      <c r="BI32" s="177"/>
-      <c r="BJ32" s="177"/>
-      <c r="BK32" s="177"/>
-      <c r="BL32" s="177"/>
-      <c r="BM32" s="179"/>
-      <c r="BN32" s="556"/>
+      <c r="AW32" s="883"/>
+      <c r="AX32" s="884"/>
+      <c r="AY32" s="884"/>
+      <c r="AZ32" s="884"/>
+      <c r="BA32" s="884"/>
+      <c r="BB32" s="884"/>
+      <c r="BC32" s="884"/>
+      <c r="BD32" s="884"/>
+      <c r="BE32" s="885"/>
+      <c r="BF32" s="885"/>
+      <c r="BG32" s="885"/>
+      <c r="BH32" s="885"/>
+      <c r="BI32" s="885"/>
+      <c r="BJ32" s="885"/>
+      <c r="BK32" s="885"/>
+      <c r="BL32" s="885"/>
+      <c r="BM32" s="886"/>
+      <c r="BN32" s="881"/>
     </row>
     <row r="33" customHeight="1" ht="12" customFormat="1" s="726">
       <c r="A33" s="766"/>
@@ -24644,24 +24873,24 @@
       <c r="AT33" s="551"/>
       <c r="AU33" s="551"/>
       <c r="AV33" s="551"/>
-      <c r="AW33" s="773"/>
-      <c r="AX33" s="551"/>
-      <c r="AY33" s="551"/>
-      <c r="AZ33" s="551"/>
-      <c r="BA33" s="551"/>
-      <c r="BB33" s="551"/>
-      <c r="BC33" s="551"/>
-      <c r="BD33" s="551"/>
-      <c r="BE33" s="551"/>
-      <c r="BF33" s="177"/>
-      <c r="BG33" s="177"/>
-      <c r="BH33" s="177"/>
-      <c r="BI33" s="177"/>
-      <c r="BJ33" s="177"/>
-      <c r="BK33" s="177"/>
-      <c r="BL33" s="177"/>
-      <c r="BM33" s="179"/>
-      <c r="BN33" s="556"/>
+      <c r="AW33" s="883"/>
+      <c r="AX33" s="884"/>
+      <c r="AY33" s="884"/>
+      <c r="AZ33" s="884"/>
+      <c r="BA33" s="884"/>
+      <c r="BB33" s="884"/>
+      <c r="BC33" s="884"/>
+      <c r="BD33" s="884"/>
+      <c r="BE33" s="884"/>
+      <c r="BF33" s="885"/>
+      <c r="BG33" s="885"/>
+      <c r="BH33" s="885"/>
+      <c r="BI33" s="885"/>
+      <c r="BJ33" s="885"/>
+      <c r="BK33" s="885"/>
+      <c r="BL33" s="885"/>
+      <c r="BM33" s="886"/>
+      <c r="BN33" s="881"/>
     </row>
     <row r="34" customHeight="1" ht="12" customFormat="1" s="726">
       <c r="A34" s="766"/>
@@ -24712,24 +24941,24 @@
       <c r="AT34" s="551"/>
       <c r="AU34" s="551"/>
       <c r="AV34" s="551"/>
-      <c r="AW34" s="773"/>
-      <c r="AX34" s="551"/>
-      <c r="AY34" s="551"/>
-      <c r="AZ34" s="551"/>
-      <c r="BA34" s="551"/>
-      <c r="BB34" s="551"/>
-      <c r="BC34" s="551"/>
-      <c r="BD34" s="551"/>
-      <c r="BE34" s="177"/>
-      <c r="BF34" s="177"/>
-      <c r="BG34" s="177"/>
-      <c r="BH34" s="177"/>
-      <c r="BI34" s="177"/>
-      <c r="BJ34" s="177"/>
-      <c r="BK34" s="177"/>
-      <c r="BL34" s="177"/>
-      <c r="BM34" s="179"/>
-      <c r="BN34" s="556"/>
+      <c r="AW34" s="883"/>
+      <c r="AX34" s="884"/>
+      <c r="AY34" s="884"/>
+      <c r="AZ34" s="884"/>
+      <c r="BA34" s="884"/>
+      <c r="BB34" s="884"/>
+      <c r="BC34" s="884"/>
+      <c r="BD34" s="884"/>
+      <c r="BE34" s="885"/>
+      <c r="BF34" s="885"/>
+      <c r="BG34" s="885"/>
+      <c r="BH34" s="885"/>
+      <c r="BI34" s="885"/>
+      <c r="BJ34" s="885"/>
+      <c r="BK34" s="885"/>
+      <c r="BL34" s="885"/>
+      <c r="BM34" s="886"/>
+      <c r="BN34" s="881"/>
     </row>
     <row r="35" customHeight="1" ht="12" customFormat="1" s="726">
       <c r="A35" s="766"/>
@@ -24780,24 +25009,24 @@
       <c r="AT35" s="551"/>
       <c r="AU35" s="551"/>
       <c r="AV35" s="551"/>
-      <c r="AW35" s="773"/>
-      <c r="AX35" s="551"/>
-      <c r="AY35" s="551"/>
-      <c r="AZ35" s="551"/>
-      <c r="BA35" s="551"/>
-      <c r="BB35" s="551"/>
-      <c r="BC35" s="551"/>
-      <c r="BD35" s="551"/>
-      <c r="BE35" s="177"/>
-      <c r="BF35" s="177"/>
-      <c r="BG35" s="177"/>
-      <c r="BH35" s="177"/>
-      <c r="BI35" s="177"/>
-      <c r="BJ35" s="177"/>
-      <c r="BK35" s="177"/>
-      <c r="BL35" s="177"/>
-      <c r="BM35" s="179"/>
-      <c r="BN35" s="556"/>
+      <c r="AW35" s="883"/>
+      <c r="AX35" s="884"/>
+      <c r="AY35" s="884"/>
+      <c r="AZ35" s="884"/>
+      <c r="BA35" s="884"/>
+      <c r="BB35" s="884"/>
+      <c r="BC35" s="884"/>
+      <c r="BD35" s="884"/>
+      <c r="BE35" s="885"/>
+      <c r="BF35" s="885"/>
+      <c r="BG35" s="885"/>
+      <c r="BH35" s="885"/>
+      <c r="BI35" s="885"/>
+      <c r="BJ35" s="885"/>
+      <c r="BK35" s="885"/>
+      <c r="BL35" s="885"/>
+      <c r="BM35" s="886"/>
+      <c r="BN35" s="881"/>
     </row>
     <row r="36" customHeight="1" ht="12" customFormat="1" s="726">
       <c r="A36" s="766"/>
@@ -24848,24 +25077,24 @@
       <c r="AT36" s="551"/>
       <c r="AU36" s="551"/>
       <c r="AV36" s="551"/>
-      <c r="AW36" s="773"/>
-      <c r="AX36" s="551"/>
-      <c r="AY36" s="551"/>
-      <c r="AZ36" s="551"/>
-      <c r="BA36" s="551"/>
-      <c r="BB36" s="551"/>
-      <c r="BC36" s="551"/>
-      <c r="BD36" s="551"/>
-      <c r="BE36" s="177"/>
-      <c r="BF36" s="177"/>
-      <c r="BG36" s="177"/>
-      <c r="BH36" s="177"/>
-      <c r="BI36" s="177"/>
-      <c r="BJ36" s="177"/>
-      <c r="BK36" s="177"/>
-      <c r="BL36" s="177"/>
-      <c r="BM36" s="179"/>
-      <c r="BN36" s="556"/>
+      <c r="AW36" s="883"/>
+      <c r="AX36" s="884"/>
+      <c r="AY36" s="884"/>
+      <c r="AZ36" s="884"/>
+      <c r="BA36" s="884"/>
+      <c r="BB36" s="884"/>
+      <c r="BC36" s="884"/>
+      <c r="BD36" s="884"/>
+      <c r="BE36" s="885"/>
+      <c r="BF36" s="885"/>
+      <c r="BG36" s="885"/>
+      <c r="BH36" s="885"/>
+      <c r="BI36" s="885"/>
+      <c r="BJ36" s="885"/>
+      <c r="BK36" s="885"/>
+      <c r="BL36" s="885"/>
+      <c r="BM36" s="886"/>
+      <c r="BN36" s="881"/>
     </row>
     <row r="37" customHeight="1" ht="12" customFormat="1" s="726">
       <c r="A37" s="766"/>
@@ -24916,24 +25145,24 @@
       <c r="AT37" s="551"/>
       <c r="AU37" s="551"/>
       <c r="AV37" s="551"/>
-      <c r="AW37" s="773"/>
-      <c r="AX37" s="551"/>
-      <c r="AY37" s="551"/>
-      <c r="AZ37" s="551"/>
-      <c r="BA37" s="551"/>
-      <c r="BB37" s="551"/>
-      <c r="BC37" s="551"/>
-      <c r="BD37" s="551"/>
-      <c r="BE37" s="177"/>
-      <c r="BF37" s="177"/>
-      <c r="BG37" s="177"/>
-      <c r="BH37" s="177"/>
-      <c r="BI37" s="177"/>
-      <c r="BJ37" s="177"/>
-      <c r="BK37" s="177"/>
-      <c r="BL37" s="177"/>
-      <c r="BM37" s="179"/>
-      <c r="BN37" s="556"/>
+      <c r="AW37" s="883"/>
+      <c r="AX37" s="884"/>
+      <c r="AY37" s="884"/>
+      <c r="AZ37" s="884"/>
+      <c r="BA37" s="884"/>
+      <c r="BB37" s="884"/>
+      <c r="BC37" s="884"/>
+      <c r="BD37" s="884"/>
+      <c r="BE37" s="885"/>
+      <c r="BF37" s="885"/>
+      <c r="BG37" s="885"/>
+      <c r="BH37" s="885"/>
+      <c r="BI37" s="885"/>
+      <c r="BJ37" s="885"/>
+      <c r="BK37" s="885"/>
+      <c r="BL37" s="885"/>
+      <c r="BM37" s="886"/>
+      <c r="BN37" s="881"/>
     </row>
     <row r="38" customHeight="1" ht="12" customFormat="1" s="726">
       <c r="A38" s="766"/>
@@ -24984,24 +25213,24 @@
       <c r="AT38" s="551"/>
       <c r="AU38" s="551"/>
       <c r="AV38" s="551"/>
-      <c r="AW38" s="773"/>
-      <c r="AX38" s="551"/>
-      <c r="AY38" s="551"/>
-      <c r="AZ38" s="551"/>
-      <c r="BA38" s="551"/>
-      <c r="BB38" s="551"/>
-      <c r="BC38" s="551"/>
-      <c r="BD38" s="551"/>
-      <c r="BE38" s="177"/>
-      <c r="BF38" s="177"/>
-      <c r="BG38" s="177"/>
-      <c r="BH38" s="177"/>
-      <c r="BI38" s="177"/>
-      <c r="BJ38" s="177"/>
-      <c r="BK38" s="177"/>
-      <c r="BL38" s="177"/>
-      <c r="BM38" s="179"/>
-      <c r="BN38" s="556"/>
+      <c r="AW38" s="883"/>
+      <c r="AX38" s="884"/>
+      <c r="AY38" s="884"/>
+      <c r="AZ38" s="884"/>
+      <c r="BA38" s="884"/>
+      <c r="BB38" s="884"/>
+      <c r="BC38" s="884"/>
+      <c r="BD38" s="884"/>
+      <c r="BE38" s="885"/>
+      <c r="BF38" s="885"/>
+      <c r="BG38" s="885"/>
+      <c r="BH38" s="885"/>
+      <c r="BI38" s="885"/>
+      <c r="BJ38" s="885"/>
+      <c r="BK38" s="885"/>
+      <c r="BL38" s="885"/>
+      <c r="BM38" s="886"/>
+      <c r="BN38" s="881"/>
     </row>
     <row r="39" customHeight="1" ht="12" customFormat="1" s="726">
       <c r="A39" s="766"/>
@@ -25052,24 +25281,24 @@
       <c r="AT39" s="551"/>
       <c r="AU39" s="551"/>
       <c r="AV39" s="551"/>
-      <c r="AW39" s="773"/>
-      <c r="AX39" s="551"/>
-      <c r="AY39" s="551"/>
-      <c r="AZ39" s="551"/>
-      <c r="BA39" s="551"/>
-      <c r="BB39" s="551"/>
-      <c r="BC39" s="551"/>
-      <c r="BD39" s="551"/>
-      <c r="BE39" s="177"/>
-      <c r="BF39" s="177"/>
-      <c r="BG39" s="177"/>
-      <c r="BH39" s="177"/>
-      <c r="BI39" s="177"/>
-      <c r="BJ39" s="177"/>
-      <c r="BK39" s="177"/>
-      <c r="BL39" s="177"/>
-      <c r="BM39" s="179"/>
-      <c r="BN39" s="556"/>
+      <c r="AW39" s="883"/>
+      <c r="AX39" s="884"/>
+      <c r="AY39" s="884"/>
+      <c r="AZ39" s="884"/>
+      <c r="BA39" s="884"/>
+      <c r="BB39" s="884"/>
+      <c r="BC39" s="884"/>
+      <c r="BD39" s="884"/>
+      <c r="BE39" s="885"/>
+      <c r="BF39" s="885"/>
+      <c r="BG39" s="885"/>
+      <c r="BH39" s="885"/>
+      <c r="BI39" s="885"/>
+      <c r="BJ39" s="885"/>
+      <c r="BK39" s="885"/>
+      <c r="BL39" s="885"/>
+      <c r="BM39" s="886"/>
+      <c r="BN39" s="881"/>
     </row>
     <row r="40" customHeight="1" ht="12" customFormat="1" s="726">
       <c r="A40" s="766"/>
@@ -25120,24 +25349,24 @@
       <c r="AT40" s="551"/>
       <c r="AU40" s="551"/>
       <c r="AV40" s="551"/>
-      <c r="AW40" s="773"/>
-      <c r="AX40" s="551"/>
-      <c r="AY40" s="551"/>
-      <c r="AZ40" s="551"/>
-      <c r="BA40" s="551"/>
-      <c r="BB40" s="551"/>
-      <c r="BC40" s="551"/>
-      <c r="BD40" s="551"/>
-      <c r="BE40" s="177"/>
-      <c r="BF40" s="177"/>
-      <c r="BG40" s="177"/>
-      <c r="BH40" s="177"/>
-      <c r="BI40" s="177"/>
-      <c r="BJ40" s="177"/>
-      <c r="BK40" s="177"/>
-      <c r="BL40" s="177"/>
-      <c r="BM40" s="179"/>
-      <c r="BN40" s="556"/>
+      <c r="AW40" s="883"/>
+      <c r="AX40" s="884"/>
+      <c r="AY40" s="884"/>
+      <c r="AZ40" s="884"/>
+      <c r="BA40" s="884"/>
+      <c r="BB40" s="884"/>
+      <c r="BC40" s="884"/>
+      <c r="BD40" s="884"/>
+      <c r="BE40" s="885"/>
+      <c r="BF40" s="885"/>
+      <c r="BG40" s="885"/>
+      <c r="BH40" s="885"/>
+      <c r="BI40" s="885"/>
+      <c r="BJ40" s="885"/>
+      <c r="BK40" s="885"/>
+      <c r="BL40" s="885"/>
+      <c r="BM40" s="886"/>
+      <c r="BN40" s="881"/>
     </row>
     <row r="41" customHeight="1" ht="12" customFormat="1" s="726">
       <c r="A41" s="766"/>
@@ -25188,24 +25417,24 @@
       <c r="AT41" s="551"/>
       <c r="AU41" s="551"/>
       <c r="AV41" s="551"/>
-      <c r="AW41" s="773"/>
-      <c r="AX41" s="551"/>
-      <c r="AY41" s="551"/>
-      <c r="AZ41" s="551"/>
-      <c r="BA41" s="551"/>
-      <c r="BB41" s="551"/>
-      <c r="BC41" s="551"/>
-      <c r="BD41" s="551"/>
-      <c r="BE41" s="177"/>
-      <c r="BF41" s="177"/>
-      <c r="BG41" s="177"/>
-      <c r="BH41" s="177"/>
-      <c r="BI41" s="177"/>
-      <c r="BJ41" s="177"/>
-      <c r="BK41" s="177"/>
-      <c r="BL41" s="177"/>
-      <c r="BM41" s="179"/>
-      <c r="BN41" s="556"/>
+      <c r="AW41" s="883"/>
+      <c r="AX41" s="884"/>
+      <c r="AY41" s="884"/>
+      <c r="AZ41" s="884"/>
+      <c r="BA41" s="884"/>
+      <c r="BB41" s="884"/>
+      <c r="BC41" s="884"/>
+      <c r="BD41" s="884"/>
+      <c r="BE41" s="885"/>
+      <c r="BF41" s="885"/>
+      <c r="BG41" s="885"/>
+      <c r="BH41" s="885"/>
+      <c r="BI41" s="885"/>
+      <c r="BJ41" s="885"/>
+      <c r="BK41" s="885"/>
+      <c r="BL41" s="885"/>
+      <c r="BM41" s="886"/>
+      <c r="BN41" s="881"/>
     </row>
     <row r="42" customHeight="1" ht="12" customFormat="1" s="726">
       <c r="A42" s="766"/>
@@ -25256,24 +25485,24 @@
       <c r="AT42" s="551"/>
       <c r="AU42" s="551"/>
       <c r="AV42" s="551"/>
-      <c r="AW42" s="773"/>
-      <c r="AX42" s="551"/>
-      <c r="AY42" s="551"/>
-      <c r="AZ42" s="551"/>
-      <c r="BA42" s="551"/>
-      <c r="BB42" s="551"/>
-      <c r="BC42" s="551"/>
-      <c r="BD42" s="551"/>
-      <c r="BE42" s="177"/>
-      <c r="BF42" s="177"/>
-      <c r="BG42" s="177"/>
-      <c r="BH42" s="177"/>
-      <c r="BI42" s="177"/>
-      <c r="BJ42" s="177"/>
-      <c r="BK42" s="177"/>
-      <c r="BL42" s="177"/>
-      <c r="BM42" s="179"/>
-      <c r="BN42" s="556"/>
+      <c r="AW42" s="883"/>
+      <c r="AX42" s="884"/>
+      <c r="AY42" s="884"/>
+      <c r="AZ42" s="884"/>
+      <c r="BA42" s="884"/>
+      <c r="BB42" s="884"/>
+      <c r="BC42" s="884"/>
+      <c r="BD42" s="884"/>
+      <c r="BE42" s="885"/>
+      <c r="BF42" s="885"/>
+      <c r="BG42" s="885"/>
+      <c r="BH42" s="885"/>
+      <c r="BI42" s="885"/>
+      <c r="BJ42" s="885"/>
+      <c r="BK42" s="885"/>
+      <c r="BL42" s="885"/>
+      <c r="BM42" s="886"/>
+      <c r="BN42" s="881"/>
     </row>
     <row r="43" customHeight="1" ht="12" customFormat="1" s="726">
       <c r="A43" s="774"/>
@@ -25324,24 +25553,24 @@
       <c r="AT43" s="776"/>
       <c r="AU43" s="776"/>
       <c r="AV43" s="776"/>
-      <c r="AW43" s="777"/>
-      <c r="AX43" s="776"/>
-      <c r="AY43" s="776"/>
-      <c r="AZ43" s="776"/>
-      <c r="BA43" s="776"/>
-      <c r="BB43" s="776"/>
-      <c r="BC43" s="776"/>
-      <c r="BD43" s="776"/>
-      <c r="BE43" s="775"/>
-      <c r="BF43" s="775"/>
-      <c r="BG43" s="775"/>
-      <c r="BH43" s="775"/>
-      <c r="BI43" s="775"/>
-      <c r="BJ43" s="775"/>
-      <c r="BK43" s="775"/>
-      <c r="BL43" s="775"/>
-      <c r="BM43" s="778"/>
-      <c r="BN43" s="779"/>
+      <c r="AW43" s="887"/>
+      <c r="AX43" s="888"/>
+      <c r="AY43" s="888"/>
+      <c r="AZ43" s="888"/>
+      <c r="BA43" s="888"/>
+      <c r="BB43" s="888"/>
+      <c r="BC43" s="888"/>
+      <c r="BD43" s="888"/>
+      <c r="BE43" s="889"/>
+      <c r="BF43" s="889"/>
+      <c r="BG43" s="889"/>
+      <c r="BH43" s="889"/>
+      <c r="BI43" s="889"/>
+      <c r="BJ43" s="889"/>
+      <c r="BK43" s="889"/>
+      <c r="BL43" s="889"/>
+      <c r="BM43" s="890"/>
+      <c r="BN43" s="891"/>
     </row>
     <row r="44" customHeight="1" ht="12" customFormat="1" s="726">
       <c r="A44" s="766"/>

--- a/DOC/基本設計/基本設計_emsm_ 雇用保険率更新 .xlsx
+++ b/DOC/基本設計/基本設計_emsm_ 雇用保険率更新 .xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169EDFD9-68B2-4CAA-9890-FB4B98E6FF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="840" windowWidth="26805" windowHeight="14535" tabRatio="833" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="6"/>
+    <workbookView xWindow="195" yWindow="840" windowWidth="26805" windowHeight="14535" tabRatio="833" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="9" r:id="rId1"/>
@@ -790,12 +790,39 @@
   <si>
     <t>　</t>
   </si>
+  <si>
+    <t xml:space="preserve">雇用保険労働者負担料率‰は数値ではない場合
+</t>
+  </si>
+  <si>
+    <t>雇用保険事業主負担料率‰は数値ではない場合</t>
+  </si>
+  <si>
+    <t>労災保険料率(全額事業主)‰は数値ではない場合</t>
+  </si>
+  <si>
+    <t>一般拠出金料率(全額事業主)‰は数値ではない場合</t>
+  </si>
+  <si>
+    <t xml:space="preserve">雇用保険労働者負担料率‰に数値のみを入力してください。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">雇用保険事業主負担料率‰に数値のみを入力してください。
+</t>
+  </si>
+  <si>
+    <t>労災保険料率(全額事業主)‰に数値のみを入力してください。</t>
+  </si>
+  <si>
+    <t>一般拠出金料率(全額事業主)‰に数値のみを入力してください。</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="83" x14ac:knownFonts="1">
+  <fonts count="85" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1310,6 +1337,18 @@
       <charset val="128"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="ＭＳ ゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="ＭＳ ゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1349,7 +1388,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="263">
+  <borders count="285">
     <border>
       <left/>
       <right/>
@@ -3688,13 +3727,167 @@
       <top style="none"/>
       <bottom style="none"/>
     </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="895">
+  <cellXfs count="943">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6655,6 +6848,184 @@
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="82" applyFont="1" fillId="3" applyFill="1" borderId="262" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="83" applyFont="1" fillId="3" applyFill="1" borderId="263" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="83" applyFont="1" fillId="3" applyFill="1" borderId="264" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="83" applyFont="1" fillId="3" applyFill="1" borderId="265" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="83" applyFont="1" fillId="3" applyFill="1" borderId="266" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="83" applyFont="1" fillId="3" applyFill="1" borderId="267" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="83" applyFont="1" fillId="3" applyFill="1" borderId="268" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="83" applyFont="1" fillId="3" applyFill="1" borderId="269" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="83" applyFont="1" fillId="3" applyFill="1" borderId="270" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="83" applyFont="1" fillId="3" applyFill="1" borderId="271" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="top" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="83" applyFont="1" fillId="3" applyFill="1" borderId="272" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="83" applyFont="1" fillId="3" applyFill="1" borderId="273" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="83" applyFont="1" fillId="3" applyFill="1" borderId="274" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="83" applyFont="1" fillId="3" applyFill="1" borderId="275" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="83" applyFont="1" fillId="3" applyFill="1" borderId="276" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="84" applyFont="1" fillId="3" applyFill="1" borderId="165" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="84" applyFont="1" fillId="3" applyFill="1" borderId="166" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="84" applyFont="1" fillId="3" applyFill="1" borderId="164" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="83" applyFont="1" fillId="3" applyFill="1" borderId="277" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="83" applyFont="1" fillId="3" applyFill="1" borderId="278" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="83" applyFont="1" fillId="3" applyFill="1" borderId="279" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="83" applyFont="1" fillId="3" applyFill="1" borderId="280" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="83" applyFont="1" fillId="3" applyFill="1" borderId="269" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="83" applyFont="1" fillId="3" applyFill="1" borderId="281" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="83" applyFont="1" fillId="3" applyFill="1" borderId="267" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="83" applyFont="1" fillId="3" applyFill="1" borderId="270" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="top" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="83" applyFont="1" fillId="3" applyFill="1" borderId="282" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="83" applyFont="1" fillId="3" applyFill="1" borderId="283" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="84" applyFont="1" fillId="3" applyFill="1" borderId="154" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="84" applyFont="1" fillId="3" applyFill="1" borderId="154" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="84" applyFont="1" fillId="3" applyFill="1" borderId="154" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="84" applyFont="1" fillId="3" applyFill="1" borderId="154" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="84" applyFont="1" fillId="3" applyFill="1" borderId="154" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="84" applyFont="1" fillId="3" applyFill="1" borderId="154" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="84" applyFont="1" fillId="3" applyFill="1" borderId="154" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="84" applyFont="1" fillId="3" applyFill="1" borderId="154" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="84" applyFont="1" fillId="3" applyFill="1" borderId="154" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="83" applyFont="1" fillId="3" applyFill="1" borderId="282" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="83" applyFont="1" fillId="3" applyFill="1" borderId="274" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="83" applyFont="1" fillId="3" applyFill="1" borderId="284" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="84" applyFont="1" fillId="3" applyFill="1" borderId="144" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="84" applyFont="1" fillId="3" applyFill="1" borderId="159" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="84" applyFont="1" fillId="3" applyFill="1" borderId="159" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="84" applyFont="1" fillId="3" applyFill="1" borderId="162" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="83" applyFont="1" fillId="3" applyFill="1" borderId="270" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="top" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="83" applyFont="1" fillId="3" applyFill="1" borderId="162" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="top" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="83" applyFont="1" fillId="3" applyFill="1" borderId="270" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="top" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="84" applyFont="1" fillId="3" applyFill="1" borderId="159" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="top" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="84" applyFont="1" fillId="3" applyFill="1" borderId="162" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="top" horizontal="left"/>
+      <protection/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6982,7 +7353,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>メニュー画面</a:t>
+            <a:t>リスト画面</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -7466,7 +7837,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB840810-B8C4-461F-9614-119EB62AE124}">
   <dimension ref="A1:X54"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="false" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G19" sqref="G19:R20" activeCellId="0"/>
     </sheetView>
   </sheetViews>
@@ -8428,7 +8799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF7E19B7-31DE-4E95-B92B-26CE81A60D0C}">
   <dimension ref="A1:BN33"/>
   <sheetViews>
-    <sheetView showGridLines="false" topLeftCell="A1" workbookViewId="0" zoomScale="110" zoomScaleNormal="110">
+    <sheetView showGridLines="false" topLeftCell="A13" workbookViewId="0" zoomScale="110" zoomScaleNormal="110">
       <selection activeCell="AJ22" sqref="AJ22" activeCellId="0"/>
     </sheetView>
   </sheetViews>
@@ -20922,8 +21293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F483F54A-5AD5-4BFC-9283-BB80624954B3}">
   <dimension ref="A1:BN14"/>
   <sheetViews>
-    <sheetView showGridLines="false" zoomScale="110" zoomScaleNormal="110" workbookViewId="0" topLeftCell="A1" tabSelected="1">
-      <selection activeCell="BA21" sqref="BA21" activeCellId="0"/>
+    <sheetView showGridLines="false" zoomScale="110" zoomScaleNormal="110" workbookViewId="0" topLeftCell="A1">
+      <selection activeCell="BA25" sqref="BA25" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21845,37 +22216,37 @@
       <c r="M11" s="309"/>
       <c r="N11" s="309"/>
       <c r="O11" s="311"/>
-      <c r="P11" s="801" t="s">
+      <c r="P11" s="897" t="s">
         <v>191</v>
       </c>
-      <c r="Q11" s="801"/>
-      <c r="R11" s="801"/>
-      <c r="S11" s="801"/>
-      <c r="T11" s="801"/>
-      <c r="U11" s="801"/>
-      <c r="V11" s="801"/>
-      <c r="W11" s="801"/>
-      <c r="X11" s="801"/>
-      <c r="Y11" s="801"/>
-      <c r="Z11" s="801"/>
-      <c r="AA11" s="801"/>
-      <c r="AB11" s="801"/>
-      <c r="AC11" s="801"/>
-      <c r="AD11" s="801"/>
-      <c r="AE11" s="801"/>
-      <c r="AF11" s="801"/>
-      <c r="AG11" s="801"/>
-      <c r="AH11" s="801"/>
-      <c r="AI11" s="801"/>
-      <c r="AJ11" s="801"/>
-      <c r="AK11" s="801"/>
-      <c r="AL11" s="801"/>
-      <c r="AM11" s="801"/>
-      <c r="AN11" s="801"/>
-      <c r="AO11" s="801"/>
-      <c r="AP11" s="801"/>
-      <c r="AQ11" s="801"/>
-      <c r="AR11" s="802"/>
+      <c r="Q11" s="897"/>
+      <c r="R11" s="897"/>
+      <c r="S11" s="897"/>
+      <c r="T11" s="897"/>
+      <c r="U11" s="897"/>
+      <c r="V11" s="897"/>
+      <c r="W11" s="897"/>
+      <c r="X11" s="897"/>
+      <c r="Y11" s="897"/>
+      <c r="Z11" s="897"/>
+      <c r="AA11" s="897"/>
+      <c r="AB11" s="897"/>
+      <c r="AC11" s="897"/>
+      <c r="AD11" s="897"/>
+      <c r="AE11" s="897"/>
+      <c r="AF11" s="897"/>
+      <c r="AG11" s="897"/>
+      <c r="AH11" s="897"/>
+      <c r="AI11" s="897"/>
+      <c r="AJ11" s="897"/>
+      <c r="AK11" s="897"/>
+      <c r="AL11" s="897"/>
+      <c r="AM11" s="897"/>
+      <c r="AN11" s="897"/>
+      <c r="AO11" s="897"/>
+      <c r="AP11" s="897"/>
+      <c r="AQ11" s="897"/>
+      <c r="AR11" s="898"/>
       <c r="AS11" s="837" t="s">
         <v>180</v>
       </c>
@@ -21901,7 +22272,7 @@
       <c r="BM11" s="838"/>
       <c r="BN11" s="839"/>
     </row>
-    <row r="12" customFormat="1" s="38">
+    <row r="12" customHeight="1" ht="15" customFormat="1" s="38">
       <c r="A12" s="97">
         <v>5</v>
       </c>
@@ -21921,60 +22292,60 @@
       <c r="M12" s="309"/>
       <c r="N12" s="309"/>
       <c r="O12" s="311"/>
-      <c r="P12" s="827" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q12" s="827"/>
-      <c r="R12" s="827"/>
-      <c r="S12" s="827"/>
-      <c r="T12" s="827"/>
-      <c r="U12" s="827"/>
-      <c r="V12" s="827"/>
-      <c r="W12" s="827"/>
-      <c r="X12" s="827"/>
-      <c r="Y12" s="827"/>
-      <c r="Z12" s="827"/>
-      <c r="AA12" s="827"/>
-      <c r="AB12" s="827"/>
-      <c r="AC12" s="827"/>
-      <c r="AD12" s="827"/>
-      <c r="AE12" s="827"/>
-      <c r="AF12" s="827"/>
-      <c r="AG12" s="827"/>
-      <c r="AH12" s="827"/>
-      <c r="AI12" s="827"/>
-      <c r="AJ12" s="827"/>
-      <c r="AK12" s="827"/>
-      <c r="AL12" s="827"/>
-      <c r="AM12" s="827"/>
-      <c r="AN12" s="827"/>
-      <c r="AO12" s="827"/>
-      <c r="AP12" s="827"/>
-      <c r="AQ12" s="827"/>
-      <c r="AR12" s="828"/>
+      <c r="P12" s="935" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q12" s="936"/>
+      <c r="R12" s="936"/>
+      <c r="S12" s="936"/>
+      <c r="T12" s="936"/>
+      <c r="U12" s="936"/>
+      <c r="V12" s="936"/>
+      <c r="W12" s="936"/>
+      <c r="X12" s="936"/>
+      <c r="Y12" s="936"/>
+      <c r="Z12" s="936"/>
+      <c r="AA12" s="936"/>
+      <c r="AB12" s="936"/>
+      <c r="AC12" s="936"/>
+      <c r="AD12" s="936"/>
+      <c r="AE12" s="936"/>
+      <c r="AF12" s="936"/>
+      <c r="AG12" s="936"/>
+      <c r="AH12" s="936"/>
+      <c r="AI12" s="936"/>
+      <c r="AJ12" s="936"/>
+      <c r="AK12" s="936"/>
+      <c r="AL12" s="936"/>
+      <c r="AM12" s="936"/>
+      <c r="AN12" s="936"/>
+      <c r="AO12" s="936"/>
+      <c r="AP12" s="936"/>
+      <c r="AQ12" s="936"/>
+      <c r="AR12" s="937"/>
       <c r="AS12" s="837" t="s">
-        <v>203</v>
-      </c>
-      <c r="AT12" s="838"/>
-      <c r="AU12" s="838"/>
-      <c r="AV12" s="838"/>
-      <c r="AW12" s="838"/>
-      <c r="AX12" s="838"/>
-      <c r="AY12" s="838"/>
-      <c r="AZ12" s="838"/>
-      <c r="BA12" s="838"/>
-      <c r="BB12" s="838"/>
-      <c r="BC12" s="838"/>
-      <c r="BD12" s="838"/>
-      <c r="BE12" s="838"/>
-      <c r="BF12" s="838"/>
-      <c r="BG12" s="838"/>
-      <c r="BH12" s="838"/>
-      <c r="BI12" s="838"/>
-      <c r="BJ12" s="838"/>
-      <c r="BK12" s="838"/>
-      <c r="BL12" s="838"/>
-      <c r="BM12" s="838"/>
+        <v>242</v>
+      </c>
+      <c r="AT12" s="837"/>
+      <c r="AU12" s="837"/>
+      <c r="AV12" s="837"/>
+      <c r="AW12" s="837"/>
+      <c r="AX12" s="837"/>
+      <c r="AY12" s="837"/>
+      <c r="AZ12" s="837"/>
+      <c r="BA12" s="837"/>
+      <c r="BB12" s="837"/>
+      <c r="BC12" s="837"/>
+      <c r="BD12" s="837"/>
+      <c r="BE12" s="837"/>
+      <c r="BF12" s="837"/>
+      <c r="BG12" s="837"/>
+      <c r="BH12" s="837"/>
+      <c r="BI12" s="837"/>
+      <c r="BJ12" s="837"/>
+      <c r="BK12" s="837"/>
+      <c r="BL12" s="837"/>
+      <c r="BM12" s="837"/>
       <c r="BN12" s="839"/>
     </row>
     <row r="13" customFormat="1" s="38">
@@ -21996,141 +22367,141 @@
       <c r="L13" s="309"/>
       <c r="M13" s="309"/>
       <c r="N13" s="309"/>
-      <c r="O13" s="820"/>
-      <c r="P13" s="803" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q13" s="803"/>
-      <c r="R13" s="803"/>
-      <c r="S13" s="803"/>
-      <c r="T13" s="803"/>
-      <c r="U13" s="803"/>
-      <c r="V13" s="803"/>
-      <c r="W13" s="803"/>
-      <c r="X13" s="803"/>
-      <c r="Y13" s="803"/>
-      <c r="Z13" s="803"/>
-      <c r="AA13" s="803"/>
-      <c r="AB13" s="803"/>
-      <c r="AC13" s="803"/>
-      <c r="AD13" s="803"/>
-      <c r="AE13" s="803"/>
-      <c r="AF13" s="803"/>
-      <c r="AG13" s="803"/>
-      <c r="AH13" s="803"/>
-      <c r="AI13" s="803"/>
-      <c r="AJ13" s="803"/>
-      <c r="AK13" s="803"/>
-      <c r="AL13" s="803"/>
-      <c r="AM13" s="803"/>
-      <c r="AN13" s="803"/>
-      <c r="AO13" s="803"/>
-      <c r="AP13" s="803"/>
-      <c r="AQ13" s="803"/>
-      <c r="AR13" s="829"/>
-      <c r="AS13" s="852" t="s">
-        <v>182</v>
-      </c>
-      <c r="AT13" s="852"/>
-      <c r="AU13" s="852"/>
-      <c r="AV13" s="852"/>
-      <c r="AW13" s="852"/>
-      <c r="AX13" s="852"/>
-      <c r="AY13" s="852"/>
-      <c r="AZ13" s="852"/>
-      <c r="BA13" s="852"/>
-      <c r="BB13" s="852"/>
-      <c r="BC13" s="852"/>
-      <c r="BD13" s="852"/>
-      <c r="BE13" s="852"/>
-      <c r="BF13" s="852"/>
-      <c r="BG13" s="852"/>
-      <c r="BH13" s="852"/>
-      <c r="BI13" s="852"/>
-      <c r="BJ13" s="852"/>
-      <c r="BK13" s="852"/>
-      <c r="BL13" s="852"/>
-      <c r="BM13" s="852"/>
-      <c r="BN13" s="853"/>
+      <c r="O13" s="311"/>
+      <c r="P13" s="932" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q13" s="932"/>
+      <c r="R13" s="932"/>
+      <c r="S13" s="932"/>
+      <c r="T13" s="932"/>
+      <c r="U13" s="932"/>
+      <c r="V13" s="932"/>
+      <c r="W13" s="932"/>
+      <c r="X13" s="932"/>
+      <c r="Y13" s="932"/>
+      <c r="Z13" s="932"/>
+      <c r="AA13" s="932"/>
+      <c r="AB13" s="932"/>
+      <c r="AC13" s="932"/>
+      <c r="AD13" s="932"/>
+      <c r="AE13" s="932"/>
+      <c r="AF13" s="932"/>
+      <c r="AG13" s="932"/>
+      <c r="AH13" s="932"/>
+      <c r="AI13" s="932"/>
+      <c r="AJ13" s="932"/>
+      <c r="AK13" s="932"/>
+      <c r="AL13" s="932"/>
+      <c r="AM13" s="932"/>
+      <c r="AN13" s="932"/>
+      <c r="AO13" s="932"/>
+      <c r="AP13" s="932"/>
+      <c r="AQ13" s="932"/>
+      <c r="AR13" s="933"/>
+      <c r="AS13" s="837" t="s">
+        <v>203</v>
+      </c>
+      <c r="AT13" s="838"/>
+      <c r="AU13" s="838"/>
+      <c r="AV13" s="838"/>
+      <c r="AW13" s="838"/>
+      <c r="AX13" s="838"/>
+      <c r="AY13" s="838"/>
+      <c r="AZ13" s="838"/>
+      <c r="BA13" s="838"/>
+      <c r="BB13" s="838"/>
+      <c r="BC13" s="838"/>
+      <c r="BD13" s="838"/>
+      <c r="BE13" s="838"/>
+      <c r="BF13" s="838"/>
+      <c r="BG13" s="838"/>
+      <c r="BH13" s="838"/>
+      <c r="BI13" s="838"/>
+      <c r="BJ13" s="838"/>
+      <c r="BK13" s="838"/>
+      <c r="BL13" s="838"/>
+      <c r="BM13" s="838"/>
+      <c r="BN13" s="839"/>
     </row>
     <row r="14" customFormat="1" s="38">
-      <c r="A14" s="90">
+      <c r="A14" s="97">
         <v>7</v>
       </c>
-      <c r="B14" s="472" t="s">
+      <c r="B14" s="309" t="s">
         <v>176</v>
       </c>
-      <c r="C14" s="473"/>
-      <c r="D14" s="473"/>
-      <c r="E14" s="473"/>
-      <c r="F14" s="473"/>
-      <c r="G14" s="473"/>
-      <c r="H14" s="473"/>
-      <c r="I14" s="473"/>
-      <c r="J14" s="473"/>
-      <c r="K14" s="473"/>
-      <c r="L14" s="473"/>
-      <c r="M14" s="473"/>
-      <c r="N14" s="473"/>
-      <c r="O14" s="474"/>
-      <c r="P14" s="830" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q14" s="831"/>
-      <c r="R14" s="831"/>
-      <c r="S14" s="831"/>
-      <c r="T14" s="831"/>
-      <c r="U14" s="831"/>
-      <c r="V14" s="831"/>
-      <c r="W14" s="831"/>
-      <c r="X14" s="831"/>
-      <c r="Y14" s="831"/>
-      <c r="Z14" s="831"/>
-      <c r="AA14" s="831"/>
-      <c r="AB14" s="831"/>
-      <c r="AC14" s="831"/>
-      <c r="AD14" s="831"/>
-      <c r="AE14" s="831"/>
-      <c r="AF14" s="831"/>
-      <c r="AG14" s="831"/>
-      <c r="AH14" s="831"/>
-      <c r="AI14" s="831"/>
-      <c r="AJ14" s="831"/>
-      <c r="AK14" s="831"/>
-      <c r="AL14" s="831"/>
-      <c r="AM14" s="831"/>
-      <c r="AN14" s="831"/>
-      <c r="AO14" s="831"/>
-      <c r="AP14" s="831"/>
-      <c r="AQ14" s="831"/>
-      <c r="AR14" s="851"/>
-      <c r="AS14" s="860" t="s">
-        <v>183</v>
-      </c>
-      <c r="AT14" s="858"/>
-      <c r="AU14" s="858"/>
-      <c r="AV14" s="858"/>
-      <c r="AW14" s="858"/>
-      <c r="AX14" s="858"/>
-      <c r="AY14" s="858"/>
-      <c r="AZ14" s="858"/>
-      <c r="BA14" s="858"/>
-      <c r="BB14" s="858"/>
-      <c r="BC14" s="858"/>
-      <c r="BD14" s="858"/>
-      <c r="BE14" s="858"/>
-      <c r="BF14" s="858"/>
-      <c r="BG14" s="858"/>
-      <c r="BH14" s="858"/>
-      <c r="BI14" s="858"/>
-      <c r="BJ14" s="858"/>
-      <c r="BK14" s="858"/>
-      <c r="BL14" s="858"/>
-      <c r="BM14" s="858"/>
-      <c r="BN14" s="859"/>
+      <c r="C14" s="309"/>
+      <c r="D14" s="309"/>
+      <c r="E14" s="309"/>
+      <c r="F14" s="309"/>
+      <c r="G14" s="309"/>
+      <c r="H14" s="309"/>
+      <c r="I14" s="309"/>
+      <c r="J14" s="309"/>
+      <c r="K14" s="309"/>
+      <c r="L14" s="309"/>
+      <c r="M14" s="309"/>
+      <c r="N14" s="309"/>
+      <c r="O14" s="820"/>
+      <c r="P14" s="897" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q14" s="897"/>
+      <c r="R14" s="897"/>
+      <c r="S14" s="897"/>
+      <c r="T14" s="897"/>
+      <c r="U14" s="897"/>
+      <c r="V14" s="897"/>
+      <c r="W14" s="897"/>
+      <c r="X14" s="897"/>
+      <c r="Y14" s="897"/>
+      <c r="Z14" s="897"/>
+      <c r="AA14" s="897"/>
+      <c r="AB14" s="897"/>
+      <c r="AC14" s="897"/>
+      <c r="AD14" s="897"/>
+      <c r="AE14" s="897"/>
+      <c r="AF14" s="897"/>
+      <c r="AG14" s="897"/>
+      <c r="AH14" s="897"/>
+      <c r="AI14" s="897"/>
+      <c r="AJ14" s="897"/>
+      <c r="AK14" s="897"/>
+      <c r="AL14" s="897"/>
+      <c r="AM14" s="897"/>
+      <c r="AN14" s="897"/>
+      <c r="AO14" s="897"/>
+      <c r="AP14" s="897"/>
+      <c r="AQ14" s="897"/>
+      <c r="AR14" s="898"/>
+      <c r="AS14" s="852" t="s">
+        <v>182</v>
+      </c>
+      <c r="AT14" s="852"/>
+      <c r="AU14" s="852"/>
+      <c r="AV14" s="852"/>
+      <c r="AW14" s="852"/>
+      <c r="AX14" s="852"/>
+      <c r="AY14" s="852"/>
+      <c r="AZ14" s="852"/>
+      <c r="BA14" s="852"/>
+      <c r="BB14" s="852"/>
+      <c r="BC14" s="852"/>
+      <c r="BD14" s="852"/>
+      <c r="BE14" s="852"/>
+      <c r="BF14" s="852"/>
+      <c r="BG14" s="852"/>
+      <c r="BH14" s="852"/>
+      <c r="BI14" s="852"/>
+      <c r="BJ14" s="852"/>
+      <c r="BK14" s="852"/>
+      <c r="BL14" s="852"/>
+      <c r="BM14" s="852"/>
+      <c r="BN14" s="853"/>
     </row>
-    <row r="15" customHeight="1" ht="21">
-      <c r="A15" s="89">
+    <row r="15" customFormat="1" s="38">
+      <c r="A15" s="97">
         <v>8</v>
       </c>
       <c r="B15" s="309" t="s">
@@ -22149,137 +22520,137 @@
       <c r="M15" s="309"/>
       <c r="N15" s="309"/>
       <c r="O15" s="311"/>
-      <c r="P15" s="807" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q15" s="807"/>
-      <c r="R15" s="807"/>
-      <c r="S15" s="807"/>
-      <c r="T15" s="807"/>
-      <c r="U15" s="807"/>
-      <c r="V15" s="807"/>
-      <c r="W15" s="807"/>
-      <c r="X15" s="807"/>
-      <c r="Y15" s="807"/>
-      <c r="Z15" s="807"/>
-      <c r="AA15" s="807"/>
-      <c r="AB15" s="807"/>
-      <c r="AC15" s="807"/>
-      <c r="AD15" s="807"/>
-      <c r="AE15" s="807"/>
-      <c r="AF15" s="807"/>
-      <c r="AG15" s="807"/>
-      <c r="AH15" s="807"/>
-      <c r="AI15" s="807"/>
-      <c r="AJ15" s="807"/>
-      <c r="AK15" s="807"/>
-      <c r="AL15" s="807"/>
-      <c r="AM15" s="807"/>
-      <c r="AN15" s="807"/>
-      <c r="AO15" s="807"/>
-      <c r="AP15" s="807"/>
-      <c r="AQ15" s="807"/>
-      <c r="AR15" s="807"/>
-      <c r="AS15" s="854" t="s">
-        <v>184</v>
-      </c>
-      <c r="AT15" s="855"/>
-      <c r="AU15" s="855"/>
-      <c r="AV15" s="855"/>
-      <c r="AW15" s="855"/>
-      <c r="AX15" s="855"/>
-      <c r="AY15" s="855"/>
-      <c r="AZ15" s="855"/>
-      <c r="BA15" s="855"/>
-      <c r="BB15" s="855"/>
-      <c r="BC15" s="855"/>
-      <c r="BD15" s="855"/>
-      <c r="BE15" s="855"/>
-      <c r="BF15" s="855"/>
-      <c r="BG15" s="855"/>
-      <c r="BH15" s="855"/>
-      <c r="BI15" s="855"/>
-      <c r="BJ15" s="855"/>
-      <c r="BK15" s="855"/>
-      <c r="BL15" s="855"/>
-      <c r="BM15" s="855"/>
-      <c r="BN15" s="856"/>
+      <c r="P15" s="803" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q15" s="803"/>
+      <c r="R15" s="803"/>
+      <c r="S15" s="803"/>
+      <c r="T15" s="803"/>
+      <c r="U15" s="803"/>
+      <c r="V15" s="803"/>
+      <c r="W15" s="803"/>
+      <c r="X15" s="803"/>
+      <c r="Y15" s="803"/>
+      <c r="Z15" s="803"/>
+      <c r="AA15" s="803"/>
+      <c r="AB15" s="803"/>
+      <c r="AC15" s="803"/>
+      <c r="AD15" s="803"/>
+      <c r="AE15" s="803"/>
+      <c r="AF15" s="803"/>
+      <c r="AG15" s="803"/>
+      <c r="AH15" s="803"/>
+      <c r="AI15" s="803"/>
+      <c r="AJ15" s="803"/>
+      <c r="AK15" s="803"/>
+      <c r="AL15" s="803"/>
+      <c r="AM15" s="803"/>
+      <c r="AN15" s="803"/>
+      <c r="AO15" s="803"/>
+      <c r="AP15" s="803"/>
+      <c r="AQ15" s="803"/>
+      <c r="AR15" s="829"/>
+      <c r="AS15" s="837" t="s">
+        <v>243</v>
+      </c>
+      <c r="AT15" s="837"/>
+      <c r="AU15" s="837"/>
+      <c r="AV15" s="837"/>
+      <c r="AW15" s="837"/>
+      <c r="AX15" s="837"/>
+      <c r="AY15" s="837"/>
+      <c r="AZ15" s="837"/>
+      <c r="BA15" s="837"/>
+      <c r="BB15" s="837"/>
+      <c r="BC15" s="837"/>
+      <c r="BD15" s="837"/>
+      <c r="BE15" s="837"/>
+      <c r="BF15" s="837"/>
+      <c r="BG15" s="837"/>
+      <c r="BH15" s="837"/>
+      <c r="BI15" s="837"/>
+      <c r="BJ15" s="837"/>
+      <c r="BK15" s="837"/>
+      <c r="BL15" s="837"/>
+      <c r="BM15" s="837"/>
+      <c r="BN15" s="839"/>
     </row>
-    <row r="16">
-      <c r="A16" s="89">
+    <row r="16" customFormat="1" s="38">
+      <c r="A16" s="90">
         <v>9</v>
       </c>
-      <c r="B16" s="309" t="s">
+      <c r="B16" s="472" t="s">
         <v>176</v>
       </c>
-      <c r="C16" s="309"/>
-      <c r="D16" s="309"/>
-      <c r="E16" s="309"/>
-      <c r="F16" s="309"/>
-      <c r="G16" s="309"/>
-      <c r="H16" s="309"/>
-      <c r="I16" s="309"/>
-      <c r="J16" s="309"/>
-      <c r="K16" s="309"/>
-      <c r="L16" s="309"/>
-      <c r="M16" s="309"/>
-      <c r="N16" s="309"/>
-      <c r="O16" s="311"/>
-      <c r="P16" s="807" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q16" s="807"/>
-      <c r="R16" s="807"/>
-      <c r="S16" s="807"/>
-      <c r="T16" s="807"/>
-      <c r="U16" s="807"/>
-      <c r="V16" s="807"/>
-      <c r="W16" s="807"/>
-      <c r="X16" s="807"/>
-      <c r="Y16" s="807"/>
-      <c r="Z16" s="807"/>
-      <c r="AA16" s="807"/>
-      <c r="AB16" s="807"/>
-      <c r="AC16" s="807"/>
-      <c r="AD16" s="807"/>
-      <c r="AE16" s="807"/>
-      <c r="AF16" s="807"/>
-      <c r="AG16" s="807"/>
-      <c r="AH16" s="807"/>
-      <c r="AI16" s="807"/>
-      <c r="AJ16" s="807"/>
-      <c r="AK16" s="807"/>
-      <c r="AL16" s="807"/>
-      <c r="AM16" s="807"/>
-      <c r="AN16" s="807"/>
-      <c r="AO16" s="807"/>
-      <c r="AP16" s="807"/>
-      <c r="AQ16" s="807"/>
-      <c r="AR16" s="807"/>
-      <c r="AS16" s="329" t="s">
-        <v>204</v>
-      </c>
-      <c r="AT16" s="329"/>
-      <c r="AU16" s="329"/>
-      <c r="AV16" s="329"/>
-      <c r="AW16" s="329"/>
-      <c r="AX16" s="329"/>
-      <c r="AY16" s="329"/>
-      <c r="AZ16" s="329"/>
-      <c r="BA16" s="329"/>
-      <c r="BB16" s="329"/>
-      <c r="BC16" s="329"/>
-      <c r="BD16" s="329"/>
-      <c r="BE16" s="329"/>
-      <c r="BF16" s="329"/>
-      <c r="BG16" s="329"/>
-      <c r="BH16" s="329"/>
-      <c r="BI16" s="329"/>
-      <c r="BJ16" s="329"/>
-      <c r="BK16" s="329"/>
-      <c r="BL16" s="329"/>
-      <c r="BM16" s="329"/>
-      <c r="BN16" s="320"/>
+      <c r="C16" s="473"/>
+      <c r="D16" s="473"/>
+      <c r="E16" s="473"/>
+      <c r="F16" s="473"/>
+      <c r="G16" s="473"/>
+      <c r="H16" s="473"/>
+      <c r="I16" s="473"/>
+      <c r="J16" s="473"/>
+      <c r="K16" s="473"/>
+      <c r="L16" s="473"/>
+      <c r="M16" s="473"/>
+      <c r="N16" s="473"/>
+      <c r="O16" s="474"/>
+      <c r="P16" s="899" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q16" s="900"/>
+      <c r="R16" s="900"/>
+      <c r="S16" s="900"/>
+      <c r="T16" s="900"/>
+      <c r="U16" s="900"/>
+      <c r="V16" s="900"/>
+      <c r="W16" s="900"/>
+      <c r="X16" s="900"/>
+      <c r="Y16" s="900"/>
+      <c r="Z16" s="900"/>
+      <c r="AA16" s="900"/>
+      <c r="AB16" s="900"/>
+      <c r="AC16" s="900"/>
+      <c r="AD16" s="900"/>
+      <c r="AE16" s="900"/>
+      <c r="AF16" s="900"/>
+      <c r="AG16" s="900"/>
+      <c r="AH16" s="900"/>
+      <c r="AI16" s="900"/>
+      <c r="AJ16" s="900"/>
+      <c r="AK16" s="900"/>
+      <c r="AL16" s="900"/>
+      <c r="AM16" s="900"/>
+      <c r="AN16" s="900"/>
+      <c r="AO16" s="900"/>
+      <c r="AP16" s="900"/>
+      <c r="AQ16" s="900"/>
+      <c r="AR16" s="912"/>
+      <c r="AS16" s="940" t="s">
+        <v>183</v>
+      </c>
+      <c r="AT16" s="919"/>
+      <c r="AU16" s="919"/>
+      <c r="AV16" s="919"/>
+      <c r="AW16" s="919"/>
+      <c r="AX16" s="919"/>
+      <c r="AY16" s="919"/>
+      <c r="AZ16" s="919"/>
+      <c r="BA16" s="919"/>
+      <c r="BB16" s="919"/>
+      <c r="BC16" s="919"/>
+      <c r="BD16" s="919"/>
+      <c r="BE16" s="919"/>
+      <c r="BF16" s="919"/>
+      <c r="BG16" s="919"/>
+      <c r="BH16" s="919"/>
+      <c r="BI16" s="919"/>
+      <c r="BJ16" s="919"/>
+      <c r="BK16" s="919"/>
+      <c r="BL16" s="919"/>
+      <c r="BM16" s="919"/>
+      <c r="BN16" s="939"/>
     </row>
     <row r="17" customHeight="1" ht="21">
       <c r="A17" s="89">
@@ -22301,64 +22672,368 @@
       <c r="M17" s="309"/>
       <c r="N17" s="309"/>
       <c r="O17" s="311"/>
-      <c r="P17" s="808" t="s">
+      <c r="P17" s="807" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q17" s="807"/>
+      <c r="R17" s="807"/>
+      <c r="S17" s="807"/>
+      <c r="T17" s="807"/>
+      <c r="U17" s="807"/>
+      <c r="V17" s="807"/>
+      <c r="W17" s="807"/>
+      <c r="X17" s="807"/>
+      <c r="Y17" s="807"/>
+      <c r="Z17" s="807"/>
+      <c r="AA17" s="807"/>
+      <c r="AB17" s="807"/>
+      <c r="AC17" s="807"/>
+      <c r="AD17" s="807"/>
+      <c r="AE17" s="807"/>
+      <c r="AF17" s="807"/>
+      <c r="AG17" s="807"/>
+      <c r="AH17" s="807"/>
+      <c r="AI17" s="807"/>
+      <c r="AJ17" s="807"/>
+      <c r="AK17" s="807"/>
+      <c r="AL17" s="807"/>
+      <c r="AM17" s="807"/>
+      <c r="AN17" s="807"/>
+      <c r="AO17" s="807"/>
+      <c r="AP17" s="807"/>
+      <c r="AQ17" s="807"/>
+      <c r="AR17" s="902"/>
+      <c r="AS17" s="916" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT17" s="917"/>
+      <c r="AU17" s="917"/>
+      <c r="AV17" s="917"/>
+      <c r="AW17" s="917"/>
+      <c r="AX17" s="917"/>
+      <c r="AY17" s="917"/>
+      <c r="AZ17" s="917"/>
+      <c r="BA17" s="917"/>
+      <c r="BB17" s="917"/>
+      <c r="BC17" s="917"/>
+      <c r="BD17" s="917"/>
+      <c r="BE17" s="917"/>
+      <c r="BF17" s="917"/>
+      <c r="BG17" s="917"/>
+      <c r="BH17" s="917"/>
+      <c r="BI17" s="917"/>
+      <c r="BJ17" s="917"/>
+      <c r="BK17" s="917"/>
+      <c r="BL17" s="917"/>
+      <c r="BM17" s="917"/>
+      <c r="BN17" s="918"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="89">
+        <v>11</v>
+      </c>
+      <c r="B18" s="309" t="s">
+        <v>176</v>
+      </c>
+      <c r="C18" s="309"/>
+      <c r="D18" s="309"/>
+      <c r="E18" s="309"/>
+      <c r="F18" s="309"/>
+      <c r="G18" s="309"/>
+      <c r="H18" s="309"/>
+      <c r="I18" s="309"/>
+      <c r="J18" s="309"/>
+      <c r="K18" s="309"/>
+      <c r="L18" s="309"/>
+      <c r="M18" s="309"/>
+      <c r="N18" s="309"/>
+      <c r="O18" s="311"/>
+      <c r="P18" s="805" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q18" s="806"/>
+      <c r="R18" s="806"/>
+      <c r="S18" s="806"/>
+      <c r="T18" s="806"/>
+      <c r="U18" s="806"/>
+      <c r="V18" s="806"/>
+      <c r="W18" s="806"/>
+      <c r="X18" s="806"/>
+      <c r="Y18" s="806"/>
+      <c r="Z18" s="806"/>
+      <c r="AA18" s="806"/>
+      <c r="AB18" s="806"/>
+      <c r="AC18" s="806"/>
+      <c r="AD18" s="806"/>
+      <c r="AE18" s="806"/>
+      <c r="AF18" s="806"/>
+      <c r="AG18" s="806"/>
+      <c r="AH18" s="806"/>
+      <c r="AI18" s="806"/>
+      <c r="AJ18" s="806"/>
+      <c r="AK18" s="806"/>
+      <c r="AL18" s="806"/>
+      <c r="AM18" s="806"/>
+      <c r="AN18" s="806"/>
+      <c r="AO18" s="806"/>
+      <c r="AP18" s="806"/>
+      <c r="AQ18" s="806"/>
+      <c r="AR18" s="851"/>
+      <c r="AS18" s="941" t="s">
+        <v>244</v>
+      </c>
+      <c r="AT18" s="941"/>
+      <c r="AU18" s="941"/>
+      <c r="AV18" s="941"/>
+      <c r="AW18" s="941"/>
+      <c r="AX18" s="941"/>
+      <c r="AY18" s="941"/>
+      <c r="AZ18" s="941"/>
+      <c r="BA18" s="941"/>
+      <c r="BB18" s="941"/>
+      <c r="BC18" s="941"/>
+      <c r="BD18" s="941"/>
+      <c r="BE18" s="941"/>
+      <c r="BF18" s="941"/>
+      <c r="BG18" s="941"/>
+      <c r="BH18" s="941"/>
+      <c r="BI18" s="941"/>
+      <c r="BJ18" s="941"/>
+      <c r="BK18" s="941"/>
+      <c r="BL18" s="941"/>
+      <c r="BM18" s="941"/>
+      <c r="BN18" s="942"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="89">
+        <v>12</v>
+      </c>
+      <c r="B19" s="309" t="s">
+        <v>176</v>
+      </c>
+      <c r="C19" s="309"/>
+      <c r="D19" s="309"/>
+      <c r="E19" s="309"/>
+      <c r="F19" s="309"/>
+      <c r="G19" s="309"/>
+      <c r="H19" s="309"/>
+      <c r="I19" s="309"/>
+      <c r="J19" s="309"/>
+      <c r="K19" s="309"/>
+      <c r="L19" s="309"/>
+      <c r="M19" s="309"/>
+      <c r="N19" s="309"/>
+      <c r="O19" s="311"/>
+      <c r="P19" s="807" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q19" s="807"/>
+      <c r="R19" s="807"/>
+      <c r="S19" s="807"/>
+      <c r="T19" s="807"/>
+      <c r="U19" s="807"/>
+      <c r="V19" s="807"/>
+      <c r="W19" s="807"/>
+      <c r="X19" s="807"/>
+      <c r="Y19" s="807"/>
+      <c r="Z19" s="807"/>
+      <c r="AA19" s="807"/>
+      <c r="AB19" s="807"/>
+      <c r="AC19" s="807"/>
+      <c r="AD19" s="807"/>
+      <c r="AE19" s="807"/>
+      <c r="AF19" s="807"/>
+      <c r="AG19" s="807"/>
+      <c r="AH19" s="807"/>
+      <c r="AI19" s="807"/>
+      <c r="AJ19" s="807"/>
+      <c r="AK19" s="807"/>
+      <c r="AL19" s="807"/>
+      <c r="AM19" s="807"/>
+      <c r="AN19" s="807"/>
+      <c r="AO19" s="807"/>
+      <c r="AP19" s="807"/>
+      <c r="AQ19" s="807"/>
+      <c r="AR19" s="807"/>
+      <c r="AS19" s="329" t="s">
+        <v>204</v>
+      </c>
+      <c r="AT19" s="329"/>
+      <c r="AU19" s="329"/>
+      <c r="AV19" s="329"/>
+      <c r="AW19" s="329"/>
+      <c r="AX19" s="329"/>
+      <c r="AY19" s="329"/>
+      <c r="AZ19" s="329"/>
+      <c r="BA19" s="329"/>
+      <c r="BB19" s="329"/>
+      <c r="BC19" s="329"/>
+      <c r="BD19" s="329"/>
+      <c r="BE19" s="329"/>
+      <c r="BF19" s="329"/>
+      <c r="BG19" s="329"/>
+      <c r="BH19" s="329"/>
+      <c r="BI19" s="329"/>
+      <c r="BJ19" s="329"/>
+      <c r="BK19" s="329"/>
+      <c r="BL19" s="329"/>
+      <c r="BM19" s="329"/>
+      <c r="BN19" s="320"/>
+    </row>
+    <row r="20" customHeight="1" ht="21">
+      <c r="A20" s="89">
+        <v>13</v>
+      </c>
+      <c r="B20" s="309" t="s">
+        <v>176</v>
+      </c>
+      <c r="C20" s="309"/>
+      <c r="D20" s="309"/>
+      <c r="E20" s="309"/>
+      <c r="F20" s="309"/>
+      <c r="G20" s="309"/>
+      <c r="H20" s="309"/>
+      <c r="I20" s="309"/>
+      <c r="J20" s="309"/>
+      <c r="K20" s="309"/>
+      <c r="L20" s="309"/>
+      <c r="M20" s="309"/>
+      <c r="N20" s="309"/>
+      <c r="O20" s="311"/>
+      <c r="P20" s="808" t="s">
         <v>201</v>
       </c>
-      <c r="Q17" s="808"/>
-      <c r="R17" s="808"/>
-      <c r="S17" s="808"/>
-      <c r="T17" s="808"/>
-      <c r="U17" s="808"/>
-      <c r="V17" s="808"/>
-      <c r="W17" s="808"/>
-      <c r="X17" s="808"/>
-      <c r="Y17" s="808"/>
-      <c r="Z17" s="808"/>
-      <c r="AA17" s="808"/>
-      <c r="AB17" s="808"/>
-      <c r="AC17" s="808"/>
-      <c r="AD17" s="808"/>
-      <c r="AE17" s="808"/>
-      <c r="AF17" s="808"/>
-      <c r="AG17" s="808"/>
-      <c r="AH17" s="808"/>
-      <c r="AI17" s="808"/>
-      <c r="AJ17" s="808"/>
-      <c r="AK17" s="808"/>
-      <c r="AL17" s="808"/>
-      <c r="AM17" s="808"/>
-      <c r="AN17" s="808"/>
-      <c r="AO17" s="808"/>
-      <c r="AP17" s="808"/>
-      <c r="AQ17" s="808"/>
-      <c r="AR17" s="808"/>
-      <c r="AS17" s="848" t="s">
+      <c r="Q20" s="808"/>
+      <c r="R20" s="808"/>
+      <c r="S20" s="808"/>
+      <c r="T20" s="808"/>
+      <c r="U20" s="808"/>
+      <c r="V20" s="808"/>
+      <c r="W20" s="808"/>
+      <c r="X20" s="808"/>
+      <c r="Y20" s="808"/>
+      <c r="Z20" s="808"/>
+      <c r="AA20" s="808"/>
+      <c r="AB20" s="808"/>
+      <c r="AC20" s="808"/>
+      <c r="AD20" s="808"/>
+      <c r="AE20" s="808"/>
+      <c r="AF20" s="808"/>
+      <c r="AG20" s="808"/>
+      <c r="AH20" s="808"/>
+      <c r="AI20" s="808"/>
+      <c r="AJ20" s="808"/>
+      <c r="AK20" s="808"/>
+      <c r="AL20" s="808"/>
+      <c r="AM20" s="808"/>
+      <c r="AN20" s="808"/>
+      <c r="AO20" s="808"/>
+      <c r="AP20" s="808"/>
+      <c r="AQ20" s="808"/>
+      <c r="AR20" s="808"/>
+      <c r="AS20" s="848" t="s">
         <v>186</v>
       </c>
-      <c r="AT17" s="849"/>
-      <c r="AU17" s="849"/>
-      <c r="AV17" s="849"/>
-      <c r="AW17" s="849"/>
-      <c r="AX17" s="849"/>
-      <c r="AY17" s="849"/>
-      <c r="AZ17" s="849"/>
-      <c r="BA17" s="849"/>
-      <c r="BB17" s="849"/>
-      <c r="BC17" s="849"/>
-      <c r="BD17" s="849"/>
-      <c r="BE17" s="849"/>
-      <c r="BF17" s="849"/>
-      <c r="BG17" s="849"/>
-      <c r="BH17" s="849"/>
-      <c r="BI17" s="849"/>
-      <c r="BJ17" s="849"/>
-      <c r="BK17" s="849"/>
-      <c r="BL17" s="849"/>
-      <c r="BM17" s="849"/>
-      <c r="BN17" s="850"/>
+      <c r="AT20" s="849"/>
+      <c r="AU20" s="849"/>
+      <c r="AV20" s="849"/>
+      <c r="AW20" s="849"/>
+      <c r="AX20" s="849"/>
+      <c r="AY20" s="849"/>
+      <c r="AZ20" s="849"/>
+      <c r="BA20" s="849"/>
+      <c r="BB20" s="849"/>
+      <c r="BC20" s="849"/>
+      <c r="BD20" s="849"/>
+      <c r="BE20" s="849"/>
+      <c r="BF20" s="849"/>
+      <c r="BG20" s="849"/>
+      <c r="BH20" s="849"/>
+      <c r="BI20" s="849"/>
+      <c r="BJ20" s="849"/>
+      <c r="BK20" s="849"/>
+      <c r="BL20" s="849"/>
+      <c r="BM20" s="849"/>
+      <c r="BN20" s="850"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="89">
+        <v>14</v>
+      </c>
+      <c r="B21" s="309" t="s">
+        <v>176</v>
+      </c>
+      <c r="C21" s="309"/>
+      <c r="D21" s="309"/>
+      <c r="E21" s="309"/>
+      <c r="F21" s="309"/>
+      <c r="G21" s="309"/>
+      <c r="H21" s="309"/>
+      <c r="I21" s="309"/>
+      <c r="J21" s="309"/>
+      <c r="K21" s="309"/>
+      <c r="L21" s="309"/>
+      <c r="M21" s="309"/>
+      <c r="N21" s="309"/>
+      <c r="O21" s="311"/>
+      <c r="P21" s="807" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q21" s="807"/>
+      <c r="R21" s="807"/>
+      <c r="S21" s="807"/>
+      <c r="T21" s="807"/>
+      <c r="U21" s="807"/>
+      <c r="V21" s="807"/>
+      <c r="W21" s="807"/>
+      <c r="X21" s="807"/>
+      <c r="Y21" s="807"/>
+      <c r="Z21" s="807"/>
+      <c r="AA21" s="807"/>
+      <c r="AB21" s="807"/>
+      <c r="AC21" s="807"/>
+      <c r="AD21" s="807"/>
+      <c r="AE21" s="807"/>
+      <c r="AF21" s="807"/>
+      <c r="AG21" s="807"/>
+      <c r="AH21" s="807"/>
+      <c r="AI21" s="807"/>
+      <c r="AJ21" s="807"/>
+      <c r="AK21" s="807"/>
+      <c r="AL21" s="807"/>
+      <c r="AM21" s="807"/>
+      <c r="AN21" s="807"/>
+      <c r="AO21" s="807"/>
+      <c r="AP21" s="807"/>
+      <c r="AQ21" s="807"/>
+      <c r="AR21" s="807"/>
+      <c r="AS21" s="329" t="s">
+        <v>245</v>
+      </c>
+      <c r="AT21" s="329"/>
+      <c r="AU21" s="329"/>
+      <c r="AV21" s="329"/>
+      <c r="AW21" s="329"/>
+      <c r="AX21" s="329"/>
+      <c r="AY21" s="329"/>
+      <c r="AZ21" s="329"/>
+      <c r="BA21" s="329"/>
+      <c r="BB21" s="329"/>
+      <c r="BC21" s="329"/>
+      <c r="BD21" s="329"/>
+      <c r="BE21" s="329"/>
+      <c r="BF21" s="329"/>
+      <c r="BG21" s="329"/>
+      <c r="BH21" s="329"/>
+      <c r="BI21" s="329"/>
+      <c r="BJ21" s="329"/>
+      <c r="BK21" s="329"/>
+      <c r="BL21" s="329"/>
+      <c r="BM21" s="329"/>
+      <c r="BN21" s="320"/>
     </row>
   </sheetData>
-  <mergeCells count="49">
+  <mergeCells count="62">
     <mergeCell ref="A2:AA3"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="G4:O4"/>
@@ -22399,6 +23074,7 @@
     <mergeCell ref="AS13:BN13"/>
     <mergeCell ref="B14:O14"/>
     <mergeCell ref="P14:AR14"/>
+    <mergeCell ref="AS14:BN14"/>
     <mergeCell ref="B15:O15"/>
     <mergeCell ref="P15:AR15"/>
     <mergeCell ref="AS15:BN15"/>
@@ -22408,6 +23084,18 @@
     <mergeCell ref="B17:O17"/>
     <mergeCell ref="P17:AR17"/>
     <mergeCell ref="AS17:BN17"/>
+    <mergeCell ref="B18:O18"/>
+    <mergeCell ref="P18:AR18"/>
+    <mergeCell ref="AS18:BN18"/>
+    <mergeCell ref="B19:O19"/>
+    <mergeCell ref="P19:AR19"/>
+    <mergeCell ref="AS19:BN19"/>
+    <mergeCell ref="B20:O20"/>
+    <mergeCell ref="P20:AR20"/>
+    <mergeCell ref="AS20:BN20"/>
+    <mergeCell ref="B21:O21"/>
+    <mergeCell ref="P21:AR21"/>
+    <mergeCell ref="AS21:BN21"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22417,8 +23105,8 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="AE30" activeCellId="0" sqref="AE30"/>
+    <sheetView workbookViewId="0" topLeftCell="A10">
+      <selection activeCell="AB15" activeCellId="0" sqref="AB15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelRow="0" outlineLevelCol="0" customHeight="true" defaultColWidth="2.125"/>

--- a/DOC/基本設計/基本設計_emsm_ 雇用保険率更新 .xlsx
+++ b/DOC/基本設計/基本設計_emsm_ 雇用保険率更新 .xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
     <t>No</t>
   </si>
@@ -445,8 +445,7 @@
     <t>－</t>
   </si>
   <si>
-    <t xml:space="preserve">雇用保険労働者負担料率‰は数値ではない場合_x000D_
-_x000D_
+    <t xml:space="preserve">雇用保険労働者負担料率‰は数値ではない場合
 </t>
   </si>
   <si>
@@ -459,11 +458,11 @@
     <t>一般拠出金料率(全額事業主)‰は数値ではない場合</t>
   </si>
   <si>
-    <t xml:space="preserve">雇用保険労働者負担料率‰に数値のみを入力してください。_x000D_
+    <t xml:space="preserve">雇用保険労働者負担料率‰に数値のみを入力してください。
 </t>
   </si>
   <si>
-    <t xml:space="preserve">雇用保険事業主負担料率‰に数値のみを入力してください。_x000D_
+    <t xml:space="preserve">雇用保険事業主負担料率‰に数値のみを入力してください。
 </t>
   </si>
   <si>
@@ -474,81 +473,65 @@
   </si>
   <si>
     <t>該当行の「雇用保険ID」を持ち、DBからデータを取得して、画面に表示する</t>
-    <rPh sb="0" eb="2">
-      <t>ガイトウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="5" eb="9">
-      <t>コヨウホケン</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>２）親画面の「新規追加」ボタンが押された場合、</t>
-    <rPh sb="2" eb="5">
-      <t>オヤガメン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>雇用保険IDを採番して、画面に表示する</t>
-    <rPh sb="7" eb="9">
-      <t>サイバン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>１）親画面の「更新」ボタンが押された場合、</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>３）「雇用保険ID」を変更不可にする</t>
-    <rPh sb="11" eb="13">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>フカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>雇用保険料率‰は数値ではない場合</t>
+  </si>
+  <si>
+    <t>雇用保険料率‰は空の場合</t>
+  </si>
+  <si>
+    <t xml:space="preserve">雇用保険料率‰に小数点2位以上の場合
+</t>
+  </si>
+  <si>
+    <t>労働保険料率‰は数値ではない場合</t>
+  </si>
+  <si>
+    <t xml:space="preserve">労働保険料率‰に小数点2位以上の場合
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">労働保険料率‰は空の場合
+</t>
+  </si>
+  <si>
+    <t>労災保険料率‰に数値のみを入力してください。</t>
+  </si>
+  <si>
+    <t>労災保険料率‰を入力してください。</t>
+  </si>
+  <si>
+    <t>労災保険料率‰に小数点2位までの数字のみを入力してください。</t>
+  </si>
+  <si>
+    <t>雇用保険料率‰を入力してください。</t>
+  </si>
+  <si>
+    <t>雇用保険料率‰に小数点2位までの数字のみを入力してください。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">雇用保険料率‰に数値のみを入力してください。
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="53" x14ac:knownFonts="1">
+  <fonts count="54" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -886,8 +869,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="ＭＳ ゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -918,8 +907,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF79646"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC4BD96"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="173">
+  <borders count="194">
     <border>
       <left/>
       <right/>
@@ -2785,13 +2784,134 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="none"/>
+      <bottom style="thin"/>
+    </border>
+    <border diagonalDown="false">
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false">
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false">
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false">
+      <left style="none"/>
+      <right style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false">
+      <right style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false">
+      <right style="none"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="thin"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <right style="thin"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <right style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false">
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="489">
+  <cellXfs count="533">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4222,6 +4342,138 @@
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="53" applyFont="1" fillId="6" applyFill="1" borderId="8" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="53" applyFont="1" fillId="6" applyFill="1" borderId="98" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="53" applyFont="1" fillId="7" applyFill="1" borderId="8" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="53" applyFont="1" fillId="7" applyFill="1" borderId="98" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="53" applyFont="1" fillId="7" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="53" applyFont="1" fillId="7" applyFill="1" borderId="172" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="53" applyFont="1" fillId="3" applyFill="1" borderId="15" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="53" applyFont="1" fillId="3" applyFill="1" borderId="7" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="53" applyFont="1" fillId="3" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="53" applyFont="1" fillId="3" applyFill="1" borderId="15" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="53" applyFont="1" fillId="3" applyFill="1" borderId="173" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="53" applyFont="1" fillId="3" applyFill="1" borderId="173" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="53" applyFont="1" fillId="3" applyFill="1" borderId="174" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="53" applyFont="1" fillId="3" applyFill="1" borderId="175" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="53" applyFont="1" fillId="3" applyFill="1" borderId="176" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="53" applyFont="1" fillId="3" applyFill="1" borderId="177" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="53" applyFont="1" fillId="3" applyFill="1" borderId="178" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="53" applyFont="1" fillId="3" applyFill="1" borderId="179" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="53" applyFont="1" fillId="3" applyFill="1" borderId="180" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="53" applyFont="1" fillId="3" applyFill="1" borderId="181" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="53" applyFont="1" fillId="3" applyFill="1" borderId="182" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="53" applyFont="1" fillId="3" applyFill="1" borderId="183" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="53" applyFont="1" fillId="3" applyFill="1" borderId="184" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="53" applyFont="1" fillId="3" applyFill="1" borderId="185" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="53" applyFont="1" fillId="3" applyFill="1" borderId="186" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="53" applyFont="1" fillId="3" applyFill="1" borderId="187" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="53" applyFont="1" fillId="3" applyFill="1" borderId="188" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="53" applyFont="1" fillId="3" applyFill="1" borderId="189" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="53" applyFont="1" fillId="3" applyFill="1" borderId="15" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="53" applyFont="1" fillId="3" applyFill="1" borderId="7" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="53" applyFont="1" fillId="3" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="53" applyFont="1" fillId="3" applyFill="1" borderId="12" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="53" applyFont="1" fillId="3" applyFill="1" borderId="190" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="53" applyFont="1" fillId="3" applyFill="1" borderId="190" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="53" applyFont="1" fillId="3" applyFill="1" borderId="191" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="53" applyFont="1" fillId="3" applyFill="1" borderId="192" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="53" applyFont="1" fillId="3" applyFill="1" borderId="192" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="53" applyFont="1" fillId="3" applyFill="1" borderId="193" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="53" applyFont="1" fillId="7" applyFill="1" borderId="12" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="53" applyFont="1" fillId="7" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="53" applyFont="1" fillId="7" applyFill="1" borderId="15" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="53" applyFont="1" fillId="7" applyFill="1" borderId="7" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="53" applyFont="1" fillId="7" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="53" applyFont="1" fillId="7" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4246,7 +4498,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -4260,21 +4512,15 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 9"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="152400" y="914400"/>
-          <a:ext cx="1514475" cy="971550"/>
+          <a:off x="209550" y="914400"/>
+          <a:ext cx="2028825" cy="971550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4368,21 +4614,15 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 13"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="228600" y="1228725"/>
-          <a:ext cx="457200" cy="171450"/>
+          <a:off x="285750" y="1228725"/>
+          <a:ext cx="628650" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4433,21 +4673,15 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2" name="直線矢印コネクタ 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="直線矢印コネクタ 14"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="209550" y="1581150"/>
-          <a:ext cx="495300" cy="9525"/>
+          <a:off x="266700" y="1581150"/>
+          <a:ext cx="666750" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4478,29 +4712,23 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="正方形/長方形 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1295400" y="2895599"/>
-          <a:ext cx="1562100" cy="447675"/>
+          <a:off x="1676400" y="2886075"/>
+          <a:ext cx="1990725" cy="447675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4553,31 +4781,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>161924</xdr:colOff>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="正方形/長方形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4371974" y="2905125"/>
-          <a:ext cx="1952625" cy="419100"/>
+          <a:off x="5600700" y="2905125"/>
+          <a:ext cx="2571750" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4652,21 +4874,15 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="正方形/長方形 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 7"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3448050" y="2333625"/>
-          <a:ext cx="942975" cy="400050"/>
+          <a:off x="4448175" y="2333625"/>
+          <a:ext cx="1228725" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4713,34 +4929,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>133349</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>4761</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="コネクタ: カギ線 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84E74439-43C9-4FFB-3502-C8C443B2A7AD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="9" idx="0"/>
-          <a:endCxn id="10" idx="0"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvPr id="4" name="コネクタ: カギ線 3"/>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="3707605" y="1264444"/>
-          <a:ext cx="9526" cy="3271837"/>
+          <a:off x="4772025" y="762000"/>
+          <a:ext cx="9525" cy="4276725"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -4771,34 +4978,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>133349</xdr:colOff>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>4761</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="コネクタ: カギ線 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2CA2693-6F78-2F84-538E-F5CEC89BACAC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="9" idx="2"/>
-          <a:endCxn id="10" idx="2"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvPr id="15" name="コネクタ: カギ線 14"/>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="3702843" y="1697831"/>
-          <a:ext cx="19049" cy="3271837"/>
+          <a:off x="4772025" y="1190625"/>
+          <a:ext cx="9525" cy="4276725"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -4839,21 +5037,15 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="正方形/長方形 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B9C39A2-283B-1FA0-DD92-D74D980E18AA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="18" name="正方形/長方形 7"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3219450" y="3629025"/>
-          <a:ext cx="1428750" cy="400050"/>
+          <a:off x="4124325" y="3629025"/>
+          <a:ext cx="1857375" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4901,7 +5093,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -4912,19 +5104,13 @@
     <xdr:ext cx="4686300" cy="5076825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="図 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -5243,15 +5429,35 @@
       <selection activeCell="G19" sqref="G19:R20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.75" defaultRowHeight="12" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="5.75" defaultRowHeight="12" x14ac:dyDescent="0.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="21" width="5.75" style="8"/>
+    <col min="1" max="1" width="5.75" style="8"/>
+    <col min="2" max="2" width="5.75" style="8"/>
+    <col min="3" max="3" width="5.75" style="8"/>
+    <col min="4" max="4" width="5.75" style="8"/>
+    <col min="5" max="5" width="5.75" style="8"/>
+    <col min="6" max="6" width="5.75" style="8"/>
+    <col min="7" max="7" width="5.75" style="8"/>
+    <col min="8" max="8" width="5.75" style="8"/>
+    <col min="9" max="9" width="5.75" style="8"/>
+    <col min="10" max="10" width="5.75" style="8"/>
+    <col min="11" max="11" width="5.75" style="8"/>
+    <col min="12" max="12" width="5.75" style="8"/>
+    <col min="13" max="13" width="5.75" style="8"/>
+    <col min="14" max="14" width="5.75" style="8"/>
+    <col min="15" max="15" width="5.75" style="8"/>
+    <col min="16" max="16" width="5.75" style="8"/>
+    <col min="17" max="17" width="5.75" style="8"/>
+    <col min="18" max="18" width="5.75" style="8"/>
+    <col min="19" max="19" width="5.75" style="8"/>
+    <col min="20" max="20" width="5.75" style="8"/>
+    <col min="21" max="21" width="5.75" style="8"/>
     <col min="22" max="22" width="5.75" style="13"/>
     <col min="23" max="23" width="5.75" style="8"/>
     <col min="24" max="16384" width="5.75" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" customFormat="1" s="4">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -5277,60 +5483,60 @@
       <c r="W1" s="2"/>
       <c r="X1" s="3"/>
     </row>
-    <row r="2" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" customFormat="1" s="4">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="X2" s="7"/>
     </row>
-    <row r="3" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" customFormat="1" s="4">
       <c r="A3" s="5"/>
       <c r="X3" s="7"/>
     </row>
-    <row r="4" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="4" customFormat="1" s="4">
       <c r="A4" s="5"/>
       <c r="X4" s="7"/>
     </row>
-    <row r="5" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="5" customFormat="1" s="4">
       <c r="A5" s="5"/>
       <c r="X5" s="7"/>
     </row>
-    <row r="6" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" customFormat="1" s="4">
       <c r="A6" s="5"/>
       <c r="X6" s="7"/>
     </row>
-    <row r="7" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="7" customFormat="1" s="4">
       <c r="A7" s="5"/>
       <c r="X7" s="7"/>
     </row>
-    <row r="8" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="8" customFormat="1" s="4">
       <c r="A8" s="5"/>
       <c r="X8" s="7"/>
     </row>
-    <row r="9" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="9" customFormat="1" s="4">
       <c r="A9" s="5"/>
       <c r="X9" s="7"/>
     </row>
-    <row r="10" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="10" customFormat="1" s="4">
       <c r="A10" s="5"/>
       <c r="X10" s="7"/>
     </row>
-    <row r="11" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="11" customFormat="1" s="4">
       <c r="A11" s="5"/>
       <c r="X11" s="7"/>
     </row>
-    <row r="12" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="12" customFormat="1" s="4">
       <c r="A12" s="5"/>
       <c r="X12" s="7"/>
     </row>
-    <row r="13" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="13" customFormat="1" s="4">
       <c r="A13" s="5"/>
       <c r="X13" s="7"/>
     </row>
-    <row r="14" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="14" customFormat="1" s="4">
       <c r="A14" s="5"/>
       <c r="X14" s="7"/>
     </row>
-    <row r="15" spans="1:24" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.4">
+    <row r="15" ht="24" customFormat="1" s="4">
       <c r="A15" s="5"/>
       <c r="I15" s="163" t="s">
         <v>5</v>
@@ -5344,15 +5550,15 @@
       <c r="P15" s="163"/>
       <c r="X15" s="7"/>
     </row>
-    <row r="16" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="16" customFormat="1" s="4">
       <c r="A16" s="5"/>
       <c r="X16" s="7"/>
     </row>
-    <row r="17" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="17" customFormat="1" s="4">
       <c r="A17" s="5"/>
       <c r="X17" s="7"/>
     </row>
-    <row r="18" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="18" customFormat="1" s="4">
       <c r="A18" s="5"/>
       <c r="G18" s="164" t="s">
         <v>6</v>
@@ -5370,7 +5576,7 @@
       <c r="R18" s="166"/>
       <c r="X18" s="7"/>
     </row>
-    <row r="19" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="19" customFormat="1" s="4">
       <c r="A19" s="5"/>
       <c r="G19" s="167" t="s">
         <v>96</v>
@@ -5388,7 +5594,7 @@
       <c r="R19" s="169"/>
       <c r="X19" s="7"/>
     </row>
-    <row r="20" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="20" customFormat="1" s="4">
       <c r="A20" s="5"/>
       <c r="G20" s="170"/>
       <c r="H20" s="171"/>
@@ -5404,11 +5610,11 @@
       <c r="R20" s="172"/>
       <c r="X20" s="7"/>
     </row>
-    <row r="21" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="21" customFormat="1" s="4">
       <c r="A21" s="5"/>
       <c r="X21" s="7"/>
     </row>
-    <row r="22" spans="1:24" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.4">
+    <row r="22" ht="12" customFormat="1" s="4">
       <c r="A22" s="5"/>
       <c r="G22" s="164" t="s">
         <v>7</v>
@@ -5426,7 +5632,7 @@
       <c r="R22" s="174"/>
       <c r="X22" s="7"/>
     </row>
-    <row r="23" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="23" customFormat="1" s="4">
       <c r="A23" s="5"/>
       <c r="G23" s="167" t="s">
         <v>119</v>
@@ -5444,7 +5650,7 @@
       <c r="R23" s="176"/>
       <c r="X23" s="7"/>
     </row>
-    <row r="24" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="24" customFormat="1" s="4">
       <c r="A24" s="5"/>
       <c r="G24" s="177"/>
       <c r="H24" s="178"/>
@@ -5460,7 +5666,7 @@
       <c r="R24" s="179"/>
       <c r="X24" s="7"/>
     </row>
-    <row r="25" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="25" customFormat="1" s="4">
       <c r="A25" s="5"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -5474,7 +5680,7 @@
       <c r="Q25" s="8"/>
       <c r="X25" s="7"/>
     </row>
-    <row r="26" spans="1:24" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.4">
+    <row r="26" ht="12" customFormat="1" s="4">
       <c r="A26" s="5"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
@@ -5488,79 +5694,79 @@
       <c r="Q26" s="9"/>
       <c r="X26" s="7"/>
     </row>
-    <row r="27" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="27" customFormat="1" s="4">
       <c r="A27" s="5"/>
       <c r="X27" s="7"/>
     </row>
-    <row r="28" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="28" customFormat="1" s="4">
       <c r="A28" s="5"/>
       <c r="X28" s="7"/>
     </row>
-    <row r="29" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="29" customFormat="1" s="4">
       <c r="A29" s="5"/>
       <c r="X29" s="7"/>
     </row>
-    <row r="30" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="30" customFormat="1" s="4">
       <c r="A30" s="5"/>
       <c r="X30" s="7"/>
     </row>
-    <row r="31" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="31" customFormat="1" s="4">
       <c r="A31" s="5"/>
       <c r="X31" s="7"/>
     </row>
-    <row r="32" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="32" customFormat="1" s="4">
       <c r="A32" s="5"/>
       <c r="X32" s="7"/>
     </row>
-    <row r="33" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="33" customFormat="1" s="4">
       <c r="A33" s="5"/>
       <c r="K33" s="8"/>
       <c r="X33" s="7"/>
     </row>
-    <row r="34" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="34" customFormat="1" s="4">
       <c r="A34" s="5"/>
       <c r="K34" s="8"/>
       <c r="X34" s="7"/>
     </row>
-    <row r="35" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="35" customFormat="1" s="4">
       <c r="A35" s="5"/>
       <c r="K35" s="8"/>
       <c r="X35" s="7"/>
     </row>
-    <row r="36" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="36" customFormat="1" s="4">
       <c r="A36" s="5"/>
       <c r="X36" s="7"/>
     </row>
-    <row r="37" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="37" customFormat="1" s="4">
       <c r="A37" s="5"/>
       <c r="X37" s="7"/>
     </row>
-    <row r="38" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="38" customFormat="1" s="4">
       <c r="A38" s="5"/>
       <c r="K38" s="8"/>
       <c r="X38" s="7"/>
     </row>
-    <row r="39" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="39" customFormat="1" s="4">
       <c r="A39" s="5"/>
       <c r="X39" s="7"/>
     </row>
-    <row r="40" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="40" customFormat="1" s="4">
       <c r="A40" s="5"/>
       <c r="X40" s="7"/>
     </row>
-    <row r="41" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="41" customFormat="1" s="4">
       <c r="A41" s="5"/>
       <c r="X41" s="7"/>
     </row>
-    <row r="42" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="42" customFormat="1" s="4">
       <c r="A42" s="5"/>
       <c r="X42" s="7"/>
     </row>
-    <row r="43" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="43" customFormat="1" s="4">
       <c r="A43" s="5"/>
       <c r="X43" s="7"/>
     </row>
-    <row r="44" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="44" customFormat="1" s="4">
       <c r="A44" s="10"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -5586,7 +5792,7 @@
       <c r="W44" s="11"/>
       <c r="X44" s="12"/>
     </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.4">
+    <row r="49">
       <c r="D49" s="13"/>
       <c r="E49" s="13"/>
       <c r="F49" s="13"/>
@@ -5596,7 +5802,7 @@
       <c r="J49" s="13"/>
       <c r="K49" s="13"/>
     </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.4">
+    <row r="50">
       <c r="D50" s="13"/>
       <c r="E50" s="13"/>
       <c r="F50" s="13"/>
@@ -5606,7 +5812,7 @@
       <c r="J50" s="13"/>
       <c r="K50" s="13"/>
     </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.4">
+    <row r="51">
       <c r="D51" s="13"/>
       <c r="E51" s="13"/>
       <c r="F51" s="13"/>
@@ -5616,7 +5822,7 @@
       <c r="J51" s="13"/>
       <c r="K51" s="13"/>
     </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.4">
+    <row r="52">
       <c r="D52" s="13"/>
       <c r="E52" s="13"/>
       <c r="F52" s="13"/>
@@ -5626,7 +5832,7 @@
       <c r="J52" s="13"/>
       <c r="K52" s="13"/>
     </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.4">
+    <row r="53">
       <c r="D53" s="13"/>
       <c r="E53" s="13"/>
       <c r="F53" s="13"/>
@@ -5636,7 +5842,7 @@
       <c r="J53" s="13"/>
       <c r="K53" s="13"/>
     </row>
-    <row r="54" spans="4:11" x14ac:dyDescent="0.4">
+    <row r="54">
       <c r="D54" s="13"/>
       <c r="E54" s="13"/>
       <c r="F54" s="13"/>
@@ -5667,7 +5873,7 @@
       <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="3.375" style="14" customWidth="1"/>
     <col min="2" max="2" width="4.875" style="14" customWidth="1"/>
@@ -6055,12 +6261,12 @@
     <col min="16134" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="2">
       <c r="C2" s="14" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="3">
       <c r="B3" s="54" t="s">
         <v>0</v>
       </c>
@@ -6074,7 +6280,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="4">
       <c r="B4" s="15">
         <v>1</v>
       </c>
@@ -6088,7 +6294,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="5">
       <c r="B5" s="17">
         <v>2</v>
       </c>
@@ -6096,7 +6302,7 @@
       <c r="D5" s="18"/>
       <c r="E5" s="17"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="6">
       <c r="B6" s="19">
         <v>3</v>
       </c>
@@ -6104,67 +6310,67 @@
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="7">
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="8">
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="9">
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="10">
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="11">
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="12">
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="13">
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="14">
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="15">
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="16">
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="17">
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
@@ -6185,7 +6391,7 @@
       <selection activeCell="BI16" sqref="BI16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="65" max="65" width="3.625" style="141" customWidth="1"/>
     <col min="66" max="66" width="0.125" style="141" customWidth="1"/>
@@ -6317,7 +6523,7 @@
     <col min="16194" max="16194" width="0.125" style="141" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" s="141" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" customHeight="1" ht="12" customFormat="1" s="141">
       <c r="A1" s="142"/>
       <c r="B1" s="143"/>
       <c r="C1" s="143"/>
@@ -6385,7 +6591,7 @@
       <c r="BM1" s="143"/>
       <c r="BN1" s="145"/>
     </row>
-    <row r="2" spans="1:66" s="141" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" customHeight="1" ht="12" customFormat="1" s="141">
       <c r="A2" s="180" t="s">
         <v>8</v>
       </c>
@@ -6455,7 +6661,7 @@
       <c r="BM2" s="147"/>
       <c r="BN2" s="148"/>
     </row>
-    <row r="3" spans="1:66" s="141" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" customHeight="1" ht="12" customFormat="1" s="141">
       <c r="A3" s="180"/>
       <c r="B3" s="181"/>
       <c r="C3" s="181"/>
@@ -6523,7 +6729,7 @@
       <c r="BM3" s="146"/>
       <c r="BN3" s="149"/>
     </row>
-    <row r="4" spans="1:66" s="141" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" customHeight="1" ht="12" customFormat="1" s="141">
       <c r="A4" s="182" t="s">
         <v>9</v>
       </c>
@@ -6607,7 +6813,7 @@
       <c r="BM4" s="198"/>
       <c r="BN4" s="199"/>
     </row>
-    <row r="5" spans="1:66" s="141" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" customHeight="1" ht="12" customFormat="1" s="141">
       <c r="A5" s="200" t="s">
         <v>13</v>
       </c>
@@ -6685,7 +6891,7 @@
       <c r="BM5" s="211"/>
       <c r="BN5" s="212"/>
     </row>
-    <row r="6" spans="1:66" s="141" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" customHeight="1" ht="12" customFormat="1" s="141">
       <c r="A6" s="150"/>
       <c r="B6" s="66"/>
       <c r="C6" s="66"/>
@@ -6755,7 +6961,7 @@
       <c r="BM6" s="215"/>
       <c r="BN6" s="154"/>
     </row>
-    <row r="7" spans="1:66" s="141" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" customHeight="1" ht="12" customFormat="1" s="141">
       <c r="A7" s="150"/>
       <c r="B7" s="66"/>
       <c r="C7" s="66"/>
@@ -6823,7 +7029,7 @@
       <c r="BM7" s="218"/>
       <c r="BN7" s="154"/>
     </row>
-    <row r="8" spans="1:66" s="141" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" customHeight="1" ht="12" customFormat="1" s="141">
       <c r="A8" s="150"/>
       <c r="B8" s="66"/>
       <c r="C8" s="66"/>
@@ -6891,7 +7097,7 @@
       <c r="BM8" s="221"/>
       <c r="BN8" s="154"/>
     </row>
-    <row r="9" spans="1:66" s="141" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" customHeight="1" ht="12" customFormat="1" s="141">
       <c r="A9" s="150"/>
       <c r="B9" s="66"/>
       <c r="C9" s="66"/>
@@ -6959,7 +7165,7 @@
       <c r="BM9" s="221"/>
       <c r="BN9" s="154"/>
     </row>
-    <row r="10" spans="1:66" s="141" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" customHeight="1" ht="12" customFormat="1" s="141">
       <c r="A10" s="150"/>
       <c r="B10" s="66"/>
       <c r="C10" s="66"/>
@@ -7027,7 +7233,7 @@
       <c r="BM10" s="158"/>
       <c r="BN10" s="154"/>
     </row>
-    <row r="11" spans="1:66" s="141" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" customHeight="1" ht="12" customFormat="1" s="141">
       <c r="A11" s="150"/>
       <c r="B11" s="66"/>
       <c r="C11" s="66"/>
@@ -7095,7 +7301,7 @@
       <c r="BM11" s="158"/>
       <c r="BN11" s="154"/>
     </row>
-    <row r="12" spans="1:66" s="141" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" customHeight="1" ht="12" customFormat="1" s="141">
       <c r="A12" s="150"/>
       <c r="B12" s="66"/>
       <c r="C12" s="66"/>
@@ -7163,7 +7369,7 @@
       <c r="BM12" s="158"/>
       <c r="BN12" s="154"/>
     </row>
-    <row r="13" spans="1:66" s="141" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" customHeight="1" ht="12" customFormat="1" s="141">
       <c r="A13" s="150"/>
       <c r="B13" s="66"/>
       <c r="C13" s="66"/>
@@ -7231,7 +7437,7 @@
       <c r="BM13" s="158"/>
       <c r="BN13" s="154"/>
     </row>
-    <row r="14" spans="1:66" s="141" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" customHeight="1" ht="12" customFormat="1" s="141">
       <c r="A14" s="150"/>
       <c r="B14" s="66"/>
       <c r="C14" s="66"/>
@@ -7299,7 +7505,7 @@
       <c r="BM14" s="158"/>
       <c r="BN14" s="154"/>
     </row>
-    <row r="15" spans="1:66" s="141" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" customHeight="1" ht="12" customFormat="1" s="141">
       <c r="A15" s="150"/>
       <c r="B15" s="66"/>
       <c r="C15" s="66"/>
@@ -7367,7 +7573,7 @@
       <c r="BM15" s="158"/>
       <c r="BN15" s="154"/>
     </row>
-    <row r="16" spans="1:66" s="141" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" customHeight="1" ht="12" customFormat="1" s="141">
       <c r="A16" s="150"/>
       <c r="B16" s="66"/>
       <c r="C16" s="66"/>
@@ -7435,7 +7641,7 @@
       <c r="BM16" s="158"/>
       <c r="BN16" s="154"/>
     </row>
-    <row r="17" spans="1:66" s="141" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" customHeight="1" ht="12" customFormat="1" s="141">
       <c r="A17" s="150"/>
       <c r="B17" s="66"/>
       <c r="C17" s="66"/>
@@ -7503,7 +7709,7 @@
       <c r="BM17" s="158"/>
       <c r="BN17" s="154"/>
     </row>
-    <row r="18" spans="1:66" s="141" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" customHeight="1" ht="12" customFormat="1" s="141">
       <c r="A18" s="150"/>
       <c r="B18" s="66"/>
       <c r="C18" s="66"/>
@@ -7571,7 +7777,7 @@
       <c r="BM18" s="158"/>
       <c r="BN18" s="154"/>
     </row>
-    <row r="19" spans="1:66" s="141" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" customHeight="1" ht="12" customFormat="1" s="141">
       <c r="A19" s="150"/>
       <c r="B19" s="66"/>
       <c r="C19" s="66"/>
@@ -7639,7 +7845,7 @@
       <c r="BM19" s="158"/>
       <c r="BN19" s="154"/>
     </row>
-    <row r="20" spans="1:66" s="141" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" customHeight="1" ht="12" customFormat="1" s="141">
       <c r="A20" s="150"/>
       <c r="B20" s="66"/>
       <c r="C20" s="66"/>
@@ -7707,7 +7913,7 @@
       <c r="BM20" s="158"/>
       <c r="BN20" s="154"/>
     </row>
-    <row r="21" spans="1:66" s="141" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" customHeight="1" ht="12" customFormat="1" s="141">
       <c r="A21" s="150"/>
       <c r="B21" s="66"/>
       <c r="C21" s="66"/>
@@ -7775,7 +7981,7 @@
       <c r="BM21" s="158"/>
       <c r="BN21" s="154"/>
     </row>
-    <row r="22" spans="1:66" s="141" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" customHeight="1" ht="12" customFormat="1" s="141">
       <c r="A22" s="150"/>
       <c r="B22" s="66"/>
       <c r="C22" s="66"/>
@@ -7843,7 +8049,7 @@
       <c r="BM22" s="158"/>
       <c r="BN22" s="154"/>
     </row>
-    <row r="23" spans="1:66" s="141" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" customHeight="1" ht="12" customFormat="1" s="141">
       <c r="A23" s="150"/>
       <c r="B23" s="66"/>
       <c r="C23" s="66"/>
@@ -7911,7 +8117,7 @@
       <c r="BM23" s="158"/>
       <c r="BN23" s="154"/>
     </row>
-    <row r="24" spans="1:66" s="141" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" customHeight="1" ht="12" customFormat="1" s="141">
       <c r="A24" s="150"/>
       <c r="B24" s="66"/>
       <c r="C24" s="66"/>
@@ -7979,7 +8185,7 @@
       <c r="BM24" s="158"/>
       <c r="BN24" s="154"/>
     </row>
-    <row r="25" spans="1:66" s="141" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" customHeight="1" ht="12" customFormat="1" s="141">
       <c r="A25" s="150"/>
       <c r="B25" s="66"/>
       <c r="C25" s="66"/>
@@ -8047,7 +8253,7 @@
       <c r="BM25" s="158"/>
       <c r="BN25" s="154"/>
     </row>
-    <row r="26" spans="1:66" s="141" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" customHeight="1" ht="12" customFormat="1" s="141">
       <c r="A26" s="150"/>
       <c r="B26" s="66"/>
       <c r="C26" s="66"/>
@@ -8115,7 +8321,7 @@
       <c r="BM26" s="221"/>
       <c r="BN26" s="154"/>
     </row>
-    <row r="27" spans="1:66" s="141" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" customHeight="1" ht="12" customFormat="1" s="141">
       <c r="A27" s="150"/>
       <c r="B27" s="66"/>
       <c r="C27" s="66"/>
@@ -8183,7 +8389,7 @@
       <c r="BM27" s="221"/>
       <c r="BN27" s="154"/>
     </row>
-    <row r="28" spans="1:66" s="141" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" customHeight="1" ht="12" customFormat="1" s="141">
       <c r="A28" s="150"/>
       <c r="B28" s="66"/>
       <c r="C28" s="66"/>
@@ -8251,7 +8457,7 @@
       <c r="BM28" s="221"/>
       <c r="BN28" s="154"/>
     </row>
-    <row r="29" spans="1:66" s="141" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" customHeight="1" ht="12" customFormat="1" s="141">
       <c r="A29" s="150"/>
       <c r="B29" s="66"/>
       <c r="C29" s="66"/>
@@ -8319,7 +8525,7 @@
       <c r="BM29" s="221"/>
       <c r="BN29" s="154"/>
     </row>
-    <row r="30" spans="1:66" s="141" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" customHeight="1" ht="12" customFormat="1" s="141">
       <c r="A30" s="150"/>
       <c r="B30" s="66"/>
       <c r="C30" s="66"/>
@@ -8387,7 +8593,7 @@
       <c r="BM30" s="221"/>
       <c r="BN30" s="154"/>
     </row>
-    <row r="31" spans="1:66" s="141" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" customHeight="1" ht="12" customFormat="1" s="141">
       <c r="A31" s="150"/>
       <c r="B31" s="66"/>
       <c r="C31" s="66"/>
@@ -8455,7 +8661,7 @@
       <c r="BM31" s="221"/>
       <c r="BN31" s="154"/>
     </row>
-    <row r="32" spans="1:66" s="141" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" customHeight="1" ht="12" customFormat="1" s="141">
       <c r="A32" s="150"/>
       <c r="B32" s="66"/>
       <c r="C32" s="66"/>
@@ -8523,7 +8729,7 @@
       <c r="BM32" s="221"/>
       <c r="BN32" s="154"/>
     </row>
-    <row r="33" spans="1:66" s="141" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" customHeight="1" ht="12" customFormat="1" s="141">
       <c r="A33" s="150"/>
       <c r="B33" s="66"/>
       <c r="C33" s="66"/>
@@ -8591,7 +8797,7 @@
       <c r="BM33" s="221"/>
       <c r="BN33" s="154"/>
     </row>
-    <row r="34" spans="1:66" s="141" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" customHeight="1" ht="12" customFormat="1" s="141">
       <c r="A34" s="150"/>
       <c r="B34" s="66"/>
       <c r="C34" s="66"/>
@@ -8659,7 +8865,7 @@
       <c r="BM34" s="221"/>
       <c r="BN34" s="154"/>
     </row>
-    <row r="35" spans="1:66" s="141" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" customHeight="1" ht="12" customFormat="1" s="141">
       <c r="A35" s="150"/>
       <c r="B35" s="66"/>
       <c r="C35" s="66"/>
@@ -8727,7 +8933,7 @@
       <c r="BM35" s="221"/>
       <c r="BN35" s="154"/>
     </row>
-    <row r="36" spans="1:66" s="141" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" customHeight="1" ht="12" customFormat="1" s="141">
       <c r="A36" s="150"/>
       <c r="B36" s="66"/>
       <c r="C36" s="66"/>
@@ -8795,7 +9001,7 @@
       <c r="BM36" s="221"/>
       <c r="BN36" s="154"/>
     </row>
-    <row r="37" spans="1:66" s="141" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" customHeight="1" ht="12" customFormat="1" s="141">
       <c r="A37" s="150"/>
       <c r="B37" s="66"/>
       <c r="C37" s="66"/>
@@ -8863,7 +9069,7 @@
       <c r="BM37" s="221"/>
       <c r="BN37" s="154"/>
     </row>
-    <row r="38" spans="1:66" s="141" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" customHeight="1" ht="12" customFormat="1" s="141">
       <c r="A38" s="150"/>
       <c r="B38" s="66"/>
       <c r="C38" s="66"/>
@@ -8931,7 +9137,7 @@
       <c r="BM38" s="221"/>
       <c r="BN38" s="154"/>
     </row>
-    <row r="39" spans="1:66" s="141" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" customHeight="1" ht="12" customFormat="1" s="141">
       <c r="A39" s="150"/>
       <c r="B39" s="66"/>
       <c r="C39" s="66"/>
@@ -8999,7 +9205,7 @@
       <c r="BM39" s="221"/>
       <c r="BN39" s="154"/>
     </row>
-    <row r="40" spans="1:66" s="141" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" customHeight="1" ht="12" customFormat="1" s="141">
       <c r="A40" s="150"/>
       <c r="B40" s="66"/>
       <c r="C40" s="66"/>
@@ -9067,7 +9273,7 @@
       <c r="BM40" s="221"/>
       <c r="BN40" s="154"/>
     </row>
-    <row r="41" spans="1:66" s="141" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" customHeight="1" ht="12" customFormat="1" s="141">
       <c r="A41" s="150"/>
       <c r="B41" s="66"/>
       <c r="C41" s="66"/>
@@ -9135,7 +9341,7 @@
       <c r="BM41" s="221"/>
       <c r="BN41" s="154"/>
     </row>
-    <row r="42" spans="1:66" s="141" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" customHeight="1" ht="12" customFormat="1" s="141">
       <c r="A42" s="150"/>
       <c r="B42" s="66"/>
       <c r="C42" s="66"/>
@@ -9203,7 +9409,7 @@
       <c r="BM42" s="221"/>
       <c r="BN42" s="154"/>
     </row>
-    <row r="43" spans="1:66" s="141" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" customHeight="1" ht="12" customFormat="1" s="141">
       <c r="A43" s="151"/>
       <c r="B43" s="152"/>
       <c r="C43" s="152"/>
@@ -9271,7 +9477,7 @@
       <c r="BM43" s="223"/>
       <c r="BN43" s="161"/>
     </row>
-    <row r="44" spans="1:66" s="141" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" customHeight="1" ht="12" customFormat="1" s="141">
       <c r="A44" s="150"/>
       <c r="B44" s="66"/>
       <c r="C44" s="66"/>
@@ -9341,27 +9547,11 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="BE43:BM43"/>
-    <mergeCell ref="BE38:BM38"/>
-    <mergeCell ref="BE39:BM39"/>
-    <mergeCell ref="BE40:BM40"/>
-    <mergeCell ref="BE41:BM41"/>
-    <mergeCell ref="BE42:BM42"/>
-    <mergeCell ref="BE33:BM33"/>
-    <mergeCell ref="BE34:BM34"/>
-    <mergeCell ref="BE35:BM35"/>
-    <mergeCell ref="BE36:BM36"/>
-    <mergeCell ref="BE37:BM37"/>
-    <mergeCell ref="BE28:BM28"/>
-    <mergeCell ref="BE29:BM29"/>
-    <mergeCell ref="BE30:BM30"/>
-    <mergeCell ref="BE31:BM31"/>
-    <mergeCell ref="BE32:BM32"/>
-    <mergeCell ref="AW6:BM7"/>
-    <mergeCell ref="BE8:BM8"/>
-    <mergeCell ref="BE9:BM9"/>
-    <mergeCell ref="BE26:BM26"/>
-    <mergeCell ref="BE27:BM27"/>
+    <mergeCell ref="A2:Z3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:N4"/>
+    <mergeCell ref="O4:T4"/>
+    <mergeCell ref="U4:AV4"/>
     <mergeCell ref="AW4:AY4"/>
     <mergeCell ref="AZ4:BE4"/>
     <mergeCell ref="BF4:BH4"/>
@@ -9374,11 +9564,27 @@
     <mergeCell ref="AZ5:BE5"/>
     <mergeCell ref="BF5:BH5"/>
     <mergeCell ref="BI5:BN5"/>
-    <mergeCell ref="A2:Z3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:N4"/>
-    <mergeCell ref="O4:T4"/>
-    <mergeCell ref="U4:AV4"/>
+    <mergeCell ref="AW6:BM7"/>
+    <mergeCell ref="BE8:BM8"/>
+    <mergeCell ref="BE9:BM9"/>
+    <mergeCell ref="BE26:BM26"/>
+    <mergeCell ref="BE27:BM27"/>
+    <mergeCell ref="BE28:BM28"/>
+    <mergeCell ref="BE29:BM29"/>
+    <mergeCell ref="BE30:BM30"/>
+    <mergeCell ref="BE31:BM31"/>
+    <mergeCell ref="BE32:BM32"/>
+    <mergeCell ref="BE33:BM33"/>
+    <mergeCell ref="BE34:BM34"/>
+    <mergeCell ref="BE35:BM35"/>
+    <mergeCell ref="BE36:BM36"/>
+    <mergeCell ref="BE37:BM37"/>
+    <mergeCell ref="BE38:BM38"/>
+    <mergeCell ref="BE39:BM39"/>
+    <mergeCell ref="BE40:BM40"/>
+    <mergeCell ref="BE41:BM41"/>
+    <mergeCell ref="BE42:BM42"/>
+    <mergeCell ref="BE43:BM43"/>
   </mergeCells>
   <phoneticPr fontId="52"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9394,7 +9600,7 @@
       <selection activeCell="AJ22" sqref="AJ22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="11.25" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="42" width="2.125" style="24"/>
     <col min="43" max="43" width="2.625" style="24" bestFit="1" customWidth="1"/>
@@ -9593,7 +9799,7 @@
     <col min="16195" max="16384" width="2.125" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" customHeight="1" ht="12">
       <c r="A1" s="20"/>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -9661,7 +9867,7 @@
       <c r="BM1" s="21"/>
       <c r="BN1" s="23"/>
     </row>
-    <row r="2" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" customHeight="1" ht="12">
       <c r="A2" s="224" t="s">
         <v>8</v>
       </c>
@@ -9715,7 +9921,7 @@
       <c r="BM2" s="26"/>
       <c r="BN2" s="27"/>
     </row>
-    <row r="3" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" customHeight="1" ht="12">
       <c r="A3" s="224"/>
       <c r="B3" s="225"/>
       <c r="C3" s="225"/>
@@ -9767,7 +9973,7 @@
       <c r="BM3" s="25"/>
       <c r="BN3" s="28"/>
     </row>
-    <row r="4" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" customHeight="1" ht="12">
       <c r="A4" s="226" t="s">
         <v>9</v>
       </c>
@@ -9851,7 +10057,7 @@
       <c r="BM4" s="242"/>
       <c r="BN4" s="243"/>
     </row>
-    <row r="5" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" customHeight="1" ht="12">
       <c r="A5" s="244" t="s">
         <v>13</v>
       </c>
@@ -9929,7 +10135,7 @@
       <c r="BM5" s="250"/>
       <c r="BN5" s="251"/>
     </row>
-    <row r="6" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" customHeight="1" ht="12">
       <c r="A6" s="49"/>
       <c r="B6" s="50"/>
       <c r="C6" s="50"/>
@@ -10003,7 +10209,7 @@
       <c r="BM6" s="256"/>
       <c r="BN6" s="51"/>
     </row>
-    <row r="7" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" customHeight="1" ht="12">
       <c r="A7" s="49"/>
       <c r="B7" s="68" t="s">
         <v>66</v>
@@ -10079,7 +10285,7 @@
       <c r="BM7" s="263"/>
       <c r="BN7" s="51"/>
     </row>
-    <row r="8" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" customHeight="1" ht="12">
       <c r="A8" s="49"/>
       <c r="B8" s="50"/>
       <c r="C8" s="50"/>
@@ -10153,7 +10359,7 @@
       <c r="BM8" s="266"/>
       <c r="BN8" s="51"/>
     </row>
-    <row r="9" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" customHeight="1" ht="12">
       <c r="A9" s="49"/>
       <c r="B9" s="50"/>
       <c r="C9" s="50"/>
@@ -10227,7 +10433,7 @@
       <c r="BM9" s="266"/>
       <c r="BN9" s="51"/>
     </row>
-    <row r="10" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" customHeight="1" ht="12">
       <c r="A10" s="49"/>
       <c r="B10" s="50"/>
       <c r="C10" s="50"/>
@@ -10301,7 +10507,7 @@
       <c r="BM10" s="266"/>
       <c r="BN10" s="51"/>
     </row>
-    <row r="11" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" customHeight="1" ht="12">
       <c r="A11" s="49"/>
       <c r="B11" s="50"/>
       <c r="C11" s="50"/>
@@ -10375,7 +10581,7 @@
       <c r="BM11" s="266"/>
       <c r="BN11" s="51"/>
     </row>
-    <row r="12" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" customHeight="1" ht="12">
       <c r="A12" s="49"/>
       <c r="B12" s="50"/>
       <c r="C12" s="50"/>
@@ -10449,7 +10655,7 @@
       <c r="BM12" s="266"/>
       <c r="BN12" s="51"/>
     </row>
-    <row r="13" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" customHeight="1" ht="12">
       <c r="A13" s="49"/>
       <c r="B13" s="50"/>
       <c r="C13" s="50"/>
@@ -10523,7 +10729,7 @@
       <c r="BM13" s="269"/>
       <c r="BN13" s="51"/>
     </row>
-    <row r="14" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" customHeight="1" ht="12">
       <c r="A14" s="49"/>
       <c r="B14" s="50"/>
       <c r="C14" s="50"/>
@@ -10597,7 +10803,7 @@
       <c r="BM14" s="266"/>
       <c r="BN14" s="51"/>
     </row>
-    <row r="15" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" customHeight="1" ht="12">
       <c r="A15" s="49"/>
       <c r="B15" s="50"/>
       <c r="C15" s="50"/>
@@ -10671,7 +10877,7 @@
       <c r="BM15" s="275"/>
       <c r="BN15" s="51"/>
     </row>
-    <row r="16" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" customHeight="1" ht="12">
       <c r="A16" s="49"/>
       <c r="B16" s="50"/>
       <c r="C16" s="50"/>
@@ -10745,7 +10951,7 @@
       <c r="BM16" s="278"/>
       <c r="BN16" s="51"/>
     </row>
-    <row r="17" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" customHeight="1" ht="12">
       <c r="A17" s="49"/>
       <c r="B17" s="50"/>
       <c r="C17" s="50"/>
@@ -10819,7 +11025,7 @@
       <c r="BM17" s="266"/>
       <c r="BN17" s="51"/>
     </row>
-    <row r="18" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" customHeight="1" ht="12">
       <c r="A18" s="49"/>
       <c r="B18" s="50"/>
       <c r="C18" s="50"/>
@@ -10893,7 +11099,7 @@
       <c r="BM18" s="269"/>
       <c r="BN18" s="51"/>
     </row>
-    <row r="19" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" customHeight="1" ht="12">
       <c r="A19" s="49"/>
       <c r="B19" s="69"/>
       <c r="C19" s="50"/>
@@ -10967,7 +11173,7 @@
       <c r="BM19" s="278"/>
       <c r="BN19" s="51"/>
     </row>
-    <row r="20" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" customHeight="1" ht="12">
       <c r="A20" s="49"/>
       <c r="B20" s="50"/>
       <c r="C20" s="50"/>
@@ -11035,7 +11241,7 @@
       <c r="BM20" s="283"/>
       <c r="BN20" s="51"/>
     </row>
-    <row r="21" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" customHeight="1" ht="12">
       <c r="A21" s="49"/>
       <c r="B21" s="50"/>
       <c r="C21" s="50"/>
@@ -11103,7 +11309,7 @@
       <c r="BM21" s="286"/>
       <c r="BN21" s="51"/>
     </row>
-    <row r="22" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" customHeight="1" ht="12">
       <c r="A22" s="49"/>
       <c r="B22" s="50"/>
       <c r="C22" s="50"/>
@@ -11171,7 +11377,7 @@
       <c r="BM22" s="283"/>
       <c r="BN22" s="51"/>
     </row>
-    <row r="23" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" customHeight="1" ht="12">
       <c r="A23" s="49"/>
       <c r="B23" s="50"/>
       <c r="C23" s="50"/>
@@ -11239,7 +11445,7 @@
       <c r="BM23" s="286"/>
       <c r="BN23" s="51"/>
     </row>
-    <row r="24" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" customHeight="1" ht="12">
       <c r="A24" s="49"/>
       <c r="B24" s="50"/>
       <c r="C24" s="50"/>
@@ -11307,7 +11513,7 @@
       <c r="BM24" s="283"/>
       <c r="BN24" s="51"/>
     </row>
-    <row r="25" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" customHeight="1" ht="12">
       <c r="A25" s="49"/>
       <c r="B25" s="50"/>
       <c r="C25" s="50"/>
@@ -11375,7 +11581,7 @@
       <c r="BM25" s="286"/>
       <c r="BN25" s="51"/>
     </row>
-    <row r="26" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" customHeight="1" ht="12">
       <c r="A26" s="49"/>
       <c r="B26" s="50"/>
       <c r="C26" s="50"/>
@@ -11443,7 +11649,7 @@
       <c r="BM26" s="283"/>
       <c r="BN26" s="51"/>
     </row>
-    <row r="27" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" customHeight="1" ht="12">
       <c r="A27" s="49"/>
       <c r="B27" s="50"/>
       <c r="C27" s="50"/>
@@ -11511,7 +11717,7 @@
       <c r="BM27" s="65"/>
       <c r="BN27" s="51"/>
     </row>
-    <row r="28" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" customHeight="1" ht="12">
       <c r="A28" s="49"/>
       <c r="B28" s="50"/>
       <c r="C28" s="50"/>
@@ -11579,7 +11785,7 @@
       <c r="BM28" s="65"/>
       <c r="BN28" s="51"/>
     </row>
-    <row r="29" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" customHeight="1" ht="12">
       <c r="A29" s="49"/>
       <c r="B29" s="50"/>
       <c r="C29" s="50"/>
@@ -11647,7 +11853,7 @@
       <c r="BM29" s="65"/>
       <c r="BN29" s="51"/>
     </row>
-    <row r="30" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" customHeight="1" ht="12">
       <c r="A30" s="49"/>
       <c r="B30" s="50"/>
       <c r="C30" s="50"/>
@@ -11715,7 +11921,7 @@
       <c r="BM30" s="65"/>
       <c r="BN30" s="51"/>
     </row>
-    <row r="31" spans="1:66" x14ac:dyDescent="0.15">
+    <row r="31">
       <c r="A31" s="49"/>
       <c r="B31" s="50"/>
       <c r="C31" s="50"/>
@@ -11783,7 +11989,7 @@
       <c r="BM31" s="65"/>
       <c r="BN31" s="51"/>
     </row>
-    <row r="32" spans="1:66" x14ac:dyDescent="0.15">
+    <row r="32">
       <c r="A32" s="49"/>
       <c r="B32" s="50"/>
       <c r="C32" s="50"/>
@@ -11851,7 +12057,7 @@
       <c r="BM32" s="65"/>
       <c r="BN32" s="51"/>
     </row>
-    <row r="33" spans="1:834 1089:1858 2113:2882 3137:3906 4161:4930 5185:5954 6209:6978 7233:8002 8257:9026 9281:10050 10305:11074 11329:12098 12353:13122 13377:14146 14401:15170 15425:16194" x14ac:dyDescent="0.15">
+    <row r="33">
       <c r="A33" s="49"/>
       <c r="B33" s="50"/>
       <c r="C33" s="50"/>
@@ -11919,7 +12125,7 @@
       <c r="BM33" s="65"/>
       <c r="BN33" s="51"/>
     </row>
-    <row r="34" spans="1:834 1089:1858 2113:2882 3137:3906 4161:4930 5185:5954 6209:6978 7233:8002 8257:9026 9281:10050 10305:11074 11329:12098 12353:13122 13377:14146 14401:15170 15425:16194" x14ac:dyDescent="0.15">
+    <row r="34">
       <c r="A34" s="49"/>
       <c r="B34" s="50"/>
       <c r="C34" s="50"/>
@@ -11987,7 +12193,7 @@
       <c r="BM34" s="65"/>
       <c r="BN34" s="51"/>
     </row>
-    <row r="35" spans="1:834 1089:1858 2113:2882 3137:3906 4161:4930 5185:5954 6209:6978 7233:8002 8257:9026 9281:10050 10305:11074 11329:12098 12353:13122 13377:14146 14401:15170 15425:16194" x14ac:dyDescent="0.15">
+    <row r="35">
       <c r="A35" s="49"/>
       <c r="B35" s="50"/>
       <c r="C35" s="50"/>
@@ -12055,7 +12261,7 @@
       <c r="BM35" s="93"/>
       <c r="BN35" s="51"/>
     </row>
-    <row r="36" spans="1:834 1089:1858 2113:2882 3137:3906 4161:4930 5185:5954 6209:6978 7233:8002 8257:9026 9281:10050 10305:11074 11329:12098 12353:13122 13377:14146 14401:15170 15425:16194" x14ac:dyDescent="0.15">
+    <row r="36">
       <c r="A36" s="49"/>
       <c r="B36" s="50"/>
       <c r="C36" s="50"/>
@@ -12123,7 +12329,7 @@
       <c r="BM36" s="93"/>
       <c r="BN36" s="51"/>
     </row>
-    <row r="37" spans="1:834 1089:1858 2113:2882 3137:3906 4161:4930 5185:5954 6209:6978 7233:8002 8257:9026 9281:10050 10305:11074 11329:12098 12353:13122 13377:14146 14401:15170 15425:16194" x14ac:dyDescent="0.15">
+    <row r="37">
       <c r="A37" s="90"/>
       <c r="B37" s="91"/>
       <c r="C37" s="91"/>
@@ -12191,7 +12397,7 @@
       <c r="BM37" s="93"/>
       <c r="BN37" s="51"/>
     </row>
-    <row r="38" spans="1:834 1089:1858 2113:2882 3137:3906 4161:4930 5185:5954 6209:6978 7233:8002 8257:9026 9281:10050 10305:11074 11329:12098 12353:13122 13377:14146 14401:15170 15425:16194" x14ac:dyDescent="0.15">
+    <row r="38">
       <c r="A38" s="90"/>
       <c r="B38" s="91"/>
       <c r="C38" s="91"/>
@@ -12259,7 +12465,7 @@
       <c r="BM38" s="94"/>
       <c r="BN38" s="51"/>
     </row>
-    <row r="39" spans="1:834 1089:1858 2113:2882 3137:3906 4161:4930 5185:5954 6209:6978 7233:8002 8257:9026 9281:10050 10305:11074 11329:12098 12353:13122 13377:14146 14401:15170 15425:16194" s="80" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="39" customFormat="1" s="80">
       <c r="A39" s="85"/>
       <c r="B39" s="86"/>
       <c r="C39" s="86"/>
@@ -12329,7 +12535,7 @@
       <c r="LI39" s="83"/>
       <c r="LJ39" s="83"/>
     </row>
-    <row r="40" spans="1:834 1089:1858 2113:2882 3137:3906 4161:4930 5185:5954 6209:6978 7233:8002 8257:9026 9281:10050 10305:11074 11329:12098 12353:13122 13377:14146 14401:15170 15425:16194" s="82" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" customHeight="1" ht="12" customFormat="1" s="82">
       <c r="A40" s="85"/>
       <c r="B40" s="86"/>
       <c r="C40" s="86"/>
@@ -12523,7 +12729,7 @@
       <c r="WXU40" s="83"/>
       <c r="WXV40" s="83"/>
     </row>
-    <row r="41" spans="1:834 1089:1858 2113:2882 3137:3906 4161:4930 5185:5954 6209:6978 7233:8002 8257:9026 9281:10050 10305:11074 11329:12098 12353:13122 13377:14146 14401:15170 15425:16194" x14ac:dyDescent="0.15">
+    <row r="41">
       <c r="A41" s="85"/>
       <c r="B41" s="86"/>
       <c r="C41" s="86"/>
@@ -13016,7 +13222,7 @@
       <c r="RV41" s="80"/>
       <c r="RW41" s="80"/>
     </row>
-    <row r="42" spans="1:834 1089:1858 2113:2882 3137:3906 4161:4930 5185:5954 6209:6978 7233:8002 8257:9026 9281:10050 10305:11074 11329:12098 12353:13122 13377:14146 14401:15170 15425:16194" s="88" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="42" customFormat="1" s="88">
       <c r="A42" s="99"/>
       <c r="B42" s="96"/>
       <c r="C42" s="96"/>
@@ -13509,7 +13715,7 @@
       <c r="RV42" s="78"/>
       <c r="RW42" s="78"/>
     </row>
-    <row r="43" spans="1:834 1089:1858 2113:2882 3137:3906 4161:4930 5185:5954 6209:6978 7233:8002 8257:9026 9281:10050 10305:11074 11329:12098 12353:13122 13377:14146 14401:15170 15425:16194" x14ac:dyDescent="0.15">
+    <row r="43">
       <c r="A43" s="85"/>
       <c r="B43" s="86"/>
       <c r="C43" s="86"/>
@@ -14002,7 +14208,7 @@
       <c r="RV43" s="80"/>
       <c r="RW43" s="80"/>
     </row>
-    <row r="44" spans="1:834 1089:1858 2113:2882 3137:3906 4161:4930 5185:5954 6209:6978 7233:8002 8257:9026 9281:10050 10305:11074 11329:12098 12353:13122 13377:14146 14401:15170 15425:16194" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" customHeight="1" ht="9">
       <c r="A44" s="85"/>
       <c r="B44" s="86"/>
       <c r="C44" s="86"/>
@@ -14495,7 +14701,7 @@
       <c r="RV44" s="80"/>
       <c r="RW44" s="80"/>
     </row>
-    <row r="45" spans="1:834 1089:1858 2113:2882 3137:3906 4161:4930 5185:5954 6209:6978 7233:8002 8257:9026 9281:10050 10305:11074 11329:12098 12353:13122 13377:14146 14401:15170 15425:16194" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" customHeight="1" ht="12">
       <c r="A45" s="81"/>
       <c r="B45" s="79"/>
       <c r="C45" s="79"/>
@@ -14988,7 +15194,7 @@
       <c r="RV45" s="80"/>
       <c r="RW45" s="80"/>
     </row>
-    <row r="46" spans="1:834 1089:1858 2113:2882 3137:3906 4161:4930 5185:5954 6209:6978 7233:8002 8257:9026 9281:10050 10305:11074 11329:12098 12353:13122 13377:14146 14401:15170 15425:16194" x14ac:dyDescent="0.15">
+    <row r="46">
       <c r="A46" s="83"/>
       <c r="B46" s="83"/>
       <c r="C46" s="83"/>
@@ -15481,7 +15687,7 @@
       <c r="RV46" s="80"/>
       <c r="RW46" s="80"/>
     </row>
-    <row r="47" spans="1:834 1089:1858 2113:2882 3137:3906 4161:4930 5185:5954 6209:6978 7233:8002 8257:9026 9281:10050 10305:11074 11329:12098 12353:13122 13377:14146 14401:15170 15425:16194" x14ac:dyDescent="0.15">
+    <row r="47">
       <c r="A47" s="83"/>
       <c r="B47" s="83"/>
       <c r="C47" s="83"/>
@@ -15974,7 +16180,7 @@
       <c r="RV47" s="80"/>
       <c r="RW47" s="80"/>
     </row>
-    <row r="48" spans="1:834 1089:1858 2113:2882 3137:3906 4161:4930 5185:5954 6209:6978 7233:8002 8257:9026 9281:10050 10305:11074 11329:12098 12353:13122 13377:14146 14401:15170 15425:16194" x14ac:dyDescent="0.15">
+    <row r="48">
       <c r="A48" s="80"/>
       <c r="B48" s="80"/>
       <c r="C48" s="80"/>
@@ -16467,7 +16673,7 @@
       <c r="RV48" s="80"/>
       <c r="RW48" s="80"/>
     </row>
-    <row r="49" spans="1:68" x14ac:dyDescent="0.15">
+    <row r="49">
       <c r="A49" s="78"/>
       <c r="B49" s="78"/>
       <c r="C49" s="78"/>
@@ -16537,7 +16743,7 @@
       <c r="BO49" s="83"/>
       <c r="BP49" s="83"/>
     </row>
-    <row r="50" spans="1:68" x14ac:dyDescent="0.15">
+    <row r="50">
       <c r="A50" s="80"/>
       <c r="B50" s="80"/>
       <c r="C50" s="80"/>
@@ -16607,7 +16813,7 @@
       <c r="BO50" s="80"/>
       <c r="BP50" s="80"/>
     </row>
-    <row r="51" spans="1:68" x14ac:dyDescent="0.15">
+    <row r="51">
       <c r="A51" s="80"/>
       <c r="B51" s="80"/>
       <c r="C51" s="80"/>
@@ -16655,55 +16861,11 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="BE25:BM25"/>
-    <mergeCell ref="BE26:BM26"/>
-    <mergeCell ref="BE40:BM40"/>
-    <mergeCell ref="BE20:BM20"/>
-    <mergeCell ref="BE21:BM21"/>
-    <mergeCell ref="BE22:BM22"/>
-    <mergeCell ref="BE23:BM23"/>
-    <mergeCell ref="BE24:BM24"/>
-    <mergeCell ref="AS18:BD18"/>
-    <mergeCell ref="BE18:BM18"/>
-    <mergeCell ref="AP19:AR19"/>
-    <mergeCell ref="AS19:BD19"/>
-    <mergeCell ref="BE19:BM19"/>
-    <mergeCell ref="AP16:AR16"/>
-    <mergeCell ref="AS16:BD16"/>
-    <mergeCell ref="BE16:BM16"/>
-    <mergeCell ref="AP17:AR17"/>
-    <mergeCell ref="AS17:BD17"/>
-    <mergeCell ref="BE17:BM17"/>
-    <mergeCell ref="AP14:AR14"/>
-    <mergeCell ref="AS14:BD14"/>
-    <mergeCell ref="BE14:BM14"/>
-    <mergeCell ref="AP15:AR15"/>
-    <mergeCell ref="AS15:BD15"/>
-    <mergeCell ref="BE15:BM15"/>
-    <mergeCell ref="AP12:AR12"/>
-    <mergeCell ref="AS12:BD12"/>
-    <mergeCell ref="BE12:BM12"/>
-    <mergeCell ref="AP13:AR13"/>
-    <mergeCell ref="AS13:BD13"/>
-    <mergeCell ref="BE13:BM13"/>
-    <mergeCell ref="AP10:AR10"/>
-    <mergeCell ref="AS10:BD10"/>
-    <mergeCell ref="BE10:BM10"/>
-    <mergeCell ref="AP11:AR11"/>
-    <mergeCell ref="AS11:BD11"/>
-    <mergeCell ref="BE11:BM11"/>
-    <mergeCell ref="AP8:AR8"/>
-    <mergeCell ref="AS8:BD8"/>
-    <mergeCell ref="BE8:BM8"/>
-    <mergeCell ref="AP9:AR9"/>
-    <mergeCell ref="AS9:BD9"/>
-    <mergeCell ref="BE9:BM9"/>
-    <mergeCell ref="AP6:AR6"/>
-    <mergeCell ref="AS6:BD6"/>
-    <mergeCell ref="BE6:BM6"/>
-    <mergeCell ref="AP7:AR7"/>
-    <mergeCell ref="AS7:BD7"/>
-    <mergeCell ref="BE7:BM7"/>
+    <mergeCell ref="A2:Z3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:N4"/>
+    <mergeCell ref="O4:T4"/>
+    <mergeCell ref="U4:AV4"/>
     <mergeCell ref="AW4:AY4"/>
     <mergeCell ref="AZ4:BE4"/>
     <mergeCell ref="BF4:BH4"/>
@@ -16716,11 +16878,55 @@
     <mergeCell ref="AZ5:BE5"/>
     <mergeCell ref="BF5:BH5"/>
     <mergeCell ref="BI5:BN5"/>
-    <mergeCell ref="A2:Z3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:N4"/>
-    <mergeCell ref="O4:T4"/>
-    <mergeCell ref="U4:AV4"/>
+    <mergeCell ref="AP6:AR6"/>
+    <mergeCell ref="AS6:BD6"/>
+    <mergeCell ref="BE6:BM6"/>
+    <mergeCell ref="AP7:AR7"/>
+    <mergeCell ref="AS7:BD7"/>
+    <mergeCell ref="BE7:BM7"/>
+    <mergeCell ref="AP8:AR8"/>
+    <mergeCell ref="AS8:BD8"/>
+    <mergeCell ref="BE8:BM8"/>
+    <mergeCell ref="AP9:AR9"/>
+    <mergeCell ref="AS9:BD9"/>
+    <mergeCell ref="BE9:BM9"/>
+    <mergeCell ref="AP10:AR10"/>
+    <mergeCell ref="AS10:BD10"/>
+    <mergeCell ref="BE10:BM10"/>
+    <mergeCell ref="AP11:AR11"/>
+    <mergeCell ref="AS11:BD11"/>
+    <mergeCell ref="BE11:BM11"/>
+    <mergeCell ref="AP12:AR12"/>
+    <mergeCell ref="AS12:BD12"/>
+    <mergeCell ref="BE12:BM12"/>
+    <mergeCell ref="AP13:AR13"/>
+    <mergeCell ref="AS13:BD13"/>
+    <mergeCell ref="BE13:BM13"/>
+    <mergeCell ref="AP14:AR14"/>
+    <mergeCell ref="AS14:BD14"/>
+    <mergeCell ref="BE14:BM14"/>
+    <mergeCell ref="AP15:AR15"/>
+    <mergeCell ref="AS15:BD15"/>
+    <mergeCell ref="BE15:BM15"/>
+    <mergeCell ref="AP16:AR16"/>
+    <mergeCell ref="AS16:BD16"/>
+    <mergeCell ref="BE16:BM16"/>
+    <mergeCell ref="AP17:AR17"/>
+    <mergeCell ref="AS17:BD17"/>
+    <mergeCell ref="BE17:BM17"/>
+    <mergeCell ref="AS18:BD18"/>
+    <mergeCell ref="BE18:BM18"/>
+    <mergeCell ref="AP19:AR19"/>
+    <mergeCell ref="AS19:BD19"/>
+    <mergeCell ref="BE19:BM19"/>
+    <mergeCell ref="BE20:BM20"/>
+    <mergeCell ref="BE21:BM21"/>
+    <mergeCell ref="BE22:BM22"/>
+    <mergeCell ref="BE23:BM23"/>
+    <mergeCell ref="BE24:BM24"/>
+    <mergeCell ref="BE25:BM25"/>
+    <mergeCell ref="BE26:BM26"/>
+    <mergeCell ref="BE40:BM40"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16732,13 +16938,75 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F81D7B7-FE65-404E-8F94-1E0DE511BF03}">
   <dimension ref="A1:BK32"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView showGridLines="false" topLeftCell="A1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="U25" sqref="U25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="11.25" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="63" width="1.875" style="24" customWidth="1"/>
+    <col min="1" max="1" width="1.875" style="24" customWidth="1"/>
+    <col min="2" max="2" width="1.875" style="24" customWidth="1"/>
+    <col min="3" max="3" width="1.875" style="24" customWidth="1"/>
+    <col min="4" max="4" width="1.875" style="24" customWidth="1"/>
+    <col min="5" max="5" width="1.875" style="24" customWidth="1"/>
+    <col min="6" max="6" width="1.875" style="24" customWidth="1"/>
+    <col min="7" max="7" width="1.875" style="24" customWidth="1"/>
+    <col min="8" max="8" width="1.875" style="24" customWidth="1"/>
+    <col min="9" max="9" width="1.875" style="24" customWidth="1"/>
+    <col min="10" max="10" width="1.875" style="24" customWidth="1"/>
+    <col min="11" max="11" width="1.875" style="24" customWidth="1"/>
+    <col min="12" max="12" width="1.875" style="24" customWidth="1"/>
+    <col min="13" max="13" width="1.875" style="24" customWidth="1"/>
+    <col min="14" max="14" width="1.875" style="24" customWidth="1"/>
+    <col min="15" max="15" width="1.875" style="24" customWidth="1"/>
+    <col min="16" max="16" width="1.875" style="24" customWidth="1"/>
+    <col min="17" max="17" width="1.875" style="24" customWidth="1"/>
+    <col min="18" max="18" width="1.875" style="24" customWidth="1"/>
+    <col min="19" max="19" width="1.875" style="24" customWidth="1"/>
+    <col min="20" max="20" width="1.875" style="24" customWidth="1"/>
+    <col min="21" max="21" width="1.875" style="24" customWidth="1"/>
+    <col min="22" max="22" width="1.875" style="24" customWidth="1"/>
+    <col min="23" max="23" width="1.875" style="24" customWidth="1"/>
+    <col min="24" max="24" width="1.875" style="24" customWidth="1"/>
+    <col min="25" max="25" width="1.875" style="24" customWidth="1"/>
+    <col min="26" max="26" width="1.875" style="24" customWidth="1"/>
+    <col min="27" max="27" width="1.875" style="24" customWidth="1"/>
+    <col min="28" max="28" width="1.875" style="24" customWidth="1"/>
+    <col min="29" max="29" width="1.875" style="24" customWidth="1"/>
+    <col min="30" max="30" width="1.875" style="24" customWidth="1"/>
+    <col min="31" max="31" width="1.875" style="24" customWidth="1"/>
+    <col min="32" max="32" width="1.875" style="24" customWidth="1"/>
+    <col min="33" max="33" width="1.875" style="24" customWidth="1"/>
+    <col min="34" max="34" width="1.875" style="24" customWidth="1"/>
+    <col min="35" max="35" width="1.875" style="24" customWidth="1"/>
+    <col min="36" max="36" width="1.875" style="24" customWidth="1"/>
+    <col min="37" max="37" width="1.875" style="24" customWidth="1"/>
+    <col min="38" max="38" width="1.875" style="24" customWidth="1"/>
+    <col min="39" max="39" width="1.875" style="24" customWidth="1"/>
+    <col min="40" max="40" width="1.875" style="24" customWidth="1"/>
+    <col min="41" max="41" width="1.875" style="24" customWidth="1"/>
+    <col min="42" max="42" width="1.875" style="24" customWidth="1"/>
+    <col min="43" max="43" width="1.875" style="24" customWidth="1"/>
+    <col min="44" max="44" width="1.875" style="24" customWidth="1"/>
+    <col min="45" max="45" width="1.875" style="24" customWidth="1"/>
+    <col min="46" max="46" width="1.875" style="24" customWidth="1"/>
+    <col min="47" max="47" width="1.875" style="24" customWidth="1"/>
+    <col min="48" max="48" width="1.875" style="24" customWidth="1"/>
+    <col min="49" max="49" width="1.875" style="24" customWidth="1"/>
+    <col min="50" max="50" width="1.875" style="24" customWidth="1"/>
+    <col min="51" max="51" width="1.875" style="24" customWidth="1"/>
+    <col min="52" max="52" width="1.875" style="24" customWidth="1"/>
+    <col min="53" max="53" width="1.875" style="24" customWidth="1"/>
+    <col min="54" max="54" width="1.875" style="24" customWidth="1"/>
+    <col min="55" max="55" width="1.875" style="24" customWidth="1"/>
+    <col min="56" max="56" width="1.875" style="24" customWidth="1"/>
+    <col min="57" max="57" width="1.875" style="24" customWidth="1"/>
+    <col min="58" max="58" width="1.875" style="24" customWidth="1"/>
+    <col min="59" max="59" width="1.875" style="24" customWidth="1"/>
+    <col min="60" max="60" width="1.875" style="24" customWidth="1"/>
+    <col min="61" max="61" width="1.875" style="24" customWidth="1"/>
+    <col min="62" max="62" width="1.875" style="24" customWidth="1"/>
+    <col min="63" max="63" width="1.875" style="24" customWidth="1"/>
     <col min="64" max="254" width="2.125" style="24"/>
     <col min="255" max="255" width="0.75" style="24" customWidth="1"/>
     <col min="256" max="287" width="2.125" style="24"/>
@@ -16994,7 +17262,7 @@
     <col min="16161" max="16384" width="2.125" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" customHeight="1" ht="12">
       <c r="A1" s="20"/>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -17059,7 +17327,7 @@
       <c r="BJ1" s="21"/>
       <c r="BK1" s="29"/>
     </row>
-    <row r="2" spans="1:63" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" customHeight="1" ht="12">
       <c r="A2" s="224" t="s">
         <v>34</v>
       </c>
@@ -17110,7 +17378,7 @@
       <c r="BJ2" s="26"/>
       <c r="BK2" s="29"/>
     </row>
-    <row r="3" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" customHeight="1" ht="15">
       <c r="A3" s="224"/>
       <c r="B3" s="225"/>
       <c r="C3" s="225"/>
@@ -17159,7 +17427,7 @@
       <c r="BJ3" s="25"/>
       <c r="BK3" s="30"/>
     </row>
-    <row r="4" spans="1:63" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" customHeight="1" ht="12">
       <c r="A4" s="290" t="s">
         <v>9</v>
       </c>
@@ -17240,7 +17508,7 @@
       <c r="BJ4" s="306"/>
       <c r="BK4" s="31"/>
     </row>
-    <row r="5" spans="1:63" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" customHeight="1" ht="12">
       <c r="A5" s="307" t="s">
         <v>13</v>
       </c>
@@ -17315,7 +17583,7 @@
       <c r="BJ5" s="313"/>
       <c r="BK5" s="32"/>
     </row>
-    <row r="6" spans="1:63" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" customHeight="1" ht="12">
       <c r="A6" s="33"/>
       <c r="B6" s="34"/>
       <c r="C6" s="34"/>
@@ -17380,7 +17648,7 @@
       <c r="BJ6" s="319"/>
       <c r="BK6" s="29"/>
     </row>
-    <row r="7" spans="1:63" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" customHeight="1" ht="12">
       <c r="A7" s="35"/>
       <c r="B7" s="320" t="s">
         <v>36</v>
@@ -17447,7 +17715,7 @@
       <c r="BJ7" s="322"/>
       <c r="BK7" s="29"/>
     </row>
-    <row r="8" spans="1:63" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" customHeight="1" ht="12">
       <c r="A8" s="35"/>
       <c r="B8" s="323" t="s">
         <v>122</v>
@@ -17514,7 +17782,7 @@
       <c r="BJ8" s="325"/>
       <c r="BK8" s="29"/>
     </row>
-    <row r="9" spans="1:63" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" customHeight="1" ht="12">
       <c r="A9" s="35"/>
       <c r="B9" s="474"/>
       <c r="C9" s="477" t="s">
@@ -17581,7 +17849,7 @@
       <c r="BJ9" s="476"/>
       <c r="BK9" s="29"/>
     </row>
-    <row r="10" spans="1:63" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" customHeight="1" ht="12">
       <c r="A10" s="470"/>
       <c r="B10" s="471"/>
       <c r="C10" s="39"/>
@@ -17648,7 +17916,7 @@
       <c r="BJ10" s="472"/>
       <c r="BK10" s="473"/>
     </row>
-    <row r="11" spans="1:63" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" customHeight="1" ht="12">
       <c r="A11" s="470"/>
       <c r="B11" s="471"/>
       <c r="C11" s="39"/>
@@ -17713,7 +17981,7 @@
       <c r="BJ11" s="472"/>
       <c r="BK11" s="473"/>
     </row>
-    <row r="12" spans="1:63" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" customHeight="1" ht="12">
       <c r="A12" s="470"/>
       <c r="B12" s="471"/>
       <c r="C12" s="67" t="s">
@@ -17780,7 +18048,7 @@
       <c r="BJ12" s="472"/>
       <c r="BK12" s="473"/>
     </row>
-    <row r="13" spans="1:63" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" customHeight="1" ht="12">
       <c r="A13" s="470"/>
       <c r="B13" s="471"/>
       <c r="C13" s="39"/>
@@ -17847,7 +18115,7 @@
       <c r="BJ13" s="472"/>
       <c r="BK13" s="473"/>
     </row>
-    <row r="14" spans="1:63" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" customHeight="1" ht="12">
       <c r="A14" s="470"/>
       <c r="B14" s="471"/>
       <c r="C14" s="39"/>
@@ -17912,7 +18180,7 @@
       <c r="BJ14" s="472"/>
       <c r="BK14" s="473"/>
     </row>
-    <row r="15" spans="1:63" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" customHeight="1" ht="12">
       <c r="A15" s="470"/>
       <c r="B15" s="471"/>
       <c r="C15" s="67" t="s">
@@ -17979,7 +18247,7 @@
       <c r="BJ15" s="472"/>
       <c r="BK15" s="473"/>
     </row>
-    <row r="16" spans="1:63" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" customHeight="1" ht="12">
       <c r="A16" s="470"/>
       <c r="B16" s="471"/>
       <c r="C16" s="39"/>
@@ -18044,7 +18312,7 @@
       <c r="BJ16" s="472"/>
       <c r="BK16" s="473"/>
     </row>
-    <row r="17" spans="1:63" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" customHeight="1" ht="12">
       <c r="A17" s="35"/>
       <c r="B17" s="38"/>
       <c r="C17" s="39"/>
@@ -18109,7 +18377,7 @@
       <c r="BJ17" s="40"/>
       <c r="BK17" s="29"/>
     </row>
-    <row r="18" spans="1:63" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" customHeight="1" ht="12">
       <c r="A18" s="35"/>
       <c r="B18" s="326" t="s">
         <v>126</v>
@@ -18176,7 +18444,7 @@
       <c r="BJ18" s="328"/>
       <c r="BK18" s="29"/>
     </row>
-    <row r="19" spans="1:63" s="100" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="19" customFormat="1" s="100">
       <c r="A19" s="101"/>
       <c r="B19" s="107"/>
       <c r="C19" s="106"/>
@@ -18241,7 +18509,7 @@
       <c r="BJ19" s="108"/>
       <c r="BK19" s="102"/>
     </row>
-    <row r="20" spans="1:63" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" customHeight="1" ht="12">
       <c r="A20" s="35"/>
       <c r="B20" s="109"/>
       <c r="C20" s="110" t="s">
@@ -18310,7 +18578,7 @@
       <c r="BJ20" s="112"/>
       <c r="BK20" s="29"/>
     </row>
-    <row r="21" spans="1:63" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" customHeight="1" ht="12">
       <c r="A21" s="55"/>
       <c r="B21" s="109"/>
       <c r="C21" s="111"/>
@@ -18379,7 +18647,7 @@
       <c r="BJ21" s="112"/>
       <c r="BK21" s="56"/>
     </row>
-    <row r="22" spans="1:63" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" customHeight="1" ht="12">
       <c r="A22" s="55"/>
       <c r="B22" s="109"/>
       <c r="C22" s="111"/>
@@ -18446,7 +18714,7 @@
       <c r="BJ22" s="112"/>
       <c r="BK22" s="56"/>
     </row>
-    <row r="23" spans="1:63" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" customHeight="1" ht="12">
       <c r="A23" s="55"/>
       <c r="B23" s="109"/>
       <c r="C23" s="111"/>
@@ -18513,7 +18781,7 @@
       <c r="BJ23" s="112"/>
       <c r="BK23" s="56"/>
     </row>
-    <row r="24" spans="1:63" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" customHeight="1" ht="12">
       <c r="A24" s="55"/>
       <c r="B24" s="109"/>
       <c r="C24" s="111"/>
@@ -18578,7 +18846,7 @@
       <c r="BJ24" s="112"/>
       <c r="BK24" s="56"/>
     </row>
-    <row r="25" spans="1:63" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" customHeight="1" ht="12">
       <c r="A25" s="55"/>
       <c r="B25" s="109"/>
       <c r="C25" s="111"/>
@@ -18647,7 +18915,7 @@
       <c r="BJ25" s="112"/>
       <c r="BK25" s="56"/>
     </row>
-    <row r="26" spans="1:63" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" customHeight="1" ht="12">
       <c r="A26" s="55"/>
       <c r="B26" s="109"/>
       <c r="C26" s="111"/>
@@ -18714,7 +18982,7 @@
       <c r="BJ26" s="112"/>
       <c r="BK26" s="56"/>
     </row>
-    <row r="27" spans="1:63" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" customHeight="1" ht="12">
       <c r="A27" s="35"/>
       <c r="B27" s="113"/>
       <c r="C27" s="114"/>
@@ -18779,7 +19047,7 @@
       <c r="BJ27" s="115"/>
       <c r="BK27" s="29"/>
     </row>
-    <row r="28" spans="1:63" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" customHeight="1" ht="12">
       <c r="A28" s="35"/>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
@@ -18844,7 +19112,7 @@
       <c r="BJ28" s="37"/>
       <c r="BK28" s="29"/>
     </row>
-    <row r="29" spans="1:63" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" customHeight="1" ht="12">
       <c r="A29" s="35"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
@@ -18909,7 +19177,7 @@
       <c r="BJ29" s="37"/>
       <c r="BK29" s="29"/>
     </row>
-    <row r="30" spans="1:63" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" customHeight="1" ht="12">
       <c r="A30" s="35"/>
       <c r="B30" s="37"/>
       <c r="C30" s="37"/>
@@ -18974,7 +19242,7 @@
       <c r="BJ30" s="37"/>
       <c r="BK30" s="29"/>
     </row>
-    <row r="31" spans="1:63" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" customHeight="1" ht="12">
       <c r="A31" s="35"/>
       <c r="B31" s="37"/>
       <c r="C31" s="37"/>
@@ -19039,7 +19307,7 @@
       <c r="BJ31" s="37"/>
       <c r="BK31" s="29"/>
     </row>
-    <row r="32" spans="1:63" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" customHeight="1" ht="12">
       <c r="A32" s="41"/>
       <c r="B32" s="42"/>
       <c r="C32" s="42"/>
@@ -19106,12 +19374,11 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B18:BJ18"/>
-    <mergeCell ref="AM6:AO6"/>
-    <mergeCell ref="AP6:BA6"/>
-    <mergeCell ref="BB6:BJ6"/>
-    <mergeCell ref="B7:BJ7"/>
-    <mergeCell ref="B8:BJ8"/>
+    <mergeCell ref="A2:X3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:L4"/>
+    <mergeCell ref="M4:R4"/>
+    <mergeCell ref="S4:AT4"/>
     <mergeCell ref="AU4:AW4"/>
     <mergeCell ref="AX4:BC4"/>
     <mergeCell ref="BD4:BF4"/>
@@ -19124,11 +19391,12 @@
     <mergeCell ref="AX5:BC5"/>
     <mergeCell ref="BD5:BF5"/>
     <mergeCell ref="BG5:BJ5"/>
-    <mergeCell ref="A2:X3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:L4"/>
-    <mergeCell ref="M4:R4"/>
-    <mergeCell ref="S4:AT4"/>
+    <mergeCell ref="AM6:AO6"/>
+    <mergeCell ref="AP6:BA6"/>
+    <mergeCell ref="BB6:BJ6"/>
+    <mergeCell ref="B7:BJ7"/>
+    <mergeCell ref="B8:BJ8"/>
+    <mergeCell ref="B18:BJ18"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19143,7 +19411,7 @@
       <selection activeCell="B10" sqref="B10:L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="11.25" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="14" width="2.125" style="24"/>
     <col min="15" max="15" width="3.25" style="24" customWidth="1"/>
@@ -19279,7 +19547,7 @@
     <col min="16157" max="16384" width="2.125" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" customHeight="1" ht="12">
       <c r="A1" s="116"/>
       <c r="B1" s="117"/>
       <c r="C1" s="117"/>
@@ -19347,7 +19615,7 @@
       <c r="BM1" s="117"/>
       <c r="BN1" s="119"/>
     </row>
-    <row r="2" spans="1:68" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" customHeight="1" ht="12">
       <c r="A2" s="329" t="s">
         <v>37</v>
       </c>
@@ -19417,7 +19685,7 @@
       <c r="BM2" s="121"/>
       <c r="BN2" s="122"/>
     </row>
-    <row r="3" spans="1:68" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" customHeight="1" ht="12">
       <c r="A3" s="331"/>
       <c r="B3" s="332"/>
       <c r="C3" s="332"/>
@@ -19485,7 +19753,7 @@
       <c r="BM3" s="123"/>
       <c r="BN3" s="124"/>
     </row>
-    <row r="4" spans="1:68" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" customHeight="1" ht="12">
       <c r="A4" s="333" t="s">
         <v>9</v>
       </c>
@@ -19569,7 +19837,7 @@
       <c r="BM4" s="306"/>
       <c r="BN4" s="349"/>
     </row>
-    <row r="5" spans="1:68" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" customHeight="1" ht="12">
       <c r="A5" s="350" t="s">
         <v>13</v>
       </c>
@@ -19645,7 +19913,7 @@
       <c r="BM5" s="356"/>
       <c r="BN5" s="357"/>
     </row>
-    <row r="6" spans="1:68" ht="3" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" customHeight="1" ht="3">
       <c r="A6" s="125"/>
       <c r="B6" s="126"/>
       <c r="C6" s="126"/>
@@ -19713,7 +19981,7 @@
       <c r="BM6" s="127"/>
       <c r="BN6" s="138"/>
     </row>
-    <row r="7" spans="1:68" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" customHeight="1" ht="12">
       <c r="A7" s="361" t="s">
         <v>38</v>
       </c>
@@ -19789,7 +20057,7 @@
       <c r="BO7" s="103"/>
       <c r="BP7" s="73"/>
     </row>
-    <row r="8" spans="1:68" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" customHeight="1" ht="24">
       <c r="A8" s="128" t="s">
         <v>41</v>
       </c>
@@ -19879,7 +20147,7 @@
       <c r="BO8" s="103"/>
       <c r="BP8" s="73"/>
     </row>
-    <row r="9" spans="1:68" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" customHeight="1" ht="12">
       <c r="A9" s="129">
         <v>1</v>
       </c>
@@ -19969,7 +20237,7 @@
       <c r="BO9" s="103"/>
       <c r="BP9" s="73"/>
     </row>
-    <row r="10" spans="1:68" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" customHeight="1" ht="12">
       <c r="A10" s="129">
         <v>2</v>
       </c>
@@ -20061,7 +20329,7 @@
       <c r="BO10" s="103"/>
       <c r="BP10" s="73"/>
     </row>
-    <row r="11" spans="1:68" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" customHeight="1" ht="12">
       <c r="A11" s="129">
         <v>3</v>
       </c>
@@ -20151,7 +20419,7 @@
       <c r="BO11" s="103"/>
       <c r="BP11" s="73"/>
     </row>
-    <row r="12" spans="1:68" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" customHeight="1" ht="12">
       <c r="A12" s="129">
         <v>4</v>
       </c>
@@ -20241,7 +20509,7 @@
       <c r="BO12" s="103"/>
       <c r="BP12" s="73"/>
     </row>
-    <row r="13" spans="1:68" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" customHeight="1" ht="12">
       <c r="A13" s="129">
         <v>5</v>
       </c>
@@ -20331,7 +20599,7 @@
       <c r="BO13" s="103"/>
       <c r="BP13" s="73"/>
     </row>
-    <row r="14" spans="1:68" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" customHeight="1" ht="12">
       <c r="A14" s="129">
         <v>6</v>
       </c>
@@ -20421,7 +20689,7 @@
       <c r="BO14" s="103"/>
       <c r="BP14" s="73"/>
     </row>
-    <row r="15" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" customHeight="1" ht="15">
       <c r="A15" s="129">
         <v>7</v>
       </c>
@@ -20511,7 +20779,7 @@
       <c r="BO15" s="103"/>
       <c r="BP15" s="73"/>
     </row>
-    <row r="16" spans="1:68" x14ac:dyDescent="0.15">
+    <row r="16">
       <c r="A16" s="129">
         <v>8</v>
       </c>
@@ -20601,7 +20869,7 @@
       <c r="BO16" s="103"/>
       <c r="BP16" s="73"/>
     </row>
-    <row r="17" spans="1:68" x14ac:dyDescent="0.15">
+    <row r="17">
       <c r="A17" s="129">
         <v>9</v>
       </c>
@@ -20691,7 +20959,7 @@
       <c r="BO17" s="103"/>
       <c r="BP17" s="73"/>
     </row>
-    <row r="18" spans="1:68" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" customHeight="1" ht="12">
       <c r="A18" s="129">
         <v>10</v>
       </c>
@@ -20781,7 +21049,7 @@
       <c r="BO18" s="103"/>
       <c r="BP18" s="73"/>
     </row>
-    <row r="19" spans="1:68" x14ac:dyDescent="0.15">
+    <row r="19">
       <c r="A19" s="129">
         <v>11</v>
       </c>
@@ -20871,7 +21139,7 @@
       <c r="BO19" s="103"/>
       <c r="BP19" s="73"/>
     </row>
-    <row r="20" spans="1:68" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" customHeight="1" ht="12">
       <c r="A20" s="129">
         <v>12</v>
       </c>
@@ -20961,7 +21229,7 @@
       <c r="BO20" s="103"/>
       <c r="BP20" s="73"/>
     </row>
-    <row r="21" spans="1:68" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" customHeight="1" ht="12">
       <c r="A21" s="133"/>
       <c r="B21" s="134"/>
       <c r="C21" s="92"/>
@@ -21031,7 +21299,7 @@
       <c r="BO21" s="103"/>
       <c r="BP21" s="73"/>
     </row>
-    <row r="22" spans="1:68" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" customHeight="1" ht="12">
       <c r="A22" s="133"/>
       <c r="B22" s="134"/>
       <c r="C22" s="92"/>
@@ -21099,7 +21367,7 @@
       <c r="BM22" s="92"/>
       <c r="BN22" s="140"/>
     </row>
-    <row r="23" spans="1:68" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" customHeight="1" ht="12">
       <c r="A23" s="135"/>
       <c r="B23" s="136"/>
       <c r="C23" s="88"/>
@@ -21167,7 +21435,7 @@
       <c r="BM23" s="88"/>
       <c r="BN23" s="89"/>
     </row>
-    <row r="24" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" customHeight="1" ht="15">
       <c r="A24" s="46"/>
       <c r="B24" s="46"/>
       <c r="O24" s="104"/>
@@ -21177,184 +21445,73 @@
       <c r="S24" s="104"/>
       <c r="T24" s="104"/>
     </row>
-    <row r="25" spans="1:68" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" customHeight="1" ht="12">
       <c r="A25" s="46"/>
       <c r="B25" s="46"/>
     </row>
-    <row r="26" spans="1:68" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" customHeight="1" ht="12">
       <c r="A26" s="46"/>
       <c r="B26" s="46"/>
     </row>
-    <row r="27" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" customHeight="1" ht="15">
       <c r="A27" s="46"/>
       <c r="B27" s="46"/>
     </row>
-    <row r="28" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" customHeight="1" ht="15">
       <c r="A28" s="46"/>
       <c r="B28" s="46"/>
     </row>
-    <row r="29" spans="1:68" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" customHeight="1" ht="12">
       <c r="A29" s="46"/>
       <c r="B29" s="46"/>
     </row>
-    <row r="30" spans="1:68" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" customHeight="1" ht="12">
       <c r="A30" s="46"/>
       <c r="B30" s="46"/>
     </row>
-    <row r="31" spans="1:68" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" customHeight="1" ht="12">
       <c r="A31" s="46"/>
       <c r="B31" s="46"/>
     </row>
-    <row r="32" spans="1:68" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" customHeight="1" ht="12">
       <c r="A32" s="404"/>
       <c r="B32" s="404"/>
     </row>
-    <row r="33" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" customHeight="1" ht="12">
       <c r="A33" s="404"/>
       <c r="B33" s="404"/>
     </row>
-    <row r="34" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" customHeight="1" ht="12">
       <c r="A34" s="404"/>
       <c r="B34" s="404"/>
     </row>
-    <row r="35" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" customHeight="1" ht="12">
       <c r="A35" s="404"/>
       <c r="B35" s="404"/>
     </row>
-    <row r="36" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" customHeight="1" ht="12">
       <c r="A36" s="404"/>
       <c r="B36" s="404"/>
     </row>
-    <row r="37" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" customHeight="1" ht="12">
       <c r="A37" s="404"/>
       <c r="B37" s="404"/>
     </row>
-    <row r="38" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" customHeight="1" ht="30">
       <c r="A38" s="404"/>
       <c r="B38" s="404"/>
     </row>
   </sheetData>
   <mergeCells count="150">
-    <mergeCell ref="AO20:BL20"/>
-    <mergeCell ref="P23:S23"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="B20:L20"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="W20:X20"/>
-    <mergeCell ref="Y20:AB20"/>
-    <mergeCell ref="AC20:AG20"/>
-    <mergeCell ref="AH20:AN20"/>
-    <mergeCell ref="AO18:BL18"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="W19:X19"/>
-    <mergeCell ref="Y19:AB19"/>
-    <mergeCell ref="AC19:AG19"/>
-    <mergeCell ref="AH19:AN19"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="Y17:AB17"/>
-    <mergeCell ref="AC17:AG17"/>
-    <mergeCell ref="AH17:AN17"/>
-    <mergeCell ref="B18:L18"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="Y18:AB18"/>
-    <mergeCell ref="AC18:AG18"/>
-    <mergeCell ref="AH18:AN18"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="Y15:AB15"/>
-    <mergeCell ref="AC15:AG15"/>
-    <mergeCell ref="AH15:AN15"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="W16:X16"/>
-    <mergeCell ref="Y16:AB16"/>
-    <mergeCell ref="AC16:AG16"/>
-    <mergeCell ref="AH16:AN16"/>
-    <mergeCell ref="AO13:BL13"/>
-    <mergeCell ref="B14:L14"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="Y14:AB14"/>
-    <mergeCell ref="AC14:AG14"/>
-    <mergeCell ref="AH14:AN14"/>
-    <mergeCell ref="AO14:BL14"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="W13:X13"/>
-    <mergeCell ref="Y13:AB13"/>
-    <mergeCell ref="AC13:AG13"/>
-    <mergeCell ref="AH13:AN13"/>
-    <mergeCell ref="AO11:BL11"/>
-    <mergeCell ref="B12:L12"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="Y12:AB12"/>
-    <mergeCell ref="AC12:AG12"/>
-    <mergeCell ref="AH12:AN12"/>
-    <mergeCell ref="AO12:BL12"/>
-    <mergeCell ref="B11:L11"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="Y11:AB11"/>
-    <mergeCell ref="AC11:AG11"/>
-    <mergeCell ref="AH11:AN11"/>
-    <mergeCell ref="AO9:BL9"/>
-    <mergeCell ref="B10:L10"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="Y10:AB10"/>
-    <mergeCell ref="AC10:AG10"/>
-    <mergeCell ref="AH10:AN10"/>
-    <mergeCell ref="AO10:BL10"/>
-    <mergeCell ref="B9:L9"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="Y9:AB9"/>
-    <mergeCell ref="AC9:AG9"/>
-    <mergeCell ref="AH9:AN9"/>
+    <mergeCell ref="A2:AA3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:O4"/>
+    <mergeCell ref="P4:U4"/>
+    <mergeCell ref="V4:AV4"/>
+    <mergeCell ref="AW4:AY4"/>
+    <mergeCell ref="AZ4:BE4"/>
+    <mergeCell ref="BF4:BH4"/>
+    <mergeCell ref="BI4:BN4"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="G5:O5"/>
     <mergeCell ref="P5:U5"/>
@@ -21376,15 +21533,126 @@
     <mergeCell ref="Y8:AB8"/>
     <mergeCell ref="AC8:AG8"/>
     <mergeCell ref="AH8:AN8"/>
-    <mergeCell ref="A2:AA3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:O4"/>
-    <mergeCell ref="P4:U4"/>
-    <mergeCell ref="V4:AV4"/>
-    <mergeCell ref="AW4:AY4"/>
-    <mergeCell ref="AZ4:BE4"/>
-    <mergeCell ref="BF4:BH4"/>
-    <mergeCell ref="BI4:BN4"/>
+    <mergeCell ref="B9:L9"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="Y9:AB9"/>
+    <mergeCell ref="AC9:AG9"/>
+    <mergeCell ref="AH9:AN9"/>
+    <mergeCell ref="AO9:BL9"/>
+    <mergeCell ref="B10:L10"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="Y10:AB10"/>
+    <mergeCell ref="AC10:AG10"/>
+    <mergeCell ref="AH10:AN10"/>
+    <mergeCell ref="AO10:BL10"/>
+    <mergeCell ref="B11:L11"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="Y11:AB11"/>
+    <mergeCell ref="AC11:AG11"/>
+    <mergeCell ref="AH11:AN11"/>
+    <mergeCell ref="AO11:BL11"/>
+    <mergeCell ref="B12:L12"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="Y12:AB12"/>
+    <mergeCell ref="AC12:AG12"/>
+    <mergeCell ref="AH12:AN12"/>
+    <mergeCell ref="AO12:BL12"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="Y13:AB13"/>
+    <mergeCell ref="AC13:AG13"/>
+    <mergeCell ref="AH13:AN13"/>
+    <mergeCell ref="AO13:BL13"/>
+    <mergeCell ref="B14:L14"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="Y14:AB14"/>
+    <mergeCell ref="AC14:AG14"/>
+    <mergeCell ref="AH14:AN14"/>
+    <mergeCell ref="AO14:BL14"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="Y15:AB15"/>
+    <mergeCell ref="AC15:AG15"/>
+    <mergeCell ref="AH15:AN15"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="Y16:AB16"/>
+    <mergeCell ref="AC16:AG16"/>
+    <mergeCell ref="AH16:AN16"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="Y17:AB17"/>
+    <mergeCell ref="AC17:AG17"/>
+    <mergeCell ref="AH17:AN17"/>
+    <mergeCell ref="B18:L18"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="Y18:AB18"/>
+    <mergeCell ref="AC18:AG18"/>
+    <mergeCell ref="AH18:AN18"/>
+    <mergeCell ref="AO18:BL18"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="W19:X19"/>
+    <mergeCell ref="Y19:AB19"/>
+    <mergeCell ref="AC19:AG19"/>
+    <mergeCell ref="AH19:AN19"/>
+    <mergeCell ref="B20:L20"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="Y20:AB20"/>
+    <mergeCell ref="AC20:AG20"/>
+    <mergeCell ref="AH20:AN20"/>
+    <mergeCell ref="AO20:BL20"/>
+    <mergeCell ref="P23:S23"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21396,21 +21664,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F483F54A-5AD5-4BFC-9283-BB80624954B3}">
   <dimension ref="A1:BN21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18:AR18"/>
+    <sheetView showGridLines="false" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0" tabSelected="1">
+      <selection activeCell="AS22" sqref="AS22:BN22" activeCellId="0"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="2.125" style="24"/>
-    <col min="2" max="9" width="2.375" style="24" customWidth="1"/>
+    <col min="2" max="2" width="2.375" style="24" customWidth="1"/>
+    <col min="3" max="3" width="2.375" style="24" customWidth="1"/>
+    <col min="4" max="4" width="2.375" style="24" customWidth="1"/>
+    <col min="5" max="5" width="2.375" style="24" customWidth="1"/>
+    <col min="6" max="6" width="2.375" style="24" customWidth="1"/>
+    <col min="7" max="7" width="2.375" style="24" customWidth="1"/>
+    <col min="8" max="8" width="2.375" style="24" customWidth="1"/>
+    <col min="9" max="9" width="2.375" style="24" customWidth="1"/>
     <col min="10" max="10" width="6.375" style="24" customWidth="1"/>
-    <col min="11" max="12" width="2.375" style="24" customWidth="1"/>
+    <col min="11" max="11" width="2.375" style="24" customWidth="1"/>
+    <col min="12" max="12" width="2.375" style="24" customWidth="1"/>
     <col min="13" max="13" width="2.75" style="24" customWidth="1"/>
-    <col min="14" max="15" width="2.375" style="24" customWidth="1"/>
+    <col min="14" max="14" width="2.375" style="24" customWidth="1"/>
+    <col min="15" max="15" width="2.375" style="24" customWidth="1"/>
     <col min="16" max="43" width="2.125" style="24"/>
     <col min="44" max="44" width="0.875" style="24" customWidth="1"/>
-    <col min="45" max="65" width="2" style="24" customWidth="1"/>
+    <col min="45" max="45" width="2" style="24" customWidth="1"/>
+    <col min="46" max="46" width="2" style="24" customWidth="1"/>
+    <col min="47" max="47" width="2" style="24" customWidth="1"/>
+    <col min="48" max="48" width="2" style="24" customWidth="1"/>
+    <col min="49" max="49" width="2" style="24" customWidth="1"/>
+    <col min="50" max="50" width="2" style="24" customWidth="1"/>
+    <col min="51" max="51" width="2" style="24" customWidth="1"/>
+    <col min="52" max="52" width="2" style="24" customWidth="1"/>
+    <col min="53" max="53" width="2" style="24" customWidth="1"/>
+    <col min="54" max="54" width="2" style="24" customWidth="1"/>
+    <col min="55" max="55" width="2" style="24" customWidth="1"/>
+    <col min="56" max="56" width="2" style="24" customWidth="1"/>
+    <col min="57" max="57" width="2" style="24" customWidth="1"/>
+    <col min="58" max="58" width="2" style="24" customWidth="1"/>
+    <col min="59" max="59" width="2" style="24" customWidth="1"/>
+    <col min="60" max="60" width="2" style="24" customWidth="1"/>
+    <col min="61" max="61" width="2" style="24" customWidth="1"/>
+    <col min="62" max="62" width="2" style="24" customWidth="1"/>
+    <col min="63" max="63" width="2" style="24" customWidth="1"/>
+    <col min="64" max="64" width="2" style="24" customWidth="1"/>
+    <col min="65" max="65" width="2" style="24" customWidth="1"/>
     <col min="66" max="66" width="4.875" style="24" customWidth="1"/>
     <col min="67" max="321" width="2.125" style="24"/>
     <col min="322" max="322" width="1.875" style="24" customWidth="1"/>
@@ -21541,7 +21838,7 @@
     <col min="16195" max="16384" width="2.125" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="1" ht="10">
       <c r="A1" s="20"/>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -21611,7 +21908,7 @@
       <c r="BM1" s="21"/>
       <c r="BN1" s="23"/>
     </row>
-    <row r="2" spans="1:66" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="2" ht="10">
       <c r="A2" s="224" t="s">
         <v>52</v>
       </c>
@@ -21667,7 +21964,7 @@
       <c r="BM2" s="26"/>
       <c r="BN2" s="27"/>
     </row>
-    <row r="3" spans="1:66" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="3" ht="10">
       <c r="A3" s="405"/>
       <c r="B3" s="406"/>
       <c r="C3" s="406"/>
@@ -21735,7 +22032,7 @@
       <c r="BM3" s="43"/>
       <c r="BN3" s="44"/>
     </row>
-    <row r="4" spans="1:66" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="4" ht="18">
       <c r="A4" s="407" t="s">
         <v>9</v>
       </c>
@@ -21819,7 +22116,7 @@
       <c r="BM4" s="306"/>
       <c r="BN4" s="349"/>
     </row>
-    <row r="5" spans="1:66" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="5" ht="18">
       <c r="A5" s="307" t="s">
         <v>13</v>
       </c>
@@ -21898,7 +22195,7 @@
       <c r="BM5" s="313"/>
       <c r="BN5" s="314"/>
     </row>
-    <row r="6" spans="1:66" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="6" ht="10">
       <c r="A6" s="59"/>
       <c r="B6" s="45"/>
       <c r="C6" s="45"/>
@@ -21966,7 +22263,7 @@
       <c r="BM6" s="45"/>
       <c r="BN6" s="47"/>
     </row>
-    <row r="7" spans="1:66" s="48" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" customHeight="1" ht="12" customFormat="1" s="48">
       <c r="A7" s="61" t="s">
         <v>0</v>
       </c>
@@ -22042,7 +22339,7 @@
       <c r="BM7" s="427"/>
       <c r="BN7" s="428"/>
     </row>
-    <row r="8" spans="1:66" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" customHeight="1" ht="15" customFormat="1" s="36">
       <c r="A8" s="60">
         <v>1</v>
       </c>
@@ -22118,7 +22415,7 @@
       <c r="BM8" s="433"/>
       <c r="BN8" s="434"/>
     </row>
-    <row r="9" spans="1:66" s="36" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+    <row r="9" ht="9" customFormat="1" s="36">
       <c r="A9" s="60">
         <v>2</v>
       </c>
@@ -22194,7 +22491,7 @@
       <c r="BM9" s="437"/>
       <c r="BN9" s="438"/>
     </row>
-    <row r="10" spans="1:66" s="36" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+    <row r="10" ht="9" customFormat="1" s="36">
       <c r="A10" s="60">
         <v>3</v>
       </c>
@@ -22214,37 +22511,37 @@
       <c r="M10" s="429"/>
       <c r="N10" s="429"/>
       <c r="O10" s="431"/>
-      <c r="P10" s="435" t="s">
+      <c r="P10" s="491" t="s">
         <v>109</v>
       </c>
-      <c r="Q10" s="435"/>
-      <c r="R10" s="435"/>
-      <c r="S10" s="435"/>
-      <c r="T10" s="435"/>
-      <c r="U10" s="435"/>
-      <c r="V10" s="435"/>
-      <c r="W10" s="435"/>
-      <c r="X10" s="435"/>
-      <c r="Y10" s="435"/>
-      <c r="Z10" s="435"/>
-      <c r="AA10" s="435"/>
-      <c r="AB10" s="435"/>
-      <c r="AC10" s="435"/>
-      <c r="AD10" s="435"/>
-      <c r="AE10" s="435"/>
-      <c r="AF10" s="435"/>
-      <c r="AG10" s="435"/>
-      <c r="AH10" s="435"/>
-      <c r="AI10" s="435"/>
-      <c r="AJ10" s="435"/>
-      <c r="AK10" s="435"/>
-      <c r="AL10" s="435"/>
-      <c r="AM10" s="435"/>
-      <c r="AN10" s="435"/>
-      <c r="AO10" s="435"/>
-      <c r="AP10" s="435"/>
-      <c r="AQ10" s="435"/>
-      <c r="AR10" s="436"/>
+      <c r="Q10" s="491"/>
+      <c r="R10" s="491"/>
+      <c r="S10" s="491"/>
+      <c r="T10" s="491"/>
+      <c r="U10" s="491"/>
+      <c r="V10" s="491"/>
+      <c r="W10" s="491"/>
+      <c r="X10" s="491"/>
+      <c r="Y10" s="491"/>
+      <c r="Z10" s="491"/>
+      <c r="AA10" s="491"/>
+      <c r="AB10" s="491"/>
+      <c r="AC10" s="491"/>
+      <c r="AD10" s="491"/>
+      <c r="AE10" s="491"/>
+      <c r="AF10" s="491"/>
+      <c r="AG10" s="491"/>
+      <c r="AH10" s="491"/>
+      <c r="AI10" s="491"/>
+      <c r="AJ10" s="491"/>
+      <c r="AK10" s="491"/>
+      <c r="AL10" s="491"/>
+      <c r="AM10" s="491"/>
+      <c r="AN10" s="491"/>
+      <c r="AO10" s="491"/>
+      <c r="AP10" s="491"/>
+      <c r="AQ10" s="491"/>
+      <c r="AR10" s="492"/>
       <c r="AS10" s="437" t="s">
         <v>116</v>
       </c>
@@ -22270,7 +22567,7 @@
       <c r="BM10" s="437"/>
       <c r="BN10" s="438"/>
     </row>
-    <row r="11" spans="1:66" s="36" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+    <row r="11" ht="9" customFormat="1" s="36">
       <c r="A11" s="60">
         <v>4</v>
       </c>
@@ -22346,7 +22643,7 @@
       <c r="BM11" s="437"/>
       <c r="BN11" s="438"/>
     </row>
-    <row r="12" spans="1:66" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" customHeight="1" ht="15" customFormat="1" s="36">
       <c r="A12" s="60">
         <v>5</v>
       </c>
@@ -22422,7 +22719,7 @@
       <c r="BM12" s="437"/>
       <c r="BN12" s="438"/>
     </row>
-    <row r="13" spans="1:66" s="36" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+    <row r="13" ht="9" customFormat="1" s="36">
       <c r="A13" s="60">
         <v>6</v>
       </c>
@@ -22442,37 +22739,37 @@
       <c r="M13" s="429"/>
       <c r="N13" s="429"/>
       <c r="O13" s="431"/>
-      <c r="P13" s="483" t="s">
+      <c r="P13" s="493" t="s">
         <v>110</v>
       </c>
-      <c r="Q13" s="483"/>
-      <c r="R13" s="483"/>
-      <c r="S13" s="483"/>
-      <c r="T13" s="483"/>
-      <c r="U13" s="483"/>
-      <c r="V13" s="483"/>
-      <c r="W13" s="483"/>
-      <c r="X13" s="483"/>
-      <c r="Y13" s="483"/>
-      <c r="Z13" s="483"/>
-      <c r="AA13" s="483"/>
-      <c r="AB13" s="483"/>
-      <c r="AC13" s="483"/>
-      <c r="AD13" s="483"/>
-      <c r="AE13" s="483"/>
-      <c r="AF13" s="483"/>
-      <c r="AG13" s="483"/>
-      <c r="AH13" s="483"/>
-      <c r="AI13" s="483"/>
-      <c r="AJ13" s="483"/>
-      <c r="AK13" s="483"/>
-      <c r="AL13" s="483"/>
-      <c r="AM13" s="483"/>
-      <c r="AN13" s="483"/>
-      <c r="AO13" s="483"/>
-      <c r="AP13" s="483"/>
-      <c r="AQ13" s="483"/>
-      <c r="AR13" s="484"/>
+      <c r="Q13" s="493"/>
+      <c r="R13" s="493"/>
+      <c r="S13" s="493"/>
+      <c r="T13" s="493"/>
+      <c r="U13" s="493"/>
+      <c r="V13" s="493"/>
+      <c r="W13" s="493"/>
+      <c r="X13" s="493"/>
+      <c r="Y13" s="493"/>
+      <c r="Z13" s="493"/>
+      <c r="AA13" s="493"/>
+      <c r="AB13" s="493"/>
+      <c r="AC13" s="493"/>
+      <c r="AD13" s="493"/>
+      <c r="AE13" s="493"/>
+      <c r="AF13" s="493"/>
+      <c r="AG13" s="493"/>
+      <c r="AH13" s="493"/>
+      <c r="AI13" s="493"/>
+      <c r="AJ13" s="493"/>
+      <c r="AK13" s="493"/>
+      <c r="AL13" s="493"/>
+      <c r="AM13" s="493"/>
+      <c r="AN13" s="493"/>
+      <c r="AO13" s="493"/>
+      <c r="AP13" s="493"/>
+      <c r="AQ13" s="493"/>
+      <c r="AR13" s="494"/>
       <c r="AS13" s="437" t="s">
         <v>117</v>
       </c>
@@ -22498,7 +22795,7 @@
       <c r="BM13" s="437"/>
       <c r="BN13" s="438"/>
     </row>
-    <row r="14" spans="1:66" s="36" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+    <row r="14" ht="9" customFormat="1" s="36">
       <c r="A14" s="60">
         <v>7</v>
       </c>
@@ -22574,7 +22871,7 @@
       <c r="BM14" s="444"/>
       <c r="BN14" s="445"/>
     </row>
-    <row r="15" spans="1:66" s="36" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+    <row r="15" ht="9" customFormat="1" s="36">
       <c r="A15" s="60">
         <v>8</v>
       </c>
@@ -22650,89 +22947,81 @@
       <c r="BM15" s="437"/>
       <c r="BN15" s="438"/>
     </row>
-    <row r="16" spans="1:66" s="36" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="58">
-        <v>9</v>
-      </c>
-      <c r="B16" s="446" t="s">
-        <v>99</v>
-      </c>
-      <c r="C16" s="447"/>
-      <c r="D16" s="447"/>
-      <c r="E16" s="447"/>
-      <c r="F16" s="447"/>
-      <c r="G16" s="447"/>
-      <c r="H16" s="447"/>
-      <c r="I16" s="447"/>
-      <c r="J16" s="447"/>
-      <c r="K16" s="447"/>
-      <c r="L16" s="447"/>
-      <c r="M16" s="447"/>
-      <c r="N16" s="447"/>
-      <c r="O16" s="448"/>
-      <c r="P16" s="449" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q16" s="450"/>
-      <c r="R16" s="450"/>
-      <c r="S16" s="450"/>
-      <c r="T16" s="450"/>
-      <c r="U16" s="450"/>
-      <c r="V16" s="450"/>
-      <c r="W16" s="450"/>
-      <c r="X16" s="450"/>
-      <c r="Y16" s="450"/>
-      <c r="Z16" s="450"/>
-      <c r="AA16" s="450"/>
-      <c r="AB16" s="450"/>
-      <c r="AC16" s="450"/>
-      <c r="AD16" s="450"/>
-      <c r="AE16" s="450"/>
-      <c r="AF16" s="450"/>
-      <c r="AG16" s="450"/>
-      <c r="AH16" s="450"/>
-      <c r="AI16" s="450"/>
-      <c r="AJ16" s="450"/>
-      <c r="AK16" s="450"/>
-      <c r="AL16" s="450"/>
-      <c r="AM16" s="450"/>
-      <c r="AN16" s="450"/>
-      <c r="AO16" s="450"/>
-      <c r="AP16" s="450"/>
-      <c r="AQ16" s="450"/>
-      <c r="AR16" s="451"/>
-      <c r="AS16" s="452" t="s">
-        <v>104</v>
-      </c>
-      <c r="AT16" s="452"/>
-      <c r="AU16" s="452"/>
-      <c r="AV16" s="452"/>
-      <c r="AW16" s="452"/>
-      <c r="AX16" s="452"/>
-      <c r="AY16" s="452"/>
-      <c r="AZ16" s="452"/>
-      <c r="BA16" s="452"/>
-      <c r="BB16" s="452"/>
-      <c r="BC16" s="452"/>
-      <c r="BD16" s="452"/>
-      <c r="BE16" s="452"/>
-      <c r="BF16" s="452"/>
-      <c r="BG16" s="452"/>
-      <c r="BH16" s="452"/>
-      <c r="BI16" s="452"/>
-      <c r="BJ16" s="452"/>
-      <c r="BK16" s="452"/>
-      <c r="BL16" s="452"/>
-      <c r="BM16" s="452"/>
-      <c r="BN16" s="453"/>
-    </row>
-    <row r="17" spans="1:66" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="57">
-        <v>10</v>
-      </c>
-      <c r="B17" s="429" t="s">
-        <v>99</v>
-      </c>
+    <row r="16" ht="9" customFormat="1" s="36">
+      <c r="A16" s="60"/>
+      <c r="B16" s="429"/>
+      <c r="C16" s="429"/>
+      <c r="D16" s="429"/>
+      <c r="E16" s="429"/>
+      <c r="F16" s="429"/>
+      <c r="G16" s="429"/>
+      <c r="H16" s="429"/>
+      <c r="I16" s="429"/>
+      <c r="J16" s="429"/>
+      <c r="K16" s="429"/>
+      <c r="L16" s="429"/>
+      <c r="M16" s="429"/>
+      <c r="N16" s="429"/>
+      <c r="O16" s="431"/>
+      <c r="P16" s="527" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q16" s="527"/>
+      <c r="R16" s="527"/>
+      <c r="S16" s="527"/>
+      <c r="T16" s="527"/>
+      <c r="U16" s="527"/>
+      <c r="V16" s="527"/>
+      <c r="W16" s="527"/>
+      <c r="X16" s="527"/>
+      <c r="Y16" s="527"/>
+      <c r="Z16" s="527"/>
+      <c r="AA16" s="527"/>
+      <c r="AB16" s="527"/>
+      <c r="AC16" s="527"/>
+      <c r="AD16" s="527"/>
+      <c r="AE16" s="527"/>
+      <c r="AF16" s="527"/>
+      <c r="AG16" s="527"/>
+      <c r="AH16" s="527"/>
+      <c r="AI16" s="527"/>
+      <c r="AJ16" s="527"/>
+      <c r="AK16" s="527"/>
+      <c r="AL16" s="527"/>
+      <c r="AM16" s="527"/>
+      <c r="AN16" s="527"/>
+      <c r="AO16" s="527"/>
+      <c r="AP16" s="527"/>
+      <c r="AQ16" s="527"/>
+      <c r="AR16" s="528"/>
+      <c r="AS16" s="437" t="s">
+        <v>150</v>
+      </c>
+      <c r="AT16" s="437"/>
+      <c r="AU16" s="437"/>
+      <c r="AV16" s="437"/>
+      <c r="AW16" s="437"/>
+      <c r="AX16" s="437"/>
+      <c r="AY16" s="437"/>
+      <c r="AZ16" s="437"/>
+      <c r="BA16" s="437"/>
+      <c r="BB16" s="437"/>
+      <c r="BC16" s="437"/>
+      <c r="BD16" s="437"/>
+      <c r="BE16" s="437"/>
+      <c r="BF16" s="437"/>
+      <c r="BG16" s="437"/>
+      <c r="BH16" s="437"/>
+      <c r="BI16" s="437"/>
+      <c r="BJ16" s="437"/>
+      <c r="BK16" s="437"/>
+      <c r="BL16" s="437"/>
+      <c r="BM16" s="437"/>
+      <c r="BN16" s="438"/>
+    </row>
+    <row r="17" ht="9" customFormat="1" s="36">
+      <c r="A17" s="60"/>
+      <c r="B17" s="429"/>
       <c r="C17" s="429"/>
       <c r="D17" s="429"/>
       <c r="E17" s="429"/>
@@ -22746,69 +23035,65 @@
       <c r="M17" s="429"/>
       <c r="N17" s="429"/>
       <c r="O17" s="431"/>
-      <c r="P17" s="454" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q17" s="454"/>
-      <c r="R17" s="454"/>
-      <c r="S17" s="454"/>
-      <c r="T17" s="454"/>
-      <c r="U17" s="454"/>
-      <c r="V17" s="454"/>
-      <c r="W17" s="454"/>
-      <c r="X17" s="454"/>
-      <c r="Y17" s="454"/>
-      <c r="Z17" s="454"/>
-      <c r="AA17" s="454"/>
-      <c r="AB17" s="454"/>
-      <c r="AC17" s="454"/>
-      <c r="AD17" s="454"/>
-      <c r="AE17" s="454"/>
-      <c r="AF17" s="454"/>
-      <c r="AG17" s="454"/>
-      <c r="AH17" s="454"/>
-      <c r="AI17" s="454"/>
-      <c r="AJ17" s="454"/>
-      <c r="AK17" s="454"/>
-      <c r="AL17" s="454"/>
-      <c r="AM17" s="454"/>
-      <c r="AN17" s="454"/>
-      <c r="AO17" s="454"/>
-      <c r="AP17" s="454"/>
-      <c r="AQ17" s="454"/>
-      <c r="AR17" s="455"/>
-      <c r="AS17" s="456" t="s">
-        <v>105</v>
-      </c>
-      <c r="AT17" s="457"/>
-      <c r="AU17" s="457"/>
-      <c r="AV17" s="457"/>
-      <c r="AW17" s="457"/>
-      <c r="AX17" s="457"/>
-      <c r="AY17" s="457"/>
-      <c r="AZ17" s="457"/>
-      <c r="BA17" s="457"/>
-      <c r="BB17" s="457"/>
-      <c r="BC17" s="457"/>
-      <c r="BD17" s="457"/>
-      <c r="BE17" s="457"/>
-      <c r="BF17" s="457"/>
-      <c r="BG17" s="457"/>
-      <c r="BH17" s="457"/>
-      <c r="BI17" s="457"/>
-      <c r="BJ17" s="457"/>
-      <c r="BK17" s="457"/>
-      <c r="BL17" s="457"/>
-      <c r="BM17" s="457"/>
-      <c r="BN17" s="458"/>
-    </row>
-    <row r="18" spans="1:66" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="57">
-        <v>11</v>
-      </c>
-      <c r="B18" s="429" t="s">
-        <v>99</v>
-      </c>
+      <c r="P17" s="487" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q17" s="487"/>
+      <c r="R17" s="487"/>
+      <c r="S17" s="487"/>
+      <c r="T17" s="487"/>
+      <c r="U17" s="487"/>
+      <c r="V17" s="487"/>
+      <c r="W17" s="487"/>
+      <c r="X17" s="487"/>
+      <c r="Y17" s="487"/>
+      <c r="Z17" s="487"/>
+      <c r="AA17" s="487"/>
+      <c r="AB17" s="487"/>
+      <c r="AC17" s="487"/>
+      <c r="AD17" s="487"/>
+      <c r="AE17" s="487"/>
+      <c r="AF17" s="487"/>
+      <c r="AG17" s="487"/>
+      <c r="AH17" s="487"/>
+      <c r="AI17" s="487"/>
+      <c r="AJ17" s="487"/>
+      <c r="AK17" s="487"/>
+      <c r="AL17" s="487"/>
+      <c r="AM17" s="487"/>
+      <c r="AN17" s="487"/>
+      <c r="AO17" s="487"/>
+      <c r="AP17" s="487"/>
+      <c r="AQ17" s="487"/>
+      <c r="AR17" s="488"/>
+      <c r="AS17" s="437" t="s">
+        <v>151</v>
+      </c>
+      <c r="AT17" s="437"/>
+      <c r="AU17" s="437"/>
+      <c r="AV17" s="437"/>
+      <c r="AW17" s="437"/>
+      <c r="AX17" s="437"/>
+      <c r="AY17" s="437"/>
+      <c r="AZ17" s="437"/>
+      <c r="BA17" s="437"/>
+      <c r="BB17" s="437"/>
+      <c r="BC17" s="437"/>
+      <c r="BD17" s="437"/>
+      <c r="BE17" s="437"/>
+      <c r="BF17" s="437"/>
+      <c r="BG17" s="437"/>
+      <c r="BH17" s="437"/>
+      <c r="BI17" s="437"/>
+      <c r="BJ17" s="437"/>
+      <c r="BK17" s="437"/>
+      <c r="BL17" s="437"/>
+      <c r="BM17" s="437"/>
+      <c r="BN17" s="438"/>
+    </row>
+    <row r="18" ht="9" customFormat="1" s="36">
+      <c r="A18" s="60"/>
+      <c r="B18" s="429"/>
       <c r="C18" s="429"/>
       <c r="D18" s="429"/>
       <c r="E18" s="429"/>
@@ -22822,141 +23107,141 @@
       <c r="M18" s="429"/>
       <c r="N18" s="429"/>
       <c r="O18" s="431"/>
-      <c r="P18" s="459" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q18" s="460"/>
-      <c r="R18" s="460"/>
-      <c r="S18" s="460"/>
-      <c r="T18" s="460"/>
-      <c r="U18" s="460"/>
-      <c r="V18" s="460"/>
-      <c r="W18" s="460"/>
-      <c r="X18" s="460"/>
-      <c r="Y18" s="460"/>
-      <c r="Z18" s="460"/>
-      <c r="AA18" s="460"/>
-      <c r="AB18" s="460"/>
-      <c r="AC18" s="460"/>
-      <c r="AD18" s="460"/>
-      <c r="AE18" s="460"/>
-      <c r="AF18" s="460"/>
-      <c r="AG18" s="460"/>
-      <c r="AH18" s="460"/>
-      <c r="AI18" s="460"/>
-      <c r="AJ18" s="460"/>
-      <c r="AK18" s="460"/>
-      <c r="AL18" s="460"/>
-      <c r="AM18" s="460"/>
-      <c r="AN18" s="460"/>
-      <c r="AO18" s="460"/>
-      <c r="AP18" s="460"/>
-      <c r="AQ18" s="460"/>
-      <c r="AR18" s="461"/>
-      <c r="AS18" s="462" t="s">
-        <v>134</v>
-      </c>
-      <c r="AT18" s="462"/>
-      <c r="AU18" s="462"/>
-      <c r="AV18" s="462"/>
-      <c r="AW18" s="462"/>
-      <c r="AX18" s="462"/>
-      <c r="AY18" s="462"/>
-      <c r="AZ18" s="462"/>
-      <c r="BA18" s="462"/>
-      <c r="BB18" s="462"/>
-      <c r="BC18" s="462"/>
-      <c r="BD18" s="462"/>
-      <c r="BE18" s="462"/>
-      <c r="BF18" s="462"/>
-      <c r="BG18" s="462"/>
-      <c r="BH18" s="462"/>
-      <c r="BI18" s="462"/>
-      <c r="BJ18" s="462"/>
-      <c r="BK18" s="462"/>
-      <c r="BL18" s="462"/>
-      <c r="BM18" s="462"/>
-      <c r="BN18" s="463"/>
-    </row>
-    <row r="19" spans="1:66" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A19" s="57">
-        <v>12</v>
-      </c>
-      <c r="B19" s="429" t="s">
+      <c r="P18" s="487" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q18" s="487"/>
+      <c r="R18" s="487"/>
+      <c r="S18" s="487"/>
+      <c r="T18" s="487"/>
+      <c r="U18" s="487"/>
+      <c r="V18" s="487"/>
+      <c r="W18" s="487"/>
+      <c r="X18" s="487"/>
+      <c r="Y18" s="487"/>
+      <c r="Z18" s="487"/>
+      <c r="AA18" s="487"/>
+      <c r="AB18" s="487"/>
+      <c r="AC18" s="487"/>
+      <c r="AD18" s="487"/>
+      <c r="AE18" s="487"/>
+      <c r="AF18" s="487"/>
+      <c r="AG18" s="487"/>
+      <c r="AH18" s="487"/>
+      <c r="AI18" s="487"/>
+      <c r="AJ18" s="487"/>
+      <c r="AK18" s="487"/>
+      <c r="AL18" s="487"/>
+      <c r="AM18" s="487"/>
+      <c r="AN18" s="487"/>
+      <c r="AO18" s="487"/>
+      <c r="AP18" s="487"/>
+      <c r="AQ18" s="487"/>
+      <c r="AR18" s="488"/>
+      <c r="AS18" s="437" t="s">
+        <v>152</v>
+      </c>
+      <c r="AT18" s="437"/>
+      <c r="AU18" s="437"/>
+      <c r="AV18" s="437"/>
+      <c r="AW18" s="437"/>
+      <c r="AX18" s="437"/>
+      <c r="AY18" s="437"/>
+      <c r="AZ18" s="437"/>
+      <c r="BA18" s="437"/>
+      <c r="BB18" s="437"/>
+      <c r="BC18" s="437"/>
+      <c r="BD18" s="437"/>
+      <c r="BE18" s="437"/>
+      <c r="BF18" s="437"/>
+      <c r="BG18" s="437"/>
+      <c r="BH18" s="437"/>
+      <c r="BI18" s="437"/>
+      <c r="BJ18" s="437"/>
+      <c r="BK18" s="437"/>
+      <c r="BL18" s="437"/>
+      <c r="BM18" s="437"/>
+      <c r="BN18" s="438"/>
+    </row>
+    <row r="19" ht="9" customFormat="1" s="36">
+      <c r="A19" s="58">
+        <v>9</v>
+      </c>
+      <c r="B19" s="446" t="s">
         <v>99</v>
       </c>
-      <c r="C19" s="429"/>
-      <c r="D19" s="429"/>
-      <c r="E19" s="429"/>
-      <c r="F19" s="429"/>
-      <c r="G19" s="429"/>
-      <c r="H19" s="429"/>
-      <c r="I19" s="429"/>
-      <c r="J19" s="429"/>
-      <c r="K19" s="429"/>
-      <c r="L19" s="429"/>
-      <c r="M19" s="429"/>
-      <c r="N19" s="429"/>
-      <c r="O19" s="431"/>
-      <c r="P19" s="454" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q19" s="454"/>
-      <c r="R19" s="454"/>
-      <c r="S19" s="454"/>
-      <c r="T19" s="454"/>
-      <c r="U19" s="454"/>
-      <c r="V19" s="454"/>
-      <c r="W19" s="454"/>
-      <c r="X19" s="454"/>
-      <c r="Y19" s="454"/>
-      <c r="Z19" s="454"/>
-      <c r="AA19" s="454"/>
-      <c r="AB19" s="454"/>
-      <c r="AC19" s="454"/>
-      <c r="AD19" s="454"/>
-      <c r="AE19" s="454"/>
-      <c r="AF19" s="454"/>
-      <c r="AG19" s="454"/>
-      <c r="AH19" s="454"/>
-      <c r="AI19" s="454"/>
-      <c r="AJ19" s="454"/>
-      <c r="AK19" s="454"/>
-      <c r="AL19" s="454"/>
-      <c r="AM19" s="454"/>
-      <c r="AN19" s="454"/>
-      <c r="AO19" s="454"/>
-      <c r="AP19" s="454"/>
-      <c r="AQ19" s="454"/>
-      <c r="AR19" s="454"/>
-      <c r="AS19" s="464" t="s">
-        <v>118</v>
-      </c>
-      <c r="AT19" s="464"/>
-      <c r="AU19" s="464"/>
-      <c r="AV19" s="464"/>
-      <c r="AW19" s="464"/>
-      <c r="AX19" s="464"/>
-      <c r="AY19" s="464"/>
-      <c r="AZ19" s="464"/>
-      <c r="BA19" s="464"/>
-      <c r="BB19" s="464"/>
-      <c r="BC19" s="464"/>
-      <c r="BD19" s="464"/>
-      <c r="BE19" s="464"/>
-      <c r="BF19" s="464"/>
-      <c r="BG19" s="464"/>
-      <c r="BH19" s="464"/>
-      <c r="BI19" s="464"/>
-      <c r="BJ19" s="464"/>
-      <c r="BK19" s="464"/>
-      <c r="BL19" s="464"/>
-      <c r="BM19" s="464"/>
-      <c r="BN19" s="465"/>
-    </row>
-    <row r="20" spans="1:66" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C19" s="447"/>
+      <c r="D19" s="447"/>
+      <c r="E19" s="447"/>
+      <c r="F19" s="447"/>
+      <c r="G19" s="447"/>
+      <c r="H19" s="447"/>
+      <c r="I19" s="447"/>
+      <c r="J19" s="447"/>
+      <c r="K19" s="447"/>
+      <c r="L19" s="447"/>
+      <c r="M19" s="447"/>
+      <c r="N19" s="447"/>
+      <c r="O19" s="448"/>
+      <c r="P19" s="529" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q19" s="530"/>
+      <c r="R19" s="530"/>
+      <c r="S19" s="530"/>
+      <c r="T19" s="530"/>
+      <c r="U19" s="530"/>
+      <c r="V19" s="530"/>
+      <c r="W19" s="530"/>
+      <c r="X19" s="530"/>
+      <c r="Y19" s="530"/>
+      <c r="Z19" s="530"/>
+      <c r="AA19" s="530"/>
+      <c r="AB19" s="530"/>
+      <c r="AC19" s="530"/>
+      <c r="AD19" s="530"/>
+      <c r="AE19" s="530"/>
+      <c r="AF19" s="530"/>
+      <c r="AG19" s="530"/>
+      <c r="AH19" s="530"/>
+      <c r="AI19" s="530"/>
+      <c r="AJ19" s="530"/>
+      <c r="AK19" s="530"/>
+      <c r="AL19" s="530"/>
+      <c r="AM19" s="530"/>
+      <c r="AN19" s="530"/>
+      <c r="AO19" s="530"/>
+      <c r="AP19" s="530"/>
+      <c r="AQ19" s="530"/>
+      <c r="AR19" s="531"/>
+      <c r="AS19" s="452" t="s">
+        <v>104</v>
+      </c>
+      <c r="AT19" s="452"/>
+      <c r="AU19" s="452"/>
+      <c r="AV19" s="452"/>
+      <c r="AW19" s="452"/>
+      <c r="AX19" s="452"/>
+      <c r="AY19" s="452"/>
+      <c r="AZ19" s="452"/>
+      <c r="BA19" s="452"/>
+      <c r="BB19" s="452"/>
+      <c r="BC19" s="452"/>
+      <c r="BD19" s="452"/>
+      <c r="BE19" s="452"/>
+      <c r="BF19" s="452"/>
+      <c r="BG19" s="452"/>
+      <c r="BH19" s="452"/>
+      <c r="BI19" s="452"/>
+      <c r="BJ19" s="452"/>
+      <c r="BK19" s="452"/>
+      <c r="BL19" s="452"/>
+      <c r="BM19" s="452"/>
+      <c r="BN19" s="453"/>
+    </row>
+    <row r="20" customHeight="1" ht="21">
       <c r="A20" s="57">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B20" s="429" t="s">
         <v>99</v>
@@ -22974,65 +23259,65 @@
       <c r="M20" s="429"/>
       <c r="N20" s="429"/>
       <c r="O20" s="431"/>
-      <c r="P20" s="466" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q20" s="466"/>
-      <c r="R20" s="466"/>
-      <c r="S20" s="466"/>
-      <c r="T20" s="466"/>
-      <c r="U20" s="466"/>
-      <c r="V20" s="466"/>
-      <c r="W20" s="466"/>
-      <c r="X20" s="466"/>
-      <c r="Y20" s="466"/>
-      <c r="Z20" s="466"/>
-      <c r="AA20" s="466"/>
-      <c r="AB20" s="466"/>
-      <c r="AC20" s="466"/>
-      <c r="AD20" s="466"/>
-      <c r="AE20" s="466"/>
-      <c r="AF20" s="466"/>
-      <c r="AG20" s="466"/>
-      <c r="AH20" s="466"/>
-      <c r="AI20" s="466"/>
-      <c r="AJ20" s="466"/>
-      <c r="AK20" s="466"/>
-      <c r="AL20" s="466"/>
-      <c r="AM20" s="466"/>
-      <c r="AN20" s="466"/>
-      <c r="AO20" s="466"/>
-      <c r="AP20" s="466"/>
-      <c r="AQ20" s="466"/>
-      <c r="AR20" s="466"/>
-      <c r="AS20" s="467" t="s">
-        <v>106</v>
-      </c>
-      <c r="AT20" s="468"/>
-      <c r="AU20" s="468"/>
-      <c r="AV20" s="468"/>
-      <c r="AW20" s="468"/>
-      <c r="AX20" s="468"/>
-      <c r="AY20" s="468"/>
-      <c r="AZ20" s="468"/>
-      <c r="BA20" s="468"/>
-      <c r="BB20" s="468"/>
-      <c r="BC20" s="468"/>
-      <c r="BD20" s="468"/>
-      <c r="BE20" s="468"/>
-      <c r="BF20" s="468"/>
-      <c r="BG20" s="468"/>
-      <c r="BH20" s="468"/>
-      <c r="BI20" s="468"/>
-      <c r="BJ20" s="468"/>
-      <c r="BK20" s="468"/>
-      <c r="BL20" s="468"/>
-      <c r="BM20" s="468"/>
-      <c r="BN20" s="469"/>
-    </row>
-    <row r="21" spans="1:66" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="P20" s="454" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q20" s="454"/>
+      <c r="R20" s="454"/>
+      <c r="S20" s="454"/>
+      <c r="T20" s="454"/>
+      <c r="U20" s="454"/>
+      <c r="V20" s="454"/>
+      <c r="W20" s="454"/>
+      <c r="X20" s="454"/>
+      <c r="Y20" s="454"/>
+      <c r="Z20" s="454"/>
+      <c r="AA20" s="454"/>
+      <c r="AB20" s="454"/>
+      <c r="AC20" s="454"/>
+      <c r="AD20" s="454"/>
+      <c r="AE20" s="454"/>
+      <c r="AF20" s="454"/>
+      <c r="AG20" s="454"/>
+      <c r="AH20" s="454"/>
+      <c r="AI20" s="454"/>
+      <c r="AJ20" s="454"/>
+      <c r="AK20" s="454"/>
+      <c r="AL20" s="454"/>
+      <c r="AM20" s="454"/>
+      <c r="AN20" s="454"/>
+      <c r="AO20" s="454"/>
+      <c r="AP20" s="454"/>
+      <c r="AQ20" s="454"/>
+      <c r="AR20" s="455"/>
+      <c r="AS20" s="456" t="s">
+        <v>105</v>
+      </c>
+      <c r="AT20" s="457"/>
+      <c r="AU20" s="457"/>
+      <c r="AV20" s="457"/>
+      <c r="AW20" s="457"/>
+      <c r="AX20" s="457"/>
+      <c r="AY20" s="457"/>
+      <c r="AZ20" s="457"/>
+      <c r="BA20" s="457"/>
+      <c r="BB20" s="457"/>
+      <c r="BC20" s="457"/>
+      <c r="BD20" s="457"/>
+      <c r="BE20" s="457"/>
+      <c r="BF20" s="457"/>
+      <c r="BG20" s="457"/>
+      <c r="BH20" s="457"/>
+      <c r="BI20" s="457"/>
+      <c r="BJ20" s="457"/>
+      <c r="BK20" s="457"/>
+      <c r="BL20" s="457"/>
+      <c r="BM20" s="457"/>
+      <c r="BN20" s="458"/>
+    </row>
+    <row r="21" ht="10">
       <c r="A21" s="57">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B21" s="429" t="s">
         <v>99</v>
@@ -23050,109 +23335,513 @@
       <c r="M21" s="429"/>
       <c r="N21" s="429"/>
       <c r="O21" s="431"/>
-      <c r="P21" s="454" t="s">
+      <c r="P21" s="459" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q21" s="460"/>
+      <c r="R21" s="460"/>
+      <c r="S21" s="460"/>
+      <c r="T21" s="460"/>
+      <c r="U21" s="460"/>
+      <c r="V21" s="460"/>
+      <c r="W21" s="460"/>
+      <c r="X21" s="460"/>
+      <c r="Y21" s="460"/>
+      <c r="Z21" s="460"/>
+      <c r="AA21" s="460"/>
+      <c r="AB21" s="460"/>
+      <c r="AC21" s="460"/>
+      <c r="AD21" s="460"/>
+      <c r="AE21" s="460"/>
+      <c r="AF21" s="460"/>
+      <c r="AG21" s="460"/>
+      <c r="AH21" s="460"/>
+      <c r="AI21" s="460"/>
+      <c r="AJ21" s="460"/>
+      <c r="AK21" s="460"/>
+      <c r="AL21" s="460"/>
+      <c r="AM21" s="460"/>
+      <c r="AN21" s="460"/>
+      <c r="AO21" s="460"/>
+      <c r="AP21" s="460"/>
+      <c r="AQ21" s="460"/>
+      <c r="AR21" s="461"/>
+      <c r="AS21" s="462" t="s">
+        <v>134</v>
+      </c>
+      <c r="AT21" s="462"/>
+      <c r="AU21" s="462"/>
+      <c r="AV21" s="462"/>
+      <c r="AW21" s="462"/>
+      <c r="AX21" s="462"/>
+      <c r="AY21" s="462"/>
+      <c r="AZ21" s="462"/>
+      <c r="BA21" s="462"/>
+      <c r="BB21" s="462"/>
+      <c r="BC21" s="462"/>
+      <c r="BD21" s="462"/>
+      <c r="BE21" s="462"/>
+      <c r="BF21" s="462"/>
+      <c r="BG21" s="462"/>
+      <c r="BH21" s="462"/>
+      <c r="BI21" s="462"/>
+      <c r="BJ21" s="462"/>
+      <c r="BK21" s="462"/>
+      <c r="BL21" s="462"/>
+      <c r="BM21" s="462"/>
+      <c r="BN21" s="463"/>
+    </row>
+    <row r="22" ht="21">
+      <c r="A22" s="57"/>
+      <c r="B22" s="429"/>
+      <c r="C22" s="429"/>
+      <c r="D22" s="429"/>
+      <c r="E22" s="429"/>
+      <c r="F22" s="429"/>
+      <c r="G22" s="429"/>
+      <c r="H22" s="429"/>
+      <c r="I22" s="429"/>
+      <c r="J22" s="429"/>
+      <c r="K22" s="429"/>
+      <c r="L22" s="429"/>
+      <c r="M22" s="429"/>
+      <c r="N22" s="429"/>
+      <c r="O22" s="431"/>
+      <c r="P22" s="529" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q22" s="530"/>
+      <c r="R22" s="530"/>
+      <c r="S22" s="530"/>
+      <c r="T22" s="530"/>
+      <c r="U22" s="530"/>
+      <c r="V22" s="530"/>
+      <c r="W22" s="530"/>
+      <c r="X22" s="530"/>
+      <c r="Y22" s="530"/>
+      <c r="Z22" s="530"/>
+      <c r="AA22" s="530"/>
+      <c r="AB22" s="530"/>
+      <c r="AC22" s="530"/>
+      <c r="AD22" s="530"/>
+      <c r="AE22" s="530"/>
+      <c r="AF22" s="530"/>
+      <c r="AG22" s="530"/>
+      <c r="AH22" s="530"/>
+      <c r="AI22" s="530"/>
+      <c r="AJ22" s="530"/>
+      <c r="AK22" s="530"/>
+      <c r="AL22" s="530"/>
+      <c r="AM22" s="530"/>
+      <c r="AN22" s="530"/>
+      <c r="AO22" s="530"/>
+      <c r="AP22" s="530"/>
+      <c r="AQ22" s="530"/>
+      <c r="AR22" s="531"/>
+      <c r="AS22" s="452" t="s">
+        <v>148</v>
+      </c>
+      <c r="AT22" s="452"/>
+      <c r="AU22" s="452"/>
+      <c r="AV22" s="452"/>
+      <c r="AW22" s="452"/>
+      <c r="AX22" s="452"/>
+      <c r="AY22" s="452"/>
+      <c r="AZ22" s="452"/>
+      <c r="BA22" s="452"/>
+      <c r="BB22" s="452"/>
+      <c r="BC22" s="452"/>
+      <c r="BD22" s="452"/>
+      <c r="BE22" s="452"/>
+      <c r="BF22" s="452"/>
+      <c r="BG22" s="452"/>
+      <c r="BH22" s="452"/>
+      <c r="BI22" s="452"/>
+      <c r="BJ22" s="452"/>
+      <c r="BK22" s="452"/>
+      <c r="BL22" s="452"/>
+      <c r="BM22" s="452"/>
+      <c r="BN22" s="453"/>
+    </row>
+    <row r="23" ht="21">
+      <c r="A23" s="57"/>
+      <c r="B23" s="429"/>
+      <c r="C23" s="429"/>
+      <c r="D23" s="429"/>
+      <c r="E23" s="429"/>
+      <c r="F23" s="429"/>
+      <c r="G23" s="429"/>
+      <c r="H23" s="429"/>
+      <c r="I23" s="429"/>
+      <c r="J23" s="429"/>
+      <c r="K23" s="429"/>
+      <c r="L23" s="429"/>
+      <c r="M23" s="429"/>
+      <c r="N23" s="429"/>
+      <c r="O23" s="431"/>
+      <c r="P23" s="449" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q23" s="450"/>
+      <c r="R23" s="450"/>
+      <c r="S23" s="450"/>
+      <c r="T23" s="450"/>
+      <c r="U23" s="450"/>
+      <c r="V23" s="450"/>
+      <c r="W23" s="450"/>
+      <c r="X23" s="450"/>
+      <c r="Y23" s="450"/>
+      <c r="Z23" s="450"/>
+      <c r="AA23" s="450"/>
+      <c r="AB23" s="450"/>
+      <c r="AC23" s="450"/>
+      <c r="AD23" s="450"/>
+      <c r="AE23" s="450"/>
+      <c r="AF23" s="450"/>
+      <c r="AG23" s="450"/>
+      <c r="AH23" s="450"/>
+      <c r="AI23" s="450"/>
+      <c r="AJ23" s="450"/>
+      <c r="AK23" s="450"/>
+      <c r="AL23" s="450"/>
+      <c r="AM23" s="450"/>
+      <c r="AN23" s="450"/>
+      <c r="AO23" s="450"/>
+      <c r="AP23" s="450"/>
+      <c r="AQ23" s="450"/>
+      <c r="AR23" s="451"/>
+      <c r="AS23" s="456" t="s">
+        <v>149</v>
+      </c>
+      <c r="AT23" s="457"/>
+      <c r="AU23" s="457"/>
+      <c r="AV23" s="457"/>
+      <c r="AW23" s="457"/>
+      <c r="AX23" s="457"/>
+      <c r="AY23" s="457"/>
+      <c r="AZ23" s="457"/>
+      <c r="BA23" s="457"/>
+      <c r="BB23" s="457"/>
+      <c r="BC23" s="457"/>
+      <c r="BD23" s="457"/>
+      <c r="BE23" s="457"/>
+      <c r="BF23" s="457"/>
+      <c r="BG23" s="457"/>
+      <c r="BH23" s="457"/>
+      <c r="BI23" s="457"/>
+      <c r="BJ23" s="457"/>
+      <c r="BK23" s="457"/>
+      <c r="BL23" s="457"/>
+      <c r="BM23" s="457"/>
+      <c r="BN23" s="458"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="57"/>
+      <c r="B24" s="429"/>
+      <c r="C24" s="429"/>
+      <c r="D24" s="429"/>
+      <c r="E24" s="429"/>
+      <c r="F24" s="429"/>
+      <c r="G24" s="429"/>
+      <c r="H24" s="429"/>
+      <c r="I24" s="429"/>
+      <c r="J24" s="429"/>
+      <c r="K24" s="429"/>
+      <c r="L24" s="429"/>
+      <c r="M24" s="429"/>
+      <c r="N24" s="429"/>
+      <c r="O24" s="431"/>
+      <c r="P24" s="449" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q24" s="450"/>
+      <c r="R24" s="450"/>
+      <c r="S24" s="450"/>
+      <c r="T24" s="450"/>
+      <c r="U24" s="450"/>
+      <c r="V24" s="450"/>
+      <c r="W24" s="450"/>
+      <c r="X24" s="450"/>
+      <c r="Y24" s="450"/>
+      <c r="Z24" s="450"/>
+      <c r="AA24" s="450"/>
+      <c r="AB24" s="450"/>
+      <c r="AC24" s="450"/>
+      <c r="AD24" s="450"/>
+      <c r="AE24" s="450"/>
+      <c r="AF24" s="450"/>
+      <c r="AG24" s="450"/>
+      <c r="AH24" s="450"/>
+      <c r="AI24" s="450"/>
+      <c r="AJ24" s="450"/>
+      <c r="AK24" s="450"/>
+      <c r="AL24" s="450"/>
+      <c r="AM24" s="450"/>
+      <c r="AN24" s="450"/>
+      <c r="AO24" s="450"/>
+      <c r="AP24" s="450"/>
+      <c r="AQ24" s="450"/>
+      <c r="AR24" s="451"/>
+      <c r="AS24" s="452" t="s">
+        <v>147</v>
+      </c>
+      <c r="AT24" s="452"/>
+      <c r="AU24" s="452"/>
+      <c r="AV24" s="452"/>
+      <c r="AW24" s="452"/>
+      <c r="AX24" s="452"/>
+      <c r="AY24" s="452"/>
+      <c r="AZ24" s="452"/>
+      <c r="BA24" s="452"/>
+      <c r="BB24" s="452"/>
+      <c r="BC24" s="452"/>
+      <c r="BD24" s="452"/>
+      <c r="BE24" s="452"/>
+      <c r="BF24" s="452"/>
+      <c r="BG24" s="452"/>
+      <c r="BH24" s="452"/>
+      <c r="BI24" s="452"/>
+      <c r="BJ24" s="452"/>
+      <c r="BK24" s="452"/>
+      <c r="BL24" s="452"/>
+      <c r="BM24" s="452"/>
+      <c r="BN24" s="453"/>
+    </row>
+    <row r="25" ht="10">
+      <c r="A25" s="57">
+        <v>12</v>
+      </c>
+      <c r="B25" s="429" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="429"/>
+      <c r="D25" s="429"/>
+      <c r="E25" s="429"/>
+      <c r="F25" s="429"/>
+      <c r="G25" s="429"/>
+      <c r="H25" s="429"/>
+      <c r="I25" s="429"/>
+      <c r="J25" s="429"/>
+      <c r="K25" s="429"/>
+      <c r="L25" s="429"/>
+      <c r="M25" s="429"/>
+      <c r="N25" s="429"/>
+      <c r="O25" s="431"/>
+      <c r="P25" s="532" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q25" s="532"/>
+      <c r="R25" s="532"/>
+      <c r="S25" s="532"/>
+      <c r="T25" s="532"/>
+      <c r="U25" s="532"/>
+      <c r="V25" s="532"/>
+      <c r="W25" s="532"/>
+      <c r="X25" s="532"/>
+      <c r="Y25" s="532"/>
+      <c r="Z25" s="532"/>
+      <c r="AA25" s="532"/>
+      <c r="AB25" s="532"/>
+      <c r="AC25" s="532"/>
+      <c r="AD25" s="532"/>
+      <c r="AE25" s="532"/>
+      <c r="AF25" s="532"/>
+      <c r="AG25" s="532"/>
+      <c r="AH25" s="532"/>
+      <c r="AI25" s="532"/>
+      <c r="AJ25" s="532"/>
+      <c r="AK25" s="532"/>
+      <c r="AL25" s="532"/>
+      <c r="AM25" s="532"/>
+      <c r="AN25" s="532"/>
+      <c r="AO25" s="532"/>
+      <c r="AP25" s="532"/>
+      <c r="AQ25" s="532"/>
+      <c r="AR25" s="532"/>
+      <c r="AS25" s="464" t="s">
+        <v>118</v>
+      </c>
+      <c r="AT25" s="464"/>
+      <c r="AU25" s="464"/>
+      <c r="AV25" s="464"/>
+      <c r="AW25" s="464"/>
+      <c r="AX25" s="464"/>
+      <c r="AY25" s="464"/>
+      <c r="AZ25" s="464"/>
+      <c r="BA25" s="464"/>
+      <c r="BB25" s="464"/>
+      <c r="BC25" s="464"/>
+      <c r="BD25" s="464"/>
+      <c r="BE25" s="464"/>
+      <c r="BF25" s="464"/>
+      <c r="BG25" s="464"/>
+      <c r="BH25" s="464"/>
+      <c r="BI25" s="464"/>
+      <c r="BJ25" s="464"/>
+      <c r="BK25" s="464"/>
+      <c r="BL25" s="464"/>
+      <c r="BM25" s="464"/>
+      <c r="BN25" s="465"/>
+    </row>
+    <row r="26" customHeight="1" ht="21">
+      <c r="A26" s="57">
+        <v>13</v>
+      </c>
+      <c r="B26" s="429" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="429"/>
+      <c r="D26" s="429"/>
+      <c r="E26" s="429"/>
+      <c r="F26" s="429"/>
+      <c r="G26" s="429"/>
+      <c r="H26" s="429"/>
+      <c r="I26" s="429"/>
+      <c r="J26" s="429"/>
+      <c r="K26" s="429"/>
+      <c r="L26" s="429"/>
+      <c r="M26" s="429"/>
+      <c r="N26" s="429"/>
+      <c r="O26" s="431"/>
+      <c r="P26" s="466" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q26" s="466"/>
+      <c r="R26" s="466"/>
+      <c r="S26" s="466"/>
+      <c r="T26" s="466"/>
+      <c r="U26" s="466"/>
+      <c r="V26" s="466"/>
+      <c r="W26" s="466"/>
+      <c r="X26" s="466"/>
+      <c r="Y26" s="466"/>
+      <c r="Z26" s="466"/>
+      <c r="AA26" s="466"/>
+      <c r="AB26" s="466"/>
+      <c r="AC26" s="466"/>
+      <c r="AD26" s="466"/>
+      <c r="AE26" s="466"/>
+      <c r="AF26" s="466"/>
+      <c r="AG26" s="466"/>
+      <c r="AH26" s="466"/>
+      <c r="AI26" s="466"/>
+      <c r="AJ26" s="466"/>
+      <c r="AK26" s="466"/>
+      <c r="AL26" s="466"/>
+      <c r="AM26" s="466"/>
+      <c r="AN26" s="466"/>
+      <c r="AO26" s="466"/>
+      <c r="AP26" s="466"/>
+      <c r="AQ26" s="466"/>
+      <c r="AR26" s="466"/>
+      <c r="AS26" s="467" t="s">
+        <v>106</v>
+      </c>
+      <c r="AT26" s="468"/>
+      <c r="AU26" s="468"/>
+      <c r="AV26" s="468"/>
+      <c r="AW26" s="468"/>
+      <c r="AX26" s="468"/>
+      <c r="AY26" s="468"/>
+      <c r="AZ26" s="468"/>
+      <c r="BA26" s="468"/>
+      <c r="BB26" s="468"/>
+      <c r="BC26" s="468"/>
+      <c r="BD26" s="468"/>
+      <c r="BE26" s="468"/>
+      <c r="BF26" s="468"/>
+      <c r="BG26" s="468"/>
+      <c r="BH26" s="468"/>
+      <c r="BI26" s="468"/>
+      <c r="BJ26" s="468"/>
+      <c r="BK26" s="468"/>
+      <c r="BL26" s="468"/>
+      <c r="BM26" s="468"/>
+      <c r="BN26" s="469"/>
+    </row>
+    <row r="27" ht="10">
+      <c r="A27" s="57">
+        <v>14</v>
+      </c>
+      <c r="B27" s="429" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="429"/>
+      <c r="D27" s="429"/>
+      <c r="E27" s="429"/>
+      <c r="F27" s="429"/>
+      <c r="G27" s="429"/>
+      <c r="H27" s="429"/>
+      <c r="I27" s="429"/>
+      <c r="J27" s="429"/>
+      <c r="K27" s="429"/>
+      <c r="L27" s="429"/>
+      <c r="M27" s="429"/>
+      <c r="N27" s="429"/>
+      <c r="O27" s="431"/>
+      <c r="P27" s="454" t="s">
         <v>131</v>
       </c>
-      <c r="Q21" s="454"/>
-      <c r="R21" s="454"/>
-      <c r="S21" s="454"/>
-      <c r="T21" s="454"/>
-      <c r="U21" s="454"/>
-      <c r="V21" s="454"/>
-      <c r="W21" s="454"/>
-      <c r="X21" s="454"/>
-      <c r="Y21" s="454"/>
-      <c r="Z21" s="454"/>
-      <c r="AA21" s="454"/>
-      <c r="AB21" s="454"/>
-      <c r="AC21" s="454"/>
-      <c r="AD21" s="454"/>
-      <c r="AE21" s="454"/>
-      <c r="AF21" s="454"/>
-      <c r="AG21" s="454"/>
-      <c r="AH21" s="454"/>
-      <c r="AI21" s="454"/>
-      <c r="AJ21" s="454"/>
-      <c r="AK21" s="454"/>
-      <c r="AL21" s="454"/>
-      <c r="AM21" s="454"/>
-      <c r="AN21" s="454"/>
-      <c r="AO21" s="454"/>
-      <c r="AP21" s="454"/>
-      <c r="AQ21" s="454"/>
-      <c r="AR21" s="454"/>
-      <c r="AS21" s="464" t="s">
+      <c r="Q27" s="454"/>
+      <c r="R27" s="454"/>
+      <c r="S27" s="454"/>
+      <c r="T27" s="454"/>
+      <c r="U27" s="454"/>
+      <c r="V27" s="454"/>
+      <c r="W27" s="454"/>
+      <c r="X27" s="454"/>
+      <c r="Y27" s="454"/>
+      <c r="Z27" s="454"/>
+      <c r="AA27" s="454"/>
+      <c r="AB27" s="454"/>
+      <c r="AC27" s="454"/>
+      <c r="AD27" s="454"/>
+      <c r="AE27" s="454"/>
+      <c r="AF27" s="454"/>
+      <c r="AG27" s="454"/>
+      <c r="AH27" s="454"/>
+      <c r="AI27" s="454"/>
+      <c r="AJ27" s="454"/>
+      <c r="AK27" s="454"/>
+      <c r="AL27" s="454"/>
+      <c r="AM27" s="454"/>
+      <c r="AN27" s="454"/>
+      <c r="AO27" s="454"/>
+      <c r="AP27" s="454"/>
+      <c r="AQ27" s="454"/>
+      <c r="AR27" s="454"/>
+      <c r="AS27" s="464" t="s">
         <v>135</v>
       </c>
-      <c r="AT21" s="464"/>
-      <c r="AU21" s="464"/>
-      <c r="AV21" s="464"/>
-      <c r="AW21" s="464"/>
-      <c r="AX21" s="464"/>
-      <c r="AY21" s="464"/>
-      <c r="AZ21" s="464"/>
-      <c r="BA21" s="464"/>
-      <c r="BB21" s="464"/>
-      <c r="BC21" s="464"/>
-      <c r="BD21" s="464"/>
-      <c r="BE21" s="464"/>
-      <c r="BF21" s="464"/>
-      <c r="BG21" s="464"/>
-      <c r="BH21" s="464"/>
-      <c r="BI21" s="464"/>
-      <c r="BJ21" s="464"/>
-      <c r="BK21" s="464"/>
-      <c r="BL21" s="464"/>
-      <c r="BM21" s="464"/>
-      <c r="BN21" s="465"/>
+      <c r="AT27" s="464"/>
+      <c r="AU27" s="464"/>
+      <c r="AV27" s="464"/>
+      <c r="AW27" s="464"/>
+      <c r="AX27" s="464"/>
+      <c r="AY27" s="464"/>
+      <c r="AZ27" s="464"/>
+      <c r="BA27" s="464"/>
+      <c r="BB27" s="464"/>
+      <c r="BC27" s="464"/>
+      <c r="BD27" s="464"/>
+      <c r="BE27" s="464"/>
+      <c r="BF27" s="464"/>
+      <c r="BG27" s="464"/>
+      <c r="BH27" s="464"/>
+      <c r="BI27" s="464"/>
+      <c r="BJ27" s="464"/>
+      <c r="BK27" s="464"/>
+      <c r="BL27" s="464"/>
+      <c r="BM27" s="464"/>
+      <c r="BN27" s="465"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
-    <mergeCell ref="B21:O21"/>
-    <mergeCell ref="P21:AR21"/>
-    <mergeCell ref="AS21:BN21"/>
-    <mergeCell ref="B19:O19"/>
-    <mergeCell ref="P19:AR19"/>
-    <mergeCell ref="AS19:BN19"/>
-    <mergeCell ref="B20:O20"/>
-    <mergeCell ref="P20:AR20"/>
-    <mergeCell ref="AS20:BN20"/>
-    <mergeCell ref="B17:O17"/>
-    <mergeCell ref="P17:AR17"/>
-    <mergeCell ref="AS17:BN17"/>
-    <mergeCell ref="B18:O18"/>
-    <mergeCell ref="P18:AR18"/>
-    <mergeCell ref="AS18:BN18"/>
-    <mergeCell ref="B15:O15"/>
-    <mergeCell ref="P15:AR15"/>
-    <mergeCell ref="AS15:BN15"/>
-    <mergeCell ref="B16:O16"/>
-    <mergeCell ref="P16:AR16"/>
-    <mergeCell ref="AS16:BN16"/>
-    <mergeCell ref="B13:O13"/>
-    <mergeCell ref="P13:AR13"/>
-    <mergeCell ref="AS13:BN13"/>
-    <mergeCell ref="B14:O14"/>
-    <mergeCell ref="P14:AR14"/>
-    <mergeCell ref="AS14:BN14"/>
-    <mergeCell ref="B11:O11"/>
-    <mergeCell ref="P11:AR11"/>
-    <mergeCell ref="AS11:BN11"/>
-    <mergeCell ref="B12:O12"/>
-    <mergeCell ref="P12:AR12"/>
-    <mergeCell ref="AS12:BN12"/>
-    <mergeCell ref="B9:O9"/>
-    <mergeCell ref="P9:AR9"/>
-    <mergeCell ref="AS9:BN9"/>
-    <mergeCell ref="B10:O10"/>
-    <mergeCell ref="P10:AR10"/>
-    <mergeCell ref="AS10:BN10"/>
-    <mergeCell ref="B7:O7"/>
-    <mergeCell ref="P7:AR7"/>
-    <mergeCell ref="AS7:BN7"/>
-    <mergeCell ref="B8:O8"/>
-    <mergeCell ref="P8:AR8"/>
-    <mergeCell ref="AS8:BN8"/>
+  <mergeCells count="74">
+    <mergeCell ref="A2:AA3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:O4"/>
+    <mergeCell ref="P4:U4"/>
+    <mergeCell ref="V4:AV4"/>
     <mergeCell ref="AW4:AY4"/>
     <mergeCell ref="AZ4:BE4"/>
     <mergeCell ref="BF4:BH4"/>
@@ -23165,11 +23854,63 @@
     <mergeCell ref="AZ5:BE5"/>
     <mergeCell ref="BF5:BH5"/>
     <mergeCell ref="BI5:BN5"/>
-    <mergeCell ref="A2:AA3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:O4"/>
-    <mergeCell ref="P4:U4"/>
-    <mergeCell ref="V4:AV4"/>
+    <mergeCell ref="B7:O7"/>
+    <mergeCell ref="P7:AR7"/>
+    <mergeCell ref="AS7:BN7"/>
+    <mergeCell ref="B8:O8"/>
+    <mergeCell ref="P8:AR8"/>
+    <mergeCell ref="AS8:BN8"/>
+    <mergeCell ref="B9:O9"/>
+    <mergeCell ref="P9:AR9"/>
+    <mergeCell ref="AS9:BN9"/>
+    <mergeCell ref="B10:O10"/>
+    <mergeCell ref="P10:AR10"/>
+    <mergeCell ref="AS10:BN10"/>
+    <mergeCell ref="B11:O11"/>
+    <mergeCell ref="P11:AR11"/>
+    <mergeCell ref="AS11:BN11"/>
+    <mergeCell ref="B12:O12"/>
+    <mergeCell ref="P12:AR12"/>
+    <mergeCell ref="AS12:BN12"/>
+    <mergeCell ref="B13:O13"/>
+    <mergeCell ref="P13:AR13"/>
+    <mergeCell ref="AS13:BN13"/>
+    <mergeCell ref="B14:O14"/>
+    <mergeCell ref="P14:AR14"/>
+    <mergeCell ref="AS14:BN14"/>
+    <mergeCell ref="B15:O15"/>
+    <mergeCell ref="P15:AR15"/>
+    <mergeCell ref="AS15:BN15"/>
+    <mergeCell ref="P16:AR16"/>
+    <mergeCell ref="AS16:BN16"/>
+    <mergeCell ref="P17:AR17"/>
+    <mergeCell ref="AS17:BN17"/>
+    <mergeCell ref="P18:AR18"/>
+    <mergeCell ref="AS18:BN18"/>
+    <mergeCell ref="B19:O19"/>
+    <mergeCell ref="P19:AR19"/>
+    <mergeCell ref="AS19:BN19"/>
+    <mergeCell ref="B20:O20"/>
+    <mergeCell ref="P20:AR20"/>
+    <mergeCell ref="AS20:BN20"/>
+    <mergeCell ref="B21:O21"/>
+    <mergeCell ref="P21:AR21"/>
+    <mergeCell ref="AS21:BN21"/>
+    <mergeCell ref="P22:AR22"/>
+    <mergeCell ref="AS22:BN22"/>
+    <mergeCell ref="P23:AR23"/>
+    <mergeCell ref="AS23:BN23"/>
+    <mergeCell ref="P24:AR24"/>
+    <mergeCell ref="AS24:BN24"/>
+    <mergeCell ref="B25:O25"/>
+    <mergeCell ref="P25:AR25"/>
+    <mergeCell ref="AS25:BN25"/>
+    <mergeCell ref="B26:O26"/>
+    <mergeCell ref="P26:AR26"/>
+    <mergeCell ref="AS26:BN26"/>
+    <mergeCell ref="B27:O27"/>
+    <mergeCell ref="P27:AR27"/>
+    <mergeCell ref="AS27:BN27"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
